--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="104">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -62,36 +62,6 @@
     <t>'OdorD'</t>
   </si>
   <si>
-    <t>'OdorDelay'</t>
-  </si>
-  <si>
-    <t>'OdorTime'</t>
-  </si>
-  <si>
-    <t>'RewardDelay'</t>
-  </si>
-  <si>
-    <t>'InfoBigDrops'</t>
-  </si>
-  <si>
-    <t>'InfoSmallDrops'</t>
-  </si>
-  <si>
-    <t>'RandBigDrops'</t>
-  </si>
-  <si>
-    <t>'RandSmallDrops'</t>
-  </si>
-  <si>
-    <t>'InfoRewardProb'</t>
-  </si>
-  <si>
-    <t>'RandRewardProb'</t>
-  </si>
-  <si>
-    <t>'GracePeriod'</t>
-  </si>
-  <si>
     <t>'Interval'</t>
   </si>
   <si>
@@ -246,13 +216,136 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201020_162352.mat'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201021_122412.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201013_102926.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201014_103353.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201014_104211.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201015_101140.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201016_102403.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201016_104533.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201019_113148.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201019_113902.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201020_122122.mat'</t>
+  </si>
+  <si>
+    <t>Exp_Day</t>
+  </si>
+  <si>
+    <t>day trial length (s)</t>
+  </si>
+  <si>
+    <t>day forced info</t>
+  </si>
+  <si>
+    <t>day forced rand</t>
+  </si>
+  <si>
+    <t>day choice info</t>
+  </si>
+  <si>
+    <t>day choice rand</t>
+  </si>
+  <si>
+    <t>day info</t>
+  </si>
+  <si>
+    <t>day rand</t>
+  </si>
+  <si>
+    <t>total info</t>
+  </si>
+  <si>
+    <t>total rand</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>'20201021'</t>
+  </si>
+  <si>
+    <t>'20201013'</t>
+  </si>
+  <si>
+    <t>'20201014'</t>
+  </si>
+  <si>
+    <t>'20201015'</t>
+  </si>
+  <si>
+    <t>'20201016'</t>
+  </si>
+  <si>
+    <t>'20201019'</t>
+  </si>
+  <si>
+    <t>'20201020'</t>
+  </si>
+  <si>
+    <t>'20201012'</t>
+  </si>
+  <si>
+    <t>Day Trials</t>
+  </si>
+  <si>
+    <t>Day Total Time</t>
+  </si>
+  <si>
+    <t>Odor Delay'</t>
+  </si>
+  <si>
+    <t>Odor Time'</t>
+  </si>
+  <si>
+    <t>Reward Delay'</t>
+  </si>
+  <si>
+    <t>InfoBig Drops'</t>
+  </si>
+  <si>
+    <t>InfoSmall Drops'</t>
+  </si>
+  <si>
+    <t>RandBig Drops'</t>
+  </si>
+  <si>
+    <t>RandSmall Drops'</t>
+  </si>
+  <si>
+    <t>Info Reward Prob'</t>
+  </si>
+  <si>
+    <t>Rand Reward Prob'</t>
+  </si>
+  <si>
+    <t>Grace Period'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +378,15 @@
       <name val="arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,7 +450,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,307 +746,2214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" style="1"/>
-    <col min="26" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:63" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>400</v>
+      </c>
+      <c r="BK1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>36.790759999999999</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.31343283582089598</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>67</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>2207.4456</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>AZ2/AY2</f>
+        <v>32.94694925373134</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>11</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>10</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <f>SUM(BB2,BD2)</f>
+        <v>11</v>
+      </c>
+      <c r="BG2" s="1">
+        <f>SUM(BC2,BE2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>5.3067900000000003</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="12">
+        <f t="shared" ref="AY3:AY12" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>85</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>2789.443900000002</v>
+      </c>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA12" si="2">AZ3/AY3</f>
+        <v>32.816987058823557</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>31</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC12" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>30</v>
+      </c>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <f t="shared" ref="BF3:BF12" si="7">SUM(BB3,BD3)</f>
+        <v>31</v>
+      </c>
+      <c r="BG3" s="1">
+        <f t="shared" ref="BG3:BG12" si="8">SUM(BC3,BE3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>41.183941666666698</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.840425531914894</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.79032258064516103</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0.721518987341772</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>72</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>136</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>208</v>
+      </c>
+      <c r="AY4" s="12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f t="shared" si="1"/>
+        <v>2789.443900000002</v>
+      </c>
+      <c r="BA4" s="12">
+        <f t="shared" si="2"/>
+        <v>32.816987058823557</v>
+      </c>
+      <c r="BB4" s="12">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="BC4" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="1">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="BG4" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>71</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>40.919125000000001</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.86585365853658502</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>41</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>56</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>96</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>152</v>
+      </c>
+      <c r="AY5" s="12">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="1"/>
+        <v>2455.1475</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" si="2"/>
+        <v>34.579542253521126</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="BG5" s="1">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>52</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>21.3446583333333</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.91228070175438603</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.95652173913043503</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>19</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>96</v>
+      </c>
+      <c r="AY6" s="12">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="1"/>
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="2"/>
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>58.589100000000002</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.90510948905109501</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.96226415094339601</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.86904761904761896</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="1">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AO7" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.717741935483871</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>208</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>384</v>
+      </c>
+      <c r="AY7" s="12">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="1"/>
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="2"/>
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1.0184883333333301</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AY8" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>1196.3719000000003</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>28.485045238095246</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="BC8" s="12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>9.4605216666666703</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>1196.3719000000003</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>28.485045238095246</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>9.4605216666666703</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>1196.3719000000003</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>28.485045238095246</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BG10" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>187</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>69.735161666666698</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.86574074074074103</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.80508474576271205</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.93877551020408201</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>95</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>92</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>88</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>85</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.925133689839572</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>192</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>416</v>
+      </c>
+      <c r="AY11" s="12">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="1"/>
+        <v>4184.1097000000018</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>22.374918181818192</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="BG11" s="1">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X2" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>274</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>119.86539</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.93515358361774803</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0.913333333333333</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.94444444444444398</v>
-      </c>
-      <c r="AI2" s="1">
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>285</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>124.933771666667</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.91639871382636695</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>0.98113207547169801</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>85</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK12" s="1">
+        <v>144</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>89</v>
+      </c>
+      <c r="AM12" s="1">
         <v>52</v>
       </c>
-      <c r="AM2" s="1">
-        <v>84</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AN12" s="1">
+        <v>88</v>
+      </c>
+      <c r="AO12" s="1">
         <v>52</v>
       </c>
-      <c r="AO2" s="1">
-        <v>82</v>
-      </c>
-      <c r="AP2" s="1">
+      <c r="AP12" s="1">
+        <v>89</v>
+      </c>
+      <c r="AQ12" s="1">
         <v>52</v>
       </c>
-      <c r="AQ2" s="8">
-        <v>0.61194029850746301</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.98540145985401495</v>
-      </c>
-      <c r="AS2" s="1">
+      <c r="AR12" s="1">
+        <v>0.63120567375886505</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.98596491228070204</v>
+      </c>
+      <c r="AT12" s="1">
         <v>576</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU12" s="1">
         <v>336</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AV12" s="1">
         <v>912</v>
+      </c>
+      <c r="AY12" s="12">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="1"/>
+        <v>7496.0263000000195</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="2"/>
+        <v>26.301846666666734</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="BF12" s="1">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="BG12" s="1">
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -939,387 +2964,474 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:BK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" style="1"/>
-    <col min="26" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AX1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>358</v>
+      </c>
+      <c r="BK1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>54.513476666666698</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="1">
         <v>32</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AN2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS2" s="8">
+        <v>0.31481481481481499</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>54</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>3270.8086000000017</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>AZ2/AY2</f>
+        <v>60.570529629629661</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>9</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <f>SUM(BB2,BD2)</f>
+        <v>9</v>
+      </c>
+      <c r="BG2" s="1">
+        <f>SUM(BC2,BE2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q3" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X2" s="1">
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="1">
         <v>20</v>
       </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>54.513476666666698</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.84375</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0.94117647058823495</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>22</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>32</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.31481481481481499</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X3" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4</v>
-      </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -1331,138 +3443,177 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>120</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>70.761811666666702</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>0.85714285714285698</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>0.88235294117647101</v>
       </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
       <c r="AK3" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>60</v>
       </c>
       <c r="AM3" s="1">
+        <v>60</v>
+      </c>
+      <c r="AN3" s="1">
         <v>43</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="1">
         <v>44</v>
       </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
       <c r="AP3" s="1">
         <v>0</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR3" s="1">
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="1">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="1">
         <v>176</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AU3" s="1">
         <v>208</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AV3" s="1">
         <v>384</v>
       </c>
+      <c r="AY3" s="12">
+        <f t="shared" ref="AY3:AY9" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>120</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ9" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>4245.708700000002</v>
+      </c>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA9" si="2">AZ3/AY3</f>
+        <v>35.380905833333351</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB9" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>43</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC9" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>44</v>
+      </c>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD9" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE9" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <f t="shared" ref="BF3:BF9" si="7">SUM(BB3,BD3)</f>
+        <v>43</v>
+      </c>
+      <c r="BG3" s="1">
+        <f t="shared" ref="BG3:BG9" si="8">SUM(BC3,BE3)</f>
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0.25</v>
       </c>
       <c r="X4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" s="1">
         <v>20</v>
       </c>
-      <c r="Y4" s="1">
-        <v>4</v>
-      </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -1474,138 +3625,177 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>25</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>11.339591666666699</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>0.625</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>0.77777777777777801</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
       <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
         <v>11</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>14</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>11</v>
       </c>
       <c r="AN4" s="1">
         <v>11</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP4" s="1">
         <v>0</v>
       </c>
-      <c r="AQ4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR4" s="1">
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="1">
         <v>0.88</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <v>48</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>32</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV4" s="1">
         <v>80</v>
       </c>
+      <c r="AY4" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f t="shared" si="1"/>
+        <v>4386.5587000000023</v>
+      </c>
+      <c r="BA4" s="12">
+        <f t="shared" si="2"/>
+        <v>36.554655833333349</v>
+      </c>
+      <c r="BB4" s="12">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="BC4" s="12">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BF4" s="1">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="BG4" s="1">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>1.2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0.25</v>
       </c>
       <c r="X5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="1">
         <v>20</v>
       </c>
-      <c r="Y5" s="1">
-        <v>4</v>
-      </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -1617,138 +3807,177 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>95</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>61.76972</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>0.87962962962962998</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>0.94</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>0.931034482758621</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>0.72413793103448298</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>47</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>27</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>21</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>27</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AO5" s="1">
         <v>20</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP5" s="1">
         <v>27</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>20</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AR5" s="1">
         <v>0.57446808510638303</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AS5" s="1">
         <v>0.98947368421052595</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>208</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>112</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV5" s="1">
         <v>320</v>
       </c>
+      <c r="AY5" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="1"/>
+        <v>4386.5587000000023</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" si="2"/>
+        <v>36.554655833333349</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="BF5" s="1">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="BG5" s="1">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>1.2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="1">
-        <v>4</v>
-      </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>0.25</v>
       </c>
       <c r="X6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="1">
         <v>20</v>
       </c>
-      <c r="Y6" s="1">
-        <v>4</v>
-      </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
@@ -1760,138 +3989,177 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>195</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>109.859396666667</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>0.76171875</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>0.74590163934426201</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>0.77083333333333304</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>0.77906976744186096</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>91</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>37</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>67</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <v>37</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>50</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AP6" s="1">
         <v>55</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>33</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" s="1">
         <v>0.625</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <v>0.89743589743589802</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT6" s="1">
         <v>336</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>240</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV6" s="1">
         <v>576</v>
       </c>
+      <c r="AY6" s="12">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="1"/>
+        <v>6591.5638000000199</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="2"/>
+        <v>33.802891282051384</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BF6" s="1">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>1.2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="1">
-        <v>4</v>
-      </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0.25</v>
       </c>
       <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
         <v>20</v>
       </c>
-      <c r="Y7" s="1">
-        <v>4</v>
-      </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -1903,138 +4171,177 @@
         <v>0</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
         <v>131</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>89.381069999999994</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>0.55508474576271205</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>0.46428571428571402</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>0.76744186046511598</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>0.62264150943396201</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>65</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>33</v>
       </c>
       <c r="AL7" s="1">
         <v>33</v>
       </c>
       <c r="AM7" s="1">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="1">
         <v>27</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <v>32</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AP7" s="1">
         <v>24</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>34</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AR7" s="1">
         <v>0.41379310344827602</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS7" s="1">
         <v>0.89312977099236701</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>80</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>176</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>256</v>
       </c>
+      <c r="AY7" s="12">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="1"/>
+        <v>5362.8642</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="2"/>
+        <v>40.937894656488552</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="BF7" s="1">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>1.2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="1">
-        <v>4</v>
-      </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0.25</v>
       </c>
       <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
         <v>20</v>
       </c>
-      <c r="Y8" s="1">
-        <v>4</v>
-      </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -2046,58 +4353,279 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>108</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>53.381906666666701</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>0.77697841726618699</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>0.71232876712328796</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>0.81578947368421095</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>0.89285714285714302</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>52</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>31</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>25</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>29</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO8" s="1">
         <v>23</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AP8" s="1">
         <v>31</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>21</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" s="1">
         <v>0.59615384615384603</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <v>0.96296296296296302</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>240</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>176</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AV8" s="1">
         <v>416</v>
+      </c>
+      <c r="AY8" s="12">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>3202.9144000000019</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>29.656614814814834</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="BF8" s="1">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>92</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>43.5097916666667</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.86792452830188704</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.85365853658536595</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>26</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>27</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.84782608695652195</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>144</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>320</v>
+      </c>
+      <c r="AY9" s="12">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>2610.5875000000019</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>28.375951086956544</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="BF9" s="1">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2108,248 +4636,296 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" style="1"/>
-    <col min="26" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="31" width="8.6640625" style="1"/>
-    <col min="32" max="35" width="8.6640625" style="8"/>
-    <col min="36" max="42" width="8.6640625" style="1"/>
-    <col min="43" max="44" width="8.6640625" style="8"/>
-    <col min="45" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.6640625" style="1"/>
+    <col min="33" max="36" width="8.6640625" style="8"/>
+    <col min="37" max="43" width="8.6640625" style="1"/>
+    <col min="44" max="45" width="8.6640625" style="8"/>
+    <col min="46" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>519</v>
+      </c>
+      <c r="BK1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1">
         <v>1000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>1.2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>10</v>
       </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V2" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
         <v>0.25</v>
       </c>
       <c r="X2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" s="1">
         <v>10</v>
       </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="1">
         <v>0</v>
@@ -2361,14 +4937,14 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
         <v>5</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>1.8584383333333301</v>
       </c>
-      <c r="AF2" s="8">
-        <v>1</v>
-      </c>
       <c r="AG2" s="8">
         <v>1</v>
       </c>
@@ -2378,14 +4954,14 @@
       <c r="AI2" s="8">
         <v>1</v>
       </c>
-      <c r="AJ2" s="1">
-        <v>2</v>
+      <c r="AJ2" s="8">
+        <v>1</v>
       </c>
       <c r="AK2" s="1">
         <v>2</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" s="1">
         <v>1</v>
@@ -2399,100 +4975,139 @@
       <c r="AP2" s="1">
         <v>1</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="8">
         <v>0.5</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AS2" s="8">
         <v>0.8</v>
       </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
       <c r="AT2" s="1">
         <v>0</v>
       </c>
       <c r="AU2" s="1">
         <v>0</v>
       </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>111.50629999999981</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>AZ2/AY2</f>
+        <v>22.301259999999964</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <f>SUM(BB2,BD2)</f>
+        <v>2</v>
+      </c>
+      <c r="BG2" s="1">
+        <f>SUM(BC2,BE2)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>0.25</v>
       </c>
       <c r="X3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="1">
         <v>10</v>
       </c>
-      <c r="Y3" s="1">
-        <v>4</v>
-      </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -2504,138 +5119,177 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1">
         <v>1.6240033333333299</v>
       </c>
-      <c r="AF3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>49</v>
+      <c r="AG3" s="8">
+        <v>1</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR3" s="8">
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
         <v>0.5</v>
       </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
       <c r="AT3" s="1">
         <v>0</v>
       </c>
       <c r="AU3" s="1">
         <v>0</v>
       </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="12">
+        <f t="shared" ref="AY3:AY11" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>76</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA11" si="2">AZ3/AY3</f>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>18</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC11" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>18</v>
+      </c>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BF3" s="1">
+        <f t="shared" ref="BF3:BF11" si="7">SUM(BB3,BD3)</f>
+        <v>36</v>
+      </c>
+      <c r="BG3" s="1">
+        <f t="shared" ref="BG3:BG11" si="8">SUM(BC3,BE3)</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0.25</v>
       </c>
       <c r="X4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" s="1">
         <v>10</v>
       </c>
-      <c r="Y4" s="1">
-        <v>4</v>
-      </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -2647,138 +5301,177 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>15</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>18.224824999999999</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AG4" s="8">
         <v>0.88235294117647101</v>
       </c>
-      <c r="AG4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f t="shared" si="1"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BA4" s="12">
+        <f t="shared" si="2"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BB4" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="BC4" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF4" s="1">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BG4" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI4" s="8">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>11</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>1.2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0.25</v>
       </c>
       <c r="X5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="1">
         <v>10</v>
       </c>
-      <c r="Y5" s="1">
-        <v>4</v>
-      </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -2790,138 +5483,177 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>38</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>25.117891666666701</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AG5" s="8">
         <v>0.82608695652173902</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AH5" s="8">
         <v>0.86956521739130399</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AI5" s="8">
         <v>0.78260869565217395</v>
       </c>
-      <c r="AI5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="1">
         <v>20</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>18</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
       <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
         <v>18</v>
       </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
       <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
         <v>18</v>
       </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>1</v>
+      <c r="AQ5" s="1">
+        <v>0</v>
       </c>
       <c r="AR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="8">
         <v>0.94736842105263197</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>80</v>
       </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
       <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
         <v>80</v>
       </c>
+      <c r="AY5" s="12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="1"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" si="2"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF5" s="1">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BG5" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>1.2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="1">
-        <v>4</v>
-      </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>0.25</v>
       </c>
       <c r="X6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="Y6" s="1">
-        <v>4</v>
-      </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
@@ -2933,138 +5665,177 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>21</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>28.29813</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AG6" s="8">
         <v>0.67741935483870996</v>
       </c>
-      <c r="AG6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI6" s="8">
+      <c r="AH6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="8">
         <v>0.54545454545454497</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>9</v>
       </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
       <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
         <v>12</v>
       </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
       <c r="AN6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>4</v>
       </c>
       <c r="AR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="8">
         <v>0.28571428571428598</v>
       </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
       <c r="AT6" s="1">
         <v>0</v>
       </c>
       <c r="AU6" s="1">
         <v>0</v>
       </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="1"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="2"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF6" s="1">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>1.2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="1">
-        <v>4</v>
-      </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0.25</v>
       </c>
       <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="Y7" s="1">
-        <v>4</v>
-      </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -3076,138 +5847,177 @@
         <v>0</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
         <v>101</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>59.931010000000001</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AG7" s="8">
         <v>0.92660550458715596</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AH7" s="8">
         <v>0.92592592592592604</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AI7" s="8">
         <v>0.87878787878787901</v>
       </c>
-      <c r="AI7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1">
         <v>50</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>29</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>22</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <v>29</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <v>14</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AP7" s="1">
         <v>27</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>14</v>
       </c>
-      <c r="AQ7" s="8">
+      <c r="AR7" s="8">
         <v>0.65853658536585402</v>
       </c>
-      <c r="AR7" s="8">
+      <c r="AS7" s="8">
         <v>0.83168316831683198</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>144</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>96</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>240</v>
       </c>
+      <c r="AY7" s="12">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="1"/>
+        <v>3595.8606</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="2"/>
+        <v>35.602580198019801</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="BF7" s="1">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>1.2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="1">
-        <v>4</v>
-      </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0.25</v>
       </c>
       <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="Y8" s="1">
-        <v>4</v>
-      </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -3219,138 +6029,177 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>188</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>88.968711666666707</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AG8" s="8">
         <v>0.85454545454545505</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AH8" s="8">
         <v>0.83050847457627097</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AI8" s="8">
         <v>0.87931034482758597</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AJ8" s="8">
         <v>0.88636363636363602</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>98</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>51</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>39</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>48</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO8" s="1">
         <v>33</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AP8" s="1">
         <v>49</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>35</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AR8" s="8">
         <v>0.58333333333333304</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AS8" s="8">
         <v>0.87765957446808496</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>384</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>240</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AV8" s="1">
         <v>624</v>
       </c>
+      <c r="AY8" s="12">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>5338.1227000000026</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>28.394269680851078</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BF8" s="1">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
         <v>1000</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>1.2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>10</v>
       </c>
-      <c r="R9" s="1">
-        <v>4</v>
-      </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>0.25</v>
       </c>
       <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
         <v>10</v>
       </c>
-      <c r="Y9" s="1">
-        <v>4</v>
-      </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -3362,138 +6211,177 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>231</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>95.945305000000005</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AG9" s="8">
         <v>0.90588235294117703</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AH9" s="8">
         <v>0.86524822695035497</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AI9" s="8">
         <v>0.94736842105263197</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AJ9" s="8">
         <v>0.97368421052631604</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>122</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>72</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>37</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>70</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>33</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AP9" s="1">
         <v>73</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <v>34</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AR9" s="8">
         <v>0.68224299065420602</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AS9" s="8">
         <v>0.90909090909090895</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AT9" s="1">
         <v>432</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <v>256</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AV9" s="1">
         <v>688</v>
       </c>
+      <c r="AY9" s="12">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>5756.7183000000005</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>24.920858441558444</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="BF9" s="1">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1">
         <v>1000</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>1.2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>10</v>
       </c>
-      <c r="R10" s="1">
-        <v>4</v>
-      </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V10" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
         <v>0.25</v>
       </c>
       <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
         <v>10</v>
       </c>
-      <c r="Y10" s="1">
-        <v>4</v>
-      </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -3505,138 +6393,177 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
         <v>193</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AF10" s="1">
         <v>85.393709999999999</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AG10" s="8">
         <v>0.67482517482517501</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AH10" s="8">
         <v>0.52459016393442603</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AI10" s="8">
         <v>0.96551724137931005</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AJ10" s="8">
         <v>0.91111111111111098</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <v>96</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>56</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>41</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <v>54</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <v>40</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AP10" s="1">
         <v>54</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <v>39</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AR10" s="8">
         <v>0.58064516129032295</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AS10" s="8">
         <v>0.96891191709844604</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AT10" s="1">
         <v>304</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <v>288</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AV10" s="1">
         <v>592</v>
       </c>
+      <c r="AY10" s="12">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>5123.6225999999997</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>26.547267357512951</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BF10" s="1">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="BG10" s="1">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1">
+        <v>55</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
         <v>1000</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>1.2</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>10</v>
       </c>
-      <c r="R11" s="1">
-        <v>4</v>
-      </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V11" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
         <v>0.25</v>
       </c>
       <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
         <v>10</v>
       </c>
-      <c r="Y11" s="1">
-        <v>4</v>
-      </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
@@ -3648,58 +6575,97 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
         <v>172</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AF11" s="1">
         <v>77.790121666666707</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AG11" s="8">
         <v>0.86868686868686895</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AH11" s="8">
         <v>0.81188118811881205</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AI11" s="8">
         <v>0.89361702127659604</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AJ11" s="8">
         <v>0.96</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <v>82</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>42</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>48</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AN11" s="1">
         <v>40</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AO11" s="1">
         <v>34</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AP11" s="1">
         <v>37</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <v>36</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AR11" s="8">
         <v>0.50684931506849296</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AS11" s="8">
         <v>0.85465116279069797</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AT11" s="1">
         <v>336</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AU11" s="1">
         <v>320</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AV11" s="1">
         <v>656</v>
+      </c>
+      <c r="AY11" s="12">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="1"/>
+        <v>4667.4073000000026</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>27.136088953488386</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="BF11" s="1">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="BG11" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3710,387 +6676,474 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:BK8"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
-    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" style="1"/>
-    <col min="26" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AX1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>551</v>
+      </c>
+      <c r="BK1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>14.47269</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.28169014084506999</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="AJ2" s="1">
+        <v>0.38709677419354799</v>
+      </c>
+      <c r="AK2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
         <v>10</v>
       </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>14.47269</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.28169014084506999</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0.38709677419354799</v>
-      </c>
-      <c r="AJ2" s="1">
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
         <v>8</v>
       </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>0</v>
-      </c>
       <c r="AR2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="8">
         <v>0.9</v>
       </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
       <c r="AT2" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1">
         <v>16</v>
       </c>
+      <c r="AV2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>868.3614</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>AZ2/AY2</f>
+        <v>43.41807</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>10</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BF2" s="1">
+        <f>SUM(BB2,BD2)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <f>SUM(BC2,BE2)</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
       <c r="M3" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.2</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
         <v>0.25</v>
       </c>
       <c r="X3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="1">
         <v>10</v>
       </c>
-      <c r="Y3" s="1">
-        <v>4</v>
-      </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1">
         <v>0</v>
@@ -4102,138 +7155,141 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>175</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>89.706126666666705</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>0.54012345679012297</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <v>0.48618784530386699</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>0.82692307692307698</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>0.48351648351648402</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AK3" s="1">
         <v>88</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>43</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>44</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN3" s="1">
         <v>37</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="1">
         <v>39</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="1">
         <v>41</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AQ3" s="1">
         <v>43</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AR3" s="1">
         <v>0.48809523809523803</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AS3" s="1">
         <v>0.91428571428571404</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="1">
         <v>208</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AU3" s="1">
         <v>272</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AV3" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
       <c r="M4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0.25</v>
       </c>
       <c r="X4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" s="1">
         <v>10</v>
       </c>
-      <c r="Y4" s="1">
-        <v>4</v>
-      </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
@@ -4245,138 +7301,141 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>238</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>113.500678333333</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>0.56801909307875897</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>0.57865168539325795</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>0.68027210884353695</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>0.37234042553191499</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>103</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>100</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>35</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AN4" s="1">
         <v>72</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="1">
         <v>27</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="1">
         <v>70</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>28</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AR4" s="1">
         <v>0.71428571428571397</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AS4" s="1">
         <v>0.82773109243697496</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT4" s="1">
         <v>384</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>144</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV4" s="1">
         <v>528</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1">
+        <v>59</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
       <c r="M5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>1.2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>0.25</v>
       </c>
       <c r="X5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="1">
         <v>10</v>
       </c>
-      <c r="Y5" s="1">
-        <v>4</v>
-      </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
@@ -4388,138 +7447,141 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>178</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>101.370388333333</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>0.33521657250470799</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>0.37719298245614002</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>0.36448598130841098</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>0.27040816326530598</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>86</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>39</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>53</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>39</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AO5" s="1">
         <v>46</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP5" s="1">
         <v>33</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>48</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AR5" s="1">
         <v>0.407407407407407</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AS5" s="1">
         <v>0.93258426966292096</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="1">
         <v>256</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>288</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV5" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
       <c r="M6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>1.2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="1">
-        <v>4</v>
-      </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>0.25</v>
       </c>
       <c r="X6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="1">
         <v>10</v>
       </c>
-      <c r="Y6" s="1">
-        <v>4</v>
-      </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
@@ -4531,138 +7593,141 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>219</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>76.380816666666703</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>0.61516853932584303</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>0.71052631578947401</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>0.60493827160493796</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>0.50406504065040703</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>108</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>49</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>62</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <v>49</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>61</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AP6" s="1">
         <v>47</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>60</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR6" s="1">
         <v>0.43925233644859801</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS6" s="1">
         <v>0.99086757990867602</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>368</v>
       </c>
       <c r="AT6" s="1">
         <v>368</v>
       </c>
       <c r="AU6" s="1">
+        <v>368</v>
+      </c>
+      <c r="AV6" s="1">
         <v>736</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>1.2</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="1">
-        <v>4</v>
-      </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
         <v>0.25</v>
       </c>
       <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
         <v>10</v>
       </c>
-      <c r="Y7" s="1">
-        <v>4</v>
-      </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
@@ -4674,138 +7739,141 @@
         <v>0</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
         <v>179</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>71.621286666666705</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>0.628070175438596</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>0.63503649635036497</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>0.59090909090909105</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>87</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>40</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>52</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <v>40</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <v>51</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AP7" s="1">
         <v>37</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>50</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AR7" s="1">
         <v>0.42528735632183901</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS7" s="1">
         <v>0.994413407821229</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>256</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>336</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>1.2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="1">
-        <v>4</v>
-      </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V8" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0.25</v>
       </c>
       <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
         <v>10</v>
       </c>
-      <c r="Y8" s="1">
-        <v>4</v>
-      </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
@@ -4817,57 +7885,60 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>221</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>76.266019999999997</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>0.84674329501915702</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>0.81884057971014501</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>0.88679245283018904</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>0.871428571428571</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>113</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>47</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>61</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>42</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO8" s="1">
         <v>45</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AP8" s="1">
         <v>44</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>48</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR8" s="1">
         <v>0.47826086956521702</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS8" s="1">
         <v>0.80995475113122195</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>288</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>240</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AV8" s="1">
         <v>528</v>
       </c>
     </row>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -245,6 +245,9 @@
     <t>'JB366_Infoseek_20201019_113902.mat'</t>
   </si>
   <si>
+    <t>'JB366_Infoseek_20201019_130646.mat'</t>
+  </si>
+  <si>
     <t>'JB366_Infoseek_20201020_122122.mat'</t>
   </si>
   <si>
@@ -339,6 +342,12 @@
   </si>
   <si>
     <t>Grace Period'</t>
+  </si>
+  <si>
+    <t>Day Water</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201021_140609.mat'</t>
   </si>
 </sst>
 </file>
@@ -746,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -764,12 +773,12 @@
     <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -811,34 +820,34 @@
         <v>37</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="13" t="s">
         <v>11</v>
@@ -909,57 +918,63 @@
       <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>73</v>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AZ1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="10">
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>400</v>
-      </c>
-      <c r="BK1" s="10">
+        <v>461</v>
+      </c>
+      <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>328</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -1099,49 +1114,57 @@
       <c r="AV2" s="1">
         <v>48</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201013'</v>
+      </c>
+      <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>48</v>
+      </c>
+      <c r="BB2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
-      <c r="BA2" s="12">
-        <f>AZ2/AY2</f>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
         <v>32.94694925373134</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BD2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BE2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BF2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BG2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BF2" s="1">
-        <f>SUM(BB2,BD2)</f>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
         <v>11</v>
       </c>
-      <c r="BG2" s="1">
-        <f>SUM(BC2,BE2)</f>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -1281,49 +1304,57 @@
       <c r="AV3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="12">
-        <f t="shared" ref="AY3:AY12" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+      <c r="AX3" s="1" t="str">
+        <f t="shared" ref="AX3:AX12" si="0">B3</f>
+        <v>'20201014'</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>85</v>
       </c>
-      <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>208</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>2789.443900000002</v>
       </c>
-      <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA12" si="2">AZ3/AY3</f>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC12" si="1">BB3/AZ3</f>
         <v>32.816987058823557</v>
       </c>
-      <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>31</v>
       </c>
-      <c r="BC3" s="12">
-        <f t="shared" ref="BC3:BC12" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>30</v>
       </c>
-      <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <f t="shared" ref="BF3:BF12" si="7">SUM(BB3,BD3)</f>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" ref="BH3:BH12" si="2">SUM(BD3,BF3)</f>
         <v>31</v>
       </c>
-      <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG12" si="8">SUM(BC3,BE3)</f>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI12" si="3">SUM(BE3,BG3)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
@@ -1463,49 +1494,57 @@
       <c r="AV4" s="1">
         <v>208</v>
       </c>
-      <c r="AY4" s="12">
+      <c r="AX4" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201014'</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
         <v>85</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="BA4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <v>208</v>
+      </c>
+      <c r="BB4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <v>2789.443900000002</v>
+      </c>
+      <c r="BC4" s="12">
         <f t="shared" si="1"/>
-        <v>2789.443900000002</v>
-      </c>
-      <c r="BA4" s="12">
+        <v>32.816987058823557</v>
+      </c>
+      <c r="BD4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <v>31</v>
+      </c>
+      <c r="BE4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>30</v>
+      </c>
+      <c r="BF4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
         <f t="shared" si="2"/>
-        <v>32.816987058823557</v>
-      </c>
-      <c r="BB4" s="12">
+        <v>31</v>
+      </c>
+      <c r="BI4" s="1">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="BC4" s="12">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="BD4" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE4" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="BG4" s="1">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -1645,49 +1684,57 @@
       <c r="AV5" s="1">
         <v>152</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="AX5" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201015'</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
         <v>71</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="BA5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>152</v>
+      </c>
+      <c r="BB5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>2455.1475</v>
+      </c>
+      <c r="BC5" s="12">
         <f t="shared" si="1"/>
-        <v>2455.1475</v>
-      </c>
-      <c r="BA5" s="12">
+        <v>34.579542253521126</v>
+      </c>
+      <c r="BD5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>24</v>
+      </c>
+      <c r="BE5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>24</v>
+      </c>
+      <c r="BF5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
         <f t="shared" si="2"/>
-        <v>34.579542253521126</v>
-      </c>
-      <c r="BB5" s="12">
+        <v>24</v>
+      </c>
+      <c r="BI5" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="BC5" s="12">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="BD5" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="BG5" s="1">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
@@ -1827,49 +1874,57 @@
       <c r="AV6" s="1">
         <v>96</v>
       </c>
-      <c r="AY6" s="12">
+      <c r="AX6" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
         <v>176</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="BA6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>480</v>
+      </c>
+      <c r="BB6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BC6" s="12">
         <f t="shared" si="1"/>
-        <v>4796.0254999999979</v>
-      </c>
-      <c r="BA6" s="12">
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BD6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>64</v>
+      </c>
+      <c r="BE6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>64</v>
+      </c>
+      <c r="BF6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
         <f t="shared" si="2"/>
-        <v>27.250144886363625</v>
-      </c>
-      <c r="BB6" s="12">
+        <v>64</v>
+      </c>
+      <c r="BI6" s="1">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="BC6" s="12">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="BD6" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE6" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="BG6" s="1">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
     </row>
-    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -2009,49 +2064,57 @@
       <c r="AV7" s="1">
         <v>384</v>
       </c>
-      <c r="AY7" s="12">
+      <c r="AX7" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
         <v>176</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="BA7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>480</v>
+      </c>
+      <c r="BB7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BC7" s="12">
         <f t="shared" si="1"/>
-        <v>4796.0254999999979</v>
-      </c>
-      <c r="BA7" s="12">
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BD7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>64</v>
+      </c>
+      <c r="BE7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>64</v>
+      </c>
+      <c r="BF7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
         <f t="shared" si="2"/>
-        <v>27.250144886363625</v>
-      </c>
-      <c r="BB7" s="12">
+        <v>64</v>
+      </c>
+      <c r="BI7" s="1">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="BC7" s="12">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="BD7" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE7" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1">
-        <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="BG7" s="1">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
     </row>
-    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -2191,49 +2254,57 @@
       <c r="AV8" s="1">
         <v>16</v>
       </c>
-      <c r="AY8" s="12">
+      <c r="AX8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>'20201019'</v>
       </c>
       <c r="AZ8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AE$2:$AE$1048576)</f>
+        <v>185</v>
+      </c>
+      <c r="BA8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AV$2:$AV$1048576)</f>
+        <v>320</v>
+      </c>
+      <c r="BB8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AF$2:$AF$1048576)*60</f>
+        <v>4322.1158999999998</v>
+      </c>
+      <c r="BC8" s="12">
         <f t="shared" si="1"/>
-        <v>1196.3719000000003</v>
-      </c>
-      <c r="BA8" s="12">
+        <v>23.362788648648646</v>
+      </c>
+      <c r="BD8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AN$2:$AN$1048576)</f>
+        <v>66</v>
+      </c>
+      <c r="BE8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AO$2:$AO$1048576)</f>
+        <v>69</v>
+      </c>
+      <c r="BF8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B8,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
         <f t="shared" si="2"/>
-        <v>28.485045238095246</v>
-      </c>
-      <c r="BB8" s="12">
+        <v>66</v>
+      </c>
+      <c r="BI8" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="BC8" s="12">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="BD8" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="BG8" s="1">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -2373,49 +2444,57 @@
       <c r="AV9" s="1">
         <v>0</v>
       </c>
-      <c r="AY9" s="12">
+      <c r="AX9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>'20201019'</v>
       </c>
       <c r="AZ9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AE$2:$AE$1048576)</f>
+        <v>185</v>
+      </c>
+      <c r="BA9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AV$2:$AV$1048576)</f>
+        <v>320</v>
+      </c>
+      <c r="BB9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AF$2:$AF$1048576)*60</f>
+        <v>4322.1158999999998</v>
+      </c>
+      <c r="BC9" s="12">
         <f t="shared" si="1"/>
-        <v>1196.3719000000003</v>
-      </c>
-      <c r="BA9" s="12">
+        <v>23.362788648648646</v>
+      </c>
+      <c r="BD9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AN$2:$AN$1048576)</f>
+        <v>66</v>
+      </c>
+      <c r="BE9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AO$2:$AO$1048576)</f>
+        <v>69</v>
+      </c>
+      <c r="BF9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B9,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
         <f t="shared" si="2"/>
-        <v>28.485045238095246</v>
-      </c>
-      <c r="BB9" s="12">
+        <v>66</v>
+      </c>
+      <c r="BI9" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="BC9" s="12">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="BD9" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="BG9" s="1">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
@@ -2502,37 +2581,37 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.4605216666666703</v>
+        <v>61.556255</v>
       </c>
       <c r="AG10" s="1">
-        <v>1</v>
+        <v>0.88586956521739102</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>0.84146341463414598</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="AM10" s="1">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="AN10" s="1">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AO10" s="1">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="AP10" s="1">
         <v>0</v>
@@ -2544,60 +2623,68 @@
         <v>39</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.35</v>
+        <v>0.77300613496932502</v>
       </c>
       <c r="AT10" s="1">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="12">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>304</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" ref="AX10" si="4">B10</f>
+        <v>'20201019'</v>
       </c>
       <c r="AZ10" s="12">
-        <f t="shared" si="1"/>
-        <v>1196.3719000000003</v>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AE$2:$AE$1048576)</f>
+        <v>185</v>
       </c>
       <c r="BA10" s="12">
-        <f t="shared" si="2"/>
-        <v>28.485045238095246</v>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AV$2:$AV$1048576)</f>
+        <v>320</v>
       </c>
       <c r="BB10" s="12">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AF$2:$AF$1048576)*60</f>
+        <v>4322.1158999999998</v>
       </c>
       <c r="BC10" s="12">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" ref="BC10" si="5">BB10/AZ10</f>
+        <v>23.362788648648646</v>
       </c>
       <c r="BD10" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AN$2:$AN$1048576)</f>
+        <v>66</v>
       </c>
       <c r="BE10" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF10" s="1">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="BG10" s="1">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AO$2:$AO$1048576)</f>
+        <v>69</v>
+      </c>
+      <c r="BF10" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" ref="BH10" si="6">SUM(BD10,BF10)</f>
+        <v>66</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" ref="BI10" si="7">SUM(BE10,BG10)</f>
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>1000</v>
@@ -2737,49 +2824,57 @@
       <c r="AV11" s="1">
         <v>416</v>
       </c>
-      <c r="AY11" s="12">
+      <c r="AX11" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201020'</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AE$2:$AE$1048576)</f>
         <v>187</v>
       </c>
-      <c r="AZ11" s="12">
+      <c r="BA11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AV$2:$AV$1048576)</f>
+        <v>416</v>
+      </c>
+      <c r="BB11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AF$2:$AF$1048576)*60</f>
+        <v>4184.1097000000018</v>
+      </c>
+      <c r="BC11" s="12">
         <f t="shared" si="1"/>
-        <v>4184.1097000000018</v>
-      </c>
-      <c r="BA11" s="12">
+        <v>22.374918181818192</v>
+      </c>
+      <c r="BD11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AN$2:$AN$1048576)</f>
+        <v>88</v>
+      </c>
+      <c r="BE11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AO$2:$AO$1048576)</f>
+        <v>85</v>
+      </c>
+      <c r="BF11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1">
         <f t="shared" si="2"/>
-        <v>22.374918181818192</v>
-      </c>
-      <c r="BB11" s="12">
+        <v>88</v>
+      </c>
+      <c r="BI11" s="1">
         <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="BC11" s="12">
-        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="BD11" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE11" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF11" s="1">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="BG11" s="1">
-        <f t="shared" si="8"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C12" s="1">
         <v>1000</v>
@@ -2919,40 +3014,48 @@
       <c r="AV12" s="1">
         <v>912</v>
       </c>
-      <c r="AY12" s="12">
+      <c r="AX12" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>'20201021'</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AE$2:$AE$1048576)</f>
         <v>285</v>
       </c>
-      <c r="AZ12" s="12">
+      <c r="BA12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AV$2:$AV$1048576)</f>
+        <v>912</v>
+      </c>
+      <c r="BB12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AF$2:$AF$1048576)*60</f>
+        <v>7496.0263000000195</v>
+      </c>
+      <c r="BC12" s="12">
         <f t="shared" si="1"/>
-        <v>7496.0263000000195</v>
-      </c>
-      <c r="BA12" s="12">
+        <v>26.301846666666734</v>
+      </c>
+      <c r="BD12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AN$2:$AN$1048576)</f>
+        <v>88</v>
+      </c>
+      <c r="BE12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AO$2:$AO$1048576)</f>
+        <v>52</v>
+      </c>
+      <c r="BF12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AP$2:$AP$1048576)</f>
+        <v>89</v>
+      </c>
+      <c r="BG12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AQ$2:$AQ$1048576)</f>
+        <v>52</v>
+      </c>
+      <c r="BH12" s="1">
         <f t="shared" si="2"/>
-        <v>26.301846666666734</v>
-      </c>
-      <c r="BB12" s="12">
+        <v>177</v>
+      </c>
+      <c r="BI12" s="1">
         <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="BC12" s="12">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="BD12" s="12">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="BE12" s="12">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="BF12" s="1">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="BG12" s="1">
-        <f t="shared" si="8"/>
         <v>104</v>
       </c>
     </row>
@@ -2964,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK9"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -2982,12 +3085,12 @@
     <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -3029,34 +3132,34 @@
         <v>37</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>11</v>
@@ -3127,57 +3230,63 @@
       <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>73</v>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AZ1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="10">
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
         <v>358</v>
       </c>
-      <c r="BK1" s="10">
+      <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -3317,49 +3426,57 @@
       <c r="AV2" s="1">
         <v>0</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201013'</v>
+      </c>
+      <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>54</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>3270.8086000000017</v>
       </c>
-      <c r="BA2" s="12">
-        <f>AZ2/AY2</f>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
         <v>60.570529629629661</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BD2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>9</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BE2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BF2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BG2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BF2" s="1">
-        <f>SUM(BB2,BD2)</f>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
         <v>9</v>
       </c>
-      <c r="BG2" s="1">
-        <f>SUM(BC2,BE2)</f>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -3499,49 +3616,57 @@
       <c r="AV3" s="1">
         <v>384</v>
       </c>
-      <c r="AY3" s="12">
-        <f t="shared" ref="AY3:AY9" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+      <c r="AX3" s="1" t="str">
+        <f t="shared" ref="AX3:AX9" si="0">B3</f>
+        <v>'20201014'</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ9" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
-      <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ9" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA9" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>384</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB9" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
-      <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA9" si="2">AZ3/AY3</f>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC9" si="4">BB3/AZ3</f>
         <v>35.380905833333351</v>
       </c>
-      <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB9" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD9" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
-      <c r="BC3" s="12">
-        <f t="shared" ref="BC3:BC9" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE9" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
-      <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD9" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE9" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <f t="shared" ref="BF3:BF9" si="7">SUM(BB3,BD3)</f>
+      <c r="BF3" s="12">
+        <f t="shared" ref="BF3:BF9" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f t="shared" ref="BG3:BG9" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" ref="BH3:BH9" si="9">SUM(BD3,BF3)</f>
         <v>43</v>
       </c>
-      <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG9" si="8">SUM(BC3,BE3)</f>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI9" si="10">SUM(BE3,BG3)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
@@ -3681,49 +3806,57 @@
       <c r="AV4" s="1">
         <v>80</v>
       </c>
-      <c r="AY4" s="12">
+      <c r="AX4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>'20201015'</v>
       </c>
       <c r="AZ4" s="12">
         <f t="shared" si="1"/>
-        <v>4386.5587000000023</v>
+        <v>120</v>
       </c>
       <c r="BA4" s="12">
         <f t="shared" si="2"/>
-        <v>36.554655833333349</v>
+        <v>400</v>
       </c>
       <c r="BB4" s="12">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>4386.5587000000023</v>
       </c>
       <c r="BC4" s="12">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>36.554655833333349</v>
       </c>
       <c r="BD4" s="12">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="BE4" s="12">
         <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="BF4" s="12">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="BG4" s="12">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="BF4" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="BG4" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI4" s="1">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -3863,49 +3996,57 @@
       <c r="AV5" s="1">
         <v>320</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="AX5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>'20201015'</v>
       </c>
       <c r="AZ5" s="12">
         <f t="shared" si="1"/>
-        <v>4386.5587000000023</v>
+        <v>120</v>
       </c>
       <c r="BA5" s="12">
         <f t="shared" si="2"/>
-        <v>36.554655833333349</v>
+        <v>400</v>
       </c>
       <c r="BB5" s="12">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>4386.5587000000023</v>
       </c>
       <c r="BC5" s="12">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>36.554655833333349</v>
       </c>
       <c r="BD5" s="12">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="BF5" s="12">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="BF5" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH5" s="1">
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="BG5" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI5" s="1">
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
@@ -4045,49 +4186,57 @@
       <c r="AV6" s="1">
         <v>576</v>
       </c>
-      <c r="AY6" s="12">
+      <c r="AX6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>'20201016'</v>
       </c>
       <c r="AZ6" s="12">
         <f t="shared" si="1"/>
-        <v>6591.5638000000199</v>
+        <v>195</v>
       </c>
       <c r="BA6" s="12">
         <f t="shared" si="2"/>
-        <v>33.802891282051384</v>
+        <v>576</v>
       </c>
       <c r="BB6" s="12">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>6591.5638000000199</v>
       </c>
       <c r="BC6" s="12">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>33.802891282051384</v>
       </c>
       <c r="BD6" s="12">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="BE6" s="12">
         <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="BF6" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="BG6" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI6" s="1">
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -4227,49 +4376,57 @@
       <c r="AV7" s="1">
         <v>256</v>
       </c>
-      <c r="AY7" s="12">
+      <c r="AX7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>'20201019'</v>
       </c>
       <c r="AZ7" s="12">
         <f t="shared" si="1"/>
-        <v>5362.8642</v>
+        <v>131</v>
       </c>
       <c r="BA7" s="12">
         <f t="shared" si="2"/>
-        <v>40.937894656488552</v>
+        <v>256</v>
       </c>
       <c r="BB7" s="12">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>5362.8642</v>
       </c>
       <c r="BC7" s="12">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>40.937894656488552</v>
       </c>
       <c r="BD7" s="12">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BE7" s="12">
         <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="BF7" s="12">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="BF7" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
-      <c r="BG7" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI7" s="1">
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -4409,49 +4566,57 @@
       <c r="AV8" s="1">
         <v>416</v>
       </c>
-      <c r="AY8" s="12">
+      <c r="AX8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>'20201020'</v>
       </c>
       <c r="AZ8" s="12">
         <f t="shared" si="1"/>
-        <v>3202.9144000000019</v>
+        <v>108</v>
       </c>
       <c r="BA8" s="12">
         <f t="shared" si="2"/>
-        <v>29.656614814814834</v>
+        <v>416</v>
       </c>
       <c r="BB8" s="12">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>3202.9144000000019</v>
       </c>
       <c r="BC8" s="12">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>29.656614814814834</v>
       </c>
       <c r="BD8" s="12">
         <f t="shared" si="5"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BE8" s="12">
         <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BF8" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH8" s="1">
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="BG8" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI8" s="1">
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -4591,40 +4756,48 @@
       <c r="AV9" s="1">
         <v>320</v>
       </c>
-      <c r="AY9" s="12">
+      <c r="AX9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>'20201021'</v>
       </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
-        <v>2610.5875000000019</v>
+        <v>92</v>
       </c>
       <c r="BA9" s="12">
         <f t="shared" si="2"/>
-        <v>28.375951086956544</v>
+        <v>320</v>
       </c>
       <c r="BB9" s="12">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>2610.5875000000019</v>
       </c>
       <c r="BC9" s="12">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28.375951086956544</v>
       </c>
       <c r="BD9" s="12">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="BE9" s="12">
         <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="BF9" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH9" s="1">
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="BG9" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI9" s="1">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
@@ -4636,10 +4809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -4658,12 +4831,12 @@
     <col min="46" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -4705,34 +4878,34 @@
         <v>37</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>11</v>
@@ -4803,57 +4976,63 @@
       <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>73</v>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AZ1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="10">
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>519</v>
-      </c>
-      <c r="BK1" s="10">
+        <v>537</v>
+      </c>
+      <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>330</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -4993,49 +5172,57 @@
       <c r="AV2" s="1">
         <v>0</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201012'</v>
+      </c>
+      <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>5</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>111.50629999999981</v>
       </c>
-      <c r="BA2" s="12">
-        <f>AZ2/AY2</f>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
         <v>22.301259999999964</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BD2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>1</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BE2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>1</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BF2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>1</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BG2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>1</v>
       </c>
-      <c r="BF2" s="1">
-        <f>SUM(BB2,BD2)</f>
-        <v>2</v>
-      </c>
-      <c r="BG2" s="1">
-        <f>SUM(BC2,BE2)</f>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>2</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -5175,49 +5362,57 @@
       <c r="AV3" s="1">
         <v>0</v>
       </c>
-      <c r="AY3" s="12">
-        <f t="shared" ref="AY3:AY11" si="0">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+      <c r="AX3" s="1" t="str">
+        <f t="shared" ref="AX3:AX12" si="0">B3</f>
+        <v>'20201013'</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
-      <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>80</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
-      <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA11" si="2">AZ3/AY3</f>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC11" si="4">BB3/AZ3</f>
         <v>57.840671052631599</v>
       </c>
-      <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
-      <c r="BC3" s="12">
-        <f t="shared" ref="BC3:BC11" si="4">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
-      <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+      <c r="BF3" s="12">
+        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
-      <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+      <c r="BG3" s="12">
+        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
-      <c r="BF3" s="1">
-        <f t="shared" ref="BF3:BF11" si="7">SUM(BB3,BD3)</f>
+      <c r="BH3" s="1">
+        <f t="shared" ref="BH3:BH11" si="9">SUM(BD3,BF3)</f>
         <v>36</v>
       </c>
-      <c r="BG3" s="1">
-        <f t="shared" ref="BG3:BG11" si="8">SUM(BC3,BE3)</f>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI11" si="10">SUM(BE3,BG3)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
@@ -5357,25 +5552,25 @@
       <c r="AV4" s="1">
         <v>0</v>
       </c>
-      <c r="AY4" s="12">
+      <c r="AX4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>'20201013'</v>
       </c>
       <c r="AZ4" s="12">
         <f t="shared" si="1"/>
-        <v>4395.8910000000014</v>
+        <v>76</v>
       </c>
       <c r="BA4" s="12">
         <f t="shared" si="2"/>
-        <v>57.840671052631599</v>
+        <v>80</v>
       </c>
       <c r="BB4" s="12">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>4395.8910000000014</v>
       </c>
       <c r="BC4" s="12">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>57.840671052631599</v>
       </c>
       <c r="BD4" s="12">
         <f t="shared" si="5"/>
@@ -5385,21 +5580,29 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BF4" s="12">
         <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG4" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="BG4" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI4" s="1">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -5539,25 +5742,25 @@
       <c r="AV5" s="1">
         <v>80</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="AX5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>'20201013'</v>
       </c>
       <c r="AZ5" s="12">
         <f t="shared" si="1"/>
-        <v>4395.8910000000014</v>
+        <v>76</v>
       </c>
       <c r="BA5" s="12">
         <f t="shared" si="2"/>
-        <v>57.840671052631599</v>
+        <v>80</v>
       </c>
       <c r="BB5" s="12">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>4395.8910000000014</v>
       </c>
       <c r="BC5" s="12">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>57.840671052631599</v>
       </c>
       <c r="BD5" s="12">
         <f t="shared" si="5"/>
@@ -5567,21 +5770,29 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BF5" s="12">
         <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="BG5" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI5" s="1">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
@@ -5721,25 +5932,25 @@
       <c r="AV6" s="1">
         <v>0</v>
       </c>
-      <c r="AY6" s="12">
+      <c r="AX6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>'20201013'</v>
       </c>
       <c r="AZ6" s="12">
         <f t="shared" si="1"/>
-        <v>4395.8910000000014</v>
+        <v>76</v>
       </c>
       <c r="BA6" s="12">
         <f t="shared" si="2"/>
-        <v>57.840671052631599</v>
+        <v>80</v>
       </c>
       <c r="BB6" s="12">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>4395.8910000000014</v>
       </c>
       <c r="BC6" s="12">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>57.840671052631599</v>
       </c>
       <c r="BD6" s="12">
         <f t="shared" si="5"/>
@@ -5749,21 +5960,29 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BF6" s="12">
         <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="BG6" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI6" s="1">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -5903,49 +6122,57 @@
       <c r="AV7" s="1">
         <v>240</v>
       </c>
-      <c r="AY7" s="12">
+      <c r="AX7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>'20201014'</v>
       </c>
       <c r="AZ7" s="12">
         <f t="shared" si="1"/>
-        <v>3595.8606</v>
+        <v>101</v>
       </c>
       <c r="BA7" s="12">
         <f t="shared" si="2"/>
-        <v>35.602580198019801</v>
+        <v>240</v>
       </c>
       <c r="BB7" s="12">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>3595.8606</v>
       </c>
       <c r="BC7" s="12">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>35.602580198019801</v>
       </c>
       <c r="BD7" s="12">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BE7" s="12">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BF7" s="12">
         <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
-      <c r="BG7" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI7" s="1">
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -6085,49 +6312,57 @@
       <c r="AV8" s="1">
         <v>624</v>
       </c>
-      <c r="AY8" s="12">
+      <c r="AX8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>'20201015'</v>
       </c>
       <c r="AZ8" s="12">
         <f t="shared" si="1"/>
-        <v>5338.1227000000026</v>
+        <v>188</v>
       </c>
       <c r="BA8" s="12">
         <f t="shared" si="2"/>
-        <v>28.394269680851078</v>
+        <v>624</v>
       </c>
       <c r="BB8" s="12">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>5338.1227000000026</v>
       </c>
       <c r="BC8" s="12">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>28.394269680851078</v>
       </c>
       <c r="BD8" s="12">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE8" s="12">
         <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="BF8" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH8" s="1">
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="BG8" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI8" s="1">
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1">
         <v>1000</v>
@@ -6267,49 +6502,57 @@
       <c r="AV9" s="1">
         <v>688</v>
       </c>
-      <c r="AY9" s="12">
+      <c r="AX9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>'20201016'</v>
       </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
-        <v>5756.7183000000005</v>
+        <v>231</v>
       </c>
       <c r="BA9" s="12">
         <f t="shared" si="2"/>
-        <v>24.920858441558444</v>
+        <v>688</v>
       </c>
       <c r="BB9" s="12">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>5756.7183000000005</v>
       </c>
       <c r="BC9" s="12">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>24.920858441558444</v>
       </c>
       <c r="BD9" s="12">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="BE9" s="12">
         <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="BF9" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH9" s="1">
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
-      <c r="BG9" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI9" s="1">
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
@@ -6449,25 +6692,25 @@
       <c r="AV10" s="1">
         <v>592</v>
       </c>
-      <c r="AY10" s="12">
+      <c r="AX10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>'20201019'</v>
       </c>
       <c r="AZ10" s="12">
         <f t="shared" si="1"/>
-        <v>5123.6225999999997</v>
+        <v>193</v>
       </c>
       <c r="BA10" s="12">
         <f t="shared" si="2"/>
-        <v>26.547267357512951</v>
+        <v>592</v>
       </c>
       <c r="BB10" s="12">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>5123.6225999999997</v>
       </c>
       <c r="BC10" s="12">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>26.547267357512951</v>
       </c>
       <c r="BD10" s="12">
         <f t="shared" si="5"/>
@@ -6475,23 +6718,31 @@
       </c>
       <c r="BE10" s="12">
         <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="BF10" s="1">
-        <f t="shared" si="7"/>
+      <c r="BH10" s="1">
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="BG10" s="1">
-        <f t="shared" si="8"/>
+      <c r="BI10" s="1">
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1">
         <v>1000</v>
@@ -6631,41 +6882,239 @@
       <c r="AV11" s="1">
         <v>656</v>
       </c>
-      <c r="AY11" s="12">
+      <c r="AX11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>'20201020'</v>
       </c>
       <c r="AZ11" s="12">
         <f t="shared" si="1"/>
-        <v>4667.4073000000026</v>
+        <v>172</v>
       </c>
       <c r="BA11" s="12">
         <f t="shared" si="2"/>
-        <v>27.136088953488386</v>
+        <v>656</v>
       </c>
       <c r="BB11" s="12">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>4667.4073000000026</v>
       </c>
       <c r="BC11" s="12">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>27.136088953488386</v>
       </c>
       <c r="BD11" s="12">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BE11" s="12">
         <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BH11" s="1">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>96</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>52.497349999999997</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.93203883495145601</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0.88679245283018904</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>47</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>38</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>0.19148936170212799</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>48</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>192</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>240</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201021'</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="3"/>
+        <v>3149.8409999999999</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" ref="BC12" si="11">BB12/AZ12</f>
+        <v>32.810843749999997</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BF12" s="12">
         <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" ref="BH12" si="12">SUM(BD12,BF12)</f>
+        <v>18</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" ref="BI12" si="13">SUM(BE12,BG12)</f>
         <v>77</v>
-      </c>
-      <c r="BG11" s="1">
-        <f t="shared" si="8"/>
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6676,10 +7125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -6694,12 +7143,12 @@
     <col min="31" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -6741,34 +7190,34 @@
         <v>37</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>11</v>
@@ -6839,57 +7288,63 @@
       <c r="AV1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="9" t="s">
-        <v>73</v>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AZ1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BJ1" s="10">
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
         <v>551</v>
       </c>
-      <c r="BK1" s="10">
+      <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -7029,49 +7484,57 @@
       <c r="AV2" s="1">
         <v>16</v>
       </c>
-      <c r="AY2" s="12">
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201012'</v>
+      </c>
+      <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>20</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>16</v>
+      </c>
+      <c r="BB2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>868.3614</v>
       </c>
-      <c r="BA2" s="12">
-        <f>AZ2/AY2</f>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
         <v>43.41807</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BD2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BE2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BF2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BG2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
-      <c r="BF2" s="1">
-        <f>SUM(BB2,BD2)</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <f>SUM(BC2,BE2)</f>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1">
         <v>1000</v>
@@ -7211,13 +7674,57 @@
       <c r="AV3" s="1">
         <v>480</v>
       </c>
+      <c r="AX3" s="1" t="str">
+        <f t="shared" ref="AX3:AX8" si="0">B3</f>
+        <v>'20201013'</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ8" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>175</v>
+      </c>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA8" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>480</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB8" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>5382.3676000000023</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC8" si="4">BB3/AZ3</f>
+        <v>30.756386285714299</v>
+      </c>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD8" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>37</v>
+      </c>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE8" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>39</v>
+      </c>
+      <c r="BF3" s="12">
+        <f t="shared" ref="BF3:BF8" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>41</v>
+      </c>
+      <c r="BG3" s="12">
+        <f t="shared" ref="BG3:BG8" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>43</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" ref="BH3:BH8" si="9">SUM(BD3,BF3)</f>
+        <v>78</v>
+      </c>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI8" si="10">SUM(BE3,BG3)</f>
+        <v>82</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
         <v>1000</v>
@@ -7357,13 +7864,57 @@
       <c r="AV4" s="1">
         <v>528</v>
       </c>
+      <c r="AX4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201014'</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="BA4" s="12">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="BB4" s="12">
+        <f t="shared" si="3"/>
+        <v>6810.0406999999796</v>
+      </c>
+      <c r="BC4" s="12">
+        <f t="shared" si="4"/>
+        <v>28.613616386554536</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="BF4" s="12">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="BG4" s="12">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
+      <c r="BI4" s="1">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -7503,13 +8054,57 @@
       <c r="AV5" s="1">
         <v>544</v>
       </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201015'</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="3"/>
+        <v>6082.2232999999796</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="4"/>
+        <v>34.169793820224605</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="BF5" s="12">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
@@ -7649,13 +8244,57 @@
       <c r="AV6" s="1">
         <v>736</v>
       </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="2"/>
+        <v>736</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="3"/>
+        <v>4582.849000000002</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="4"/>
+        <v>20.92625114155252</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="10"/>
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -7795,13 +8434,57 @@
       <c r="AV7" s="1">
         <v>592</v>
       </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201019'</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="3"/>
+        <v>4297.2772000000023</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="4"/>
+        <v>24.00713519553074</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="BF7" s="12">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
@@ -7940,6 +8623,50 @@
       </c>
       <c r="AV8" s="1">
         <v>528</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201020'</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>4575.9611999999997</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" si="4"/>
+        <v>20.705706787330314</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" si="10"/>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>'JB368_Infoseek_20201021_140609.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201022_100418.mat'</t>
+  </si>
+  <si>
+    <t>'20201022'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201022_122820.mat'</t>
   </si>
 </sst>
 </file>
@@ -755,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BA7" sqref="BA7"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BJ13" sqref="BJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -962,11 +971,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>386</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
@@ -3057,6 +3066,196 @@
       <c r="BI12" s="1">
         <f t="shared" si="3"/>
         <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>212</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>116.55618</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.773722627737226</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.81203007518796999</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>73</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0.29126213592233002</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.96698113207547198</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>240</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>496</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>736</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" ref="AX13" si="8">B13</f>
+        <v>'20201022'</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AE$2:$AE$1048576)</f>
+        <v>212</v>
+      </c>
+      <c r="BA13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AV$2:$AV$1048576)</f>
+        <v>736</v>
+      </c>
+      <c r="BB13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AF$2:$AF$1048576)*60</f>
+        <v>6993.3707999999997</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13" si="9">BB13/AZ13</f>
+        <v>32.987598113207547</v>
+      </c>
+      <c r="BD13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AN$2:$AN$1048576)</f>
+        <v>30</v>
+      </c>
+      <c r="BE13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AO$2:$AO$1048576)</f>
+        <v>72</v>
+      </c>
+      <c r="BF13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AP$2:$AP$1048576)</f>
+        <v>30</v>
+      </c>
+      <c r="BG13" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B13,$AQ$2:$AQ$1048576)</f>
+        <v>73</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13" si="10">SUM(BD13,BF13)</f>
+        <v>60</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13" si="11">SUM(BE13,BG13)</f>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3067,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -3082,7 +3281,9 @@
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="26" width="8.6640625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.6640625" style="1"/>
+    <col min="31" max="43" width="8.6640625" style="1"/>
+    <col min="44" max="44" width="8.6640625" style="8"/>
+    <col min="45" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
@@ -3274,11 +3475,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>336</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
@@ -3601,7 +3802,7 @@
       <c r="AQ3" s="1">
         <v>0</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AS3" s="1">
@@ -3621,15 +3822,15 @@
         <v>'20201014'</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ9" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ10" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA9" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA10" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB9" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB10" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -3637,19 +3838,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD9" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD10" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE9" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE10" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF9" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF10" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG9" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG10" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -3791,7 +3992,7 @@
       <c r="AQ4" s="1">
         <v>0</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AR4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="AS4" s="1">
@@ -3981,7 +4182,7 @@
       <c r="AQ5" s="1">
         <v>20</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="8">
         <v>0.57446808510638303</v>
       </c>
       <c r="AS5" s="1">
@@ -4171,7 +4372,7 @@
       <c r="AQ6" s="1">
         <v>33</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="8">
         <v>0.625</v>
       </c>
       <c r="AS6" s="1">
@@ -4361,7 +4562,7 @@
       <c r="AQ7" s="1">
         <v>34</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="8">
         <v>0.41379310344827602</v>
       </c>
       <c r="AS7" s="1">
@@ -4551,7 +4752,7 @@
       <c r="AQ8" s="1">
         <v>21</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8" s="8">
         <v>0.59615384615384603</v>
       </c>
       <c r="AS8" s="1">
@@ -4703,58 +4904,58 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="AF9" s="1">
-        <v>43.5097916666667</v>
+        <v>99.593046666666694</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.86792452830188704</v>
+        <v>0.90650406504064995</v>
       </c>
       <c r="AH9" s="1">
-        <v>0.86206896551724099</v>
+        <v>0.92063492063492103</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.85365853658536595</v>
+        <v>0.90243902439024404</v>
       </c>
       <c r="AJ9" s="1">
-        <v>0.88888888888888895</v>
+        <v>0.90099009900990101</v>
       </c>
       <c r="AK9" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="AL9" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="AM9" s="1">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="AN9" s="1">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="AO9" s="1">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="AP9" s="1">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="AQ9" s="1">
-        <v>13</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0.48</v>
+        <v>18</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>0.68421052631579005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.84782608695652195</v>
+        <v>0.75784753363228696</v>
       </c>
       <c r="AT9" s="1">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="AU9" s="1">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="AV9" s="1">
-        <v>320</v>
+        <v>592</v>
       </c>
       <c r="AX9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4762,43 +4963,229 @@
       </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="BA9" s="12">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>592</v>
       </c>
       <c r="BB9" s="12">
         <f t="shared" si="3"/>
-        <v>2610.5875000000019</v>
+        <v>5975.582800000002</v>
       </c>
       <c r="BC9" s="12">
         <f t="shared" si="4"/>
-        <v>28.375951086956544</v>
+        <v>26.796335426008977</v>
       </c>
       <c r="BD9" s="12">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="BE9" s="12">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="BF9" s="12">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="BG9" s="12">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BH9" s="1">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="BI9" s="1">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>155</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>81.060746666666702</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.82887700534759401</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.88571428571428601</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.82089552238805996</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>38</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>55</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>0.43243243243243201</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.72903225806451599</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>240</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>4863.6448000000019</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" ref="BC10" si="11">BB10/AZ10</f>
+        <v>31.378353548387107</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" ref="BH10" si="12">SUM(BD10,BF10)</f>
+        <v>54</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" ref="BI10" si="13">SUM(BE10,BG10)</f>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4811,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BD12" sqref="BD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -5020,7 +5407,7 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
@@ -7019,16 +7406,16 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="AF12" s="1">
-        <v>52.497349999999997</v>
+        <v>67.1570866666667</v>
       </c>
       <c r="AG12" s="8">
-        <v>0.93203883495145601</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="AH12" s="8">
-        <v>0.88679245283018904</v>
+        <v>0.82051282051282104</v>
       </c>
       <c r="AI12" s="8">
         <v>1</v>
@@ -7037,40 +7424,40 @@
         <v>0.97560975609756095</v>
       </c>
       <c r="AK12" s="1">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AL12" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AM12" s="1">
         <v>40</v>
       </c>
       <c r="AN12" s="1">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AO12" s="1">
         <v>39</v>
       </c>
       <c r="AP12" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AQ12" s="1">
         <v>38</v>
       </c>
       <c r="AR12" s="8">
-        <v>0.19148936170212799</v>
+        <v>0.39682539682539703</v>
       </c>
       <c r="AS12" s="8">
-        <v>0.98958333333333304</v>
+        <v>0.984615384615385</v>
       </c>
       <c r="AT12" s="1">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="AU12" s="1">
         <v>192</v>
       </c>
       <c r="AV12" s="1">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="AX12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7078,23 +7465,23 @@
       </c>
       <c r="AZ12" s="12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="BA12" s="12">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="BB12" s="12">
         <f t="shared" si="3"/>
-        <v>3149.8409999999999</v>
+        <v>4029.425200000002</v>
       </c>
       <c r="BC12" s="12">
         <f t="shared" ref="BC12" si="11">BB12/AZ12</f>
-        <v>32.810843749999997</v>
+        <v>30.995578461538475</v>
       </c>
       <c r="BD12" s="12">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="BE12" s="12">
         <f t="shared" si="6"/>
@@ -7102,7 +7489,7 @@
       </c>
       <c r="BF12" s="12">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BG12" s="12">
         <f t="shared" si="8"/>
@@ -7110,7 +7497,7 @@
       </c>
       <c r="BH12" s="1">
         <f t="shared" ref="BH12" si="12">SUM(BD12,BF12)</f>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="BI12" s="1">
         <f t="shared" ref="BI12" si="13">SUM(BE12,BG12)</f>
@@ -7127,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM8"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ4" sqref="AZ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="122">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -357,6 +357,42 @@
   </si>
   <si>
     <t>'JB367_Infoseek_20201022_122820.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201023_094837.mat'</t>
+  </si>
+  <si>
+    <t>'20201023'</t>
+  </si>
+  <si>
+    <t>Choice Training</t>
+  </si>
+  <si>
+    <t>Delays/Following odor</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201022_135555.mat'</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201022_154517.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201022_155921.mat'</t>
+  </si>
+  <si>
+    <t>forcedRand Trial Starts'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201023_112836.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201023_123709.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201023_135121.mat'</t>
   </si>
 </sst>
 </file>
@@ -446,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,6 +519,8 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,25 +802,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BJ13" sqref="BJ13"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.6640625" style="1"/>
+    <col min="31" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -971,14 +1009,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>531</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1127,16 +1165,19 @@
         <f>B2</f>
         <v>'20201013'</v>
       </c>
+      <c r="AY2" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AZ2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ14" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA14" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB14" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1144,19 +1185,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD14" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE14" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF14" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG14" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -1168,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1314,51 +1355,54 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <f t="shared" ref="AX3:AX12" si="0">B3</f>
+        <f t="shared" ref="AX3:AX12" si="7">B3</f>
         <v>'20201014'</v>
       </c>
+      <c r="AY3" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AZ3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="BA3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="BB3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2789.443900000002</v>
       </c>
       <c r="BC3" s="12">
-        <f t="shared" ref="BC3:BC12" si="1">BB3/AZ3</f>
+        <f t="shared" ref="BC3:BC12" si="8">BB3/AZ3</f>
         <v>32.816987058823557</v>
       </c>
       <c r="BD3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="BE3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="BF3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f t="shared" ref="BH3:BH12" si="2">SUM(BD3,BF3)</f>
+        <f t="shared" ref="BH3:BH12" si="9">SUM(BD3,BF3)</f>
         <v>31</v>
       </c>
       <c r="BI3" s="1">
-        <f t="shared" ref="BI3:BI12" si="3">SUM(BE3,BG3)</f>
+        <f t="shared" ref="BI3:BI12" si="10">SUM(BE3,BG3)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1504,1758 +1548,1981 @@
         <v>208</v>
       </c>
       <c r="AX4" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201014'</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ4" s="12">
         <f t="shared" si="0"/>
-        <v>'20201014'</v>
-      </c>
-      <c r="AZ4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
         <v>85</v>
       </c>
       <c r="BA4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="BB4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2789.443900000002</v>
       </c>
       <c r="BC4" s="12">
+        <f t="shared" si="8"/>
+        <v>32.816987058823557</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="BF4" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="BI4" s="1">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>71</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>40.919125000000001</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.86585365853658502</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>41</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>24</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>56</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>96</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>152</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201015'</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="BA5" s="12">
         <f t="shared" si="1"/>
-        <v>32.816987058823557</v>
-      </c>
-      <c r="BD4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
-        <v>31</v>
-      </c>
-      <c r="BE4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>152</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="2"/>
+        <v>2455.1475</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="8"/>
+        <v>34.579542253521126</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="BF5" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>52</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>21.3446583333333</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.91228070175438603</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.95652173913043503</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="1">
         <v>30</v>
       </c>
-      <c r="BF4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
+      <c r="AN6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>19</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>96</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="BB6" s="12">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="BI4" s="1">
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="8"/>
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>124</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>58.589100000000002</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.90510948905109501</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.96226415094339601</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.86904761904761896</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>44</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.717741935483871</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>208</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>384</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="2"/>
+        <v>4796.0254999999979</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="8"/>
+        <v>27.250144886363625</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BF7" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1.0184883333333301</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201019'</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="2"/>
+        <v>4322.1158999999998</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" si="8"/>
+        <v>23.362788648648646</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>9.4605216666666703</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201019'</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="2"/>
+        <v>4322.1158999999998</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="8"/>
+        <v>23.362788648648646</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>163</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>61.556255</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.88586956521739102</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.84146341463414598</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>69</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>94</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>63</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>63</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.77300613496932502</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>80</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" ref="AX10" si="11">B10</f>
+        <v>'20201019'</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="2"/>
+        <v>4322.1158999999998</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" ref="BC10" si="12">BB10/AZ10</f>
+        <v>23.362788648648646</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" ref="BH10" si="13">SUM(BD10,BF10)</f>
+        <v>66</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" ref="BI10" si="14">SUM(BE10,BG10)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>187</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>69.735161666666698</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.86574074074074103</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.80508474576271205</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.93877551020408201</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>95</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>92</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>88</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>85</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.925133689839572</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>192</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>416</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201020'</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="2"/>
+        <v>4184.1097000000018</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" si="8"/>
+        <v>22.374918181818192</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>285</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>124.933771666667</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.91639871382636695</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.98113207547169801</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>144</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>89</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>88</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>52</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>89</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>52</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0.63120567375886505</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.98596491228070204</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>576</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>336</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>912</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>'20201021'</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="1"/>
+        <v>912</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="2"/>
+        <v>7496.0263000000195</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" si="8"/>
+        <v>26.301846666666734</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="BF12" s="12">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" si="9"/>
+        <v>177</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" si="10"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>212</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>116.55618</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.773722627737226</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.81203007518796999</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.68518518518518501</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>108</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>73</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0.29126213592233002</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.96698113207547198</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>240</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>496</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>736</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" ref="AX13:AX14" si="15">B13</f>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="BA13" s="12">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="BB13" s="12">
+        <f t="shared" si="2"/>
+        <v>6993.3707999999997</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13" si="16">BB13/AZ13</f>
+        <v>32.987598113207547</v>
+      </c>
+      <c r="BD13" s="12">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+      <c r="BE13" s="12">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="BF13" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="BG13" s="12">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13" si="17">SUM(BD13,BF13)</f>
+        <v>60</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13" si="18">SUM(BE13,BG13)</f>
+        <v>145</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q14" s="1">
         <v>0.2</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R14" s="1">
         <v>10</v>
       </c>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y14" s="1">
         <v>20</v>
       </c>
-      <c r="Z5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>71</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>40.919125000000001</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0.86585365853658502</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0.88235294117647101</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>172</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>74.957053333333306</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.85572139303482597</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.734177215189873</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>84</v>
+      </c>
+      <c r="AL14" s="1">
         <v>30</v>
       </c>
-      <c r="AM5" s="1">
-        <v>41</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>24</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>24</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0.676056338028169</v>
-      </c>
-      <c r="AT5" s="1">
+      <c r="AM14" s="1">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="1">
         <v>56</v>
       </c>
-      <c r="AU5" s="1">
-        <v>96</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>152</v>
-      </c>
-      <c r="AX5" s="1" t="str">
+      <c r="AP14" s="1">
+        <v>29</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>55</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0.34523809523809501</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0.98837209302325602</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>416</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>640</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>'20201023'</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ14" s="12">
         <f t="shared" si="0"/>
-        <v>'20201015'</v>
-      </c>
-      <c r="AZ5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
-        <v>71</v>
-      </c>
-      <c r="BA5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
-        <v>152</v>
-      </c>
-      <c r="BB5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
-        <v>2455.1475</v>
-      </c>
-      <c r="BC5" s="12">
+        <v>172</v>
+      </c>
+      <c r="BA14" s="12">
         <f t="shared" si="1"/>
-        <v>34.579542253521126</v>
-      </c>
-      <c r="BD5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
-        <v>24</v>
-      </c>
-      <c r="BE5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
-        <v>24</v>
-      </c>
-      <c r="BF5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
+        <v>640</v>
+      </c>
+      <c r="BB14" s="12">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="BI5" s="1">
+        <v>4497.4231999999984</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" ref="BC14" si="19">BB14/AZ14</f>
+        <v>26.147809302325573</v>
+      </c>
+      <c r="BD14" s="12">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>10</v>
-      </c>
-      <c r="S6" s="1">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>21.3446583333333</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.91228070175438603</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0.95652173913043503</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0.88235294117647101</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>22</v>
-      </c>
-      <c r="AM6" s="1">
         <v>30</v>
       </c>
-      <c r="AN6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>19</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>32</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>64</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>96</v>
-      </c>
-      <c r="AX6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201016'</v>
-      </c>
-      <c r="AZ6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
-        <v>176</v>
-      </c>
-      <c r="BA6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
-        <v>480</v>
-      </c>
-      <c r="BB6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
-        <v>4796.0254999999979</v>
-      </c>
-      <c r="BC6" s="12">
-        <f t="shared" si="1"/>
-        <v>27.250144886363625</v>
-      </c>
-      <c r="BD6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
-        <v>64</v>
-      </c>
-      <c r="BE6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
-        <v>64</v>
-      </c>
-      <c r="BF6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="BI6" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>10</v>
-      </c>
-      <c r="S7" s="1">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>4</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>124</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>58.589100000000002</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.90510948905109501</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0.96226415094339601</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0.86904761904761896</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>51</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>73</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>44</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>45</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>0.717741935483871</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>176</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>208</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>384</v>
-      </c>
-      <c r="AX7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201016'</v>
-      </c>
-      <c r="AZ7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
-        <v>176</v>
-      </c>
-      <c r="BA7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
-        <v>480</v>
-      </c>
-      <c r="BB7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
-        <v>4796.0254999999979</v>
-      </c>
-      <c r="BC7" s="12">
-        <f t="shared" si="1"/>
-        <v>27.250144886363625</v>
-      </c>
-      <c r="BD7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
-        <v>64</v>
-      </c>
-      <c r="BE7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
-        <v>64</v>
-      </c>
-      <c r="BF7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="BI7" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>10</v>
-      </c>
-      <c r="S8" s="1">
-        <v>4</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>4</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>1.0184883333333301</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AX8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201019'</v>
-      </c>
-      <c r="AZ8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AE$2:$AE$1048576)</f>
-        <v>185</v>
-      </c>
-      <c r="BA8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AV$2:$AV$1048576)</f>
-        <v>320</v>
-      </c>
-      <c r="BB8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AF$2:$AF$1048576)*60</f>
-        <v>4322.1158999999998</v>
-      </c>
-      <c r="BC8" s="12">
-        <f t="shared" si="1"/>
-        <v>23.362788648648646</v>
-      </c>
-      <c r="BD8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AN$2:$AN$1048576)</f>
-        <v>66</v>
-      </c>
-      <c r="BE8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AO$2:$AO$1048576)</f>
-        <v>69</v>
-      </c>
-      <c r="BF8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG8" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="BI8" s="1">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>10</v>
-      </c>
-      <c r="S9" s="1">
-        <v>4</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>9.4605216666666703</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>16</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201019'</v>
-      </c>
-      <c r="AZ9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AE$2:$AE$1048576)</f>
-        <v>185</v>
-      </c>
-      <c r="BA9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AV$2:$AV$1048576)</f>
-        <v>320</v>
-      </c>
-      <c r="BB9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AF$2:$AF$1048576)*60</f>
-        <v>4322.1158999999998</v>
-      </c>
-      <c r="BC9" s="12">
-        <f t="shared" si="1"/>
-        <v>23.362788648648646</v>
-      </c>
-      <c r="BD9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AN$2:$AN$1048576)</f>
-        <v>66</v>
-      </c>
-      <c r="BE9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AO$2:$AO$1048576)</f>
-        <v>69</v>
-      </c>
-      <c r="BF9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="BI9" s="1">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>10</v>
-      </c>
-      <c r="S10" s="1">
-        <v>4</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>163</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>61.556255</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0.88586956521739102</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0.84146341463414598</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0.92156862745098</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>69</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>94</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>63</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>63</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0.77300613496932502</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>224</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>80</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>304</v>
-      </c>
-      <c r="AX10" s="1" t="str">
-        <f t="shared" ref="AX10" si="4">B10</f>
-        <v>'20201019'</v>
-      </c>
-      <c r="AZ10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AE$2:$AE$1048576)</f>
-        <v>185</v>
-      </c>
-      <c r="BA10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AV$2:$AV$1048576)</f>
-        <v>320</v>
-      </c>
-      <c r="BB10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AF$2:$AF$1048576)*60</f>
-        <v>4322.1158999999998</v>
-      </c>
-      <c r="BC10" s="12">
-        <f t="shared" ref="BC10" si="5">BB10/AZ10</f>
-        <v>23.362788648648646</v>
-      </c>
-      <c r="BD10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AN$2:$AN$1048576)</f>
-        <v>66</v>
-      </c>
-      <c r="BE10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AO$2:$AO$1048576)</f>
-        <v>69</v>
-      </c>
-      <c r="BF10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH10" s="1">
-        <f t="shared" ref="BH10" si="6">SUM(BD10,BF10)</f>
-        <v>66</v>
-      </c>
-      <c r="BI10" s="1">
-        <f t="shared" ref="BI10" si="7">SUM(BE10,BG10)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11" s="1">
-        <v>4</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>187</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>69.735161666666698</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.86574074074074103</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0.80508474576271205</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0.93877551020408201</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>95</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>92</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>88</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>85</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0.925133689839572</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>224</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>192</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>416</v>
-      </c>
-      <c r="AX11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201020'</v>
-      </c>
-      <c r="AZ11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AE$2:$AE$1048576)</f>
-        <v>187</v>
-      </c>
-      <c r="BA11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AV$2:$AV$1048576)</f>
-        <v>416</v>
-      </c>
-      <c r="BB11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AF$2:$AF$1048576)*60</f>
-        <v>4184.1097000000018</v>
-      </c>
-      <c r="BC11" s="12">
-        <f t="shared" si="1"/>
-        <v>22.374918181818192</v>
-      </c>
-      <c r="BD11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AN$2:$AN$1048576)</f>
-        <v>88</v>
-      </c>
-      <c r="BE11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AO$2:$AO$1048576)</f>
-        <v>85</v>
-      </c>
-      <c r="BF11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG11" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH11" s="1">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="BI11" s="1">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>10</v>
-      </c>
-      <c r="S12" s="1">
-        <v>4</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>4</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>285</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>124.933771666667</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0.91639871382636695</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.92708333333333304</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0.98113207547169801</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>144</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>89</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>52</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>88</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>52</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>89</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>52</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0.63120567375886505</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0.98596491228070204</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>576</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>336</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>912</v>
-      </c>
-      <c r="AX12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201021'</v>
-      </c>
-      <c r="AZ12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AE$2:$AE$1048576)</f>
-        <v>285</v>
-      </c>
-      <c r="BA12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AV$2:$AV$1048576)</f>
-        <v>912</v>
-      </c>
-      <c r="BB12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AF$2:$AF$1048576)*60</f>
-        <v>7496.0263000000195</v>
-      </c>
-      <c r="BC12" s="12">
-        <f t="shared" si="1"/>
-        <v>26.301846666666734</v>
-      </c>
-      <c r="BD12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AN$2:$AN$1048576)</f>
-        <v>88</v>
-      </c>
-      <c r="BE12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AO$2:$AO$1048576)</f>
-        <v>52</v>
-      </c>
-      <c r="BF12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AP$2:$AP$1048576)</f>
-        <v>89</v>
-      </c>
-      <c r="BG12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AQ$2:$AQ$1048576)</f>
-        <v>52</v>
-      </c>
-      <c r="BH12" s="1">
-        <f t="shared" si="2"/>
-        <v>177</v>
-      </c>
-      <c r="BI12" s="1">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>10</v>
-      </c>
-      <c r="S13" s="1">
-        <v>4</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>4</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>212</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>116.55618</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0.773722627737226</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0.81203007518796999</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>0.68518518518518501</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>108</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>74</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>72</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>73</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0.29126213592233002</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0.96698113207547198</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>240</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>496</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>736</v>
-      </c>
-      <c r="AX13" s="1" t="str">
-        <f t="shared" ref="AX13" si="8">B13</f>
-        <v>'20201022'</v>
-      </c>
-      <c r="AZ13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AE$2:$AE$1048576)</f>
-        <v>212</v>
-      </c>
-      <c r="BA13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AV$2:$AV$1048576)</f>
-        <v>736</v>
-      </c>
-      <c r="BB13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AF$2:$AF$1048576)*60</f>
-        <v>6993.3707999999997</v>
-      </c>
-      <c r="BC13" s="12">
-        <f t="shared" ref="BC13" si="9">BB13/AZ13</f>
-        <v>32.987598113207547</v>
-      </c>
-      <c r="BD13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AN$2:$AN$1048576)</f>
-        <v>30</v>
-      </c>
-      <c r="BE13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AO$2:$AO$1048576)</f>
-        <v>72</v>
-      </c>
-      <c r="BF13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AP$2:$AP$1048576)</f>
-        <v>30</v>
-      </c>
-      <c r="BG13" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B13,$AQ$2:$AQ$1048576)</f>
-        <v>73</v>
-      </c>
-      <c r="BH13" s="1">
-        <f t="shared" ref="BH13" si="10">SUM(BD13,BF13)</f>
-        <v>60</v>
-      </c>
-      <c r="BI13" s="1">
-        <f t="shared" ref="BI13" si="11">SUM(BE13,BG13)</f>
-        <v>145</v>
+      <c r="BE14" s="12">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BH14" s="1">
+        <f t="shared" ref="BH14" si="20">SUM(BD14,BF14)</f>
+        <v>59</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" ref="BI14" si="21">SUM(BE14,BG14)</f>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3266,27 +3533,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM10"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="43" width="8.6640625" style="1"/>
-    <col min="44" max="44" width="8.6640625" style="8"/>
-    <col min="45" max="16384" width="8.6640625" style="1"/>
+    <col min="31" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="8"/>
+    <col min="45" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3475,14 +3742,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>469</v>
+        <v>516</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>429</v>
+        <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -3631,6 +3898,9 @@
         <f>B2</f>
         <v>'20201013'</v>
       </c>
+      <c r="AY2" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>54</v>
@@ -3672,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3818,19 +4088,22 @@
         <v>384</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <f t="shared" ref="AX3:AX9" si="0">B3</f>
+        <f t="shared" ref="AX3:AX10" si="0">B3</f>
         <v>'20201014'</v>
       </c>
+      <c r="AY3" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ10" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA10" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA11" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB10" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -3838,19 +4111,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD10" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE10" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF10" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF11" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG10" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG11" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -3862,7 +4135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -4011,6 +4284,9 @@
         <f t="shared" si="0"/>
         <v>'20201015'</v>
       </c>
+      <c r="AY4" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="AZ4" s="12">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4052,7 +4328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -4201,6 +4477,9 @@
         <f t="shared" si="0"/>
         <v>'20201015'</v>
       </c>
+      <c r="AY5" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ5" s="12">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -4242,7 +4521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -4391,6 +4670,9 @@
         <f t="shared" si="0"/>
         <v>'20201016'</v>
       </c>
+      <c r="AY6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ6" s="12">
         <f t="shared" si="1"/>
         <v>195</v>
@@ -4432,7 +4714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -4581,6 +4863,9 @@
         <f t="shared" si="0"/>
         <v>'20201019'</v>
       </c>
+      <c r="AY7" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ7" s="12">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -4622,7 +4907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -4771,6 +5056,9 @@
         <f t="shared" si="0"/>
         <v>'20201020'</v>
       </c>
+      <c r="AY8" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ8" s="12">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4812,7 +5100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -4942,7 +5230,7 @@
       <c r="AQ9" s="1">
         <v>18</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AR9" s="16">
         <v>0.68421052631579005</v>
       </c>
       <c r="AS9" s="1">
@@ -4961,6 +5249,9 @@
         <f t="shared" si="0"/>
         <v>'20201021'</v>
       </c>
+      <c r="AY9" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
         <v>223</v>
@@ -5002,7 +5293,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -5132,7 +5423,7 @@
       <c r="AQ10" s="1">
         <v>21</v>
       </c>
-      <c r="AR10" s="8">
+      <c r="AR10" s="16">
         <v>0.43243243243243201</v>
       </c>
       <c r="AS10" s="1">
@@ -5146,6 +5437,13 @@
       </c>
       <c r="AV10" s="1">
         <v>240</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="AZ10" s="12">
         <f t="shared" si="1"/>
@@ -5186,6 +5484,199 @@
       <c r="BI10" s="1">
         <f t="shared" ref="BI10" si="13">SUM(BE10,BG10)</f>
         <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>151</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>65.772774999999996</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.89880952380952395</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.82926829268292701</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.90666666666666695</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.94230769230769196</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>68</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>49</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>13</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>21</v>
+      </c>
+      <c r="AR11" s="16">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.68874172185430504</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>80</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>208</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>288</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" ref="AX11" si="14">B11</f>
+        <v>'20201023'</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="3"/>
+        <v>3946.3664999999996</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" ref="BC11" si="15">BB11/AZ11</f>
+        <v>26.134877483443706</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" ref="BH11" si="16">SUM(BD11,BF11)</f>
+        <v>47</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" ref="BI11" si="17">SUM(BE11,BG11)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5196,29 +5687,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BD12" sqref="BD12"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="8.6640625" style="1"/>
-    <col min="33" max="36" width="8.6640625" style="8"/>
-    <col min="37" max="43" width="8.6640625" style="1"/>
-    <col min="44" max="45" width="8.6640625" style="8"/>
-    <col min="46" max="16384" width="8.6640625" style="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5407,14 +5898,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>570</v>
+        <v>766</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>407</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -5563,6 +6054,9 @@
         <f>B2</f>
         <v>'20201012'</v>
       </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>5</v>
@@ -5604,7 +6098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -5750,19 +6244,22 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <f t="shared" ref="AX3:AX12" si="0">B3</f>
+        <f t="shared" ref="AX3:AX13" si="0">B3</f>
         <v>'20201013'</v>
       </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -5770,19 +6267,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -5794,7 +6291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -5943,6 +6440,9 @@
         <f t="shared" si="0"/>
         <v>'20201013'</v>
       </c>
+      <c r="AY4" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ4" s="12">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -5984,7 +6484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -6133,6 +6633,9 @@
         <f t="shared" si="0"/>
         <v>'20201013'</v>
       </c>
+      <c r="AY5" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ5" s="12">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6174,7 +6677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -6323,6 +6826,9 @@
         <f t="shared" si="0"/>
         <v>'20201013'</v>
       </c>
+      <c r="AY6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ6" s="12">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6364,7 +6870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -6513,6 +7019,9 @@
         <f t="shared" si="0"/>
         <v>'20201014'</v>
       </c>
+      <c r="AY7" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ7" s="12">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -6554,7 +7063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -6703,6 +7212,9 @@
         <f t="shared" si="0"/>
         <v>'20201015'</v>
       </c>
+      <c r="AY8" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ8" s="12">
         <f t="shared" si="1"/>
         <v>188</v>
@@ -6744,7 +7256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -6893,6 +7405,9 @@
         <f t="shared" si="0"/>
         <v>'20201016'</v>
       </c>
+      <c r="AY9" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
         <v>231</v>
@@ -6934,7 +7449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7083,6 +7598,9 @@
         <f t="shared" si="0"/>
         <v>'20201019'</v>
       </c>
+      <c r="AY10" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ10" s="12">
         <f t="shared" si="1"/>
         <v>193</v>
@@ -7124,7 +7642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -7273,6 +7791,9 @@
         <f t="shared" si="0"/>
         <v>'20201020'</v>
       </c>
+      <c r="AY11" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ11" s="12">
         <f t="shared" si="1"/>
         <v>172</v>
@@ -7314,7 +7835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -7463,6 +7984,9 @@
         <f t="shared" si="0"/>
         <v>'20201021'</v>
       </c>
+      <c r="AY12" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ12" s="12">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -7502,6 +8026,392 @@
       <c r="BI12" s="1">
         <f t="shared" ref="BI12" si="13">SUM(BE12,BG12)</f>
         <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>242</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>101.973728333333</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.82876712328767099</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>0.79220779220779203</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>0.98387096774193605</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>0.78431372549019596</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>120</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>62</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="16">
+        <v>0.83606557377049195</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0.76033057851239705</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>512</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>176</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="BA13" s="12">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="BB13" s="12">
+        <f t="shared" si="3"/>
+        <v>6118.4236999999803</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13" si="14">BB13/AZ13</f>
+        <v>25.28274256198339</v>
+      </c>
+      <c r="BD13" s="12">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="BE13" s="12">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="BF13" s="12">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="BG13" s="12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13" si="15">SUM(BD13,BF13)</f>
+        <v>112</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13" si="16">SUM(BE13,BG13)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>189</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>72.255091666666701</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.95939086294416198</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.93181818181818199</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>105</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>43</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0.66137566137566095</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>304</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" ref="AX14" si="17">B14</f>
+        <v>'20201023'</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ14" s="12">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="BA14" s="12">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="BB14" s="12">
+        <f t="shared" si="3"/>
+        <v>4335.3055000000022</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" ref="BC14" si="18">BB14/AZ14</f>
+        <v>22.938124338624352</v>
+      </c>
+      <c r="BD14" s="12">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="BE14" s="12">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <f t="shared" ref="BH14" si="19">SUM(BD14,BF14)</f>
+        <v>84</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" ref="BI14" si="20">SUM(BE14,BG14)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7512,25 +8422,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM8"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="26" width="8.6640625" style="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.6640625" style="1"/>
+    <col min="31" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -7642,11 +8552,11 @@
       <c r="AK1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>23</v>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -7719,14 +8629,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>564</v>
+        <v>762</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -7875,6 +8785,9 @@
         <f>B2</f>
         <v>'20201012'</v>
       </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>20</v>
@@ -7916,7 +8829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -8065,16 +8978,19 @@
         <f t="shared" ref="AX3:AX8" si="0">B3</f>
         <v>'20201013'</v>
       </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ8" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA8" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA11" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB8" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -8082,19 +8998,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD8" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE8" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF8" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF11" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG8" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG11" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -8106,7 +9022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -8255,6 +9171,9 @@
         <f t="shared" si="0"/>
         <v>'20201014'</v>
       </c>
+      <c r="AY4" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ4" s="12">
         <f t="shared" si="1"/>
         <v>238</v>
@@ -8296,7 +9215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -8445,6 +9364,9 @@
         <f t="shared" si="0"/>
         <v>'20201015'</v>
       </c>
+      <c r="AY5" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ5" s="12">
         <f t="shared" si="1"/>
         <v>178</v>
@@ -8486,7 +9408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -8635,6 +9557,9 @@
         <f t="shared" si="0"/>
         <v>'20201016'</v>
       </c>
+      <c r="AY6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ6" s="12">
         <f t="shared" si="1"/>
         <v>219</v>
@@ -8676,7 +9601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -8825,6 +9750,9 @@
         <f t="shared" si="0"/>
         <v>'20201019'</v>
       </c>
+      <c r="AY7" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ7" s="12">
         <f t="shared" si="1"/>
         <v>179</v>
@@ -8866,7 +9794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -9015,6 +9943,9 @@
         <f t="shared" si="0"/>
         <v>'20201020'</v>
       </c>
+      <c r="AY8" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="AZ8" s="12">
         <f t="shared" si="1"/>
         <v>221</v>
@@ -9054,6 +9985,585 @@
       <c r="BI8" s="1">
         <f t="shared" si="10"/>
         <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>13.699265</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>21</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="17">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>48</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" ref="AX9:AX10" si="11">B9</f>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>6007.7394000000004</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" ref="BC9:BC10" si="12">BB9/AZ9</f>
+        <v>23.018158620689658</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" ref="BH9:BH10" si="13">SUM(BD9,BF9)</f>
+        <v>99</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" ref="BI9:BI10" si="14">SUM(BE9,BG9)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>226</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>86.429725000000005</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.715189873417722</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.68292682926829296</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.73493975903614495</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>56</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>48</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>122</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>46</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>51</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>15</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.67256637168141598</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>160</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>160</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>320</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>6007.7394000000004</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" si="12"/>
+        <v>23.018158620689658</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>332</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>120.56608</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.81372549019607798</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.79310344827586199</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.86227544910179599</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>96</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>144</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>92</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>59</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR11" s="17">
+        <v>0.64130434782608703</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.82831325301204795</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>384</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>608</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" ref="AX11" si="15">B11</f>
+        <v>'20201023'</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>608</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="3"/>
+        <v>7233.9647999999997</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" ref="BC11" si="16">BB11/AZ11</f>
+        <v>21.789050602409638</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" ref="BH11" si="17">SUM(BD11,BF11)</f>
+        <v>150</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" ref="BI11" si="18">SUM(BE11,BG11)</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3536,7 +3536,7 @@
   <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BH11" sqref="BH11"/>
+      <selection activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5689,8 +5689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5821,11 +5821,11 @@
       <c r="AK1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -8424,7 +8424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="127">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -393,6 +393,21 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201023_135121.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201026_121304.mat'</t>
+  </si>
+  <si>
+    <t>'20201026'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201026_163910.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201026_135555.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201026_152656.mat'</t>
   </si>
 </sst>
 </file>
@@ -802,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -932,11 +947,11 @@
       <c r="AK1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -1009,11 +1024,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>580</v>
+        <v>695</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>642</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1169,15 +1184,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ14" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ15" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA14" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA15" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB14" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB15" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1185,19 +1200,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD14" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD15" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE14" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE15" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF14" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF15" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG14" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG15" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -3523,6 +3538,199 @@
       <c r="BI14" s="1">
         <f t="shared" ref="BI14" si="21">SUM(BE14,BG14)</f>
         <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>204</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>97.431645000000003</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.74452554744525601</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.81300813008130102</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.871428571428571</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.530864197530864</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>61</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>39</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0.58510638297872297</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0.95588235294117696</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>352</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>288</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>640</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" ref="AX15" si="22">B15</f>
+        <v>'20201026'</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ15" s="12">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="BA15" s="12">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="BB15" s="12">
+        <f t="shared" si="2"/>
+        <v>5845.8986999999997</v>
+      </c>
+      <c r="BC15" s="12">
+        <f t="shared" ref="BC15" si="23">BB15/AZ15</f>
+        <v>28.656366176470588</v>
+      </c>
+      <c r="BD15" s="12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="BE15" s="12">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="BF15" s="12">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="BG15" s="12">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BH15" s="1">
+        <f t="shared" ref="BH15" si="24">SUM(BD15,BF15)</f>
+        <v>115</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="25">SUM(BE15,BG15)</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3533,21 +3741,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AY11" sqref="AY11"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
     <col min="13" max="26" width="8.625" style="1"/>
-    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
     <col min="31" max="43" width="8.625" style="1"/>
     <col min="44" max="44" width="8.625" style="8"/>
     <col min="45" max="16384" width="8.625" style="1"/>
@@ -3665,11 +3873,11 @@
       <c r="AK1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -3742,11 +3950,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>486</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -4095,15 +4303,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA11" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -4111,19 +4319,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF11" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG11" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -5677,6 +5885,199 @@
       <c r="BI11" s="1">
         <f t="shared" ref="BI11" si="17">SUM(BE11,BG11)</f>
         <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>76</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>34.152574999999999</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.77551020408163296</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.837209302325581</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>18</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>22</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>19</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>18</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>14</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR12" s="16">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.72368421052631604</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>160</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>176</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" ref="AX12" si="18">B12</f>
+        <v>'20201026'</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="3"/>
+        <v>2049.1545000000001</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" ref="BC12" si="19">BB12/AZ12</f>
+        <v>26.962559210526319</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="BF12" s="12">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" ref="BH12" si="20">SUM(BD12,BF12)</f>
+        <v>33</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" ref="BI12" si="21">SUM(BE12,BG12)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5687,10 +6088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5898,11 +6299,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>766</v>
+        <v>876</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>520</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -6251,15 +6652,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ15" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA15" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB15" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -6267,19 +6668,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD15" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE15" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF15" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG15" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -8412,6 +8813,199 @@
       <c r="BI14" s="1">
         <f t="shared" ref="BI14" si="20">SUM(BE14,BG14)</f>
         <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>238</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>86.797546666666705</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.87822878228782297</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.918604651162791</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.80869565217391304</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>93</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>67</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>23</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>0.65151515151515205</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.84033613445378197</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>576</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" ref="AX15" si="21">B15</f>
+        <v>'20201026'</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ15" s="12">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="BA15" s="12">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="BB15" s="12">
+        <f t="shared" si="3"/>
+        <v>5207.8528000000024</v>
+      </c>
+      <c r="BC15" s="12">
+        <f t="shared" ref="BC15" si="22">BB15/AZ15</f>
+        <v>21.881734453781522</v>
+      </c>
+      <c r="BD15" s="12">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="BE15" s="12">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="BF15" s="12">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="BG15" s="12">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="BH15" s="1">
+        <f t="shared" ref="BH15" si="23">SUM(BD15,BF15)</f>
+        <v>110</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="24">SUM(BE15,BG15)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8422,10 +9016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8629,11 +9223,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>800</v>
+        <v>869</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>762</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -8982,15 +9576,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ11" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA11" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB11" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -8998,19 +9592,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD11" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE11" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF11" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG11" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -10564,6 +11158,199 @@
       <c r="BI11" s="1">
         <f t="shared" ref="BI11" si="18">SUM(BE11,BG11)</f>
         <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>152</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>69.190148333333298</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.73429951690821305</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.69491525423728795</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.66990291262135904</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>42</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>69</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>28</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.79605263157894701</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>208</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>208</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" ref="AX12" si="19">B12</f>
+        <v>'20201026'</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="3"/>
+        <v>4151.4088999999976</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" ref="BC12" si="20">BB12/AZ12</f>
+        <v>27.311900657894721</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BF12" s="12">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" ref="BH12" si="21">SUM(BD12,BF12)</f>
+        <v>69</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" ref="BI12" si="22">SUM(BE12,BG12)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -374,9 +374,6 @@
     <t>'JB368_Infoseek_20201022_135555.mat'</t>
   </si>
   <si>
-    <t>Choice</t>
-  </si>
-  <si>
     <t>'JB369_Infoseek_20201022_154517.mat'</t>
   </si>
   <si>
@@ -408,6 +405,33 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201026_152656.mat'</t>
+  </si>
+  <si>
+    <t>Choice 1</t>
+  </si>
+  <si>
+    <t>Choice 2</t>
+  </si>
+  <si>
+    <t>Choice 3</t>
+  </si>
+  <si>
+    <t>Reversal 1</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201027_120555.mat'</t>
+  </si>
+  <si>
+    <t>'20201027'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201027_150455.mat'</t>
+  </si>
+  <si>
+    <t>Reverse 1</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201027_164859.mat'</t>
   </si>
 </sst>
 </file>
@@ -455,7 +479,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +566,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1024,11 +1055,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>695</v>
+        <v>804</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>722</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1184,15 +1215,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ15" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ16" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA15" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA16" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB15" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB16" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1200,19 +1231,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD15" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD16" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE15" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE16" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF15" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF16" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG15" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG16" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -3542,10 +3573,10 @@
     </row>
     <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C15" s="1">
         <v>1000</v>
@@ -3731,6 +3762,199 @@
       <c r="BI15" s="1">
         <f t="shared" ref="BI15" si="25">SUM(BE15,BG15)</f>
         <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>198</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>79.573625000000007</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.81081081081081097</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.85882352941176499</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>60</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>65</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>59</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>59</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR16" s="17">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0.89898989898989901</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>304</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>528</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" ref="AX16" si="26">B16</f>
+        <v>'20201027'</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ16" s="12">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="BA16" s="12">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="BB16" s="12">
+        <f t="shared" si="2"/>
+        <v>4774.4175000000005</v>
+      </c>
+      <c r="BC16" s="12">
+        <f t="shared" ref="BC16" si="27">BB16/AZ16</f>
+        <v>24.113219696969701</v>
+      </c>
+      <c r="BD16" s="12">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="BE16" s="12">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="BF16" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="BG16" s="12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" ref="BH16" si="28">SUM(BD16,BF16)</f>
+        <v>109</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" ref="BI16" si="29">SUM(BE16,BG16)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3744,7 +3968,7 @@
   <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5458,7 +5682,7 @@
         <v>'20201021'</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
@@ -5651,7 +5875,7 @@
         <v>'20201022'</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AZ10" s="12">
         <f t="shared" si="1"/>
@@ -5696,7 +5920,7 @@
     </row>
     <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>111</v>
@@ -5844,7 +6068,7 @@
         <v>'20201023'</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AZ11" s="12">
         <f t="shared" si="1"/>
@@ -5889,10 +6113,10 @@
     </row>
     <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1">
         <v>1000</v>
@@ -6037,7 +6261,7 @@
         <v>'20201026'</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="AZ12" s="12">
         <f t="shared" si="1"/>
@@ -6088,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6299,11 +6523,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>876</v>
+        <v>967</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>610</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -6652,15 +6876,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ15" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA15" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB15" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -6668,19 +6892,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD15" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE15" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF15" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG15" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -8579,7 +8803,7 @@
         <v>'20201022'</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AZ13" s="12">
         <f t="shared" si="1"/>
@@ -8624,7 +8848,7 @@
     </row>
     <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>111</v>
@@ -8772,7 +8996,7 @@
         <v>'20201023'</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AZ14" s="12">
         <f t="shared" si="1"/>
@@ -8817,10 +9041,10 @@
     </row>
     <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1">
         <v>1000</v>
@@ -8961,11 +9185,11 @@
         <v>576</v>
       </c>
       <c r="AX15" s="1" t="str">
-        <f t="shared" ref="AX15" si="21">B15</f>
+        <f t="shared" ref="AX15:AX16" si="21">B15</f>
         <v>'20201026'</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AZ15" s="12">
         <f t="shared" si="1"/>
@@ -9006,6 +9230,199 @@
       <c r="BI15" s="1">
         <f t="shared" ref="BI15" si="24">SUM(BE15,BG15)</f>
         <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>255</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>99.089231666666706</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>0.80582524271844702</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>75</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>17</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AR16" s="18">
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>320</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>368</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'20201027'</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ16" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="BA16" s="12">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="BB16" s="12">
+        <f t="shared" si="3"/>
+        <v>5945.3539000000019</v>
+      </c>
+      <c r="BC16" s="12">
+        <f t="shared" ref="BC16" si="25">BB16/AZ16</f>
+        <v>23.31511333333334</v>
+      </c>
+      <c r="BD16" s="12">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="BE16" s="12">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BF16" s="12">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="BG16" s="12">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" ref="BH16" si="26">SUM(BD16,BF16)</f>
+        <v>91</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" ref="BI16" si="27">SUM(BE16,BG16)</f>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9016,10 +9433,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13:BI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9150,7 +9567,7 @@
         <v>22</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -9223,11 +9640,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>814</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -9576,15 +9993,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ13" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA13" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB13" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -9592,19 +10009,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD13" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE13" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF13" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG13" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -10583,7 +11000,7 @@
     </row>
     <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>108</v>
@@ -10731,7 +11148,7 @@
         <v>'20201022'</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AZ9" s="12">
         <f t="shared" si="1"/>
@@ -10776,7 +11193,7 @@
     </row>
     <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>108</v>
@@ -10924,7 +11341,7 @@
         <v>'20201022'</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AZ10" s="12">
         <f t="shared" si="1"/>
@@ -10969,7 +11386,7 @@
     </row>
     <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>111</v>
@@ -11117,7 +11534,7 @@
         <v>'20201023'</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AZ11" s="12">
         <f t="shared" si="1"/>
@@ -11162,10 +11579,10 @@
     </row>
     <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1">
         <v>1000</v>
@@ -11306,11 +11723,11 @@
         <v>208</v>
       </c>
       <c r="AX12" s="1" t="str">
-        <f t="shared" ref="AX12" si="19">B12</f>
+        <f t="shared" ref="AX12:AX13" si="19">B12</f>
         <v>'20201026'</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AZ12" s="12">
         <f t="shared" si="1"/>
@@ -11351,6 +11768,199 @@
       <c r="BI12" s="1">
         <f t="shared" ref="BI12" si="22">SUM(BE12,BG12)</f>
         <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>123</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>60.009713333333302</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.61809045226130699</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>38</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>45</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>19</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0.51351351351351404</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.89430894308943099</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>160</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>192</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>352</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>'20201027'</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="BA13" s="12">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="BB13" s="12">
+        <f t="shared" si="3"/>
+        <v>3600.5827999999983</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13" si="23">BB13/AZ13</f>
+        <v>29.273030894308928</v>
+      </c>
+      <c r="BD13" s="12">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="BE13" s="12">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="BF13" s="12">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="BG13" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13" si="24">SUM(BD13,BF13)</f>
+        <v>56</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13" si="25">SUM(BE13,BG13)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,6 +567,7 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3968,7 +3969,7 @@
   <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6241,7 +6242,7 @@
       <c r="AQ12" s="1">
         <v>4</v>
       </c>
-      <c r="AR12" s="16">
+      <c r="AR12" s="18">
         <v>0.77777777777777801</v>
       </c>
       <c r="AS12" s="1">
@@ -9435,8 +9436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AZ13" sqref="AZ13:BI13"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9640,11 +9641,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -11862,58 +11863,58 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="AF13" s="1">
-        <v>60.009713333333302</v>
+        <v>80.338570000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.61809045226130699</v>
+        <v>0.63099630996309997</v>
       </c>
       <c r="AH13" s="1">
-        <v>0.57575757575757602</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.61643835616438403</v>
+        <v>0.63440860215053796</v>
       </c>
       <c r="AJ13" s="1">
         <v>0.66666666666666696</v>
       </c>
       <c r="AK13" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AL13" s="1">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AM13" s="1">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AN13" s="1">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AO13" s="1">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AP13" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AQ13" s="1">
-        <v>18</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0.51351351351351404</v>
+        <v>22</v>
+      </c>
+      <c r="AR13" s="19">
+        <v>0.55102040816326503</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.89430894308943099</v>
+        <v>0.87719298245613997</v>
       </c>
       <c r="AT13" s="1">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="AU13" s="1">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AV13" s="1">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="AX13" s="1" t="str">
         <f t="shared" si="19"/>
@@ -11924,43 +11925,43 @@
       </c>
       <c r="AZ13" s="12">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="BA13" s="12">
         <f t="shared" si="2"/>
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="BB13" s="12">
         <f t="shared" si="3"/>
-        <v>3600.5827999999983</v>
+        <v>4820.3142000000007</v>
       </c>
       <c r="BC13" s="12">
         <f t="shared" ref="BC13" si="23">BB13/AZ13</f>
-        <v>29.273030894308928</v>
+        <v>28.188971929824564</v>
       </c>
       <c r="BD13" s="12">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="BE13" s="12">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="BF13" s="12">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BG13" s="12">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BH13" s="1">
         <f t="shared" ref="BH13" si="24">SUM(BD13,BF13)</f>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="BI13" s="1">
         <f t="shared" ref="BI13" si="25">SUM(BE13,BG13)</f>
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="141">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201027_164859.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201028_100637.mat'</t>
+  </si>
+  <si>
+    <t>'20201028'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201028_114704.mat'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201027_133155.mat'</t>
+  </si>
+  <si>
+    <t>Reversal 2</t>
+  </si>
+  <si>
+    <t>Reversal3</t>
   </si>
 </sst>
 </file>
@@ -849,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,11 +1074,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>804</v>
+        <v>937</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>791</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1216,15 +1234,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ16" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ17" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA16" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA17" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB16" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB17" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1232,19 +1250,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD16" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD17" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE16" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE17" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF16" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF17" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG16" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG17" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -3956,6 +3974,199 @@
       <c r="BI16" s="1">
         <f t="shared" ref="BI16" si="29">SUM(BE16,BG16)</f>
         <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>232</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>96.499526666666696</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.86891385767790297</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.87356321839080497</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.81730769230769196</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>71</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>76</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>85</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>69</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>70</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR17" s="17">
+        <v>0.90140845070422504</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0.90517241379310298</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>576</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>240</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>816</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <f t="shared" ref="AX17" si="30">B17</f>
+        <v>'20201028'</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ17" s="12">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="BA17" s="12">
+        <f t="shared" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="BB17" s="12">
+        <f t="shared" si="2"/>
+        <v>5789.9716000000017</v>
+      </c>
+      <c r="BC17" s="12">
+        <f t="shared" ref="BC17" si="31">BB17/AZ17</f>
+        <v>24.956774137931042</v>
+      </c>
+      <c r="BD17" s="12">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="BE17" s="12">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="BF17" s="12">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="BG17" s="12">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="BH17" s="1">
+        <f t="shared" ref="BH17" si="32">SUM(BD17,BF17)</f>
+        <v>133</v>
+      </c>
+      <c r="BI17" s="1">
+        <f t="shared" ref="BI17" si="33">SUM(BE17,BG17)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3966,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4175,11 +4386,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>549</v>
+        <v>738</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>508</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -4528,15 +4739,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ12" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA12" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB12" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -4544,19 +4755,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD12" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE12" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF12" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG12" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -6303,6 +6514,392 @@
       <c r="BI12" s="1">
         <f t="shared" ref="BI12" si="21">SUM(BE12,BG12)</f>
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>211</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>90.822699999999998</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.70099667774086405</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.734177215189873</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.71084337349397597</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.67625899280575497</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>58</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>59</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>94</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>58</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>59</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR13" s="18">
+        <v>0.67241379310344795</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.82938388625592396</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>304</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>288</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>592</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" ref="AX13:AX14" si="22">B13</f>
+        <v>'20201027'</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="BA13" s="12">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="BB13" s="12">
+        <f t="shared" si="3"/>
+        <v>5449.3620000000001</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13:BC14" si="23">BB13/AZ13</f>
+        <v>25.82636018957346</v>
+      </c>
+      <c r="BD13" s="12">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="BE13" s="12">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="BF13" s="12">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="BG13" s="12">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13:BH14" si="24">SUM(BD13,BF13)</f>
+        <v>97</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13:BI14" si="25">SUM(BE13,BG13)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>209</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>99.947873333333305</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.85507246376811596</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.73626373626373598</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>59</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>67</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>56</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>55</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>36</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR14" s="18">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0.799043062200957</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>272</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>144</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>416</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>'20201028'</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ14" s="12">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="BA14" s="12">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="BB14" s="12">
+        <f t="shared" si="3"/>
+        <v>5996.8723999999984</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" si="23"/>
+        <v>28.693169377990422</v>
+      </c>
+      <c r="BD14" s="12">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="BE14" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="BH14" s="1">
+        <f t="shared" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" si="25"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6315,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="144">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -450,15 +450,30 @@
   </si>
   <si>
     <t>Reversal3</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201028_134905.mat'</t>
+  </si>
+  <si>
+    <t>Reverse 2</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201028_152437.mat'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="arial"/>
       <family val="2"/>
@@ -543,49 +558,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,7 +896,11 @@
     <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.625" style="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -1178,16 +1196,16 @@
       <c r="AF2" s="1">
         <v>36.790759999999999</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="8">
         <v>0.88157894736842102</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="8">
         <v>0.8</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="8">
         <v>0.92156862745098</v>
       </c>
       <c r="AK2" s="1">
@@ -1371,16 +1389,16 @@
       <c r="AF3" s="1">
         <v>5.3067900000000003</v>
       </c>
-      <c r="AG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1">
+      <c r="AI3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="8">
         <v>1</v>
       </c>
       <c r="AK3" s="1">
@@ -1404,10 +1422,10 @@
       <c r="AQ3" s="1">
         <v>0</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AR3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="8">
         <v>0.66666666666666696</v>
       </c>
       <c r="AT3" s="1">
@@ -1564,16 +1582,16 @@
       <c r="AF4" s="1">
         <v>41.183941666666698</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="8">
         <v>0.840425531914894</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="8">
         <v>0.9375</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="8">
         <v>0.79032258064516103</v>
       </c>
       <c r="AK4" s="1">
@@ -1597,10 +1615,10 @@
       <c r="AQ4" s="1">
         <v>0</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AR4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="8">
         <v>0.721518987341772</v>
       </c>
       <c r="AT4" s="1">
@@ -1757,16 +1775,16 @@
       <c r="AF5" s="1">
         <v>40.919125000000001</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="8">
         <v>0.86585365853658502</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="8">
         <v>0.88235294117647101</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="8">
         <v>0.85416666666666696</v>
       </c>
       <c r="AK5" s="1">
@@ -1790,10 +1808,10 @@
       <c r="AQ5" s="1">
         <v>0</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AR5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="8">
         <v>0.676056338028169</v>
       </c>
       <c r="AT5" s="1">
@@ -1950,16 +1968,16 @@
       <c r="AF6" s="1">
         <v>21.3446583333333</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="8">
         <v>0.91228070175438603</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="8">
         <v>0.95652173913043503</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="8">
         <v>0.88235294117647101</v>
       </c>
       <c r="AK6" s="1">
@@ -1983,10 +2001,10 @@
       <c r="AQ6" s="1">
         <v>0</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AR6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="8">
         <v>0.75</v>
       </c>
       <c r="AT6" s="1">
@@ -2143,16 +2161,16 @@
       <c r="AF7" s="1">
         <v>58.589100000000002</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="8">
         <v>0.90510948905109501</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="8">
         <v>0.96226415094339601</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="8">
         <v>0.86904761904761896</v>
       </c>
       <c r="AK7" s="1">
@@ -2176,10 +2194,10 @@
       <c r="AQ7" s="1">
         <v>0</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AR7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="8">
         <v>0.717741935483871</v>
       </c>
       <c r="AT7" s="1">
@@ -2336,16 +2354,16 @@
       <c r="AF8" s="1">
         <v>1.0184883333333301</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="8">
         <v>0.66666666666666696</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="1">
+      <c r="AI8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="8">
         <v>0.5</v>
       </c>
       <c r="AK8" s="1">
@@ -2369,10 +2387,10 @@
       <c r="AQ8" s="1">
         <v>0</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AR8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="8">
         <v>1</v>
       </c>
       <c r="AT8" s="1">
@@ -2529,16 +2547,16 @@
       <c r="AF9" s="1">
         <v>9.4605216666666703</v>
       </c>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AG9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="AI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="8">
         <v>1</v>
       </c>
       <c r="AK9" s="1">
@@ -2562,10 +2580,10 @@
       <c r="AQ9" s="1">
         <v>0</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AR9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="8">
         <v>0.35</v>
       </c>
       <c r="AT9" s="1">
@@ -2722,16 +2740,16 @@
       <c r="AF10" s="1">
         <v>61.556255</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="8">
         <v>0.88586956521739102</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="8">
         <v>0.84146341463414598</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="8">
         <v>0.92156862745098</v>
       </c>
       <c r="AK10" s="1">
@@ -2755,10 +2773,10 @@
       <c r="AQ10" s="1">
         <v>0</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AR10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="8">
         <v>0.77300613496932502</v>
       </c>
       <c r="AT10" s="1">
@@ -2915,16 +2933,16 @@
       <c r="AF11" s="1">
         <v>69.735161666666698</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="8">
         <v>0.86574074074074103</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AH11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="8">
         <v>0.80508474576271205</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="8">
         <v>0.93877551020408201</v>
       </c>
       <c r="AK11" s="1">
@@ -2948,10 +2966,10 @@
       <c r="AQ11" s="1">
         <v>0</v>
       </c>
-      <c r="AR11" s="1" t="s">
+      <c r="AR11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="8">
         <v>0.925133689839572</v>
       </c>
       <c r="AT11" s="1">
@@ -3108,16 +3126,16 @@
       <c r="AF12" s="1">
         <v>124.933771666667</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="8">
         <v>0.91639871382636695</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="8">
         <v>0.88888888888888895</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="8">
         <v>0.92708333333333304</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="8">
         <v>0.98113207547169801</v>
       </c>
       <c r="AK12" s="1">
@@ -3141,10 +3159,10 @@
       <c r="AQ12" s="1">
         <v>52</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AR12" s="8">
         <v>0.63120567375886505</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="8">
         <v>0.98596491228070204</v>
       </c>
       <c r="AT12" s="1">
@@ -3301,16 +3319,16 @@
       <c r="AF13" s="1">
         <v>116.55618</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="8">
         <v>0.773722627737226</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="8">
         <v>0.81203007518796999</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="8">
         <v>0.90909090909090895</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="8">
         <v>0.68518518518518501</v>
       </c>
       <c r="AK13" s="1">
@@ -3334,10 +3352,10 @@
       <c r="AQ13" s="1">
         <v>73</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR13" s="8">
         <v>0.29126213592233002</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS13" s="8">
         <v>0.96698113207547198</v>
       </c>
       <c r="AT13" s="1">
@@ -3494,16 +3512,16 @@
       <c r="AF14" s="1">
         <v>74.957053333333306</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="8">
         <v>0.85572139303482597</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="8">
         <v>0.91304347826086996</v>
       </c>
-      <c r="AI14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="1">
+      <c r="AI14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="8">
         <v>0.734177215189873</v>
       </c>
       <c r="AK14" s="1">
@@ -3527,10 +3545,10 @@
       <c r="AQ14" s="1">
         <v>55</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AR14" s="8">
         <v>0.34523809523809501</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="8">
         <v>0.98837209302325602</v>
       </c>
       <c r="AT14" s="1">
@@ -3687,16 +3705,16 @@
       <c r="AF15" s="1">
         <v>97.431645000000003</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="8">
         <v>0.74452554744525601</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="8">
         <v>0.81300813008130102</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="8">
         <v>0.871428571428571</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="8">
         <v>0.530864197530864</v>
       </c>
       <c r="AK15" s="1">
@@ -3720,10 +3738,10 @@
       <c r="AQ15" s="1">
         <v>39</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="AR15" s="8">
         <v>0.58510638297872297</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="AS15" s="8">
         <v>0.95588235294117696</v>
       </c>
       <c r="AT15" s="1">
@@ -3880,16 +3898,16 @@
       <c r="AF16" s="1">
         <v>79.573625000000007</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16" s="8">
         <v>0.84615384615384603</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="8">
         <v>0.81081081081081097</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="8">
         <v>0.86666666666666703</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="8">
         <v>0.85882352941176499</v>
       </c>
       <c r="AK16" s="1">
@@ -3913,10 +3931,10 @@
       <c r="AQ16" s="1">
         <v>10</v>
       </c>
-      <c r="AR16" s="17">
+      <c r="AR16" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AS16" s="8">
         <v>0.89898989898989901</v>
       </c>
       <c r="AT16" s="1">
@@ -4073,16 +4091,16 @@
       <c r="AF17" s="1">
         <v>96.499526666666696</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="8">
         <v>0.86891385767790297</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="8">
         <v>0.93421052631579005</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="8">
         <v>0.87356321839080497</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="8">
         <v>0.81730769230769196</v>
       </c>
       <c r="AK17" s="1">
@@ -4106,10 +4124,10 @@
       <c r="AQ17" s="1">
         <v>7</v>
       </c>
-      <c r="AR17" s="17">
+      <c r="AR17" s="16">
         <v>0.90140845070422504</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17" s="8">
         <v>0.90517241379310298</v>
       </c>
       <c r="AT17" s="1">
@@ -4179,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4193,8 +4211,8 @@
     <col min="13" max="26" width="8.625" style="1"/>
     <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
     <col min="31" max="43" width="8.625" style="1"/>
-    <col min="44" max="44" width="8.625" style="8"/>
-    <col min="45" max="16384" width="8.625" style="1"/>
+    <col min="44" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -4719,7 +4737,7 @@
       <c r="AR3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="8">
         <v>0.72499999999999998</v>
       </c>
       <c r="AT3" s="1">
@@ -4912,7 +4930,7 @@
       <c r="AR4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="8">
         <v>0.88</v>
       </c>
       <c r="AT4" s="1">
@@ -5105,7 +5123,7 @@
       <c r="AR5" s="8">
         <v>0.57446808510638303</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="8">
         <v>0.98947368421052595</v>
       </c>
       <c r="AT5" s="1">
@@ -5298,7 +5316,7 @@
       <c r="AR6" s="8">
         <v>0.625</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="8">
         <v>0.89743589743589802</v>
       </c>
       <c r="AT6" s="1">
@@ -5491,7 +5509,7 @@
       <c r="AR7" s="8">
         <v>0.41379310344827602</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="8">
         <v>0.89312977099236701</v>
       </c>
       <c r="AT7" s="1">
@@ -5684,7 +5702,7 @@
       <c r="AR8" s="8">
         <v>0.59615384615384603</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="8">
         <v>0.96296296296296302</v>
       </c>
       <c r="AT8" s="1">
@@ -5877,7 +5895,7 @@
       <c r="AR9" s="16">
         <v>0.68421052631579005</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="8">
         <v>0.75784753363228696</v>
       </c>
       <c r="AT9" s="1">
@@ -6070,7 +6088,7 @@
       <c r="AR10" s="16">
         <v>0.43243243243243201</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="8">
         <v>0.72903225806451599</v>
       </c>
       <c r="AT10" s="1">
@@ -6263,7 +6281,7 @@
       <c r="AR11" s="16">
         <v>0.38235294117647101</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="8">
         <v>0.68874172185430504</v>
       </c>
       <c r="AT11" s="1">
@@ -6453,10 +6471,10 @@
       <c r="AQ12" s="1">
         <v>4</v>
       </c>
-      <c r="AR12" s="18">
+      <c r="AR12" s="17">
         <v>0.77777777777777801</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="8">
         <v>0.72368421052631604</v>
       </c>
       <c r="AT12" s="1">
@@ -6646,10 +6664,10 @@
       <c r="AQ13" s="1">
         <v>19</v>
       </c>
-      <c r="AR13" s="18">
+      <c r="AR13" s="17">
         <v>0.67241379310344795</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS13" s="8">
         <v>0.82938388625592396</v>
       </c>
       <c r="AT13" s="1">
@@ -6839,10 +6857,10 @@
       <c r="AQ14" s="1">
         <v>20</v>
       </c>
-      <c r="AR14" s="18">
+      <c r="AR14" s="17">
         <v>0.64285714285714302</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="8">
         <v>0.799043062200957</v>
       </c>
       <c r="AT14" s="1">
@@ -6910,10 +6928,3324 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>1041</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1.8584383333333301</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201012'</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>5</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>111.50629999999981</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
+        <v>22.301259999999964</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>2</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1.6240033333333299</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f t="shared" ref="AX3:AX13" si="0">B3</f>
+        <v>'20201013'</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>76</v>
+      </c>
+      <c r="BA3" s="12">
+        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>80</v>
+      </c>
+      <c r="BB3" s="12">
+        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3:BC11" si="4">BB3/AZ3</f>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BD3" s="12">
+        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>18</v>
+      </c>
+      <c r="BE3" s="12">
+        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BF3" s="12">
+        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>18</v>
+      </c>
+      <c r="BG3" s="12">
+        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BH3" s="1">
+        <f t="shared" ref="BH3:BH11" si="9">SUM(BD3,BF3)</f>
+        <v>36</v>
+      </c>
+      <c r="BI3" s="1">
+        <f t="shared" ref="BI3:BI11" si="10">SUM(BE3,BG3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>18.224824999999999</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201013'</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BA4" s="12">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="BB4" s="12">
+        <f t="shared" si="3"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BC4" s="12">
+        <f t="shared" si="4"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BD4" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE4" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF4" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG4" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="BI4" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>25.117891666666701</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>18</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>18</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>18</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201013'</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" si="3"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="4"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF5" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>28.29813</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.67741935483870996</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201013'</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="3"/>
+        <v>4395.8910000000014</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="4"/>
+        <v>57.840671052631599</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>101</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>59.931010000000001</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.92660550458715596</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.92592592592592604</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.87878787878787901</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>14</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>0.65853658536585402</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0.83168316831683198</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>96</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>240</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201014'</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="3"/>
+        <v>3595.8606</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="4"/>
+        <v>35.602580198019801</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="BF7" s="12">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>188</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>88.968711666666707</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.85454545454545505</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.87931034482758597</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.88636363636363602</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>98</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>51</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>39</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>48</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>33</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>49</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.87765957446808496</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>384</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>240</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>624</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201015'</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>5338.1227000000026</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" si="4"/>
+        <v>28.394269680851078</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>231</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>95.945305000000005</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.90588235294117703</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0.86524822695035497</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>122</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>33</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>73</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>34</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>0.68224299065420602</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>432</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>256</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201016'</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>5756.7183000000005</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="4"/>
+        <v>24.920858441558444</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>193</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>85.393709999999999</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.67482517482517501</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0.52459016393442603</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0.96551724137931005</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>96</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>56</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>41</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>54</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>54</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>39</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>0.58064516129032295</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0.96891191709844604</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>304</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>288</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>592</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201019'</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>5123.6225999999997</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" si="4"/>
+        <v>26.547267357512951</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>172</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>77.790121666666707</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.86868686868686895</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0.81188118811881205</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>0.89361702127659604</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>82</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>48</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>37</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>0.85465116279069797</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>336</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>656</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201020'</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="2"/>
+        <v>656</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="3"/>
+        <v>4667.4073000000026</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" si="4"/>
+        <v>27.136088953488386</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>130</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>67.1570866666667</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0.82051282051282104</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>26</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>25</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>38</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>0.39682539682539703</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>0.984615384615385</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>192</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>336</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201021'</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="BA12" s="12">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="BB12" s="12">
+        <f t="shared" si="3"/>
+        <v>4029.425200000002</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" ref="BC12" si="11">BB12/AZ12</f>
+        <v>30.995578461538475</v>
+      </c>
+      <c r="BD12" s="12">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="BE12" s="12">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BF12" s="12">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="BG12" s="12">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" ref="BH12" si="12">SUM(BD12,BF12)</f>
+        <v>51</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" ref="BI12" si="13">SUM(BE12,BG12)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>242</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>101.973728333333</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.82876712328767099</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>0.79220779220779203</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>0.98387096774193605</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>0.78431372549019596</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>120</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>61</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>62</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR13" s="16">
+        <v>0.83606557377049195</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0.76033057851239705</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>512</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>176</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201022'</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ13" s="12">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="BA13" s="12">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="BB13" s="12">
+        <f t="shared" si="3"/>
+        <v>6118.4236999999803</v>
+      </c>
+      <c r="BC13" s="12">
+        <f t="shared" ref="BC13" si="14">BB13/AZ13</f>
+        <v>25.28274256198339</v>
+      </c>
+      <c r="BD13" s="12">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="BE13" s="12">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="BF13" s="12">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="BG13" s="12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BH13" s="1">
+        <f t="shared" ref="BH13" si="15">SUM(BD13,BF13)</f>
+        <v>112</v>
+      </c>
+      <c r="BI13" s="1">
+        <f t="shared" ref="BI13" si="16">SUM(BE13,BG13)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>189</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>72.255091666666701</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.95939086294416198</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.93181818181818199</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>105</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>43</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="16">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0.66137566137566095</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>304</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" ref="AX14" si="17">B14</f>
+        <v>'20201023'</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ14" s="12">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="BA14" s="12">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="BB14" s="12">
+        <f t="shared" si="3"/>
+        <v>4335.3055000000022</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" ref="BC14" si="18">BB14/AZ14</f>
+        <v>22.938124338624352</v>
+      </c>
+      <c r="BD14" s="12">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="BE14" s="12">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <f t="shared" ref="BH14" si="19">SUM(BD14,BF14)</f>
+        <v>84</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" ref="BI14" si="20">SUM(BE14,BG14)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>238</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>86.797546666666705</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.87822878228782297</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.918604651162791</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.80869565217391304</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>66</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>93</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>67</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>23</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>0.65151515151515205</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.84033613445378197</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>576</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" ref="AX15:AX17" si="21">B15</f>
+        <v>'20201026'</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ15" s="12">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="BA15" s="12">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+      <c r="BB15" s="12">
+        <f t="shared" si="3"/>
+        <v>5207.8528000000024</v>
+      </c>
+      <c r="BC15" s="12">
+        <f t="shared" ref="BC15" si="22">BB15/AZ15</f>
+        <v>21.881734453781522</v>
+      </c>
+      <c r="BD15" s="12">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="BE15" s="12">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="BF15" s="12">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="BG15" s="12">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="BH15" s="1">
+        <f t="shared" ref="BH15" si="23">SUM(BD15,BF15)</f>
+        <v>110</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="24">SUM(BE15,BG15)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>255</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>99.089231666666706</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>0.80582524271844702</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>100</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>75</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>17</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AR16" s="17">
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>320</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>368</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'20201027'</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ16" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="BA16" s="12">
+        <f t="shared" si="2"/>
+        <v>688</v>
+      </c>
+      <c r="BB16" s="12">
+        <f t="shared" si="3"/>
+        <v>5945.3539000000019</v>
+      </c>
+      <c r="BC16" s="12">
+        <f t="shared" ref="BC16" si="25">BB16/AZ16</f>
+        <v>23.31511333333334</v>
+      </c>
+      <c r="BD16" s="12">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="BE16" s="12">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="BF16" s="12">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="BG16" s="12">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" ref="BH16" si="26">SUM(BD16,BF16)</f>
+        <v>91</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" ref="BI16" si="27">SUM(BE16,BG16)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>223</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>90.591513333333296</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0.79359430604982195</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>0.787610619469027</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>62</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>89</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>72</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>63</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>52</v>
+      </c>
+      <c r="AR17" s="17">
+        <v>0.16129032258064499</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>0.84753363228699596</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>336</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>384</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>720</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>'20201028'</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ17" s="12">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="BA17" s="12">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="BB17" s="12">
+        <f t="shared" si="3"/>
+        <v>5435.4907999999978</v>
+      </c>
+      <c r="BC17" s="12">
+        <f t="shared" ref="BC17" si="28">BB17/AZ17</f>
+        <v>24.374398206278016</v>
+      </c>
+      <c r="BD17" s="12">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="BE17" s="12">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="BF17" s="12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="BG17" s="12">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="BH17" s="1">
+        <f t="shared" ref="BH17" si="29">SUM(BD17,BF17)</f>
+        <v>74</v>
+      </c>
+      <c r="BI17" s="1">
+        <f t="shared" ref="BI17" si="30">SUM(BE17,BG17)</f>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM14"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7047,8 +10379,8 @@
       <c r="AL1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="5" t="s">
-        <v>23</v>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>25</v>
@@ -7121,3128 +10453,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>967</v>
+        <v>1034</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R2" s="1">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1">
-        <v>4</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>4</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1.8584383333333301</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AS2" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1" t="str">
-        <f>B2</f>
-        <v>'20201012'</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
-        <v>5</v>
-      </c>
-      <c r="BA2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BB2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
-        <v>111.50629999999981</v>
-      </c>
-      <c r="BC2" s="12">
-        <f>BB2/AZ2</f>
-        <v>22.301259999999964</v>
-      </c>
-      <c r="BD2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
-        <v>1</v>
-      </c>
-      <c r="BE2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
-        <v>1</v>
-      </c>
-      <c r="BF2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
-        <v>1</v>
-      </c>
-      <c r="BG2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
-        <v>1</v>
-      </c>
-      <c r="BH2" s="1">
-        <f>SUM(BD2,BF2)</f>
-        <v>2</v>
-      </c>
-      <c r="BI2" s="1">
-        <f>SUM(BE2,BG2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R3" s="1">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1.6240033333333299</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1" t="str">
-        <f t="shared" ref="AX3:AX13" si="0">B3</f>
-        <v>'20201013'</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
-        <v>76</v>
-      </c>
-      <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
-        <v>80</v>
-      </c>
-      <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
-        <v>4395.8910000000014</v>
-      </c>
-      <c r="BC3" s="12">
-        <f t="shared" ref="BC3:BC11" si="4">BB3/AZ3</f>
-        <v>57.840671052631599</v>
-      </c>
-      <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
-        <v>18</v>
-      </c>
-      <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
-        <v>8</v>
-      </c>
-      <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
-        <v>18</v>
-      </c>
-      <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
-        <v>8</v>
-      </c>
-      <c r="BH3" s="1">
-        <f t="shared" ref="BH3:BH11" si="9">SUM(BD3,BF3)</f>
-        <v>36</v>
-      </c>
-      <c r="BI3" s="1">
-        <f t="shared" ref="BI3:BI11" si="10">SUM(BE3,BG3)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1">
-        <v>4</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>15</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>18.224824999999999</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0.88235294117647101</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>11</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201013'</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ4" s="12">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="BA4" s="12">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="BB4" s="12">
-        <f t="shared" si="3"/>
-        <v>4395.8910000000014</v>
-      </c>
-      <c r="BC4" s="12">
-        <f t="shared" si="4"/>
-        <v>57.840671052631599</v>
-      </c>
-      <c r="BD4" s="12">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="BE4" s="12">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="BF4" s="12">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="BG4" s="12">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BH4" s="1">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="BI4" s="1">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>10</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>4</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>25.117891666666701</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>0.82608695652173902</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>0.86956521739130399</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>18</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>18</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>18</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="8">
-        <v>0.94736842105263197</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>80</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>80</v>
-      </c>
-      <c r="AX5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201013'</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ5" s="12">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="BA5" s="12">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="BB5" s="12">
-        <f t="shared" si="3"/>
-        <v>4395.8910000000014</v>
-      </c>
-      <c r="BC5" s="12">
-        <f t="shared" si="4"/>
-        <v>57.840671052631599</v>
-      </c>
-      <c r="BD5" s="12">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="BF5" s="12">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="BG5" s="12">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BH5" s="1">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="BI5" s="1">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R6" s="1">
-        <v>10</v>
-      </c>
-      <c r="S6" s="1">
-        <v>4</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>4</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>28.29813</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>12</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201013'</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ6" s="12">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="BA6" s="12">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="BB6" s="12">
-        <f t="shared" si="3"/>
-        <v>4395.8910000000014</v>
-      </c>
-      <c r="BC6" s="12">
-        <f t="shared" si="4"/>
-        <v>57.840671052631599</v>
-      </c>
-      <c r="BD6" s="12">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="BE6" s="12">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="BF6" s="12">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="BG6" s="12">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="BH6" s="1">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="BI6" s="1">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>10</v>
-      </c>
-      <c r="S7" s="1">
-        <v>4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>4</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>101</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>59.931010000000001</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0.92660550458715596</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0.92592592592592604</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>0.87878787878787901</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>50</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>29</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>22</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>29</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>14</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>27</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>14</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>0.65853658536585402</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>0.83168316831683198</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>144</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>96</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>240</v>
-      </c>
-      <c r="AX7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201014'</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ7" s="12">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="BA7" s="12">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="BB7" s="12">
-        <f t="shared" si="3"/>
-        <v>3595.8606</v>
-      </c>
-      <c r="BC7" s="12">
-        <f t="shared" si="4"/>
-        <v>35.602580198019801</v>
-      </c>
-      <c r="BD7" s="12">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="BE7" s="12">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="BF7" s="12">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="BG7" s="12">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="BH7" s="1">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-      <c r="BI7" s="1">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>10</v>
-      </c>
-      <c r="S8" s="1">
-        <v>4</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>4</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>188</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>88.968711666666707</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0.85454545454545505</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0.83050847457627097</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0.87931034482758597</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>0.88636363636363602</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>98</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>51</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>39</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>48</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>33</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>49</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="AS8" s="8">
-        <v>0.87765957446808496</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>384</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>240</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>624</v>
-      </c>
-      <c r="AX8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201015'</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ8" s="12">
-        <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-      <c r="BA8" s="12">
-        <f t="shared" si="2"/>
-        <v>624</v>
-      </c>
-      <c r="BB8" s="12">
-        <f t="shared" si="3"/>
-        <v>5338.1227000000026</v>
-      </c>
-      <c r="BC8" s="12">
-        <f t="shared" si="4"/>
-        <v>28.394269680851078</v>
-      </c>
-      <c r="BD8" s="12">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="BE8" s="12">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="BF8" s="12">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="BG8" s="12">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="BH8" s="1">
-        <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="BI8" s="1">
-        <f t="shared" si="10"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R9" s="1">
-        <v>10</v>
-      </c>
-      <c r="S9" s="1">
-        <v>4</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>231</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>95.945305000000005</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>0.90588235294117703</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>0.86524822695035497</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>0.94736842105263197</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>0.97368421052631604</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>122</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>72</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>70</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>33</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>73</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>34</v>
-      </c>
-      <c r="AR9" s="8">
-        <v>0.68224299065420602</v>
-      </c>
-      <c r="AS9" s="8">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>432</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>256</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>688</v>
-      </c>
-      <c r="AX9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201016'</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ9" s="12">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="BA9" s="12">
-        <f t="shared" si="2"/>
-        <v>688</v>
-      </c>
-      <c r="BB9" s="12">
-        <f t="shared" si="3"/>
-        <v>5756.7183000000005</v>
-      </c>
-      <c r="BC9" s="12">
-        <f t="shared" si="4"/>
-        <v>24.920858441558444</v>
-      </c>
-      <c r="BD9" s="12">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="BE9" s="12">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="BF9" s="12">
-        <f t="shared" si="7"/>
-        <v>73</v>
-      </c>
-      <c r="BG9" s="12">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="BH9" s="1">
-        <f t="shared" si="9"/>
-        <v>143</v>
-      </c>
-      <c r="BI9" s="1">
-        <f t="shared" si="10"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>10</v>
-      </c>
-      <c r="S10" s="1">
-        <v>4</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>4</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>193</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>85.393709999999999</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>0.67482517482517501</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>0.52459016393442603</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>0.96551724137931005</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>96</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>56</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>41</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>54</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>54</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>39</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>0.58064516129032295</v>
-      </c>
-      <c r="AS10" s="8">
-        <v>0.96891191709844604</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>304</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>288</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>592</v>
-      </c>
-      <c r="AX10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201019'</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ10" s="12">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="BA10" s="12">
-        <f t="shared" si="2"/>
-        <v>592</v>
-      </c>
-      <c r="BB10" s="12">
-        <f t="shared" si="3"/>
-        <v>5123.6225999999997</v>
-      </c>
-      <c r="BC10" s="12">
-        <f t="shared" si="4"/>
-        <v>26.547267357512951</v>
-      </c>
-      <c r="BD10" s="12">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="BE10" s="12">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="BF10" s="12">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="BG10" s="12">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="BH10" s="1">
-        <f t="shared" si="9"/>
-        <v>108</v>
-      </c>
-      <c r="BI10" s="1">
-        <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11" s="1">
-        <v>4</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>172</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>77.790121666666707</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0.86868686868686895</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>0.81188118811881205</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>0.89361702127659604</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>0.96</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>82</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>42</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>48</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>40</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>34</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>37</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>36</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>0.50684931506849296</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>0.85465116279069797</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>336</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>656</v>
-      </c>
-      <c r="AX11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201020'</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ11" s="12">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="BA11" s="12">
-        <f t="shared" si="2"/>
-        <v>656</v>
-      </c>
-      <c r="BB11" s="12">
-        <f t="shared" si="3"/>
-        <v>4667.4073000000026</v>
-      </c>
-      <c r="BC11" s="12">
-        <f t="shared" si="4"/>
-        <v>27.136088953488386</v>
-      </c>
-      <c r="BD11" s="12">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="BE11" s="12">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="BF11" s="12">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="BG11" s="12">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="BH11" s="1">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="BI11" s="1">
-        <f t="shared" si="10"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>10</v>
-      </c>
-      <c r="S12" s="1">
-        <v>4</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>4</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>130</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>67.1570866666667</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>0.89655172413793105</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0.82051282051282104</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>0.97560975609756095</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>64</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>26</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>40</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>26</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>38</v>
-      </c>
-      <c r="AR12" s="8">
-        <v>0.39682539682539703</v>
-      </c>
-      <c r="AS12" s="8">
-        <v>0.984615384615385</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>144</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>192</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>336</v>
-      </c>
-      <c r="AX12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201021'</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ12" s="12">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="BA12" s="12">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="BB12" s="12">
-        <f t="shared" si="3"/>
-        <v>4029.425200000002</v>
-      </c>
-      <c r="BC12" s="12">
-        <f t="shared" ref="BC12" si="11">BB12/AZ12</f>
-        <v>30.995578461538475</v>
-      </c>
-      <c r="BD12" s="12">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="BE12" s="12">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="BF12" s="12">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="BG12" s="12">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="BH12" s="1">
-        <f t="shared" ref="BH12" si="12">SUM(BD12,BF12)</f>
-        <v>51</v>
-      </c>
-      <c r="BI12" s="1">
-        <f t="shared" ref="BI12" si="13">SUM(BE12,BG12)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>10</v>
-      </c>
-      <c r="S13" s="1">
-        <v>4</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>4</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>242</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>101.973728333333</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>0.82876712328767099</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>0.79220779220779203</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>0.98387096774193605</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>0.78431372549019596</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>61</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>61</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>120</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>61</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>62</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>51</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR13" s="16">
-        <v>0.83606557377049195</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>0.76033057851239705</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>512</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>176</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>688</v>
-      </c>
-      <c r="AX13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'20201022'</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ13" s="12">
-        <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
-      <c r="BA13" s="12">
-        <f t="shared" si="2"/>
-        <v>688</v>
-      </c>
-      <c r="BB13" s="12">
-        <f t="shared" si="3"/>
-        <v>6118.4236999999803</v>
-      </c>
-      <c r="BC13" s="12">
-        <f t="shared" ref="BC13" si="14">BB13/AZ13</f>
-        <v>25.28274256198339</v>
-      </c>
-      <c r="BD13" s="12">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="BE13" s="12">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="BF13" s="12">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="BG13" s="12">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="BH13" s="1">
-        <f t="shared" ref="BH13" si="15">SUM(BD13,BF13)</f>
-        <v>112</v>
-      </c>
-      <c r="BI13" s="1">
-        <f t="shared" ref="BI13" si="16">SUM(BE13,BG13)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>10</v>
-      </c>
-      <c r="S14" s="1">
-        <v>4</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>4</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>189</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>72.255091666666701</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>0.95939086294416198</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>0.93181818181818199</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="8">
-        <v>0.95454545454545503</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>41</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>43</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>105</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>43</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>41</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="8">
-        <v>0.66137566137566095</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>304</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>304</v>
-      </c>
-      <c r="AX14" s="1" t="str">
-        <f t="shared" ref="AX14" si="17">B14</f>
-        <v>'20201023'</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ14" s="12">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="BA14" s="12">
-        <f t="shared" si="2"/>
-        <v>304</v>
-      </c>
-      <c r="BB14" s="12">
-        <f t="shared" si="3"/>
-        <v>4335.3055000000022</v>
-      </c>
-      <c r="BC14" s="12">
-        <f t="shared" ref="BC14" si="18">BB14/AZ14</f>
-        <v>22.938124338624352</v>
-      </c>
-      <c r="BD14" s="12">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="BE14" s="12">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="BF14" s="12">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="BG14" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BH14" s="1">
-        <f t="shared" ref="BH14" si="19">SUM(BD14,BF14)</f>
-        <v>84</v>
-      </c>
-      <c r="BI14" s="1">
-        <f t="shared" ref="BI14" si="20">SUM(BE14,BG14)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>10</v>
-      </c>
-      <c r="S15" s="1">
-        <v>4</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>4</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>238</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>86.797546666666705</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>0.87822878228782297</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>0.94285714285714295</v>
-      </c>
-      <c r="AI15" s="8">
-        <v>0.918604651162791</v>
-      </c>
-      <c r="AJ15" s="8">
-        <v>0.80869565217391304</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>66</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>79</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>93</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>67</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>67</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>43</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>23</v>
-      </c>
-      <c r="AR15" s="16">
-        <v>0.65151515151515205</v>
-      </c>
-      <c r="AS15" s="8">
-        <v>0.84033613445378197</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>256</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>576</v>
-      </c>
-      <c r="AX15" s="1" t="str">
-        <f t="shared" ref="AX15:AX16" si="21">B15</f>
-        <v>'20201026'</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ15" s="12">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="BA15" s="12">
-        <f t="shared" si="2"/>
-        <v>576</v>
-      </c>
-      <c r="BB15" s="12">
-        <f t="shared" si="3"/>
-        <v>5207.8528000000024</v>
-      </c>
-      <c r="BC15" s="12">
-        <f t="shared" ref="BC15" si="22">BB15/AZ15</f>
-        <v>21.881734453781522</v>
-      </c>
-      <c r="BD15" s="12">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="BE15" s="12">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="BF15" s="12">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="BG15" s="12">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="BH15" s="1">
-        <f t="shared" ref="BH15" si="23">SUM(BD15,BF15)</f>
-        <v>110</v>
-      </c>
-      <c r="BI15" s="1">
-        <f t="shared" ref="BI15" si="24">SUM(BE15,BG15)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R16" s="1">
-        <v>10</v>
-      </c>
-      <c r="S16" s="1">
-        <v>4</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>4</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>255</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>99.089231666666706</v>
-      </c>
-      <c r="AG16" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="AH16" s="8">
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="AI16" s="8">
-        <v>0.86206896551724099</v>
-      </c>
-      <c r="AJ16" s="8">
-        <v>0.80582524271844702</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>100</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>83</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>74</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>75</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>17</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>55</v>
-      </c>
-      <c r="AR16" s="18">
-        <v>0.23611111111111099</v>
-      </c>
-      <c r="AS16" s="8">
-        <v>0.86666666666666703</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>320</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>368</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>688</v>
-      </c>
-      <c r="AX16" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>'20201027'</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ16" s="12">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="BA16" s="12">
-        <f t="shared" si="2"/>
-        <v>688</v>
-      </c>
-      <c r="BB16" s="12">
-        <f t="shared" si="3"/>
-        <v>5945.3539000000019</v>
-      </c>
-      <c r="BC16" s="12">
-        <f t="shared" ref="BC16" si="25">BB16/AZ16</f>
-        <v>23.31511333333334</v>
-      </c>
-      <c r="BD16" s="12">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="BE16" s="12">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="BF16" s="12">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="BG16" s="12">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="BH16" s="1">
-        <f t="shared" ref="BH16" si="26">SUM(BD16,BF16)</f>
-        <v>91</v>
-      </c>
-      <c r="BI16" s="1">
-        <f t="shared" ref="BI16" si="27">SUM(BE16,BG16)</f>
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM13"/>
-  <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="26" width="8.625" style="1"/>
-    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL1" s="10">
-        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>946</v>
-      </c>
-      <c r="BM1" s="10">
-        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>887</v>
+        <v>956</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -10342,16 +10557,16 @@
       <c r="AF2" s="1">
         <v>14.47269</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="8">
         <v>0.28169014084506999</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="8">
         <v>0.2</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="8">
         <v>0.38709677419354799</v>
       </c>
       <c r="AK2" s="1">
@@ -10535,16 +10750,16 @@
       <c r="AF3" s="1">
         <v>89.706126666666705</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="8">
         <v>0.54012345679012297</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="8">
         <v>0.48618784530386699</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="8">
         <v>0.82692307692307698</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="8">
         <v>0.48351648351648402</v>
       </c>
       <c r="AK3" s="1">
@@ -10568,10 +10783,10 @@
       <c r="AQ3" s="1">
         <v>43</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AR3" s="8">
         <v>0.48809523809523803</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3" s="8">
         <v>0.91428571428571404</v>
       </c>
       <c r="AT3" s="1">
@@ -10591,15 +10806,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ13" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA13" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB13" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -10607,19 +10822,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD13" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE13" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF13" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG13" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -10728,16 +10943,16 @@
       <c r="AF4" s="1">
         <v>113.500678333333</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="8">
         <v>0.56801909307875897</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="8">
         <v>0.57865168539325795</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="8">
         <v>0.68027210884353695</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="8">
         <v>0.37234042553191499</v>
       </c>
       <c r="AK4" s="1">
@@ -10761,10 +10976,10 @@
       <c r="AQ4" s="1">
         <v>28</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AR4" s="8">
         <v>0.71428571428571397</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AS4" s="8">
         <v>0.82773109243697496</v>
       </c>
       <c r="AT4" s="1">
@@ -10921,16 +11136,16 @@
       <c r="AF5" s="1">
         <v>101.370388333333</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="8">
         <v>0.33521657250470799</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="8">
         <v>0.37719298245614002</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="8">
         <v>0.36448598130841098</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="8">
         <v>0.27040816326530598</v>
       </c>
       <c r="AK5" s="1">
@@ -10954,10 +11169,10 @@
       <c r="AQ5" s="1">
         <v>48</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AR5" s="8">
         <v>0.407407407407407</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AS5" s="8">
         <v>0.93258426966292096</v>
       </c>
       <c r="AT5" s="1">
@@ -11114,16 +11329,16 @@
       <c r="AF6" s="1">
         <v>76.380816666666703</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="8">
         <v>0.61516853932584303</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="8">
         <v>0.71052631578947401</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="8">
         <v>0.60493827160493796</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="8">
         <v>0.50406504065040703</v>
       </c>
       <c r="AK6" s="1">
@@ -11147,10 +11362,10 @@
       <c r="AQ6" s="1">
         <v>60</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AR6" s="8">
         <v>0.43925233644859801</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AS6" s="8">
         <v>0.99086757990867602</v>
       </c>
       <c r="AT6" s="1">
@@ -11307,16 +11522,16 @@
       <c r="AF7" s="1">
         <v>71.621286666666705</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="8">
         <v>0.628070175438596</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="8">
         <v>0.63503649635036497</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="8">
         <v>0.66666666666666696</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="8">
         <v>0.59090909090909105</v>
       </c>
       <c r="AK7" s="1">
@@ -11340,10 +11555,10 @@
       <c r="AQ7" s="1">
         <v>50</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="8">
         <v>0.42528735632183901</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="8">
         <v>0.994413407821229</v>
       </c>
       <c r="AT7" s="1">
@@ -11500,16 +11715,16 @@
       <c r="AF8" s="1">
         <v>76.266019999999997</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="8">
         <v>0.84674329501915702</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="8">
         <v>0.81884057971014501</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="8">
         <v>0.88679245283018904</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="8">
         <v>0.871428571428571</v>
       </c>
       <c r="AK8" s="1">
@@ -11533,10 +11748,10 @@
       <c r="AQ8" s="1">
         <v>48</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AR8" s="8">
         <v>0.47826086956521702</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="8">
         <v>0.80995475113122195</v>
       </c>
       <c r="AT8" s="1">
@@ -11693,16 +11908,16 @@
       <c r="AF9" s="1">
         <v>13.699265</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="8">
         <v>0.875</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="8">
         <v>0.875</v>
       </c>
-      <c r="AI9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="AI9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="8">
         <v>0.84</v>
       </c>
       <c r="AK9" s="1">
@@ -11726,10 +11941,10 @@
       <c r="AQ9" s="1">
         <v>1</v>
       </c>
-      <c r="AR9" s="17">
+      <c r="AR9" s="16">
         <v>0.85714285714285698</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9" s="8">
         <v>0.57142857142857095</v>
       </c>
       <c r="AT9" s="1">
@@ -11886,16 +12101,16 @@
       <c r="AF10" s="1">
         <v>86.429725000000005</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="8">
         <v>0.715189873417722</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="8">
         <v>0.68292682926829296</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="8">
         <v>0.70588235294117696</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="8">
         <v>0.73493975903614495</v>
       </c>
       <c r="AK10" s="1">
@@ -11919,10 +12134,10 @@
       <c r="AQ10" s="1">
         <v>15</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AR10" s="16">
         <v>0.72727272727272696</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="8">
         <v>0.67256637168141598</v>
       </c>
       <c r="AT10" s="1">
@@ -12079,16 +12294,16 @@
       <c r="AF11" s="1">
         <v>120.56608</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="8">
         <v>0.81372549019607798</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="8">
         <v>0.79310344827586199</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="8">
         <v>0.76800000000000002</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="8">
         <v>0.86227544910179599</v>
       </c>
       <c r="AK11" s="1">
@@ -12112,10 +12327,10 @@
       <c r="AQ11" s="1">
         <v>33</v>
       </c>
-      <c r="AR11" s="17">
+      <c r="AR11" s="16">
         <v>0.64130434782608703</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11" s="8">
         <v>0.82831325301204795</v>
       </c>
       <c r="AT11" s="1">
@@ -12272,16 +12487,16 @@
       <c r="AF12" s="1">
         <v>69.190148333333298</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="8">
         <v>0.73429951690821305</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="8">
         <v>0.69491525423728795</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="8">
         <v>0.93333333333333302</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="8">
         <v>0.66990291262135904</v>
       </c>
       <c r="AK12" s="1">
@@ -12305,10 +12520,10 @@
       <c r="AQ12" s="1">
         <v>12</v>
       </c>
-      <c r="AR12" s="17">
+      <c r="AR12" s="16">
         <v>0.7</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AS12" s="8">
         <v>0.79605263157894701</v>
       </c>
       <c r="AT12" s="1">
@@ -12465,16 +12680,16 @@
       <c r="AF13" s="1">
         <v>80.338570000000004</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="8">
         <v>0.63099630996309997</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="8">
         <v>0.58823529411764697</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="8">
         <v>0.63440860215053796</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="8">
         <v>0.66666666666666696</v>
       </c>
       <c r="AK13" s="1">
@@ -12498,10 +12713,10 @@
       <c r="AQ13" s="1">
         <v>22</v>
       </c>
-      <c r="AR13" s="19">
+      <c r="AR13" s="17">
         <v>0.55102040816326503</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS13" s="8">
         <v>0.87719298245613997</v>
       </c>
       <c r="AT13" s="1">
@@ -12559,6 +12774,199 @@
       <c r="BI13" s="1">
         <f t="shared" ref="BI13" si="25">SUM(BE13,BG13)</f>
         <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>195</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>78.672863333333297</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.62903225806451601</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.530612244897959</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0.734513274336283</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>52</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>60</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>52</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>53</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>36</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR14" s="17">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0.80512820512820504</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>320</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>48</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>368</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f t="shared" ref="AX14" si="26">B14</f>
+        <v>'20201028'</v>
+      </c>
+      <c r="AY14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ14" s="12">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="BA14" s="12">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="BB14" s="12">
+        <f t="shared" si="3"/>
+        <v>4720.3717999999981</v>
+      </c>
+      <c r="BC14" s="12">
+        <f t="shared" ref="BC14" si="27">BB14/AZ14</f>
+        <v>24.20703487179486</v>
+      </c>
+      <c r="BD14" s="12">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="BE14" s="12">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="BF14" s="12">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="BG14" s="12">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="BH14" s="1">
+        <f t="shared" ref="BH14" si="28">SUM(BD14,BF14)</f>
+        <v>88</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" ref="BI14" si="29">SUM(BE14,BG14)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="152">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Reversal 2</t>
   </si>
   <si>
-    <t>Reversal3</t>
-  </si>
-  <si>
     <t>'JB368_Infoseek_20201028_134905.mat'</t>
   </si>
   <si>
@@ -459,6 +456,33 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201028_152437.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201029_100836.mat'</t>
+  </si>
+  <si>
+    <t>'20201029'</t>
+  </si>
+  <si>
+    <t>Reversal 3</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201029_114330.mat'</t>
+  </si>
+  <si>
+    <t>RR 1</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201029_131705.mat'</t>
+  </si>
+  <si>
+    <t>Reverse 3</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201029_142051.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201029_152054.mat'</t>
   </si>
 </sst>
 </file>
@@ -881,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ16" sqref="AJ16"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,11 +1116,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>937</v>
+        <v>1094</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>868</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1252,15 +1276,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ17" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ18" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA17" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA18" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB17" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB18" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1268,19 +1292,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD17" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD18" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE17" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE18" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF17" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF18" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG17" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG18" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -4185,6 +4209,199 @@
       <c r="BI17" s="1">
         <f t="shared" ref="BI17" si="33">SUM(BE17,BG17)</f>
         <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>89.917518333333305</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.84210526315789502</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0.80808080808080796</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>0.84821428571428603</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>80</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>81</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>95</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>80</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>77</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="16">
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>576</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>800</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <f t="shared" ref="AX18" si="34">B18</f>
+        <v>'20201029'</v>
+      </c>
+      <c r="AY18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ18" s="12">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="2"/>
+        <v>5395.0510999999988</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" ref="BC18" si="35">BB18/AZ18</f>
+        <v>21.074418359374995</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="BE18" s="12">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="BF18" s="12">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="BG18" s="12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" ref="BH18" si="36">SUM(BD18,BF18)</f>
+        <v>157</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" ref="BI18" si="37">SUM(BE18,BG18)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4195,10 +4412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BL1" sqref="BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4404,11 +4621,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>738</v>
+        <v>810</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>661</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -4757,15 +4974,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ15" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA15" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB15" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -4773,19 +4990,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD15" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE15" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF15" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG15" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -6680,7 +6897,7 @@
         <v>592</v>
       </c>
       <c r="AX13" s="1" t="str">
-        <f t="shared" ref="AX13:AX14" si="22">B13</f>
+        <f t="shared" ref="AX13:AX15" si="22">B13</f>
         <v>'20201027'</v>
       </c>
       <c r="AY13" s="1" t="s">
@@ -6876,8 +7093,8 @@
         <f t="shared" si="22"/>
         <v>'20201028'</v>
       </c>
-      <c r="AY14" s="1" t="s">
-        <v>140</v>
+      <c r="AY14" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="AZ14" s="12">
         <f t="shared" si="1"/>
@@ -6918,6 +7135,199 @@
       <c r="BI14" s="1">
         <f t="shared" si="25"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>198</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>91.0743333333333</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.60583941605839398</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>55</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>83</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>60</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>54</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>56</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>18</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>37</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>0.32727272727272699</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>272</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>288</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>560</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>'20201029'</v>
+      </c>
+      <c r="AY15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ15" s="12">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="BA15" s="12">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="BB15" s="12">
+        <f t="shared" si="3"/>
+        <v>5464.4599999999982</v>
+      </c>
+      <c r="BC15" s="12">
+        <f t="shared" ref="BC15" si="26">BB15/AZ15</f>
+        <v>27.598282828282819</v>
+      </c>
+      <c r="BD15" s="12">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="BE15" s="12">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="BF15" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG15" s="12">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="BH15" s="1">
+        <f t="shared" ref="BH15" si="27">SUM(BD15,BF15)</f>
+        <v>72</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="28">SUM(BE15,BG15)</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6928,10 +7338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AZ12" activeCellId="7" sqref="AZ2 AZ3 AZ7 AZ8 AZ9 AZ10 AZ11 AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7139,11 +7549,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1041</v>
+        <v>1091</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>855</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -7492,15 +7902,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -7508,19 +7918,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -10043,7 +10453,7 @@
     </row>
     <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>136</v>
@@ -10191,7 +10601,7 @@
         <v>'20201028'</v>
       </c>
       <c r="AY17" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AZ17" s="12">
         <f t="shared" si="1"/>
@@ -10232,6 +10642,199 @@
       <c r="BI17" s="1">
         <f t="shared" ref="BI17" si="30">SUM(BE17,BG17)</f>
         <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>151</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>60.923923333333299</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.77435897435897405</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>0.70149253731343297</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>41</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>63</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>47</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>44</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>42</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0.84105960264900703</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>336</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>512</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <f t="shared" ref="AX18" si="31">B18</f>
+        <v>'20201029'</v>
+      </c>
+      <c r="AY18" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ18" s="12">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="3"/>
+        <v>3655.435399999998</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" ref="BC18" si="32">BB18/AZ18</f>
+        <v>24.208181456953628</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="BE18" s="12">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="BF18" s="12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="BG18" s="12">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" ref="BH18" si="33">SUM(BD18,BF18)</f>
+        <v>50</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" ref="BI18" si="34">SUM(BE18,BG18)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10242,10 +10845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM14"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10453,11 +11056,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1034</v>
+        <v>1128</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>956</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -10806,15 +11409,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ14" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA14" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB14" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -10822,19 +11425,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD14" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE14" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF14" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG14" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -12778,7 +13381,7 @@
     </row>
     <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>136</v>
@@ -12926,7 +13529,7 @@
         <v>'20201028'</v>
       </c>
       <c r="AY14" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AZ14" s="12">
         <f t="shared" si="1"/>
@@ -12967,6 +13570,392 @@
       <c r="BI14" s="1">
         <f t="shared" ref="BI14" si="29">SUM(BE14,BG14)</f>
         <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>156</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>59.075924999999998</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.66382978723404296</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.52439024390243905</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.73863636363636398</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>48</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>65</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>44</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>44</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>29</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AR15" s="17">
+        <v>0.67441860465116299</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.83974358974358998</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>128</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX15" s="1" t="str">
+        <f t="shared" ref="AX15" si="30">B15</f>
+        <v>'20201029'</v>
+      </c>
+      <c r="AY15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ15" s="12">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="BA15" s="12">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="BB15" s="12">
+        <f t="shared" si="3"/>
+        <v>5373.5861999999997</v>
+      </c>
+      <c r="BC15" s="12">
+        <f t="shared" ref="BC15" si="31">BB15/AZ15</f>
+        <v>24.096799103139013</v>
+      </c>
+      <c r="BD15" s="12">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="BE15" s="12">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="BF15" s="12">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="BG15" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="BH15" s="1">
+        <f t="shared" ref="BH15" si="32">SUM(BD15,BF15)</f>
+        <v>94</v>
+      </c>
+      <c r="BI15" s="1">
+        <f t="shared" ref="BI15" si="33">SUM(BE15,BG15)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>30.483844999999999</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0.58490566037735903</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>13</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>23</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>14</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0.61194029850746301</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>144</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" ref="AX16" si="34">B16</f>
+        <v>'20201029'</v>
+      </c>
+      <c r="AY16" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ16" s="12">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="BA16" s="12">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="BB16" s="12">
+        <f t="shared" si="3"/>
+        <v>5373.5861999999997</v>
+      </c>
+      <c r="BC16" s="12">
+        <f t="shared" ref="BC16" si="35">BB16/AZ16</f>
+        <v>24.096799103139013</v>
+      </c>
+      <c r="BD16" s="12">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="BE16" s="12">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="BF16" s="12">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="BG16" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" ref="BH16" si="36">SUM(BD16,BF16)</f>
+        <v>94</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" ref="BI16" si="37">SUM(BE16,BG16)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="160">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -483,6 +483,30 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201029_152054.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201030_121704.mat'</t>
+  </si>
+  <si>
+    <t>'20201030'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201030_134229.mat'</t>
+  </si>
+  <si>
+    <t>RR 2</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201030_152317.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201030_164546.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201102_101042.mat'</t>
+  </si>
+  <si>
+    <t>'20201102'</t>
   </si>
 </sst>
 </file>
@@ -536,7 +560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +582,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,6 +654,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ20" sqref="AZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1116,11 +1147,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1094</v>
+        <v>1253</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>951</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1276,15 +1307,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ18" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ20" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA18" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA20" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB18" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB20" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1292,19 +1323,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD18" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD20" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE18" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE20" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF18" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF20" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG18" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG20" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -4357,7 +4388,7 @@
         <v>800</v>
       </c>
       <c r="AX18" s="1" t="str">
-        <f t="shared" ref="AX18" si="34">B18</f>
+        <f t="shared" ref="AX18:AX19" si="34">B18</f>
         <v>'20201029'</v>
       </c>
       <c r="AY18" s="18" t="s">
@@ -4402,6 +4433,392 @@
       <c r="BI18" s="1">
         <f t="shared" ref="BI18" si="37">SUM(BE18,BG18)</f>
         <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>233</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>81.768081666666703</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>0.89615384615384597</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>0.88461538461538503</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>0.87254901960784303</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>69</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>89</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>72</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>62</v>
+      </c>
+      <c r="AR19" s="19">
+        <v>0.101449275362319</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0.91416309012875496</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>560</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>704</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>'20201030'</v>
+      </c>
+      <c r="AY19" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ19" s="12">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="BA19" s="12">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="BB19" s="12">
+        <f t="shared" si="2"/>
+        <v>4906.0849000000026</v>
+      </c>
+      <c r="BC19" s="12">
+        <f t="shared" ref="BC19" si="38">BB19/AZ19</f>
+        <v>21.056158369098725</v>
+      </c>
+      <c r="BD19" s="12">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="BE19" s="12">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="BF19" s="12">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BG19" s="12">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="BH19" s="1">
+        <f t="shared" ref="BH19" si="39">SUM(BD19,BF19)</f>
+        <v>79</v>
+      </c>
+      <c r="BI19" s="1">
+        <f t="shared" ref="BI19" si="40">SUM(BE19,BG19)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>248</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>87.544913333333298</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0.95019157088122597</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>0.97435897435897401</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>0.90384615384615397</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>0.987341772151899</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>94</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>78</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>76</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>70</v>
+      </c>
+      <c r="AR20" s="19">
+        <v>7.8947368421052599E-2</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.91129032258064502</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>448</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>592</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <f t="shared" ref="AX20" si="41">B20</f>
+        <v>'20201102'</v>
+      </c>
+      <c r="AY20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ20" s="12">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="BA20" s="12">
+        <f t="shared" si="1"/>
+        <v>592</v>
+      </c>
+      <c r="BB20" s="12">
+        <f t="shared" si="2"/>
+        <v>5252.6947999999975</v>
+      </c>
+      <c r="BC20" s="12">
+        <f t="shared" ref="BC20" si="42">BB20/AZ20</f>
+        <v>21.180220967741924</v>
+      </c>
+      <c r="BD20" s="12">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="BE20" s="12">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="BF20" s="12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BG20" s="12">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="BH20" s="1">
+        <f t="shared" ref="BH20" si="43">SUM(BD20,BF20)</f>
+        <v>80</v>
+      </c>
+      <c r="BI20" s="1">
+        <f t="shared" ref="BI20" si="44">SUM(BE20,BG20)</f>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4412,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4621,11 +5038,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>810</v>
+        <v>881</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>754</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -4974,15 +5391,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ15" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA15" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB15" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -4990,19 +5407,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD15" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE15" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF15" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG15" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -7328,6 +7745,199 @@
       <c r="BI15" s="1">
         <f t="shared" ref="BI15" si="28">SUM(BE15,BG15)</f>
         <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>203</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>95.018596666666696</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.71731448763250905</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>54</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>94</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>53</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>53</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>18</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR16" s="16">
+        <v>0.339622641509434</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0.78325123152709397</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>272</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>416</v>
+      </c>
+      <c r="AX16" s="1" t="str">
+        <f t="shared" ref="AX16" si="29">B16</f>
+        <v>'20201030'</v>
+      </c>
+      <c r="AY16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ16" s="12">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="BA16" s="12">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="BB16" s="12">
+        <f t="shared" si="3"/>
+        <v>5701.1158000000014</v>
+      </c>
+      <c r="BC16" s="12">
+        <f t="shared" ref="BC16" si="30">BB16/AZ16</f>
+        <v>28.084314285714292</v>
+      </c>
+      <c r="BD16" s="12">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="BE16" s="12">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="BF16" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="BG16" s="12">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="BH16" s="1">
+        <f t="shared" ref="BH16" si="31">SUM(BD16,BF16)</f>
+        <v>71</v>
+      </c>
+      <c r="BI16" s="1">
+        <f t="shared" ref="BI16" si="32">SUM(BE16,BG16)</f>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -7338,10 +7948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AZ12" activeCellId="7" sqref="AZ2 AZ3 AZ7 AZ8 AZ9 AZ10 AZ11 AZ12"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7549,11 +8159,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1091</v>
+        <v>1204</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>932</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -7902,15 +8512,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -7918,19 +8528,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -10790,7 +11400,7 @@
         <v>512</v>
       </c>
       <c r="AX18" s="1" t="str">
-        <f t="shared" ref="AX18" si="31">B18</f>
+        <f t="shared" ref="AX18:AX19" si="31">B18</f>
         <v>'20201029'</v>
       </c>
       <c r="AY18" s="18" t="s">
@@ -10835,6 +11445,199 @@
       <c r="BI18" s="1">
         <f t="shared" ref="BI18" si="34">SUM(BE18,BG18)</f>
         <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>216</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>77.594059999999999</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>0.81203007518796999</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>0.891891891891892</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>0.85542168674698804</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>0.72477064220183496</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>66</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>79</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>65</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>48</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0.90277777777777801</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>480</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>240</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>720</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>'20201030'</v>
+      </c>
+      <c r="AY19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ19" s="12">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="BA19" s="12">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="BB19" s="12">
+        <f t="shared" si="3"/>
+        <v>4655.6436000000003</v>
+      </c>
+      <c r="BC19" s="12">
+        <f t="shared" ref="BC19" si="35">BB19/AZ19</f>
+        <v>21.553905555555556</v>
+      </c>
+      <c r="BD19" s="12">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="BE19" s="12">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="BF19" s="12">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="BG19" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="BH19" s="1">
+        <f t="shared" ref="BH19" si="36">SUM(BD19,BF19)</f>
+        <v>113</v>
+      </c>
+      <c r="BI19" s="1">
+        <f t="shared" ref="BI19" si="37">SUM(BE19,BG19)</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -10845,21 +11648,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AZ15" sqref="AZ15"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
     <col min="13" max="26" width="8.625" style="1"/>
-    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
     <col min="31" max="32" width="8.625" style="1"/>
     <col min="33" max="36" width="8.625" style="8"/>
     <col min="37" max="43" width="8.625" style="1"/>
@@ -11056,11 +11859,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1128</v>
+        <v>1207</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1034</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -11409,15 +12212,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -11425,19 +12228,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -13911,7 +14714,7 @@
         <v>144</v>
       </c>
       <c r="AX16" s="1" t="str">
-        <f t="shared" ref="AX16" si="34">B16</f>
+        <f t="shared" ref="AX16:AX17" si="34">B16</f>
         <v>'20201029'</v>
       </c>
       <c r="AY16" s="18" t="s">
@@ -13956,6 +14759,199 @@
       <c r="BI16" s="1">
         <f t="shared" ref="BI16" si="37">SUM(BE16,BG16)</f>
         <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>165</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>65.326513333333295</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>0.702380952380952</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.82857142857142896</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>48</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>59</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>49</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>48</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR17" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>0.87878787878787901</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>320</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>128</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>448</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>'20201030'</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ17" s="12">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="BA17" s="12">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="BB17" s="12">
+        <f t="shared" si="3"/>
+        <v>3919.5907999999977</v>
+      </c>
+      <c r="BC17" s="12">
+        <f t="shared" ref="BC17" si="38">BB17/AZ17</f>
+        <v>23.755095757575745</v>
+      </c>
+      <c r="BD17" s="12">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="BE17" s="12">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="BF17" s="12">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="BG17" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="BH17" s="1">
+        <f t="shared" ref="BH17" si="39">SUM(BD17,BF17)</f>
+        <v>79</v>
+      </c>
+      <c r="BI17" s="1">
+        <f t="shared" ref="BI17" si="40">SUM(BE17,BG17)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="164">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>'20201102'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201102_114254.mat'</t>
+  </si>
+  <si>
+    <t>RR 3</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201102_131529.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201102_144340.mat'</t>
   </si>
 </sst>
 </file>
@@ -938,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ20" sqref="AZ20"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BI20" sqref="BI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4829,10 +4841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5038,11 +5050,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>842</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -5391,15 +5403,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ16" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA16" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB16" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -5407,19 +5419,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD16" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE16" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF16" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG16" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -7893,7 +7905,7 @@
         <v>416</v>
       </c>
       <c r="AX16" s="1" t="str">
-        <f t="shared" ref="AX16" si="29">B16</f>
+        <f t="shared" ref="AX16:AX17" si="29">B16</f>
         <v>'20201030'</v>
       </c>
       <c r="AY16" s="18" t="s">
@@ -7938,6 +7950,199 @@
       <c r="BI16" s="1">
         <f t="shared" ref="BI16" si="32">SUM(BE16,BG16)</f>
         <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>10</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>188</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>88.593675000000005</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.79324894514767896</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.76119402985074602</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.89795918367346905</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>102</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>44</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>41</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>43</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>32</v>
+      </c>
+      <c r="AR17" s="16">
+        <v>0.238095238095238</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>0.67021276595744705</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>384</v>
+      </c>
+      <c r="AX17" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>'20201102'</v>
+      </c>
+      <c r="AY17" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ17" s="12">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="BA17" s="12">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="BB17" s="12">
+        <f t="shared" si="3"/>
+        <v>5315.6205</v>
+      </c>
+      <c r="BC17" s="12">
+        <f t="shared" ref="BC17" si="33">BB17/AZ17</f>
+        <v>28.274577127659576</v>
+      </c>
+      <c r="BD17" s="12">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="BE17" s="12">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="BF17" s="12">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="BG17" s="12">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="BH17" s="1">
+        <f t="shared" ref="BH17" si="34">SUM(BD17,BF17)</f>
+        <v>51</v>
+      </c>
+      <c r="BI17" s="1">
+        <f t="shared" ref="BI17" si="35">SUM(BE17,BG17)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7948,10 +8153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM19"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AZ23" sqref="AZ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8159,11 +8364,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1204</v>
+        <v>1331</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1014</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -8512,15 +8717,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ20" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA20" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB20" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -8528,19 +8733,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD20" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE20" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF20" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG20" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -11400,7 +11605,7 @@
         <v>512</v>
       </c>
       <c r="AX18" s="1" t="str">
-        <f t="shared" ref="AX18:AX19" si="31">B18</f>
+        <f t="shared" ref="AX18:AX20" si="31">B18</f>
         <v>'20201029'</v>
       </c>
       <c r="AY18" s="18" t="s">
@@ -11638,6 +11843,199 @@
       <c r="BI19" s="1">
         <f t="shared" ref="BI19" si="37">SUM(BE19,BG19)</f>
         <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>237</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>85.147729999999996</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0.83745583038869298</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>0.90666666666666695</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>0.87209302325581395</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>0.77049180327868905</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>94</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>68</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>59</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR20" s="16">
+        <v>0.86764705882352899</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.860759493670886</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>528</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>176</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>704</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>'20201102'</v>
+      </c>
+      <c r="AY20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ20" s="12">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="BA20" s="12">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="BB20" s="12">
+        <f t="shared" si="3"/>
+        <v>5108.8638000000001</v>
+      </c>
+      <c r="BC20" s="12">
+        <f t="shared" ref="BC20" si="38">BB20/AZ20</f>
+        <v>21.556387341772151</v>
+      </c>
+      <c r="BD20" s="12">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="BE20" s="12">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="BF20" s="12">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="BG20" s="12">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="BH20" s="1">
+        <f t="shared" ref="BH20" si="39">SUM(BD20,BF20)</f>
+        <v>127</v>
+      </c>
+      <c r="BI20" s="1">
+        <f t="shared" ref="BI20" si="40">SUM(BE20,BG20)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -11648,10 +12046,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11859,11 +12257,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1207</v>
+        <v>1284</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1100</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -12212,15 +12610,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -12228,19 +12626,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -14952,6 +15350,199 @@
       <c r="BI17" s="1">
         <f t="shared" ref="BI17" si="40">SUM(BE17,BG17)</f>
         <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>173</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>85.243213333333301</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.52108433734939796</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0.35555555555555601</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>0.54014598540145997</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>48</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>51</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>47</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>47</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>18</v>
+      </c>
+      <c r="AR18" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0.820809248554913</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>80</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>256</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <f t="shared" ref="AX18" si="41">B18</f>
+        <v>'20201102'</v>
+      </c>
+      <c r="AY18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ18" s="12">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="3"/>
+        <v>5114.5927999999985</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" ref="BC18" si="42">BB18/AZ18</f>
+        <v>29.564120231213863</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="BE18" s="12">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="BF18" s="12">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="BG18" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" ref="BH18" si="43">SUM(BD18,BF18)</f>
+        <v>77</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" ref="BI18" si="44">SUM(BE18,BG18)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -519,6 +519,21 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201102_144340.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201104_102921.mat'</t>
+  </si>
+  <si>
+    <t>'20201104'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201104_115405.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201104_132455.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201104_153948.mat'</t>
   </si>
 </sst>
 </file>
@@ -948,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BI20" sqref="BI20"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,11 +1174,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1253</v>
+        <v>1322</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1231</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1319,15 +1334,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ20" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ21" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA20" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA21" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB20" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB21" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1335,19 +1350,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD20" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD21" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE20" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE21" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF20" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF21" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG20" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG21" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -4786,7 +4801,7 @@
         <v>592</v>
       </c>
       <c r="AX20" s="1" t="str">
-        <f t="shared" ref="AX20" si="41">B20</f>
+        <f t="shared" ref="AX20:AX21" si="41">B20</f>
         <v>'20201102'</v>
       </c>
       <c r="AY20" s="18" t="s">
@@ -4831,6 +4846,199 @@
       <c r="BI20" s="1">
         <f t="shared" ref="BI20" si="44">SUM(BE20,BG20)</f>
         <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>221</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>81.433623333333301</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>0.96929824561403499</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>0.98529411764705899</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>0.95505617977528101</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>0.971830985915493</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>67</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>85</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>69</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>68</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>66</v>
+      </c>
+      <c r="AR21" s="19">
+        <v>1.49253731343284E-2</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0.91855203619909498</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>192</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>560</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>752</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>'20201104'</v>
+      </c>
+      <c r="AY21" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ21" s="12">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="BA21" s="12">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="BB21" s="12">
+        <f t="shared" si="2"/>
+        <v>4886.0173999999979</v>
+      </c>
+      <c r="BC21" s="12">
+        <f t="shared" ref="BC21" si="45">BB21/AZ21</f>
+        <v>22.108676018099537</v>
+      </c>
+      <c r="BD21" s="12">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="BE21" s="12">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="BF21" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BG21" s="12">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="BH21" s="1">
+        <f t="shared" ref="BH21" si="46">SUM(BD21,BF21)</f>
+        <v>69</v>
+      </c>
+      <c r="BI21" s="1">
+        <f t="shared" ref="BI21" si="47">SUM(BE21,BG21)</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4841,10 +5049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5050,11 +5258,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>932</v>
+        <v>1013</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>917</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -5403,15 +5611,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ17" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA17" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB17" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -5419,19 +5627,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD17" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE17" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF17" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG17" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -7905,7 +8113,7 @@
         <v>416</v>
       </c>
       <c r="AX16" s="1" t="str">
-        <f t="shared" ref="AX16:AX17" si="29">B16</f>
+        <f t="shared" ref="AX16:AX18" si="29">B16</f>
         <v>'20201030'</v>
       </c>
       <c r="AY16" s="18" t="s">
@@ -8143,6 +8351,199 @@
       <c r="BI17" s="1">
         <f t="shared" ref="BI17" si="35">SUM(BE17,BG17)</f>
         <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>10</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>178</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>88.748000000000005</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.72950819672131195</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0.76271186440677996</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.734513274336283</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>45</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>46</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>35</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0.76404494382022503</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>352</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>128</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>480</v>
+      </c>
+      <c r="AX18" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>'20201104'</v>
+      </c>
+      <c r="AY18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ18" s="12">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="3"/>
+        <v>5324.88</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" ref="BC18" si="36">BB18/AZ18</f>
+        <v>29.915056179775281</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="BE18" s="12">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="BF18" s="12">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="BG18" s="12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" ref="BH18" si="37">SUM(BD18,BF18)</f>
+        <v>81</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" ref="BI18" si="38">SUM(BE18,BG18)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -8153,10 +8554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8364,11 +8765,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1331</v>
+        <v>1493</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1091</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -8717,15 +9118,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ20" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ21" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA20" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA21" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB20" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB21" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -8733,19 +9134,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD20" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD21" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE20" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE21" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF20" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF21" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG20" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG21" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -12036,6 +12437,199 @@
       <c r="BI20" s="1">
         <f t="shared" ref="BI20" si="40">SUM(BE20,BG20)</f>
         <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>327</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>128.496835</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>0.77672209026128303</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>0.84347826086956501</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>0.76978417266187105</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>0.73652694610778502</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>97</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>123</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>97</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>96</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>65</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>31</v>
+      </c>
+      <c r="AR21" s="16">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0.88379204892966401</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>512</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>432</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>944</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <f t="shared" ref="AX21" si="41">B21</f>
+        <v>'20201104'</v>
+      </c>
+      <c r="AY21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ21" s="12">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="BA21" s="12">
+        <f t="shared" si="2"/>
+        <v>944</v>
+      </c>
+      <c r="BB21" s="12">
+        <f t="shared" si="3"/>
+        <v>7709.8101000000006</v>
+      </c>
+      <c r="BC21" s="12">
+        <f t="shared" ref="BC21" si="42">BB21/AZ21</f>
+        <v>23.577400917431195</v>
+      </c>
+      <c r="BD21" s="12">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="BE21" s="12">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="BF21" s="12">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="BG21" s="12">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="BH21" s="1">
+        <f t="shared" ref="BH21" si="43">SUM(BD21,BF21)</f>
+        <v>162</v>
+      </c>
+      <c r="BI21" s="1">
+        <f t="shared" ref="BI21" si="44">SUM(BE21,BG21)</f>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -12046,10 +12640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12257,11 +12851,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1284</v>
+        <v>1300</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1165</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -12610,15 +13204,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -12626,19 +13220,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -15543,6 +16137,199 @@
       <c r="BI18" s="1">
         <f t="shared" ref="BI18" si="44">SUM(BE18,BG18)</f>
         <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>20.342136666666701</v>
+      </c>
+      <c r="AG19" s="8">
+        <v>0.52112676056338003</v>
+      </c>
+      <c r="AH19" s="8">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0.81081081081081097</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>96</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>128</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <f t="shared" ref="AX19" si="45">B19</f>
+        <v>'20201104'</v>
+      </c>
+      <c r="AY19" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ19" s="12">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="BA19" s="12">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="BB19" s="12">
+        <f t="shared" si="3"/>
+        <v>1220.528200000002</v>
+      </c>
+      <c r="BC19" s="12">
+        <f t="shared" ref="BC19" si="46">BB19/AZ19</f>
+        <v>32.987248648648702</v>
+      </c>
+      <c r="BD19" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BE19" s="12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="BF19" s="12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="BG19" s="12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="BH19" s="1">
+        <f t="shared" ref="BH19" si="47">SUM(BD19,BF19)</f>
+        <v>16</v>
+      </c>
+      <c r="BI19" s="1">
+        <f t="shared" ref="BI19" si="48">SUM(BE19,BG19)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -969,7 +969,7 @@
       <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
@@ -985,7 +985,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5055,7 +5055,7 @@
       <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -5069,7 +5069,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -8560,7 +8560,7 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -8576,7 +8576,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -12642,11 +12642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -12662,7 +12662,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -12851,14 +12851,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1179</v>
+        <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -16231,58 +16231,58 @@
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.342136666666701</v>
+        <v>121.80418</v>
       </c>
       <c r="AG19" s="8">
-        <v>0.52112676056338003</v>
+        <v>0.55523255813953498</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.476190476190476</v>
+        <v>0.38</v>
       </c>
       <c r="AI19" s="8">
-        <v>0.5</v>
+        <v>0.74390243902439002</v>
       </c>
       <c r="AJ19" s="8">
-        <v>0.57142857142857095</v>
+        <v>0.65178571428571397</v>
       </c>
       <c r="AK19" s="1">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="AL19" s="1">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="AM19" s="1">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="AN19" s="1">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="AO19" s="1">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AP19" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AQ19" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AR19" s="16">
-        <v>0.6</v>
+        <v>0.43396226415094302</v>
       </c>
       <c r="AS19" s="8">
-        <v>0.81081081081081097</v>
+        <v>0.82722513089005201</v>
       </c>
       <c r="AT19" s="1">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="AU19" s="1">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="AV19" s="1">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="AX19" s="1" t="str">
         <f t="shared" ref="AX19" si="45">B19</f>
@@ -16293,43 +16293,43 @@
       </c>
       <c r="AZ19" s="12">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="BA19" s="12">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="BB19" s="12">
         <f t="shared" si="3"/>
-        <v>1220.528200000002</v>
+        <v>7308.2507999999998</v>
       </c>
       <c r="BC19" s="12">
         <f t="shared" ref="BC19" si="46">BB19/AZ19</f>
-        <v>32.987248648648702</v>
+        <v>38.263093193717275</v>
       </c>
       <c r="BD19" s="12">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="BE19" s="12">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="BF19" s="12">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="BG19" s="12">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="BH19" s="1">
         <f t="shared" ref="BH19" si="47">SUM(BD19,BF19)</f>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="BI19" s="1">
         <f t="shared" ref="BI19" si="48">SUM(BE19,BG19)</f>
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="173">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -534,6 +534,18 @@
   </si>
   <si>
     <t>'JB369_Infoseek_20201104_153948.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201105_100444.mat'</t>
+  </si>
+  <si>
+    <t>'20201105'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201105_120931.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201105_134256.mat'</t>
   </si>
 </sst>
 </file>
@@ -963,21 +975,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
     <col min="13" max="26" width="8.625" style="1"/>
-    <col min="27" max="30" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
     <col min="31" max="32" width="8.625" style="1"/>
     <col min="33" max="36" width="8.625" style="8"/>
     <col min="37" max="43" width="8.625" style="1"/>
@@ -985,7 +996,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1174,14 +1185,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1322</v>
+        <v>1456</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1365</v>
+        <v>1435</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1334,15 +1345,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ21" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ22" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA21" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA22" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB21" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB22" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1350,19 +1361,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD21" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD22" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE21" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE22" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF21" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF22" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG21" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG22" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -1374,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1567,7 +1578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1760,7 +1771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2918,7 +2929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3497,7 +3508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -3883,7 +3894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4269,7 +4280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4655,7 +4666,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4801,7 +4812,7 @@
         <v>592</v>
       </c>
       <c r="AX20" s="1" t="str">
-        <f t="shared" ref="AX20:AX21" si="41">B20</f>
+        <f t="shared" ref="AX20:AX22" si="41">B20</f>
         <v>'20201102'</v>
       </c>
       <c r="AY20" s="18" t="s">
@@ -4848,7 +4859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5039,6 +5050,199 @@
       <c r="BI21" s="1">
         <f t="shared" ref="BI21" si="47">SUM(BE21,BG21)</f>
         <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>219</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>83.185741666666701</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0.92016806722689104</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0.91025641025641002</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>0.91954022988505801</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>68</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>80</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>68</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>68</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>66</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="16">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>288</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>'20201105'</v>
+      </c>
+      <c r="AY22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ22" s="12">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="BA22" s="12">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="BB22" s="12">
+        <f t="shared" si="2"/>
+        <v>4991.1445000000022</v>
+      </c>
+      <c r="BC22" s="12">
+        <f t="shared" ref="BC22" si="48">BB22/AZ22</f>
+        <v>22.790614155251152</v>
+      </c>
+      <c r="BD22" s="12">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="BE22" s="12">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="BF22" s="12">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="BG22" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BH22" s="1">
+        <f t="shared" ref="BH22" si="49">SUM(BD22,BF22)</f>
+        <v>134</v>
+      </c>
+      <c r="BI22" s="1">
+        <f t="shared" ref="BI22" si="50">SUM(BE22,BG22)</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5049,13 +5253,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BM19"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+      <selection activeCell="BB19" sqref="BB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -5069,7 +5273,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5258,14 +5462,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1013</v>
+        <v>1082</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>972</v>
+        <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -5458,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -5611,15 +5815,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ18" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA18" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB18" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -5627,19 +5831,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD18" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE18" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF18" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG18" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -5651,7 +5855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5844,7 +6048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6037,7 +6241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -6230,7 +6434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -6423,7 +6627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6616,7 +6820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -6809,7 +7013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7002,7 +7206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -7195,7 +7399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -7388,7 +7592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7581,7 +7785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -7774,7 +7978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -7967,7 +8171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -8160,7 +8364,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -8353,7 +8557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -8544,6 +8748,199 @@
       <c r="BI18" s="1">
         <f t="shared" ref="BI18" si="38">SUM(BE18,BG18)</f>
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>183</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>90.763499999999993</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.85915492957746498</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.87804878048780499</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.88095238095238104</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>110</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>36</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>33</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="17">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AS19" s="8">
+        <v>0.584699453551913</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>288</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX19" s="1" t="str">
+        <f t="shared" ref="AX19" si="39">B19</f>
+        <v>'20201105'</v>
+      </c>
+      <c r="AY19" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ19" s="12">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="BA19" s="12">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="BB19" s="12">
+        <f t="shared" si="3"/>
+        <v>5445.8099999999995</v>
+      </c>
+      <c r="BC19" s="12">
+        <f t="shared" ref="BC19" si="40">BB19/AZ19</f>
+        <v>29.758524590163933</v>
+      </c>
+      <c r="BD19" s="12">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="BE19" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BF19" s="12">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="BG19" s="12">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="BH19" s="1">
+        <f t="shared" ref="BH19" si="41">SUM(BD19,BF19)</f>
+        <v>69</v>
+      </c>
+      <c r="BI19" s="1">
+        <f t="shared" ref="BI19" si="42">SUM(BE19,BG19)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8554,13 +8951,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AZ22" sqref="AZ22:BI22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -8576,7 +8973,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -8765,14 +9162,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1493</v>
+        <v>1580</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1218</v>
+        <v>1327</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -8965,7 +9362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -9118,15 +9515,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ21" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ22" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA21" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA22" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB21" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB22" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -9134,19 +9531,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD21" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD22" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE21" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE22" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF21" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF22" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG21" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG22" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -9158,7 +9555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9351,7 +9748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9544,7 +9941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -9737,7 +10134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -9930,7 +10327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -10123,7 +10520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10316,7 +10713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -10509,7 +10906,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -10702,7 +11099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -10895,7 +11292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -11088,7 +11485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -11281,7 +11678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -11474,7 +11871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -11667,7 +12064,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -11860,7 +12257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12053,7 +12450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -12246,7 +12643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -12439,7 +12836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -12585,7 +12982,7 @@
         <v>944</v>
       </c>
       <c r="AX21" s="1" t="str">
-        <f t="shared" ref="AX21" si="41">B21</f>
+        <f t="shared" ref="AX21:AX22" si="41">B21</f>
         <v>'20201104'</v>
       </c>
       <c r="AY21" s="18" t="s">
@@ -12630,6 +13027,199 @@
       <c r="BI21" s="1">
         <f t="shared" ref="BI21" si="44">SUM(BE21,BG21)</f>
         <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>217</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>81.051738333333304</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0.84765625</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0.75892857142857095</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>66</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>85</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>66</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>65</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>65</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>22</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>44</v>
+      </c>
+      <c r="AR22" s="17">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>272</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>400</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>672</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>'20201105'</v>
+      </c>
+      <c r="AY22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ22" s="12">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="BA22" s="12">
+        <f t="shared" si="2"/>
+        <v>672</v>
+      </c>
+      <c r="BB22" s="12">
+        <f t="shared" si="3"/>
+        <v>4863.1042999999981</v>
+      </c>
+      <c r="BC22" s="12">
+        <f t="shared" ref="BC22" si="45">BB22/AZ22</f>
+        <v>22.410618894009207</v>
+      </c>
+      <c r="BD22" s="12">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="BE22" s="12">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="BF22" s="12">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="BG22" s="12">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="BH22" s="1">
+        <f t="shared" ref="BH22" si="46">SUM(BD22,BF22)</f>
+        <v>87</v>
+      </c>
+      <c r="BI22" s="1">
+        <f t="shared" ref="BI22" si="47">SUM(BE22,BG22)</f>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -12642,11 +13232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AZ6" sqref="AZ6"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -12662,7 +13252,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -12858,7 +13448,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -13051,7 +13641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -13244,7 +13834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -13437,7 +14027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -13630,7 +14220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -13823,7 +14413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -14016,7 +14606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -14209,7 +14799,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -14402,7 +14992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -14595,7 +15185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -14788,7 +15378,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -14981,7 +15571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -15174,7 +15764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -15367,7 +15957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -15560,7 +16150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -15753,7 +16343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -15946,7 +16536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -16139,7 +16729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>'JB368_Infoseek_20201105_134256.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201105_151915.mat'</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
       <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="1" customWidth="1"/>
@@ -996,7 +999,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -5259,7 +5262,7 @@
       <selection activeCell="BB19" sqref="BB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -5273,7 +5276,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -8953,11 +8956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AZ22" sqref="AZ22:BI22"/>
+    <sheetView topLeftCell="AP19" workbookViewId="0">
+      <selection activeCell="BF22" sqref="BF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -8973,7 +8976,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -10134,7 +10137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -12257,7 +12260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -12643,7 +12646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -13230,13 +13233,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM19"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AX27" sqref="AX27"/>
+    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
+      <selection activeCell="AZ20" sqref="AZ20:BI20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -13252,7 +13255,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -13441,14 +13444,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1359</v>
+        <v>1425</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1248</v>
+        <v>1343</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -13641,7 +13644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -13794,15 +13797,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ20" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA20" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB20" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -13810,19 +13813,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD20" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE20" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF20" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG20" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -13834,7 +13837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -14027,7 +14030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -14220,7 +14223,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -14413,7 +14416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -14799,7 +14802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -14992,7 +14995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -15378,7 +15381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -15571,7 +15574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -15764,7 +15767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -15957,7 +15960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -16150,7 +16153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -16343,7 +16346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -16536,7 +16539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -16729,7 +16732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>448</v>
       </c>
       <c r="AX19" s="1" t="str">
-        <f t="shared" ref="AX19" si="45">B19</f>
+        <f t="shared" ref="AX19:AX20" si="45">B19</f>
         <v>'20201104'</v>
       </c>
       <c r="AY19" s="18" t="s">
@@ -16920,6 +16923,199 @@
       <c r="BI19" s="1">
         <f t="shared" ref="BI19" si="48">SUM(BE19,BG19)</f>
         <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>208</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>88.856646666666705</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0.70989761092150205</v>
+      </c>
+      <c r="AH20" s="8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>0.90140845070422504</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>56</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>88</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>53</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>55</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR20" s="17">
+        <v>0.245283018867925</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.77403846153846201</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>128</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>448</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>'20201105'</v>
+      </c>
+      <c r="AY20" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ20" s="12">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="BA20" s="12">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="BB20" s="12">
+        <f t="shared" si="3"/>
+        <v>5331.3988000000027</v>
+      </c>
+      <c r="BC20" s="12">
+        <f t="shared" ref="BC20" si="49">BB20/AZ20</f>
+        <v>25.631725000000014</v>
+      </c>
+      <c r="BD20" s="12">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="BE20" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BF20" s="12">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="BG20" s="12">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="BH20" s="1">
+        <f t="shared" ref="BH20" si="50">SUM(BD20,BF20)</f>
+        <v>66</v>
+      </c>
+      <c r="BI20" s="1">
+        <f t="shared" ref="BI20" si="51">SUM(BE20,BG20)</f>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
     <sheet name="JB367" sheetId="2" r:id="rId2"/>
     <sheet name="JB368" sheetId="3" r:id="rId3"/>
     <sheet name="JB369" sheetId="5" r:id="rId4"/>
+    <sheet name="JB370" sheetId="6" r:id="rId5"/>
+    <sheet name="JB371" sheetId="7" r:id="rId6"/>
+    <sheet name="JB372" sheetId="9" r:id="rId7"/>
+    <sheet name="JB373" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="182">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -550,6 +554,30 @@
   <si>
     <t>'JB369_Infoseek_20201105_151915.mat'</t>
   </si>
+  <si>
+    <t>'JB370_Infoseek_20201106_102727.mat'</t>
+  </si>
+  <si>
+    <t>'20201106'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201106_104829.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201106_114044.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201106_121534.mat'</t>
+  </si>
+  <si>
+    <t>'JB367_Infoseek_20201106_134736.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201106_162521.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201106_154644.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,6 +725,10 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM22"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="1" customWidth="1"/>
@@ -999,7 +1031,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1188,14 +1220,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1456</v>
+        <v>1607</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1435</v>
+        <v>1517</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1348,15 +1380,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ22" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ23" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA22" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA23" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB22" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB23" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1364,19 +1396,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD22" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD23" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE22" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE23" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF22" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF23" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG22" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG23" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -1388,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1581,7 +1613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1774,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1967,7 +1999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2160,7 +2192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2353,7 +2385,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2546,7 +2578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,7 +2771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -2932,7 +2964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3125,7 +3157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3511,7 +3543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3704,7 +3736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -3897,7 +3929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4090,7 +4122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4283,7 +4315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4476,7 +4508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4669,7 +4701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4815,7 +4847,7 @@
         <v>592</v>
       </c>
       <c r="AX20" s="1" t="str">
-        <f t="shared" ref="AX20:AX22" si="41">B20</f>
+        <f t="shared" ref="AX20:AX23" si="41">B20</f>
         <v>'20201102'</v>
       </c>
       <c r="AY20" s="18" t="s">
@@ -4862,7 +4894,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5055,7 +5087,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -5246,6 +5278,199 @@
       <c r="BI22" s="1">
         <f t="shared" ref="BI22" si="50">SUM(BE22,BG22)</f>
         <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>246</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>89.428794999999994</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0.94252873563218398</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>0.97530864197530898</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0.96385542168674698</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0.89690721649484495</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>79</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>80</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>87</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>78</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>76</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>73</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR23" s="16">
+        <v>0.924050632911392</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>0.94715447154471499</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>464</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>352</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>816</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <f t="shared" si="41"/>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY23" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ23" s="12">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="BA23" s="12">
+        <f t="shared" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="BB23" s="12">
+        <f t="shared" si="2"/>
+        <v>5365.7276999999995</v>
+      </c>
+      <c r="BC23" s="12">
+        <f t="shared" ref="BC23" si="51">BB23/AZ23</f>
+        <v>21.811901219512194</v>
+      </c>
+      <c r="BD23" s="12">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="BE23" s="12">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="BF23" s="12">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="BG23" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BH23" s="1">
+        <f t="shared" ref="BH23" si="52">SUM(BD23,BF23)</f>
+        <v>151</v>
+      </c>
+      <c r="BI23" s="1">
+        <f t="shared" ref="BI23" si="53">SUM(BE23,BG23)</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5256,13 +5481,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM19"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BB19" sqref="BB19"/>
+      <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -5276,7 +5501,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5465,14 +5690,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1082</v>
+        <v>1194</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1010</v>
+        <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -5665,7 +5890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -5818,15 +6043,15 @@
         <v>113</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ19" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ20" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>120</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA19" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA20" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>384</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB19" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB20" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4245.708700000002</v>
       </c>
       <c r="BC3" s="12">
@@ -5834,19 +6059,19 @@
         <v>35.380905833333351</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD19" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD20" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>43</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE19" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE20" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>44</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF19" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF20" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG19" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG20" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
@@ -5858,7 +6083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -6051,7 +6276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6244,7 +6469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -6437,7 +6662,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -6630,7 +6855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -6823,7 +7048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -7016,7 +7241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7209,7 +7434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -7402,7 +7627,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -7595,7 +7820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -7788,7 +8013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -7981,7 +8206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8174,7 +8399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -8367,7 +8592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -8560,7 +8785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -8753,7 +8978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -8899,7 +9124,7 @@
         <v>304</v>
       </c>
       <c r="AX19" s="1" t="str">
-        <f t="shared" ref="AX19" si="39">B19</f>
+        <f t="shared" ref="AX19:AX20" si="39">B19</f>
         <v>'20201105'</v>
       </c>
       <c r="AY19" s="18" t="s">
@@ -8944,6 +9169,199 @@
       <c r="BI19" s="1">
         <f t="shared" ref="BI19" si="42">SUM(BE19,BG19)</f>
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>10</v>
+      </c>
+      <c r="S20" s="1">
+        <v>4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>228</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>92.056516666666695</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.93061224489795902</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>60</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>104</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>62</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR20" s="17">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.79824561403508798</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>384</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>144</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>528</v>
+      </c>
+      <c r="AX20" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY20" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ20" s="12">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="BA20" s="12">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="BB20" s="12">
+        <f t="shared" si="3"/>
+        <v>5523.3910000000014</v>
+      </c>
+      <c r="BC20" s="12">
+        <f t="shared" ref="BC20" si="43">BB20/AZ20</f>
+        <v>24.225399122807023</v>
+      </c>
+      <c r="BD20" s="12">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="BE20" s="12">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="BF20" s="12">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="BG20" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="BH20" s="1">
+        <f t="shared" ref="BH20" si="44">SUM(BD20,BF20)</f>
+        <v>112</v>
+      </c>
+      <c r="BI20" s="1">
+        <f t="shared" ref="BI20" si="45">SUM(BE20,BG20)</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8956,11 +9374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView topLeftCell="AP19" workbookViewId="0">
-      <selection activeCell="BF22" sqref="BF22"/>
+    <sheetView topLeftCell="AP7" workbookViewId="0">
+      <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -8976,7 +9394,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -9172,7 +9590,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -9365,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -9558,7 +9976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -9751,7 +10169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -9944,7 +10362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -10137,7 +10555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10330,7 +10748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -10523,7 +10941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -10716,7 +11134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -10909,7 +11327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -11102,7 +11520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -11295,7 +11713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -11488,7 +11906,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -11681,7 +12099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -11874,7 +12292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -12067,7 +12485,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -12260,7 +12678,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -12453,7 +12871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -12646,7 +13064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -12839,7 +13257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -13032,7 +13450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -13235,11 +13653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS2" workbookViewId="0">
-      <selection activeCell="AZ20" sqref="AZ20:BI20"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AZ20" sqref="AZ20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -13255,7 +13673,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -13451,7 +13869,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -13644,7 +14062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -13837,7 +14255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -14030,7 +14448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -14223,7 +14641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -14416,7 +14834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -14609,7 +15027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -14802,7 +15220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -14995,7 +15413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -15188,7 +15606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -15381,7 +15799,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -15574,7 +15992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -15767,7 +16185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -15960,7 +16378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -16153,7 +16571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -16346,7 +16764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -16539,7 +16957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -16732,7 +17150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -16925,7 +17343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -17117,6 +17535,2640 @@
         <f t="shared" ref="BI20" si="51">SUM(BE20,BG20)</f>
         <v>95</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM20"/>
+  <sheetViews>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>22</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>8.2012649999999994</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>46</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>180</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>1484.8948000000019</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
+        <v>32.280321739130478</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>22</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>23</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>22</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>16.546981666666699</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.47761194029850701</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.55813953488372103</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0.96875</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>92</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>124</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>B3</f>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>46</v>
+      </c>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>180</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>1484.8948000000019</v>
+      </c>
+      <c r="BC3" s="12">
+        <f>BB3/AZ3</f>
+        <v>32.280321739130478</v>
+      </c>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>22</v>
+      </c>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>23</v>
+      </c>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>SUM(BD3,BF3)</f>
+        <v>22</v>
+      </c>
+      <c r="BI3" s="1">
+        <f>SUM(BE3,BG3)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+    </row>
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+    </row>
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+    </row>
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+    </row>
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM20"/>
+  <sheetViews>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>20</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>28.242326666666699</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.70967741935483897</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.97619047619047605</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>80</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>164</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>42</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>164</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>1694.5396000000019</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
+        <v>40.346180952380998</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>20</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>21</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>20</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+    </row>
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+    </row>
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+    </row>
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+    </row>
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>26</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>28.305381666666701</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.65116279069767502</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>104</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>112</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>216</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>56</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>216</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>1698.3229000000022</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
+        <v>30.327194642857183</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>26</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>28</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>26</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+    </row>
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+    </row>
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+    </row>
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+    </row>
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM20"/>
+  <sheetViews>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>38</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>28.582685000000001</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0.32314410480349298</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.34862385321100903</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>152</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>292</v>
+      </c>
+      <c r="AX2" s="1" t="str">
+        <f>B2</f>
+        <v>'20201106'</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>74</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>292</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>1714.9611</v>
+      </c>
+      <c r="BC2" s="12">
+        <f>BB2/AZ2</f>
+        <v>23.175149999999999</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>38</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>35</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <f>SUM(BD2,BF2)</f>
+        <v>38</v>
+      </c>
+      <c r="BI2" s="1">
+        <f>SUM(BE2,BG2)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+    </row>
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+    </row>
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+    </row>
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+    </row>
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+    </row>
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+    </row>
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+    </row>
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="190">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -578,6 +578,30 @@
   <si>
     <t>'JB372_Infoseek_20201106_154644.mat'</t>
   </si>
+  <si>
+    <t>'JB370_Infoseek_20201109_095459.mat'</t>
+  </si>
+  <si>
+    <t>'20201109'</t>
+  </si>
+  <si>
+    <t>Sides covered</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201109_105441.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201109_121002.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201109_132126.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201109_143723.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201109_153459.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -1012,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM23"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AV23" sqref="AV23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5483,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
@@ -9372,10 +9396,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM22"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
-    <sheetView topLeftCell="AP7" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9583,11 +9607,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1580</v>
+        <v>1642</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1327</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -9936,15 +9960,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ22" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ23" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA22" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA23" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB22" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB23" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -9952,19 +9976,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD22" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD23" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE22" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE23" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF22" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF23" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG22" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG23" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -13641,6 +13665,199 @@
       <c r="BI22" s="1">
         <f t="shared" ref="BI22" si="47">SUM(BE22,BG22)</f>
         <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>170</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>71.261648333333298</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>0.78341013824884798</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0.69902912621359203</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>45</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>53</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>45</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>46</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>17</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>28</v>
+      </c>
+      <c r="AR23" s="17">
+        <v>0.37777777777777799</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>192</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>416</v>
+      </c>
+      <c r="AX23" s="1" t="str">
+        <f t="shared" ref="AX23" si="48">B23</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY23" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ23" s="12">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="BA23" s="12">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="BB23" s="12">
+        <f t="shared" si="3"/>
+        <v>4275.6988999999976</v>
+      </c>
+      <c r="BC23" s="12">
+        <f t="shared" ref="BC23" si="49">BB23/AZ23</f>
+        <v>25.151169999999986</v>
+      </c>
+      <c r="BD23" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="BE23" s="12">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="BF23" s="12">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="BG23" s="12">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="BH23" s="1">
+        <f t="shared" ref="BH23" si="50">SUM(BD23,BF23)</f>
+        <v>62</v>
+      </c>
+      <c r="BI23" s="1">
+        <f t="shared" ref="BI23" si="51">SUM(BE23,BG23)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -13651,10 +13868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ20" sqref="AZ20"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13862,11 +14079,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1425</v>
+        <v>1495</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1343</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -14215,15 +14432,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ20" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ21" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA20" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA21" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB20" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB21" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -14231,19 +14448,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD20" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD21" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE20" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE21" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF20" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF21" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG20" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG21" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -17534,6 +17751,199 @@
       <c r="BI20" s="1">
         <f t="shared" ref="BI20" si="51">SUM(BE20,BG20)</f>
         <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>167</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>76.446323333333297</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>0.61172161172161199</v>
+      </c>
+      <c r="AH21" s="8">
+        <v>0.51063829787234005</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>0.65517241379310298</v>
+      </c>
+      <c r="AJ21" s="8">
+        <v>0.67391304347826098</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>48</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>57</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>62</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>44</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>45</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>26</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR21" s="17">
+        <v>0.57777777777777795</v>
+      </c>
+      <c r="AS21" s="8">
+        <v>0.80239520958083799</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>160</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX21" s="1" t="str">
+        <f t="shared" ref="AX21" si="52">B21</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY21" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ21" s="12">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="BA21" s="12">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="BB21" s="12">
+        <f t="shared" si="3"/>
+        <v>4586.7793999999976</v>
+      </c>
+      <c r="BC21" s="12">
+        <f t="shared" ref="BC21" si="53">BB21/AZ21</f>
+        <v>27.465744910179627</v>
+      </c>
+      <c r="BD21" s="12">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="BE21" s="12">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="BF21" s="12">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="BG21" s="12">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="BH21" s="1">
+        <f t="shared" ref="BH21" si="54">SUM(BD21,BF21)</f>
+        <v>70</v>
+      </c>
+      <c r="BI21" s="1">
+        <f t="shared" ref="BI21" si="55">SUM(BE21,BG21)</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -17546,8 +17956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17756,11 +18166,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -17912,8 +18322,8 @@
         <f>B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>112</v>
+      <c r="AY2" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -18105,8 +18515,8 @@
         <f>B3</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>112</v>
+      <c r="AY3" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="AZ3" s="12">
         <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
@@ -18150,15 +18560,197 @@
       </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>54.706499999999998</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.308970099667774</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0.29838709677419401</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.31638418079096098</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>36</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>56</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.989247311827957</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>144</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>368</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f>B4</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <v>93</v>
+      </c>
+      <c r="BA4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <v>368</v>
+      </c>
+      <c r="BB4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <v>3282.39</v>
+      </c>
+      <c r="BC4" s="12">
+        <f>BB4/AZ4</f>
+        <v>35.29451612903226</v>
+      </c>
+      <c r="BD4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <v>36</v>
+      </c>
+      <c r="BE4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>56</v>
+      </c>
+      <c r="BF4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>SUM(BD4,BF4)</f>
+        <v>36</v>
+      </c>
+      <c r="BI4" s="1">
+        <f>SUM(BE4,BG4)</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
@@ -18341,8 +18933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18551,11 +19143,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -18752,15 +19344,197 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
+      <c r="A3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>239</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>71.804231666666695</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.32253711201079599</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.35449735449735498</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.28925619834710697</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>134</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>105</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>133</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>103</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0.98744769874477001</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>532</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>412</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>944</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>B3</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>239</v>
+      </c>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>944</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>4308.2539000000015</v>
+      </c>
+      <c r="BC3" s="12">
+        <f>BB3/AZ3</f>
+        <v>18.0261669456067</v>
+      </c>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>133</v>
+      </c>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>103</v>
+      </c>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>SUM(BD3,BF3)</f>
+        <v>133</v>
+      </c>
+      <c r="BI3" s="1">
+        <f>SUM(BE3,BG3)</f>
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
@@ -18954,8 +19728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19164,11 +19938,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -19365,7 +20139,150 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>27.8406466666667</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.26229508196721302</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.31550802139037398</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.177966101694915</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>236</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>84</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>320</v>
+      </c>
       <c r="AZ3" s="12"/>
       <c r="BA3" s="12"/>
       <c r="BB3" s="12"/>
@@ -19567,8 +20484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19777,11 +20694,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -19978,15 +20895,197 @@
       </c>
     </row>
     <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
+      <c r="A3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>294</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>39.987746666666702</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.35336538461538503</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>0.41265060240963902</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.314</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>137</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>157</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>137</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>119</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>548</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>476</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1024</v>
+      </c>
+      <c r="AX3" s="1" t="str">
+        <f>B3</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>294</v>
+      </c>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>1024</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>2399.2648000000022</v>
+      </c>
+      <c r="BC3" s="12">
+        <f>BB3/AZ3</f>
+        <v>8.1607646258503479</v>
+      </c>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>137</v>
+      </c>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>119</v>
+      </c>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>SUM(BD3,BF3)</f>
+        <v>137</v>
+      </c>
+      <c r="BI3" s="1">
+        <f>SUM(BE3,BG3)</f>
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="199">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -602,6 +602,33 @@
   <si>
     <t>'JB369_Infoseek_20201109_153459.mat'</t>
   </si>
+  <si>
+    <t>'JB366_Infoseek_20201110_093350.mat'</t>
+  </si>
+  <si>
+    <t>'20201110'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201110_102611.mat'</t>
+  </si>
+  <si>
+    <t>Ports covered</t>
+  </si>
+  <si>
+    <t>Ports Covered</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201110_105641.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201110_114154.mat'</t>
+  </si>
+  <si>
+    <t>'JB369_Infoseek_20201110_133041.mat'</t>
+  </si>
+  <si>
+    <t>'JB368_Infoseek_20201110_142939.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -1034,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1244,11 +1271,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1607</v>
+        <v>1677</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1517</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1404,15 +1431,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ23" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ24" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA23" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA24" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB23" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB24" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1420,19 +1447,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD23" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD24" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE23" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE24" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF23" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF24" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG23" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG24" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -5495,6 +5522,199 @@
       <c r="BI23" s="1">
         <f t="shared" ref="BI23" si="53">SUM(BE23,BG23)</f>
         <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>126</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>49.158299999999997</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>0.88111888111888104</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>0.93181818181818199</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>0.786885245901639</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>41</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>48</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="16">
+        <v>0.86486486486486502</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>0.89682539682539697</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>80</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>304</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <f t="shared" ref="AX24" si="54">B24</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY24" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ24" s="12">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="BA24" s="12">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="BB24" s="12">
+        <f t="shared" si="2"/>
+        <v>2949.4979999999996</v>
+      </c>
+      <c r="BC24" s="12">
+        <f t="shared" ref="BC24" si="55">BB24/AZ24</f>
+        <v>23.408714285714282</v>
+      </c>
+      <c r="BD24" s="12">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="BE24" s="12">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="BF24" s="12">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="BG24" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="BH24" s="1">
+        <f t="shared" ref="BH24" si="56">SUM(BD24,BF24)</f>
+        <v>70</v>
+      </c>
+      <c r="BI24" s="1">
+        <f t="shared" ref="BI24" si="57">SUM(BE24,BG24)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -9396,10 +9616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="BC23" sqref="BC23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9607,11 +9827,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1642</v>
+        <v>1710</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1401</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -9960,15 +10180,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ23" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ24" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>76</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA23" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA24" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>80</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB23" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB24" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>4395.8910000000014</v>
       </c>
       <c r="BC3" s="12">
@@ -9976,19 +10196,19 @@
         <v>57.840671052631599</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD23" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD24" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>18</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE23" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE24" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>8</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF23" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF24" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>18</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG23" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG24" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>8</v>
       </c>
       <c r="BH3" s="1">
@@ -13858,6 +14078,199 @@
       <c r="BI23" s="1">
         <f t="shared" ref="BI23" si="51">SUM(BE23,BG23)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1">
+        <v>4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>227</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>88.684076666666698</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>0.89723320158102804</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>0.94202898550724601</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>0.83035714285714302</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>65</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>93</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>69</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>61</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>63</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>56</v>
+      </c>
+      <c r="AR24" s="17">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>0.82378854625550701</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>272</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>384</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>656</v>
+      </c>
+      <c r="AX24" s="1" t="str">
+        <f t="shared" ref="AX24" si="52">B24</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY24" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ24" s="12">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="BA24" s="12">
+        <f t="shared" si="2"/>
+        <v>656</v>
+      </c>
+      <c r="BB24" s="12">
+        <f t="shared" si="3"/>
+        <v>5321.044600000002</v>
+      </c>
+      <c r="BC24" s="12">
+        <f t="shared" ref="BC24" si="53">BB24/AZ24</f>
+        <v>23.440725110132167</v>
+      </c>
+      <c r="BD24" s="12">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="BE24" s="12">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="BF24" s="12">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="BG24" s="12">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="BH24" s="1">
+        <f t="shared" ref="BH24" si="54">SUM(BD24,BF24)</f>
+        <v>68</v>
+      </c>
+      <c r="BI24" s="1">
+        <f t="shared" ref="BI24" si="55">SUM(BE24,BG24)</f>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -13868,10 +14281,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AV18" sqref="AV18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14079,11 +14492,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1495</v>
+        <v>1543</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1407</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -14432,15 +14845,15 @@
         <v>112</v>
       </c>
       <c r="AZ3" s="12">
-        <f t="shared" ref="AZ3:AZ21" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ3:AZ22" si="1">SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
         <v>175</v>
       </c>
       <c r="BA3" s="12">
-        <f t="shared" ref="BA3:BA21" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA3:BA22" si="2">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>480</v>
       </c>
       <c r="BB3" s="12">
-        <f t="shared" ref="BB3:BB21" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB3:BB22" si="3">SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
         <v>5382.3676000000023</v>
       </c>
       <c r="BC3" s="12">
@@ -14448,19 +14861,19 @@
         <v>30.756386285714299</v>
       </c>
       <c r="BD3" s="12">
-        <f t="shared" ref="BD3:BD21" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD3:BD22" si="5">SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
         <v>37</v>
       </c>
       <c r="BE3" s="12">
-        <f t="shared" ref="BE3:BE21" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE3:BE22" si="6">SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>39</v>
       </c>
       <c r="BF3" s="12">
-        <f t="shared" ref="BF3:BF21" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF3:BF22" si="7">SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>41</v>
       </c>
       <c r="BG3" s="12">
-        <f t="shared" ref="BG3:BG21" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG3:BG22" si="8">SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>43</v>
       </c>
       <c r="BH3" s="1">
@@ -17944,6 +18357,199 @@
       <c r="BI21" s="1">
         <f t="shared" ref="BI21" si="55">SUM(BE21,BG21)</f>
         <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>105</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>55.018688333333301</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0.664556962025316</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0.50793650793650802</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>17</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR22" s="17">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="AS22" s="8">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>112</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>96</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>208</v>
+      </c>
+      <c r="AX22" s="1" t="str">
+        <f t="shared" ref="AX22" si="56">B22</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ22" s="12">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="BA22" s="12">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="BB22" s="12">
+        <f t="shared" si="3"/>
+        <v>3301.121299999998</v>
+      </c>
+      <c r="BC22" s="12">
+        <f t="shared" ref="BC22" si="57">BB22/AZ22</f>
+        <v>31.439250476190455</v>
+      </c>
+      <c r="BD22" s="12">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="BE22" s="12">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="BF22" s="12">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="BG22" s="12">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="BH22" s="1">
+        <f t="shared" ref="BH22" si="58">SUM(BD22,BF22)</f>
+        <v>48</v>
+      </c>
+      <c r="BI22" s="1">
+        <f t="shared" ref="BI22" si="59">SUM(BE22,BG22)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -17954,10 +18560,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BF4" sqref="BF4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18933,8 +19542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19143,11 +19752,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>124</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -19299,8 +19908,8 @@
         <f>B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>112</v>
+      <c r="AY2" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -19492,8 +20101,8 @@
         <f>B3</f>
         <v>'20201109'</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>112</v>
+      <c r="AY3" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="AZ3" s="12">
         <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
@@ -19537,15 +20146,197 @@
       </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
+      <c r="A4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>224</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>25.1864116666667</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.56852791878172604</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0.66981132075471705</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>153</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>134</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.91517857142857095</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>284</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>536</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>820</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f>B4</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <v>224</v>
+      </c>
+      <c r="BA4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <v>820</v>
+      </c>
+      <c r="BB4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <v>1511.1847000000021</v>
+      </c>
+      <c r="BC4" s="12">
+        <f>BB4/AZ4</f>
+        <v>6.7463602678571517</v>
+      </c>
+      <c r="BD4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <v>71</v>
+      </c>
+      <c r="BE4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>134</v>
+      </c>
+      <c r="BF4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>SUM(BD4,BF4)</f>
+        <v>71</v>
+      </c>
+      <c r="BI4" s="1">
+        <f>SUM(BE4,BG4)</f>
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
@@ -19728,8 +20519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19938,11 +20729,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -20094,8 +20885,8 @@
         <f>B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>112</v>
+      <c r="AY2" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -20283,25 +21074,246 @@
       <c r="AV3" s="1">
         <v>320</v>
       </c>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
+      <c r="AX3" s="1" t="str">
+        <f>B3</f>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY3" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>80</v>
+      </c>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>320</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>1670.4388000000019</v>
+      </c>
+      <c r="BC3" s="12">
+        <f>BB3/AZ3</f>
+        <v>20.880485000000025</v>
+      </c>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>59</v>
+      </c>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>21</v>
+      </c>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>SUM(BD3,BF3)</f>
+        <v>59</v>
+      </c>
+      <c r="BI3" s="1">
+        <f>SUM(BE3,BG3)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
+      <c r="A4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>238</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>29.653130000000001</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.64850136239781997</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0.70552147239263796</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.60294117647058798</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>115</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>123</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>113</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>121</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.98319327731092399</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>452</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>484</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>936</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f>B4</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <v>238</v>
+      </c>
+      <c r="BA4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <v>936</v>
+      </c>
+      <c r="BB4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <v>1779.1878000000002</v>
+      </c>
+      <c r="BC4" s="12">
+        <f>BB4/AZ4</f>
+        <v>7.4755789915966391</v>
+      </c>
+      <c r="BD4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <v>113</v>
+      </c>
+      <c r="BE4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>121</v>
+      </c>
+      <c r="BF4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>SUM(BD4,BF4)</f>
+        <v>113</v>
+      </c>
+      <c r="BI4" s="1">
+        <f>SUM(BE4,BG4)</f>
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
@@ -20484,8 +21496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20694,11 +21706,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>154</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -20850,8 +21862,8 @@
         <f>B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>112</v>
+      <c r="AY2" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -21043,8 +22055,8 @@
         <f>B3</f>
         <v>'20201109'</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>112</v>
+      <c r="AY3" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="AZ3" s="12">
         <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
@@ -21088,15 +22100,197 @@
       </c>
     </row>
     <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>224</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>24.0364</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0.365079365079365</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.40993788819875798</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>92</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>132</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>131</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0.99107142857142905</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>364</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>524</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>888</v>
+      </c>
+      <c r="AX4" s="1" t="str">
+        <f>B4</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY4" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <v>224</v>
+      </c>
+      <c r="BA4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <v>888</v>
+      </c>
+      <c r="BB4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <v>1442.184</v>
+      </c>
+      <c r="BC4" s="12">
+        <f>BB4/AZ4</f>
+        <v>6.4383214285714283</v>
+      </c>
+      <c r="BD4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <v>91</v>
+      </c>
+      <c r="BE4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <v>131</v>
+      </c>
+      <c r="BF4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="1">
+        <f>SUM(BD4,BF4)</f>
+        <v>91</v>
+      </c>
+      <c r="BI4" s="1">
+        <f>SUM(BE4,BG4)</f>
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="211">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -629,6 +629,42 @@
   <si>
     <t>'JB368_Infoseek_20201110_142939.mat'</t>
   </si>
+  <si>
+    <t>'JB366_Infoseek_20201111_113946.mat'</t>
+  </si>
+  <si>
+    <t>'20201111'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201110_124839.mat'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201110_090947.mat'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201111_134303.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201111_140955.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201111_151731.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201111_151913.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201111_143149.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201111_153240.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201111_145124.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201111_154257.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -1061,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM24"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL35" sqref="AL35"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AS25" sqref="AS25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1271,11 +1307,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1677</v>
+        <v>1744</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1560</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -1431,15 +1467,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ24" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ25" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA24" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA25" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB24" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB25" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1447,19 +1483,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD24" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD25" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE24" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE25" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF24" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF25" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG24" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG25" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -5670,7 +5706,7 @@
         <v>304</v>
       </c>
       <c r="AX24" s="1" t="str">
-        <f t="shared" ref="AX24" si="54">B24</f>
+        <f t="shared" ref="AX24:AX25" si="54">B24</f>
         <v>'20201110'</v>
       </c>
       <c r="AY24" s="18" t="s">
@@ -5715,6 +5751,199 @@
       <c r="BI24" s="1">
         <f t="shared" ref="BI24" si="57">SUM(BE24,BG24)</f>
         <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1">
+        <v>4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>212</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>72.888313333333301</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>0.96363636363636396</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>0.90540540540540504</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>0.98507462686567204</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>67</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>66</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>66</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>65</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>66</v>
+      </c>
+      <c r="AR25" s="19">
+        <v>1.49253731343284E-2</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>0.93396226415094297</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>176</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>576</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>752</v>
+      </c>
+      <c r="AX25" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY25" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ25" s="12">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="BA25" s="12">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="BB25" s="12">
+        <f t="shared" si="2"/>
+        <v>4373.2987999999978</v>
+      </c>
+      <c r="BC25" s="12">
+        <f t="shared" ref="BC25" si="58">BB25/AZ25</f>
+        <v>20.62876792452829</v>
+      </c>
+      <c r="BD25" s="12">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="BE25" s="12">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="BF25" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="12">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="BH25" s="1">
+        <f t="shared" ref="BH25" si="59">SUM(BD25,BF25)</f>
+        <v>67</v>
+      </c>
+      <c r="BI25" s="1">
+        <f t="shared" ref="BI25" si="60">SUM(BE25,BG25)</f>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -9618,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14283,8 +14512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18560,13 +18789,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18775,11 +19001,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -18967,11 +19193,11 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <f>SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
         <v>22</v>
       </c>
       <c r="BI2" s="1">
-        <f>SUM(BE2,BG2)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -19160,11 +19386,11 @@
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f>SUM(BD3,BF3)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="BI3" s="1">
-        <f>SUM(BE3,BG3)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -19353,16 +19579,159 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <f>SUM(BD4,BF4)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="BI4" s="1">
-        <f>SUM(BE4,BG4)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>14.986278333333299</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>8</v>
+      </c>
       <c r="AZ5" s="12"/>
       <c r="BA5" s="12"/>
       <c r="BB5" s="12"/>
@@ -19373,7 +19742,150 @@
       <c r="BG5" s="12"/>
     </row>
     <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>33.939333333333302</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>28</v>
+      </c>
       <c r="AZ6" s="12"/>
       <c r="BA6" s="12"/>
       <c r="BB6" s="12"/>
@@ -19384,7 +19896,150 @@
       <c r="BG6" s="12"/>
     </row>
     <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>18.055731666666698</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>48</v>
+      </c>
       <c r="AZ7" s="12"/>
       <c r="BA7" s="12"/>
       <c r="BB7" s="12"/>
@@ -19542,8 +20197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19752,11 +20407,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>258</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -19944,11 +20599,11 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <f>SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
         <v>20</v>
       </c>
       <c r="BI2" s="1">
-        <f>SUM(BE2,BG2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -20137,11 +20792,11 @@
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f>SUM(BD3,BF3)</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="BI3" s="1">
-        <f>SUM(BE3,BG3)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -20330,46 +20985,592 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <f>SUM(BD4,BF4)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="BI4" s="1">
-        <f>SUM(BE4,BG4)</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>160</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>17.86056</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.46920821114369499</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.561728395061728</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.38547486033519601</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>69</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>360</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>264</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>624</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f t="shared" ref="AX5:AX7" si="1">B5</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY5" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f t="shared" ref="AZ5:AZ7" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>284</v>
+      </c>
+      <c r="BA5" s="12">
+        <f t="shared" ref="BA5:BA7" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>1116</v>
+      </c>
+      <c r="BB5" s="12">
+        <f t="shared" ref="BB5:BB7" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>1835.5716999999977</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" ref="BC5:BC7" si="5">BB5/AZ5</f>
+        <v>6.4632806338028086</v>
+      </c>
+      <c r="BD5" s="12">
+        <f t="shared" ref="BD5:BD7" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>156</v>
+      </c>
+      <c r="BE5" s="12">
+        <f t="shared" ref="BE5:BE7" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>123</v>
+      </c>
+      <c r="BF5" s="12">
+        <f t="shared" ref="BF5:BF7" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f t="shared" ref="BG5:BG7" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" ref="BH5:BH7" si="10">SUM(BD5,BF5)</f>
+        <v>156</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" ref="BI5:BI7" si="11">SUM(BE5,BG5)</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1.0941033333333301</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>14</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>14</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="BA6" s="12">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="BB6" s="12">
+        <f t="shared" si="4"/>
+        <v>1835.5716999999977</v>
+      </c>
+      <c r="BC6" s="12">
+        <f t="shared" si="5"/>
+        <v>6.4632806338028086</v>
+      </c>
+      <c r="BD6" s="12">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>110</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>11.6381983333333</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.378006872852234</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.58426966292134797</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0.287128712871287</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>52</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>58</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>52</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>57</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>208</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>228</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>436</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="BA7" s="12">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="BB7" s="12">
+        <f t="shared" si="4"/>
+        <v>1835.5716999999977</v>
+      </c>
+      <c r="BC7" s="12">
+        <f t="shared" si="5"/>
+        <v>6.4632806338028086</v>
+      </c>
+      <c r="BD7" s="12">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="BE7" s="12">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="BF7" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
@@ -20519,8 +21720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6:BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20729,11 +21930,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>170</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -20921,11 +22122,11 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <f>SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
         <v>26</v>
       </c>
       <c r="BI2" s="1">
-        <f>SUM(BE2,BG2)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -21114,11 +22315,11 @@
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f>SUM(BD3,BF3)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="BI3" s="1">
-        <f>SUM(BE3,BG3)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -21307,35 +22508,399 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <f>SUM(BD4,BF4)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="BI4" s="1">
-        <f>SUM(BE4,BG4)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>185</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>16.377600000000001</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.585443037974684</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.67938931297709904</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.51891891891891895</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>89</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>87</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>94</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0.97837837837837804</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>348</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>376</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>724</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>B5</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>323</v>
+      </c>
+      <c r="BA5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>1276</v>
+      </c>
+      <c r="BB5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>1507.3524</v>
+      </c>
+      <c r="BC5" s="12">
+        <f>BB5/AZ5</f>
+        <v>4.666725696594427</v>
+      </c>
+      <c r="BD5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>151</v>
+      </c>
+      <c r="BE5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>168</v>
+      </c>
+      <c r="BF5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" ref="BH5:BH6" si="1">SUM(BD5,BF5)</f>
+        <v>151</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" ref="BI5:BI6" si="2">SUM(BE5,BG5)</f>
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>138</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>8.7449399999999997</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.582278481012658</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.633663366336634</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.54411764705882404</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>74</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>256</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>296</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>552</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>B6</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>323</v>
+      </c>
+      <c r="BA6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>1276</v>
+      </c>
+      <c r="BB6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>1507.3524</v>
+      </c>
+      <c r="BC6" s="12">
+        <f>BB6/AZ6</f>
+        <v>4.666725696594427</v>
+      </c>
+      <c r="BD6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>151</v>
+      </c>
+      <c r="BE6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>168</v>
+      </c>
+      <c r="BF6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
     </row>
     <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
@@ -21496,8 +23061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AX4" sqref="AX4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21706,11 +23271,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>285</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -21898,11 +23463,11 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <f>SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
         <v>38</v>
       </c>
       <c r="BI2" s="1">
-        <f>SUM(BE2,BG2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -22091,11 +23656,11 @@
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f>SUM(BD3,BF3)</f>
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="BI3" s="1">
-        <f>SUM(BE3,BG3)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
@@ -22284,35 +23849,399 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <f>SUM(BD4,BF4)</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="BI4" s="1">
-        <f>SUM(BE4,BG4)</f>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>215</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>20.418500000000002</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.35245901639344301</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.33243243243243198</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>92</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>123</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>89</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>106</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0.90697674418604701</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>356</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>424</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>780</v>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>B5</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>302</v>
+      </c>
+      <c r="BA5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>1128</v>
+      </c>
+      <c r="BB5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>1803.4593000000002</v>
+      </c>
+      <c r="BC5" s="12">
+        <f>BB5/AZ5</f>
+        <v>5.9717195364238416</v>
+      </c>
+      <c r="BD5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>120</v>
+      </c>
+      <c r="BE5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>162</v>
+      </c>
+      <c r="BF5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" ref="BH5:BH6" si="1">SUM(BD5,BF5)</f>
+        <v>120</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" ref="BI5:BI6" si="2">SUM(BE5,BG5)</f>
+        <v>162</v>
+      </c>
     </row>
     <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>87</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>9.6391550000000006</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.31182795698924698</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>0.26956521739130401</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.34146341463414598</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>31</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>124</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>348</v>
+      </c>
+      <c r="AX6" s="1" t="str">
+        <f>B6</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>302</v>
+      </c>
+      <c r="BA6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>1128</v>
+      </c>
+      <c r="BB6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>1803.4593000000002</v>
+      </c>
+      <c r="BC6" s="12">
+        <f>BB6/AZ6</f>
+        <v>5.9717195364238416</v>
+      </c>
+      <c r="BD6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>120</v>
+      </c>
+      <c r="BE6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>162</v>
+      </c>
+      <c r="BF6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="211">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -14512,7 +14512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
@@ -18791,8 +18791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19732,14 +19732,53 @@
       <c r="AV5" s="1">
         <v>8</v>
       </c>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
+      <c r="AX5" s="1" t="str">
+        <f>B5</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>10</v>
+      </c>
+      <c r="BA5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>36</v>
+      </c>
+      <c r="BB5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>2935.536699999996</v>
+      </c>
+      <c r="BC5" s="12">
+        <f>BB5/AZ5</f>
+        <v>293.55366999999961</v>
+      </c>
+      <c r="BD5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BE5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BF5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <f t="shared" ref="BH5:BH7" si="1">SUM(BD5,BF5)</f>
+        <v>8</v>
+      </c>
+      <c r="BI5" s="1">
+        <f t="shared" ref="BI5:BI7" si="2">SUM(BE5,BG5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -19886,14 +19925,53 @@
       <c r="AV6" s="1">
         <v>28</v>
       </c>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
+      <c r="AX6" s="1" t="str">
+        <f>B6</f>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY6" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>10</v>
+      </c>
+      <c r="BA6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>36</v>
+      </c>
+      <c r="BB6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>2935.536699999996</v>
+      </c>
+      <c r="BC6" s="12">
+        <f>BB6/AZ6</f>
+        <v>293.55366999999961</v>
+      </c>
+      <c r="BD6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BE6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>1</v>
+      </c>
+      <c r="BF6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -20040,14 +20118,53 @@
       <c r="AV7" s="1">
         <v>48</v>
       </c>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
+      <c r="AX7" s="1" t="str">
+        <f>B7</f>
+        <v>'20201111'</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <v>13</v>
+      </c>
+      <c r="BA7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>48</v>
+      </c>
+      <c r="BB7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>1083.3439000000019</v>
+      </c>
+      <c r="BC7" s="12">
+        <f>BB7/AZ7</f>
+        <v>83.334146153846305</v>
+      </c>
+      <c r="BD7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>8</v>
+      </c>
+      <c r="BE7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>4</v>
+      </c>
+      <c r="BF7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM25"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AS25" sqref="AS25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18791,8 +18791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="217">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -665,6 +665,24 @@
   <si>
     <t>'JB373_Infoseek_20201111_154257.mat'</t>
   </si>
+  <si>
+    <t>'JB366_Infoseek_20201112_121614.mat'</t>
+  </si>
+  <si>
+    <t>'20201112'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201112_134321.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201112_140414.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201112_142456.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201112_144945.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -1097,13 +1115,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="AS5" workbookViewId="0">
+      <selection activeCell="AY26" sqref="AY26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="1" customWidth="1"/>
@@ -1118,7 +1136,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1307,14 +1325,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1744</v>
+        <v>1821</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1691</v>
+        <v>1825</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1467,15 +1485,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ25" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ26" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA25" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA26" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB25" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB26" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1483,19 +1501,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD25" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD26" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE25" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE26" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF25" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF26" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG25" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG26" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -1507,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1893,7 +1911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2472,7 +2490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2665,7 +2683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3051,7 +3069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3244,7 +3262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3630,7 +3648,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3823,7 +3841,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4209,7 +4227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4595,7 +4613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4788,7 +4806,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5174,7 +5192,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -5367,7 +5385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -5560,7 +5578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -5753,7 +5771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -5944,6 +5962,199 @@
       <c r="BI25" s="1">
         <f t="shared" ref="BI25" si="60">SUM(BE25,BG25)</f>
         <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>243</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>83.415570000000002</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>0.96428571428571397</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>0.95348837209302295</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>0.96808510638297895</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>82</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>91</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>71</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>63</v>
+      </c>
+      <c r="AR26" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AS26" s="8">
+        <v>0.86831275720164602</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>240</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>448</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>688</v>
+      </c>
+      <c r="AX26" s="1" t="str">
+        <f t="shared" ref="AX26" si="61">B26</f>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY26" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ26" s="12">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="BA26" s="12">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="BB26" s="12">
+        <f t="shared" si="2"/>
+        <v>5004.9341999999997</v>
+      </c>
+      <c r="BC26" s="12">
+        <f t="shared" ref="BC26" si="62">BB26/AZ26</f>
+        <v>20.596437037037035</v>
+      </c>
+      <c r="BD26" s="12">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="BE26" s="12">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="BF26" s="12">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BG26" s="12">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="BH26" s="1">
+        <f t="shared" ref="BH26" si="63">SUM(BD26,BF26)</f>
+        <v>77</v>
+      </c>
+      <c r="BI26" s="1">
+        <f t="shared" ref="BI26" si="64">SUM(BE26,BG26)</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5960,7 +6171,7 @@
       <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -5974,7 +6185,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -6170,7 +6381,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -6363,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -6556,7 +6767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -6749,7 +6960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -6942,7 +7153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -7135,7 +7346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -7328,7 +7539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -7521,7 +7732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -7714,7 +7925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -7907,7 +8118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -8100,7 +8311,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -8293,7 +8504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -8486,7 +8697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -8679,7 +8890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -8872,7 +9083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -9065,7 +9276,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -9258,7 +9469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -9451,7 +9662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -9644,7 +9855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -9851,7 +10062,7 @@
       <selection activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -9867,7 +10078,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -10063,7 +10274,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -10256,7 +10467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -10449,7 +10660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -10642,7 +10853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -10835,7 +11046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -11028,7 +11239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -11221,7 +11432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -11414,7 +11625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -11607,7 +11818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -11800,7 +12011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -11993,7 +12204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -12186,7 +12397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -12379,7 +12590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -12572,7 +12783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -12765,7 +12976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -12958,7 +13169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -13151,7 +13362,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -13344,7 +13555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -13537,7 +13748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -13730,7 +13941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -13923,7 +14134,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -14116,7 +14327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -14309,7 +14520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -14516,7 +14727,7 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -14532,7 +14743,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -14728,7 +14939,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -14921,7 +15132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -15114,7 +15325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -15307,7 +15518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -15500,7 +15711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -15693,7 +15904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -15886,7 +16097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -16079,7 +16290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -16272,7 +16483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -16465,7 +16676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -16658,7 +16869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -16851,7 +17062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -17044,7 +17255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -17237,7 +17448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -17430,7 +17641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -17623,7 +17834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -17816,7 +18027,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -18009,7 +18220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -18202,7 +18413,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -18395,7 +18606,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
@@ -18588,7 +18799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -18791,11 +19002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -18812,7 +19021,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -19001,14 +19210,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -19154,54 +19363,54 @@
         <v>56</v>
       </c>
       <c r="AX2" s="1" t="str">
-        <f>B2</f>
+        <f t="shared" ref="AX2:AX7" si="0">B2</f>
         <v>'20201106'</v>
       </c>
       <c r="AY2" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ8" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>46</v>
       </c>
       <c r="BA2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA8" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>180</v>
       </c>
       <c r="BB2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB8" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1484.8948000000019</v>
       </c>
       <c r="BC2" s="12">
-        <f>BB2/AZ2</f>
+        <f t="shared" ref="BC2:BC7" si="4">BB2/AZ2</f>
         <v>32.280321739130478</v>
       </c>
       <c r="BD2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD8" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>22</v>
       </c>
       <c r="BE2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE8" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>23</v>
       </c>
       <c r="BF2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF8" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG8" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="9">SUM(BD2,BF2)</f>
         <v>22</v>
       </c>
       <c r="BI2" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -19347,54 +19556,54 @@
         <v>124</v>
       </c>
       <c r="AX3" s="1" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>'20201106'</v>
       </c>
       <c r="AY3" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="BA3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="BB3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>1484.8948000000019</v>
       </c>
       <c r="BC3" s="12">
-        <f>BB3/AZ3</f>
+        <f t="shared" si="4"/>
         <v>32.280321739130478</v>
       </c>
       <c r="BD3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="BE3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="BF3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="BI3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -19540,54 +19749,54 @@
         <v>368</v>
       </c>
       <c r="AX4" s="1" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>'20201109'</v>
       </c>
       <c r="AY4" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="BA4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="BB4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>3282.39</v>
       </c>
       <c r="BC4" s="12">
-        <f>BB4/AZ4</f>
+        <f t="shared" si="4"/>
         <v>35.29451612903226</v>
       </c>
       <c r="BD4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="BE4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="BF4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="BI4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>202</v>
       </c>
@@ -19733,54 +19942,54 @@
         <v>8</v>
       </c>
       <c r="AX5" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>'20201110'</v>
       </c>
       <c r="AY5" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BA5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="BB5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>2935.536699999996</v>
       </c>
       <c r="BC5" s="12">
-        <f>BB5/AZ5</f>
+        <f t="shared" si="4"/>
         <v>293.55366999999961</v>
       </c>
       <c r="BD5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BE5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BF5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" ref="BH5:BH7" si="1">SUM(BD5,BF5)</f>
+        <f t="shared" ref="BH5:BH7" si="10">SUM(BD5,BF5)</f>
         <v>8</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI7" si="2">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5:BI7" si="11">SUM(BE5,BG5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>201</v>
       </c>
@@ -19926,54 +20135,54 @@
         <v>28</v>
       </c>
       <c r="AX6" s="1" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>'20201110'</v>
       </c>
       <c r="AY6" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="BA6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="BB6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>2935.536699999996</v>
       </c>
       <c r="BC6" s="12">
-        <f>BB6/AZ6</f>
+        <f t="shared" si="4"/>
         <v>293.55366999999961</v>
       </c>
       <c r="BD6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BE6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BF6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="BI6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>203</v>
       </c>
@@ -20119,65 +20328,247 @@
         <v>48</v>
       </c>
       <c r="AX7" s="1" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
       <c r="AY7" s="18" t="s">
         <v>184</v>
       </c>
       <c r="AZ7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="BA7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="BB7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>1083.3439000000019</v>
       </c>
       <c r="BC7" s="12">
-        <f>BB7/AZ7</f>
+        <f t="shared" si="4"/>
         <v>83.334146153846305</v>
       </c>
       <c r="BD7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BE7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BF7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH7" s="1">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>13.0979733333333</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.219178082191781</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.209302325581395</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.9375</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>36</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>24</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>60</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" ref="AX8" si="12">B8</f>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ8" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BI7" s="1">
+        <v>16</v>
+      </c>
+      <c r="BA8" s="12">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>785.87839999999801</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
+        <v>49.117399999999876</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
+        <v>9</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-    </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -20187,7 +20578,7 @@
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -20197,7 +20588,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -20207,7 +20598,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -20217,7 +20608,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -20227,7 +20618,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -20238,7 +20629,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -20249,7 +20640,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -20260,7 +20651,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -20271,7 +20662,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -20282,7 +20673,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -20293,7 +20684,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -20314,11 +20705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -20335,7 +20726,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -20524,14 +20915,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>381</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -20724,7 +21115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -20917,7 +21308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -21110,7 +21501,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>204</v>
       </c>
@@ -21263,15 +21654,15 @@
         <v>193</v>
       </c>
       <c r="AZ5" s="12">
-        <f t="shared" ref="AZ5:AZ7" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ5:AZ8" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
         <v>284</v>
       </c>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5:BA7" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA5:BA8" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
         <v>1116</v>
       </c>
       <c r="BB5" s="12">
-        <f t="shared" ref="BB5:BB7" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB5:BB8" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC5" s="12">
@@ -21279,19 +21670,19 @@
         <v>6.4632806338028086</v>
       </c>
       <c r="BD5" s="12">
-        <f t="shared" ref="BD5:BD7" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD5:BD8" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
         <v>156</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" ref="BE5:BE7" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE5:BE8" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
         <v>123</v>
       </c>
       <c r="BF5" s="12">
-        <f t="shared" ref="BF5:BF7" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF5:BF8" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f t="shared" ref="BG5:BG7" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG5:BG8" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
@@ -21303,7 +21694,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
@@ -21496,7 +21887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>206</v>
       </c>
@@ -21689,18 +22080,200 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>200</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>14.5198966666667</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.45045045045045001</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.58235294117647096</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.36861313868613099</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>99</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>97</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>94</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>388</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>376</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>764</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" ref="AX8" si="12">B8</f>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY8" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="3"/>
+        <v>764</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="4"/>
+        <v>871.19380000000194</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
+        <v>4.3559690000000097</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
+        <v>97</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
+        <v>94</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -21710,7 +22283,7 @@
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -21720,7 +22293,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -21730,7 +22303,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -21740,7 +22313,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -21750,7 +22323,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -21761,7 +22334,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -21772,7 +22345,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -21783,7 +22356,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -21794,7 +22367,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -21805,7 +22378,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -21816,7 +22389,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -21837,11 +22410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6:BI6"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -21858,7 +22431,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -22047,14 +22620,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>338</v>
+        <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
@@ -22247,7 +22820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>186</v>
       </c>
@@ -22440,7 +23013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>195</v>
       </c>
@@ -22633,7 +23206,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -22826,7 +23399,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>208</v>
       </c>
@@ -23019,18 +23592,200 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>177</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>20.244386666666699</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.52522255192878298</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0.544973544973545</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>103</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>296</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>412</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>708</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f>B7</f>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <v>177</v>
+      </c>
+      <c r="BA7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>708</v>
+      </c>
+      <c r="BB7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>1214.663200000002</v>
+      </c>
+      <c r="BC7" s="12">
+        <f>BB7/AZ7</f>
+        <v>6.8625039548022713</v>
+      </c>
+      <c r="BD7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>74</v>
+      </c>
+      <c r="BE7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>103</v>
+      </c>
+      <c r="BF7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" ref="BH7" si="3">SUM(BD7,BF7)</f>
+        <v>74</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" ref="BI7" si="4">SUM(BE7,BG7)</f>
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="B8" s="11"/>
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
@@ -23041,7 +23796,7 @@
       <c r="BF8" s="12"/>
       <c r="BG8" s="12"/>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -23051,7 +23806,7 @@
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -23061,7 +23816,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -23071,7 +23826,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -23081,7 +23836,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -23091,7 +23846,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -23102,7 +23857,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -23113,7 +23868,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -23124,7 +23879,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -23135,7 +23890,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -23146,7 +23901,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -23157,7 +23912,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -23178,11 +23933,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BL1" sqref="BL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -23199,7 +23954,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -23388,14 +24143,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>386</v>
+        <v>493</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>447</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -23588,7 +24343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>188</v>
       </c>
@@ -23781,7 +24536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -23974,7 +24729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -24167,7 +24922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>210</v>
       </c>
@@ -24360,18 +25115,200 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+      <c r="A7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>206</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>13.465400000000001</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.49047619047619001</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>0.51690821256038599</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0.46478873239436602</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>107</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>99</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>107</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>98</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>0.99514563106796095</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>428</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>392</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>820</v>
+      </c>
+      <c r="AX7" s="1" t="str">
+        <f>B7</f>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <v>206</v>
+      </c>
+      <c r="BA7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>820</v>
+      </c>
+      <c r="BB7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>807.92400000000009</v>
+      </c>
+      <c r="BC7" s="12">
+        <f>BB7/AZ7</f>
+        <v>3.9219611650485442</v>
+      </c>
+      <c r="BD7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>107</v>
+      </c>
+      <c r="BE7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>98</v>
+      </c>
+      <c r="BF7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" ref="BH7" si="3">SUM(BD7,BF7)</f>
+        <v>107</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" ref="BI7" si="4">SUM(BE7,BG7)</f>
+        <v>98</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="B8" s="11"/>
       <c r="AZ8" s="12"/>
       <c r="BA8" s="12"/>
@@ -24382,7 +25319,7 @@
       <c r="BF8" s="12"/>
       <c r="BG8" s="12"/>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -24392,7 +25329,7 @@
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -24402,7 +25339,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -24412,7 +25349,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -24422,7 +25359,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -24432,7 +25369,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -24443,7 +25380,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -24454,7 +25391,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -24465,7 +25402,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -24476,7 +25413,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -24487,7 +25424,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -24498,7 +25435,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuss\Code\BpodInfoSeekAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\BpodInfoSeekAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="228">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -683,6 +683,39 @@
   <si>
     <t>'JB373_Infoseek_20201112_144945.mat'</t>
   </si>
+  <si>
+    <t>'JB372_Infoseek_20201113_105820.mat'</t>
+  </si>
+  <si>
+    <t>'20201113'</t>
+  </si>
+  <si>
+    <t>Uncovered delays</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201113_101111.mat'</t>
+  </si>
+  <si>
+    <t>Uncovered</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201113_101629.mat'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201113_102712.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201113_112916.mat'</t>
+  </si>
+  <si>
+    <t>'JB366_Infoseek_20201113_120155.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201113_132953.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201113_134114.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -767,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -784,12 +817,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,6 +878,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,13 +1170,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView topLeftCell="AS5" workbookViewId="0">
-      <selection activeCell="AY26" sqref="AY26"/>
+    <sheetView topLeftCell="AI5" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.625" style="1" customWidth="1"/>
@@ -1136,7 +1191,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="13" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1325,14 +1380,14 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1821</v>
+        <v>1896</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1825</v>
+        <v>1941</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1485,15 +1540,15 @@
         <v>113</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ26" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ27" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>67</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA26" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA27" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>48</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB26" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB27" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>2207.4456</v>
       </c>
       <c r="BC2" s="12">
@@ -1501,19 +1556,19 @@
         <v>32.94694925373134</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD26" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD27" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>11</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE26" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE27" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>10</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF26" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF27" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG26" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG27" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -1525,7 +1580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1718,7 +1773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1911,7 +1966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -2104,7 +2159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2297,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -2490,7 +2545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -2683,7 +2738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +2931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,7 +3124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -3262,7 +3317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3455,7 +3510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -3648,7 +3703,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -3841,7 +3896,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4034,7 +4089,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4227,7 +4282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -4420,7 +4475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4613,7 +4668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -4806,7 +4861,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -4999,7 +5054,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -5192,7 +5247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
@@ -5385,7 +5440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -5578,7 +5633,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -5771,7 +5826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -5964,7 +6019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>211</v>
       </c>
@@ -6155,6 +6210,199 @@
       <c r="BI26" s="1">
         <f t="shared" ref="BI26" si="64">SUM(BE26,BG26)</f>
         <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>209</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>68.404571666666698</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>0.954337899543379</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>0.95454545454545503</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>0.91549295774647899</v>
+      </c>
+      <c r="AJ27" s="8">
+        <v>0.98780487804878103</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>63</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>65</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>81</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>64</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>11</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>52</v>
+      </c>
+      <c r="AR27" s="19">
+        <v>0.17460317460317501</v>
+      </c>
+      <c r="AS27" s="8">
+        <v>0.91387559808612395</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>224</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>624</v>
+      </c>
+      <c r="AX27" s="1" t="str">
+        <f t="shared" ref="AX27" si="65">B27</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY27" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ27" s="12">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="BA27" s="12">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="BB27" s="12">
+        <f t="shared" si="2"/>
+        <v>4104.2743000000019</v>
+      </c>
+      <c r="BC27" s="12">
+        <f t="shared" ref="BC27" si="66">BB27/AZ27</f>
+        <v>19.637676076555032</v>
+      </c>
+      <c r="BD27" s="12">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BE27" s="12">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BF27" s="12">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="BG27" s="12">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="BH27" s="1">
+        <f t="shared" ref="BH27" si="67">SUM(BD27,BF27)</f>
+        <v>75</v>
+      </c>
+      <c r="BI27" s="1">
+        <f t="shared" ref="BI27" si="68">SUM(BE27,BG27)</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6171,7 +6419,7 @@
       <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -6185,7 +6433,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -6381,7 +6629,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -6574,7 +6822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -6767,7 +7015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -6960,7 +7208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -7153,7 +7401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -7346,7 +7594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -7539,7 +7787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -7732,7 +7980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -7925,7 +8173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -8118,7 +8366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -8311,7 +8559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -8504,7 +8752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -8697,7 +8945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -8890,7 +9138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -9083,7 +9331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -9276,7 +9524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
@@ -9469,7 +9717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -9662,7 +9910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -9855,7 +10103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -10058,11 +10306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM24"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -10078,7 +10326,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -10274,7 +10522,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -10467,7 +10715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -10660,7 +10908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -10853,7 +11101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -11046,7 +11294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -11239,7 +11487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -11432,7 +11680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -11625,7 +11873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -11818,7 +12066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -12011,7 +12259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -12204,7 +12452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>106</v>
       </c>
@@ -12397,7 +12645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -12590,7 +12838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -12783,7 +13031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -12976,7 +13224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -13169,7 +13417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -13362,7 +13610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -13555,7 +13803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -13748,7 +13996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -13941,7 +14189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -14134,7 +14382,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>172</v>
       </c>
@@ -14327,7 +14575,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -14520,7 +14768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -14723,11 +14971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -14743,7 +14991,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -14939,7 +15187,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -15132,7 +15380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -15325,7 +15573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -15518,7 +15766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -15711,7 +15959,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -15904,7 +16152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -16097,7 +16345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -16290,7 +16538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -16483,7 +16731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -16676,7 +16924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -16869,7 +17117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>125</v>
       </c>
@@ -17062,7 +17310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>134</v>
       </c>
@@ -17255,7 +17503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>142</v>
       </c>
@@ -17448,7 +17696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -17641,7 +17889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -17834,7 +18082,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -18027,7 +18275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
@@ -18220,7 +18468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -18413,7 +18661,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -18606,7 +18854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
@@ -18799,7 +19047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -19002,9 +19250,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -19021,7 +19271,7 @@
     <col min="46" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -19217,7 +19467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -19410,393 +19660,393 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="22">
         <v>1000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2</v>
+      </c>
+      <c r="G3" s="22">
         <v>3</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="22">
+        <v>2</v>
+      </c>
+      <c r="I3" s="22">
         <v>3</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>2</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
         <v>0.2</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>1</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>1</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>1</v>
+      </c>
+      <c r="X3" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
         <v>32</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="22">
         <v>16.546981666666699</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="24">
         <v>0.47761194029850701</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="24">
         <v>0.33333333333333298</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="24">
         <v>0.55813953488372103</v>
       </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
+      <c r="AK3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="22">
         <v>8</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="22">
         <v>24</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="22">
         <v>8</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="22">
         <v>23</v>
       </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AP3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="8">
+      <c r="AS3" s="24">
         <v>0.96875</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3" s="22">
         <v>32</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3" s="22">
         <v>92</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3" s="22">
         <v>124</v>
       </c>
-      <c r="AX3" s="1" t="str">
+      <c r="AX3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>'20201106'</v>
       </c>
-      <c r="AY3" s="18" t="s">
+      <c r="AY3" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="AZ3" s="12">
+      <c r="AZ3" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="BA3" s="12">
+      <c r="BA3" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="BB3" s="12">
+      <c r="BB3" s="10">
         <f t="shared" si="3"/>
         <v>1484.8948000000019</v>
       </c>
-      <c r="BC3" s="12">
+      <c r="BC3" s="10">
         <f t="shared" si="4"/>
         <v>32.280321739130478</v>
       </c>
-      <c r="BD3" s="12">
+      <c r="BD3" s="10">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="BE3" s="12">
+      <c r="BE3" s="10">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="BF3" s="12">
+      <c r="BF3" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG3" s="12">
+      <c r="BG3" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="22">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="BI3" s="1">
+      <c r="BI3" s="22">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="27">
         <v>1000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="27">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="J4" s="27">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27">
+        <v>2</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
         <v>0.2</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
+        <v>1</v>
+      </c>
+      <c r="T4" s="27">
+        <v>0</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27">
+        <v>1</v>
+      </c>
+      <c r="X4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="27">
         <v>100000000000</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="Z4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="27">
         <v>93</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="27">
         <v>54.706499999999998</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="29">
         <v>0.308970099667774</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="29">
         <v>0.29838709677419401</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="29">
         <v>0.31638418079096098</v>
       </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
+      <c r="AK4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="27">
         <v>37</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="27">
         <v>56</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="27">
         <v>36</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="27">
         <v>56</v>
       </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AP4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AS4" s="29">
         <v>0.989247311827957</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="27">
         <v>144</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="27">
         <v>224</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="27">
         <v>368</v>
       </c>
-      <c r="AX4" s="1" t="str">
+      <c r="AX4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>'20201109'</v>
       </c>
-      <c r="AY4" s="18" t="s">
+      <c r="AY4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="AZ4" s="32">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="BA4" s="12">
+      <c r="BA4" s="32">
         <f t="shared" si="2"/>
         <v>368</v>
       </c>
-      <c r="BB4" s="12">
+      <c r="BB4" s="32">
         <f t="shared" si="3"/>
         <v>3282.39</v>
       </c>
-      <c r="BC4" s="12">
+      <c r="BC4" s="32">
         <f t="shared" si="4"/>
         <v>35.29451612903226</v>
       </c>
-      <c r="BD4" s="12">
+      <c r="BD4" s="32">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="BE4" s="12">
+      <c r="BE4" s="32">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="BF4" s="12">
+      <c r="BF4" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG4" s="12">
+      <c r="BG4" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BH4" s="27">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BI4" s="27">
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>202</v>
       </c>
@@ -19989,586 +20239,586 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2</v>
+      </c>
+      <c r="G6" s="22">
         <v>3</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
         <v>0.2</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
         <v>8</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="22">
         <v>33.939333333333302</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="24">
         <v>0.42105263157894701</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="24">
         <v>0.4</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="24">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="AK6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="22">
         <v>6</v>
       </c>
-      <c r="AM6" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="1">
+      <c r="AM6" s="22">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="22">
         <v>6</v>
       </c>
-      <c r="AO6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AO6" s="22">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="8">
+      <c r="AS6" s="24">
         <v>0.875</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AT6" s="22">
         <v>24</v>
       </c>
-      <c r="AU6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="1">
+      <c r="AU6" s="22">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="22">
         <v>28</v>
       </c>
-      <c r="AX6" s="1" t="str">
+      <c r="AX6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>'20201110'</v>
       </c>
-      <c r="AY6" s="18" t="s">
+      <c r="AY6" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="AZ6" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="BA6" s="12">
+      <c r="BA6" s="10">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="BB6" s="12">
+      <c r="BB6" s="10">
         <f t="shared" si="3"/>
         <v>2935.536699999996</v>
       </c>
-      <c r="BC6" s="12">
+      <c r="BC6" s="10">
         <f t="shared" si="4"/>
         <v>293.55366999999961</v>
       </c>
-      <c r="BD6" s="12">
+      <c r="BD6" s="10">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="BE6" s="12">
+      <c r="BE6" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="BF6" s="12">
+      <c r="BF6" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG6" s="12">
+      <c r="BG6" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BH6" s="22">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BI6" s="22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="27">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="D7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2</v>
+      </c>
+      <c r="G7" s="27">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <v>2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
         <v>0.2</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27">
+        <v>1</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27">
+        <v>1</v>
+      </c>
+      <c r="X7" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="27">
         <v>100000000000</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="Z7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
         <v>13</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="27">
         <v>18.055731666666698</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="29">
         <v>0.43333333333333302</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AH7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="29">
         <v>0.42105263157894701</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="29">
         <v>0.45454545454545497</v>
       </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
+      <c r="AK7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="27">
         <v>8</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="27">
         <v>5</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="27">
         <v>8</v>
       </c>
-      <c r="AO7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="21" t="s">
+      <c r="AO7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS7" s="8">
+      <c r="AS7" s="29">
         <v>0.92307692307692302</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="27">
         <v>32</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="27">
         <v>16</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="27">
         <v>48</v>
       </c>
-      <c r="AX7" s="1" t="str">
+      <c r="AX7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
-      <c r="AY7" s="18" t="s">
+      <c r="AY7" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="32">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="BA7" s="12">
+      <c r="BA7" s="32">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="BB7" s="12">
+      <c r="BB7" s="32">
         <f t="shared" si="3"/>
         <v>1083.3439000000019</v>
       </c>
-      <c r="BC7" s="12">
+      <c r="BC7" s="32">
         <f t="shared" si="4"/>
         <v>83.334146153846305</v>
       </c>
-      <c r="BD7" s="12">
+      <c r="BD7" s="32">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="BE7" s="12">
+      <c r="BE7" s="32">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="BF7" s="12">
+      <c r="BF7" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG7" s="12">
+      <c r="BG7" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BH7" s="27">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BI7" s="27">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="27">
         <v>1000</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="D8" s="27">
+        <v>2</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27">
         <v>3</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="J8" s="27">
+        <v>1</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="27">
+        <v>2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
         <v>0.2</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="27">
+        <v>1</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>1</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="27">
+        <v>1</v>
+      </c>
+      <c r="X8" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="27">
         <v>100000000000</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
+      <c r="Z8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="27">
         <v>16</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="27">
         <v>13.0979733333333</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="29">
         <v>0.219178082191781</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AH8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="29">
         <v>0.209302325581395</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="29">
         <v>0.233333333333333</v>
       </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AK8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="27">
         <v>9</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="27">
         <v>7</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="27">
         <v>9</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="27">
         <v>6</v>
       </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="21" t="s">
+      <c r="AP8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS8" s="8">
+      <c r="AS8" s="29">
         <v>0.9375</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="27">
         <v>36</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8" s="27">
         <v>24</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8" s="27">
         <v>60</v>
       </c>
-      <c r="AX8" s="1" t="str">
+      <c r="AX8" s="27" t="str">
         <f t="shared" ref="AX8" si="12">B8</f>
         <v>'20201112'</v>
       </c>
-      <c r="AY8" s="18" t="s">
+      <c r="AY8" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="AZ8" s="12">
+      <c r="AZ8" s="32">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="BA8" s="12">
+      <c r="BA8" s="32">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="BB8" s="12">
+      <c r="BB8" s="32">
         <f t="shared" si="3"/>
         <v>785.87839999999801</v>
       </c>
-      <c r="BC8" s="12">
+      <c r="BC8" s="32">
         <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
         <v>49.117399999999876</v>
       </c>
-      <c r="BD8" s="12">
+      <c r="BD8" s="32">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="BE8" s="12">
+      <c r="BE8" s="32">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="BF8" s="12">
+      <c r="BF8" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG8" s="12">
+      <c r="BG8" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BH8" s="27">
         <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
         <v>9</v>
       </c>
-      <c r="BI8" s="1">
+      <c r="BI8" s="27">
         <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ9" s="12"/>
       <c r="BA9" s="12"/>
       <c r="BB9" s="12"/>
@@ -20578,7 +20828,7 @@
       <c r="BF9" s="12"/>
       <c r="BG9" s="12"/>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -20588,7 +20838,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -20598,7 +20848,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -20608,7 +20858,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -20618,7 +20868,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -20629,7 +20879,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -20640,7 +20890,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -20651,7 +20901,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -20662,7 +20912,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -20673,7 +20923,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -20684,7 +20934,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -20705,11 +20955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -20723,10 +20973,12 @@
     <col min="37" max="43" width="8.625" style="1"/>
     <col min="44" max="44" width="8.625" style="21"/>
     <col min="45" max="45" width="8.625" style="8"/>
-    <col min="46" max="16384" width="8.625" style="1"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="16.125" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -20915,207 +21167,207 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>477</v>
+        <v>616</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>475</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="22">
         <v>1000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="22">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="G2" s="22">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2</v>
+      </c>
+      <c r="I2" s="22">
+        <v>1</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
         <v>3</v>
       </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="L2" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
         <v>0.2</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
         <v>42</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="22">
         <v>28.242326666666699</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="24">
         <v>0.77777777777777801</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="24">
         <v>0.86956521739130399</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="24">
         <v>0.70967741935483897</v>
       </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="22">
         <v>20</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="22">
         <v>22</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="22">
         <v>20</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="22">
         <v>21</v>
       </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="24">
         <v>0.97619047619047605</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="22">
         <v>80</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="22">
         <v>84</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="22">
         <v>164</v>
       </c>
-      <c r="AX2" s="1" t="str">
+      <c r="AX2" s="22" t="str">
         <f>B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AY2" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="AZ2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>42</v>
       </c>
-      <c r="BA2" s="12">
+      <c r="BA2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>164</v>
       </c>
-      <c r="BB2" s="12">
+      <c r="BB2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1694.5396000000019</v>
       </c>
-      <c r="BC2" s="12">
+      <c r="BC2" s="10">
         <f>BB2/AZ2</f>
         <v>40.346180952380998</v>
       </c>
-      <c r="BD2" s="12">
+      <c r="BD2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>20</v>
       </c>
-      <c r="BE2" s="12">
+      <c r="BE2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>21</v>
       </c>
-      <c r="BF2" s="12">
+      <c r="BF2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="12">
+      <c r="BG2" s="10">
         <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="22">
         <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
         <v>20</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -21308,200 +21560,200 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="22">
         <v>1000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="G4" s="22">
+        <v>2</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="L4" s="22">
+        <v>2</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
         <v>0.2</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <v>1</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>1</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>1</v>
+      </c>
+      <c r="X4" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="22">
         <v>224</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="22">
         <v>25.1864116666667</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="24">
         <v>0.56852791878172604</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AH4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="24">
         <v>0.66981132075471705</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="24">
         <v>0.53125</v>
       </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
+      <c r="AK4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="22">
         <v>71</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="22">
         <v>153</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="22">
         <v>71</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="22">
         <v>134</v>
       </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AP4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AS4" s="24">
         <v>0.91517857142857095</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AT4" s="22">
         <v>284</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AU4" s="22">
         <v>536</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AV4" s="22">
         <v>820</v>
       </c>
-      <c r="AX4" s="1" t="str">
+      <c r="AX4" s="22" t="str">
         <f>B4</f>
         <v>'20201110'</v>
       </c>
-      <c r="AY4" s="18" t="s">
+      <c r="AY4" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="AZ4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
         <v>224</v>
       </c>
-      <c r="BA4" s="12">
+      <c r="BA4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
         <v>820</v>
       </c>
-      <c r="BB4" s="12">
+      <c r="BB4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
         <v>1511.1847000000021</v>
       </c>
-      <c r="BC4" s="12">
+      <c r="BC4" s="10">
         <f>BB4/AZ4</f>
         <v>6.7463602678571517</v>
       </c>
-      <c r="BD4" s="12">
+      <c r="BD4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
         <v>71</v>
       </c>
-      <c r="BE4" s="12">
+      <c r="BE4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
         <v>134</v>
       </c>
-      <c r="BF4" s="12">
+      <c r="BF4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="12">
+      <c r="BG4" s="10">
         <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BH4" s="22">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BI4" s="22">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>204</v>
       </c>
@@ -21654,15 +21906,15 @@
         <v>193</v>
       </c>
       <c r="AZ5" s="12">
-        <f t="shared" ref="AZ5:AZ8" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ5:AZ11" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
         <v>284</v>
       </c>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5:BA8" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA5:BA11" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
         <v>1116</v>
       </c>
       <c r="BB5" s="12">
-        <f t="shared" ref="BB5:BB8" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB5:BB11" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC5" s="12">
@@ -21670,19 +21922,19 @@
         <v>6.4632806338028086</v>
       </c>
       <c r="BD5" s="12">
-        <f t="shared" ref="BD5:BD8" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD5:BD11" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
         <v>156</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" ref="BE5:BE8" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE5:BE11" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
         <v>123</v>
       </c>
       <c r="BF5" s="12">
-        <f t="shared" ref="BF5:BF8" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF5:BF11" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f t="shared" ref="BG5:BG8" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG5:BG11" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
@@ -21694,7 +21946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
@@ -21887,423 +22139,972 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="22">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
         <v>3</v>
       </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" s="22">
+        <v>2</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
         <v>0.2</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>1</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>1</v>
+      </c>
+      <c r="X7" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
         <v>110</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="22">
         <v>11.6381983333333</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="24">
         <v>0.378006872852234</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AH7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="24">
         <v>0.58426966292134797</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="24">
         <v>0.287128712871287</v>
       </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
+      <c r="AK7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="22">
         <v>52</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="22">
         <v>58</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="22">
         <v>52</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="22">
         <v>57</v>
       </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="21" t="s">
+      <c r="AP7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS7" s="8">
+      <c r="AS7" s="24">
         <v>0.99090909090909096</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="22">
         <v>208</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="22">
         <v>228</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="22">
         <v>436</v>
       </c>
-      <c r="AX7" s="1" t="str">
+      <c r="AX7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>'20201111'</v>
       </c>
-      <c r="AY7" s="18" t="s">
+      <c r="AY7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="10">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="BA7" s="12">
+      <c r="BA7" s="10">
         <f t="shared" si="3"/>
         <v>1116</v>
       </c>
-      <c r="BB7" s="12">
+      <c r="BB7" s="10">
         <f t="shared" si="4"/>
         <v>1835.5716999999977</v>
       </c>
-      <c r="BC7" s="12">
+      <c r="BC7" s="10">
         <f t="shared" si="5"/>
         <v>6.4632806338028086</v>
       </c>
-      <c r="BD7" s="12">
+      <c r="BD7" s="10">
         <f t="shared" si="6"/>
         <v>156</v>
       </c>
-      <c r="BE7" s="12">
+      <c r="BE7" s="10">
         <f t="shared" si="7"/>
         <v>123</v>
       </c>
-      <c r="BF7" s="12">
+      <c r="BF7" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BG7" s="12">
+      <c r="BG7" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BH7" s="22">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BI7" s="22">
         <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="22">
         <v>1000</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="G8" s="22">
+        <v>2</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
         <v>0.2</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>1</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>1</v>
+      </c>
+      <c r="X8" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
         <v>200</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="22">
         <v>14.5198966666667</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="24">
         <v>0.45045045045045001</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AH8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="24">
         <v>0.58235294117647096</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="24">
         <v>0.36861313868613099</v>
       </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AK8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="22">
         <v>99</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="22">
         <v>101</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="22">
         <v>97</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="22">
         <v>94</v>
       </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="21" t="s">
+      <c r="AP8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS8" s="8">
+      <c r="AS8" s="24">
         <v>0.95499999999999996</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8" s="22">
         <v>388</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8" s="22">
         <v>376</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AV8" s="22">
         <v>764</v>
       </c>
-      <c r="AX8" s="1" t="str">
-        <f t="shared" ref="AX8" si="12">B8</f>
+      <c r="AX8" s="22" t="str">
+        <f t="shared" ref="AX8:AX10" si="12">B8</f>
         <v>'20201112'</v>
       </c>
-      <c r="AY8" s="18" t="s">
+      <c r="AY8" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="AZ8" s="12">
+      <c r="AZ8" s="10">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="BA8" s="12">
+      <c r="BA8" s="10">
         <f t="shared" si="3"/>
         <v>764</v>
       </c>
-      <c r="BB8" s="12">
+      <c r="BB8" s="10">
         <f t="shared" si="4"/>
         <v>871.19380000000194</v>
       </c>
-      <c r="BC8" s="12">
+      <c r="BC8" s="10">
         <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
         <v>4.3559690000000097</v>
       </c>
-      <c r="BD8" s="12">
+      <c r="BD8" s="10">
         <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="BE8" s="12">
+      <c r="BE8" s="10">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="BF8" s="12">
+      <c r="BF8" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BG8" s="12">
+      <c r="BG8" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BH8" s="22">
         <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
         <v>97</v>
       </c>
-      <c r="BI8" s="1">
+      <c r="BI8" s="22">
         <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-      <c r="BG9" s="12"/>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>48</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2.4232383333333298</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.68571428571428605</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>0.60526315789473695</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.78125</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>11</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>48</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>92</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="4"/>
+        <v>2359.8423000000016</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" ref="BC9:BC11" si="16">BB9/AZ9</f>
+        <v>6.0508776923076963</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" ref="BH9:BH11" si="17">SUM(BD9,BF9)</f>
+        <v>139</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" ref="BI9:BI11" si="18">SUM(BE9,BG9)</f>
+        <v>140</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>135</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>10.475669999999999</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.66831683168316802</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0.66355140186915895</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>0.673684210526316</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>43</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0.63703703703703696</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>160</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>140</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>300</v>
+      </c>
+      <c r="AX10" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY10" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="4"/>
+        <v>2359.8423000000016</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" si="16"/>
+        <v>6.0508776923076963</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="12"/>
-      <c r="BG11" s="12"/>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>207</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>26.431796666666699</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>0.86607142857142905</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>97</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>110</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>85</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>85</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>0.82125603864734298</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>340</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>328</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>668</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f t="shared" ref="AX11" si="19">B11</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY11" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ11" s="12">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="BA11" s="12">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="BB11" s="12">
+        <f t="shared" si="4"/>
+        <v>2359.8423000000016</v>
+      </c>
+      <c r="BC11" s="12">
+        <f t="shared" si="16"/>
+        <v>6.0508776923076963</v>
+      </c>
+      <c r="BD11" s="12">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="BE11" s="12">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="BF11" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="BI11" s="1">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -22313,7 +23114,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -22323,7 +23124,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -22334,7 +23135,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -22345,7 +23146,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -22356,7 +23157,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -22367,7 +23168,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -22378,7 +23179,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -22389,7 +23190,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -22410,11 +23211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -22428,10 +23229,12 @@
     <col min="37" max="43" width="8.625" style="1"/>
     <col min="44" max="44" width="8.625" style="21"/>
     <col min="45" max="45" width="8.625" style="8"/>
-    <col min="46" max="16384" width="8.625" style="1"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="17" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -22620,593 +23423,593 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>423</v>
+        <v>546</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>441</v>
+        <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="22">
         <v>1000</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="D2" s="22">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
         <v>3</v>
       </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="L2" s="22">
+        <v>1</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
         <v>0.2</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
         <v>56</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="22">
         <v>28.305381666666701</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="24">
         <v>0.65116279069767502</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="24">
         <v>0.65</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="24">
         <v>0.65217391304347805</v>
       </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="22">
         <v>26</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="22">
         <v>30</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="22">
         <v>26</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="22">
         <v>28</v>
       </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="24">
         <v>0.96428571428571397</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="22">
         <v>104</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="22">
         <v>112</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="22">
         <v>216</v>
       </c>
-      <c r="AX2" s="1" t="str">
-        <f>B2</f>
+      <c r="AX2" s="22" t="str">
+        <f t="shared" ref="AX2:AX7" si="0">B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AY2" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="AZ2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+      <c r="AZ2" s="10">
+        <f t="shared" ref="AZ2:AZ9" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>56</v>
       </c>
-      <c r="BA2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+      <c r="BA2" s="10">
+        <f t="shared" ref="BA2:BA9" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>216</v>
       </c>
-      <c r="BB2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+      <c r="BB2" s="10">
+        <f t="shared" ref="BB2:BB9" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1698.3229000000022</v>
       </c>
-      <c r="BC2" s="12">
-        <f>BB2/AZ2</f>
+      <c r="BC2" s="10">
+        <f t="shared" ref="BC2:BC7" si="4">BB2/AZ2</f>
         <v>30.327194642857183</v>
       </c>
-      <c r="BD2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+      <c r="BD2" s="10">
+        <f t="shared" ref="BD2:BD9" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>26</v>
       </c>
-      <c r="BE2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+      <c r="BE2" s="10">
+        <f t="shared" ref="BE2:BE9" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>28</v>
       </c>
-      <c r="BF2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
+      <c r="BF2" s="10">
+        <f t="shared" ref="BF2:BF9" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="10">
+        <f t="shared" ref="BG2:BG9" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="22">
+        <f t="shared" ref="BH2:BI4" si="9">SUM(BD2,BF2)</f>
         <v>26</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="22">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>2</v>
+      </c>
+      <c r="H3" s="27">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27">
+        <v>2</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>3</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0</v>
+      </c>
+      <c r="U3" s="27">
+        <v>1</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0</v>
+      </c>
+      <c r="W3" s="27">
+        <v>1</v>
+      </c>
+      <c r="X3" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>27.8406466666667</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>0.26229508196721302</v>
+      </c>
+      <c r="AH3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="29">
+        <v>0.31550802139037398</v>
+      </c>
+      <c r="AJ3" s="29">
+        <v>0.177966101694915</v>
+      </c>
+      <c r="AK3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="27">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>59</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="27">
+        <v>236</v>
+      </c>
+      <c r="AU3" s="27">
+        <v>84</v>
+      </c>
+      <c r="AV3" s="27">
+        <v>320</v>
+      </c>
+      <c r="AX3" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" s="32">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="BA3" s="32">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="BB3" s="32">
+        <f t="shared" si="3"/>
+        <v>1670.4388000000019</v>
+      </c>
+      <c r="BC3" s="32">
+        <f t="shared" si="4"/>
+        <v>20.880485000000025</v>
+      </c>
+      <c r="BD3" s="32">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="BE3" s="32">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="BF3" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="27">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="BI3" s="27">
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="4" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="27">
         <v>1000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I4" s="27">
+        <v>2</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
         <v>0.2</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
+        <v>1</v>
+      </c>
+      <c r="T4" s="27">
+        <v>0</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27">
+        <v>1</v>
+      </c>
+      <c r="X4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="27">
         <v>100000000000</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>80</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>27.8406466666667</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>0.26229508196721302</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="Z4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>238</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>29.653130000000001</v>
+      </c>
+      <c r="AG4" s="29">
+        <v>0.64850136239781997</v>
+      </c>
+      <c r="AH4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="8">
-        <v>0.31550802139037398</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>0.177966101694915</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>59</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>21</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>59</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>21</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AI4" s="29">
+        <v>0.70552147239263796</v>
+      </c>
+      <c r="AJ4" s="29">
+        <v>0.60294117647058798</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="27">
+        <v>115</v>
+      </c>
+      <c r="AM4" s="27">
+        <v>123</v>
+      </c>
+      <c r="AN4" s="27">
+        <v>113</v>
+      </c>
+      <c r="AO4" s="27">
+        <v>121</v>
+      </c>
+      <c r="AP4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>236</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>84</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>320</v>
-      </c>
-      <c r="AX3" s="1" t="str">
-        <f>B3</f>
-        <v>'20201109'</v>
-      </c>
-      <c r="AY3" s="18" t="s">
+      <c r="AS4" s="29">
+        <v>0.98319327731092399</v>
+      </c>
+      <c r="AT4" s="27">
+        <v>452</v>
+      </c>
+      <c r="AU4" s="27">
+        <v>484</v>
+      </c>
+      <c r="AV4" s="27">
+        <v>936</v>
+      </c>
+      <c r="AX4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY4" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="AZ3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
-        <v>80</v>
-      </c>
-      <c r="BA3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
-        <v>320</v>
-      </c>
-      <c r="BB3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
-        <v>1670.4388000000019</v>
-      </c>
-      <c r="BC3" s="12">
-        <f>BB3/AZ3</f>
-        <v>20.880485000000025</v>
-      </c>
-      <c r="BD3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
-        <v>59</v>
-      </c>
-      <c r="BE3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
-        <v>21</v>
-      </c>
-      <c r="BF3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="BI3" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="AZ4" s="32">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="BA4" s="32">
+        <f t="shared" si="2"/>
+        <v>936</v>
+      </c>
+      <c r="BB4" s="32">
+        <f t="shared" si="3"/>
+        <v>1779.1878000000002</v>
+      </c>
+      <c r="BC4" s="32">
+        <f t="shared" si="4"/>
+        <v>7.4755789915966391</v>
+      </c>
+      <c r="BD4" s="32">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="BE4" s="32">
+        <f t="shared" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="BF4" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="27">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="BI4" s="27">
+        <f t="shared" si="9"/>
+        <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>238</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>29.653130000000001</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0.64850136239781997</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0.70552147239263796</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0.60294117647058798</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>115</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>123</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>113</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>121</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>0.98319327731092399</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>452</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>484</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>936</v>
-      </c>
-      <c r="AX4" s="1" t="str">
-        <f>B4</f>
-        <v>'20201110'</v>
-      </c>
-      <c r="AY4" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
-        <v>238</v>
-      </c>
-      <c r="BA4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
-        <v>936</v>
-      </c>
-      <c r="BB4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
-        <v>1779.1878000000002</v>
-      </c>
-      <c r="BC4" s="12">
-        <f>BB4/AZ4</f>
-        <v>7.4755789915966391</v>
-      </c>
-      <c r="BD4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
-        <v>113</v>
-      </c>
-      <c r="BE4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
-        <v>121</v>
-      </c>
-      <c r="BF4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="BI4" s="1">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>207</v>
       </c>
@@ -23352,461 +24155,826 @@
         <v>724</v>
       </c>
       <c r="AX5" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
       <c r="AY5" s="18" t="s">
         <v>194</v>
       </c>
       <c r="AZ5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="BA5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>1276</v>
       </c>
       <c r="BB5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>1507.3524</v>
       </c>
       <c r="BC5" s="12">
-        <f>BB5/AZ5</f>
+        <f t="shared" si="4"/>
         <v>4.666725696594427</v>
       </c>
       <c r="BD5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="BE5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="BF5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" ref="BH5:BH6" si="1">SUM(BD5,BF5)</f>
+        <f t="shared" ref="BH5:BH6" si="10">SUM(BD5,BF5)</f>
         <v>151</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI6" si="2">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5:BI6" si="11">SUM(BE5,BG5)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2</v>
+      </c>
+      <c r="H6" s="22">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="L6" s="22">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
         <v>0.2</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
         <v>138</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="22">
         <v>8.7449399999999997</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="24">
         <v>0.582278481012658</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="24">
         <v>0.633663366336634</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="24">
         <v>0.54411764705882404</v>
       </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="AK6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="22">
         <v>64</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="22">
         <v>74</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="22">
         <v>64</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="22">
         <v>74</v>
       </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AP6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1">
+      <c r="AS6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="22">
         <v>256</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="22">
         <v>296</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="22">
         <v>552</v>
       </c>
-      <c r="AX6" s="1" t="str">
-        <f>B6</f>
+      <c r="AX6" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
-      <c r="AY6" s="18" t="s">
+      <c r="AY6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="AZ6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+      <c r="AZ6" s="10">
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="BA6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+      <c r="BA6" s="10">
+        <f t="shared" si="2"/>
         <v>1276</v>
       </c>
-      <c r="BB6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+      <c r="BB6" s="10">
+        <f t="shared" si="3"/>
         <v>1507.3524</v>
       </c>
-      <c r="BC6" s="12">
-        <f>BB6/AZ6</f>
+      <c r="BC6" s="10">
+        <f t="shared" si="4"/>
         <v>4.666725696594427</v>
       </c>
-      <c r="BD6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+      <c r="BD6" s="10">
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
-      <c r="BE6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+      <c r="BE6" s="10">
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
-      <c r="BF6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
+      <c r="BF6" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="22">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="BI6" s="22">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>3</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>3</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27">
+        <v>1</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27">
+        <v>1</v>
+      </c>
+      <c r="X7" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>177</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>20.244386666666699</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>0.52522255192878298</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0.544973544973545</v>
+      </c>
+      <c r="AK7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="27">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="27">
+        <v>103</v>
+      </c>
+      <c r="AN7" s="27">
+        <v>74</v>
+      </c>
+      <c r="AO7" s="27">
+        <v>103</v>
+      </c>
+      <c r="AP7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="27">
+        <v>296</v>
+      </c>
+      <c r="AU7" s="27">
+        <v>412</v>
+      </c>
+      <c r="AV7" s="27">
+        <v>708</v>
+      </c>
+      <c r="AX7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ7" s="32">
         <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="BI6" s="1">
+        <v>177</v>
+      </c>
+      <c r="BA7" s="32">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>708</v>
+      </c>
+      <c r="BB7" s="32">
+        <f t="shared" si="3"/>
+        <v>1214.663200000002</v>
+      </c>
+      <c r="BC7" s="32">
+        <f t="shared" si="4"/>
+        <v>6.8625039548022713</v>
+      </c>
+      <c r="BD7" s="32">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="BE7" s="32">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="BF7" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="27">
+        <f t="shared" ref="BH7" si="12">SUM(BD7,BF7)</f>
+        <v>74</v>
+      </c>
+      <c r="BI7" s="27">
+        <f t="shared" ref="BI7" si="13">SUM(BE7,BG7)</f>
+        <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>350</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>30.490436666666699</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.73684210526315796</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.70714285714285696</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.77948717948718005</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>198</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>152</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>87</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>86</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.494285714285714</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>244</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>308</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>552</v>
+      </c>
+      <c r="AX8" s="1" t="str">
+        <f t="shared" ref="AX8" si="14">B8</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>828</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>3264.6624000000002</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" ref="BC8" si="15">BB8/AZ8</f>
+        <v>6.7036188911704313</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" ref="BH8" si="16">SUM(BD8,BF8)</f>
+        <v>123</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" ref="BI8" si="17">SUM(BE8,BG8)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.2</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>177</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>20.244386666666699</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0.52522255192878298</v>
-      </c>
-      <c r="AH7" s="8" t="s">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>137</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>23.9206033333333</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.61990950226244401</v>
+      </c>
+      <c r="AH9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>0.544973544973545</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>103</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>74</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>103</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="21" t="s">
+      <c r="AI9" s="8">
+        <v>0.56701030927835105</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.66129032258064502</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>55</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>82</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>36</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>36</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AS7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>296</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>412</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>708</v>
-      </c>
-      <c r="AX7" s="1" t="str">
-        <f>B7</f>
-        <v>'20201112'</v>
-      </c>
-      <c r="AY7" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
-        <v>177</v>
-      </c>
-      <c r="BA7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
-        <v>708</v>
-      </c>
-      <c r="BB7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
-        <v>1214.663200000002</v>
-      </c>
-      <c r="BC7" s="12">
-        <f>BB7/AZ7</f>
-        <v>6.8625039548022713</v>
-      </c>
-      <c r="BD7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
-        <v>74</v>
-      </c>
-      <c r="BE7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
-        <v>103</v>
-      </c>
-      <c r="BF7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <f t="shared" ref="BH7" si="3">SUM(BD7,BF7)</f>
-        <v>74</v>
-      </c>
-      <c r="BI7" s="1">
-        <f t="shared" ref="BI7" si="4">SUM(BE7,BG7)</f>
-        <v>103</v>
+      <c r="AS9" s="8">
+        <v>0.52554744525547503</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>140</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>136</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>276</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" ref="AX9" si="18">B9</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>487</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>828</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>3264.6624000000002</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" ref="BC9" si="19">BB9/AZ9</f>
+        <v>6.7036188911704313</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" ref="BH9" si="20">SUM(BD9,BF9)</f>
+        <v>123</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" ref="BI9" si="21">SUM(BE9,BG9)</f>
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="B8" s="11"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-    </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-      <c r="BG9" s="12"/>
-    </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -23816,7 +24984,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -23826,7 +24994,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -23836,7 +25004,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -23846,7 +25014,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -23857,7 +25025,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -23868,7 +25036,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -23879,7 +25047,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -23890,7 +25058,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -23901,7 +25069,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -23912,7 +25080,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>
@@ -23933,11 +25101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
@@ -23951,10 +25119,12 @@
     <col min="37" max="43" width="8.625" style="1"/>
     <col min="44" max="44" width="8.625" style="21"/>
     <col min="45" max="45" width="8.625" style="8"/>
-    <col min="46" max="16384" width="8.625" style="1"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="14.5" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="52.25" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -24143,593 +25313,593 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>493</v>
+        <v>623</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>545</v>
+        <v>673</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="22">
         <v>1000</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="D2" s="22">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22">
         <v>3</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
         <v>0.2</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
         <v>74</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="22">
         <v>28.582685000000001</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="24">
         <v>0.32314410480349298</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="24">
         <v>0.34862385321100903</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="24">
         <v>0.3</v>
       </c>
-      <c r="AK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="22">
         <v>38</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="22">
         <v>36</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="22">
         <v>38</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="22">
         <v>35</v>
       </c>
-      <c r="AP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="24">
         <v>0.98648648648648696</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="22">
         <v>152</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="22">
         <v>140</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="22">
         <v>292</v>
       </c>
-      <c r="AX2" s="1" t="str">
-        <f>B2</f>
+      <c r="AX2" s="22" t="str">
+        <f t="shared" ref="AX2:AX9" si="0">B2</f>
         <v>'20201106'</v>
       </c>
-      <c r="AY2" s="18" t="s">
+      <c r="AY2" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="AZ2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+      <c r="AZ2" s="10">
+        <f t="shared" ref="AZ2:AZ9" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>74</v>
       </c>
-      <c r="BA2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+      <c r="BA2" s="10">
+        <f t="shared" ref="BA2:BA9" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>292</v>
       </c>
-      <c r="BB2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+      <c r="BB2" s="10">
+        <f t="shared" ref="BB2:BB9" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1714.9611</v>
       </c>
-      <c r="BC2" s="12">
-        <f>BB2/AZ2</f>
+      <c r="BC2" s="10">
+        <f t="shared" ref="BC2:BC7" si="4">BB2/AZ2</f>
         <v>23.175149999999999</v>
       </c>
-      <c r="BD2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+      <c r="BD2" s="10">
+        <f t="shared" ref="BD2:BD9" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>38</v>
       </c>
-      <c r="BE2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+      <c r="BE2" s="10">
+        <f t="shared" ref="BE2:BE9" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>35</v>
       </c>
-      <c r="BF2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG2" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
+      <c r="BF2" s="10">
+        <f t="shared" ref="BF2:BF9" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="10">
+        <f t="shared" ref="BG2:BG9" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="22">
+        <f t="shared" ref="BH2:BI4" si="9">SUM(BD2,BF2)</f>
         <v>38</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="22">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>2</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>2</v>
+      </c>
+      <c r="J3" s="27">
+        <v>3</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0</v>
+      </c>
+      <c r="U3" s="27">
+        <v>1</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0</v>
+      </c>
+      <c r="W3" s="27">
+        <v>1</v>
+      </c>
+      <c r="X3" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>100000000000</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>294</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>39.987746666666702</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>0.35336538461538503</v>
+      </c>
+      <c r="AH3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="29">
+        <v>0.41265060240963902</v>
+      </c>
+      <c r="AJ3" s="29">
+        <v>0.314</v>
+      </c>
+      <c r="AK3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="27">
+        <v>137</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>157</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>137</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>119</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="29">
+        <v>0.87074829931972797</v>
+      </c>
+      <c r="AT3" s="27">
+        <v>548</v>
+      </c>
+      <c r="AU3" s="27">
+        <v>476</v>
+      </c>
+      <c r="AV3" s="27">
+        <v>1024</v>
+      </c>
+      <c r="AX3" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>'20201109'</v>
+      </c>
+      <c r="AY3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" s="32">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="BA3" s="32">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="BB3" s="32">
+        <f t="shared" si="3"/>
+        <v>2399.2648000000022</v>
+      </c>
+      <c r="BC3" s="32">
+        <f t="shared" si="4"/>
+        <v>8.1607646258503479</v>
+      </c>
+      <c r="BD3" s="32">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="BE3" s="32">
+        <f t="shared" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="BF3" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="27">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="BI3" s="27">
+        <f t="shared" si="9"/>
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="4" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="27">
         <v>1000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>2</v>
+      </c>
+      <c r="J4" s="27">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
         <v>0.2</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
+        <v>1</v>
+      </c>
+      <c r="T4" s="27">
+        <v>0</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27">
+        <v>1</v>
+      </c>
+      <c r="X4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="27">
         <v>100000000000</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>294</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>39.987746666666702</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>0.35336538461538503</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="Z4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>224</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>24.0364</v>
+      </c>
+      <c r="AG4" s="29">
+        <v>0.39024390243902402</v>
+      </c>
+      <c r="AH4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="8">
-        <v>0.41265060240963902</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>0.314</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>137</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>157</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>137</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>119</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AI4" s="29">
+        <v>0.365079365079365</v>
+      </c>
+      <c r="AJ4" s="29">
+        <v>0.40993788819875798</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="27">
+        <v>92</v>
+      </c>
+      <c r="AM4" s="27">
+        <v>132</v>
+      </c>
+      <c r="AN4" s="27">
+        <v>91</v>
+      </c>
+      <c r="AO4" s="27">
+        <v>131</v>
+      </c>
+      <c r="AP4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="8">
-        <v>0.87074829931972797</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>548</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>476</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>1024</v>
-      </c>
-      <c r="AX3" s="1" t="str">
-        <f>B3</f>
-        <v>'20201109'</v>
-      </c>
-      <c r="AY3" s="18" t="s">
+      <c r="AS4" s="29">
+        <v>0.99107142857142905</v>
+      </c>
+      <c r="AT4" s="27">
+        <v>364</v>
+      </c>
+      <c r="AU4" s="27">
+        <v>524</v>
+      </c>
+      <c r="AV4" s="27">
+        <v>888</v>
+      </c>
+      <c r="AX4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201110'</v>
+      </c>
+      <c r="AY4" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="AZ3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
-        <v>294</v>
-      </c>
-      <c r="BA3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
-        <v>1024</v>
-      </c>
-      <c r="BB3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
-        <v>2399.2648000000022</v>
-      </c>
-      <c r="BC3" s="12">
-        <f>BB3/AZ3</f>
-        <v>8.1607646258503479</v>
-      </c>
-      <c r="BD3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
-        <v>137</v>
-      </c>
-      <c r="BE3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
-        <v>119</v>
-      </c>
-      <c r="BF3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="BI3" s="1">
-        <f t="shared" si="0"/>
-        <v>119</v>
+      <c r="AZ4" s="32">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="BA4" s="32">
+        <f t="shared" si="2"/>
+        <v>888</v>
+      </c>
+      <c r="BB4" s="32">
+        <f t="shared" si="3"/>
+        <v>1442.184</v>
+      </c>
+      <c r="BC4" s="32">
+        <f t="shared" si="4"/>
+        <v>6.4383214285714283</v>
+      </c>
+      <c r="BD4" s="32">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="BE4" s="32">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="BF4" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="27">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="BI4" s="27">
+        <f t="shared" si="9"/>
+        <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>224</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>24.0364</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>0.39024390243902402</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>0.365079365079365</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>0.40993788819875798</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>92</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>132</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>91</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>131</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>0.99107142857142905</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>364</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>524</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>888</v>
-      </c>
-      <c r="AX4" s="1" t="str">
-        <f>B4</f>
-        <v>'20201110'</v>
-      </c>
-      <c r="AY4" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
-        <v>224</v>
-      </c>
-      <c r="BA4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
-        <v>888</v>
-      </c>
-      <c r="BB4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
-        <v>1442.184</v>
-      </c>
-      <c r="BC4" s="12">
-        <f>BB4/AZ4</f>
-        <v>6.4383214285714283</v>
-      </c>
-      <c r="BD4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
-        <v>91</v>
-      </c>
-      <c r="BE4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
-        <v>131</v>
-      </c>
-      <c r="BF4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="BI4" s="1">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>209</v>
       </c>
@@ -24875,461 +26045,826 @@
         <v>780</v>
       </c>
       <c r="AX5" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
       <c r="AY5" s="18" t="s">
         <v>194</v>
       </c>
       <c r="AZ5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
       <c r="BA5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="2"/>
         <v>1128</v>
       </c>
       <c r="BB5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="3"/>
         <v>1803.4593000000002</v>
       </c>
       <c r="BC5" s="12">
-        <f>BB5/AZ5</f>
+        <f t="shared" si="4"/>
         <v>5.9717195364238416</v>
       </c>
       <c r="BD5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="BE5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="BF5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" ref="BH5:BH6" si="1">SUM(BD5,BF5)</f>
+        <f t="shared" ref="BH5:BH6" si="10">SUM(BD5,BF5)</f>
         <v>120</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI6" si="2">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5:BI6" si="11">SUM(BE5,BG5)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="22">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
         <v>0.2</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>1</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
         <v>100000000000</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
         <v>87</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="22">
         <v>9.6391550000000006</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="24">
         <v>0.31182795698924698</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="24">
         <v>0.26956521739130401</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AJ6" s="24">
         <v>0.34146341463414598</v>
       </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="AK6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="22">
         <v>31</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="22">
         <v>56</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="22">
         <v>31</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="22">
         <v>56</v>
       </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="21" t="s">
+      <c r="AP6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1">
+      <c r="AS6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="22">
         <v>124</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="22">
         <v>224</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AV6" s="22">
         <v>348</v>
       </c>
-      <c r="AX6" s="1" t="str">
-        <f>B6</f>
+      <c r="AX6" s="22" t="str">
+        <f t="shared" si="0"/>
         <v>'20201111'</v>
       </c>
-      <c r="AY6" s="18" t="s">
+      <c r="AY6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="AZ6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+      <c r="AZ6" s="10">
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="BA6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+      <c r="BA6" s="10">
+        <f t="shared" si="2"/>
         <v>1128</v>
       </c>
-      <c r="BB6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+      <c r="BB6" s="10">
+        <f t="shared" si="3"/>
         <v>1803.4593000000002</v>
       </c>
-      <c r="BC6" s="12">
-        <f>BB6/AZ6</f>
+      <c r="BC6" s="10">
+        <f t="shared" si="4"/>
         <v>5.9717195364238416</v>
       </c>
-      <c r="BD6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+      <c r="BD6" s="10">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="BE6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+      <c r="BE6" s="10">
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
-      <c r="BF6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
+      <c r="BF6" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="22">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="BI6" s="22">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27">
+        <v>1</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27">
+        <v>1</v>
+      </c>
+      <c r="X7" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>100000000000</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>206</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>13.465400000000001</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>0.49047619047619001</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>0.51690821256038599</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0.46478873239436602</v>
+      </c>
+      <c r="AK7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="27">
+        <v>107</v>
+      </c>
+      <c r="AM7" s="27">
+        <v>99</v>
+      </c>
+      <c r="AN7" s="27">
+        <v>107</v>
+      </c>
+      <c r="AO7" s="27">
+        <v>98</v>
+      </c>
+      <c r="AP7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="29">
+        <v>0.99514563106796095</v>
+      </c>
+      <c r="AT7" s="27">
+        <v>428</v>
+      </c>
+      <c r="AU7" s="27">
+        <v>392</v>
+      </c>
+      <c r="AV7" s="27">
+        <v>820</v>
+      </c>
+      <c r="AX7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201112'</v>
+      </c>
+      <c r="AY7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ7" s="32">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="BI6" s="1">
+        <v>206</v>
+      </c>
+      <c r="BA7" s="32">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>820</v>
+      </c>
+      <c r="BB7" s="32">
+        <f t="shared" si="3"/>
+        <v>807.92400000000009</v>
+      </c>
+      <c r="BC7" s="32">
+        <f t="shared" si="4"/>
+        <v>3.9219611650485442</v>
+      </c>
+      <c r="BD7" s="32">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="BE7" s="32">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="BF7" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="27">
+        <f t="shared" ref="BH7:BH9" si="12">SUM(BD7,BF7)</f>
+        <v>107</v>
+      </c>
+      <c r="BI7" s="27">
+        <f t="shared" ref="BI7:BI9" si="13">SUM(BE7,BG7)</f>
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="A7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>8.5369033333333295</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.58235294117647096</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.59459459459459496</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>55</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>44</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>29</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>28</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>104</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>108</v>
+      </c>
+      <c r="AV8" s="1">
         <v>212</v>
       </c>
-      <c r="C7" s="1">
+      <c r="AX8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ8" s="12">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="BA8" s="12">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="BB8" s="12">
+        <f t="shared" si="3"/>
+        <v>2410.3906999999999</v>
+      </c>
+      <c r="BC8" s="12">
+        <f t="shared" ref="BC8:BC9" si="14">BB8/AZ8</f>
+        <v>5.6186263403263403</v>
+      </c>
+      <c r="BD8" s="12">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="BE8" s="12">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BF8" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="BI8" s="1">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>206</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>13.465400000000001</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0.49047619047619001</v>
-      </c>
-      <c r="AH7" s="8" t="s">
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>330</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>31.636275000000001</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.65346534653465405</v>
+      </c>
+      <c r="AH9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="8">
-        <v>0.51690821256038599</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>0.46478873239436602</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>107</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>99</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>107</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>98</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="21" t="s">
+      <c r="AI9" s="8">
+        <v>0.62783171521035597</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.69387755102040805</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>194</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>136</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>101</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AS7" s="8">
-        <v>0.99514563106796095</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>428</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>392</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>820</v>
-      </c>
-      <c r="AX7" s="1" t="str">
-        <f>B7</f>
-        <v>'20201112'</v>
-      </c>
-      <c r="AY7" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
-        <v>206</v>
-      </c>
-      <c r="BA7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
-        <v>820</v>
-      </c>
-      <c r="BB7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
-        <v>807.92400000000009</v>
-      </c>
-      <c r="BC7" s="12">
-        <f>BB7/AZ7</f>
-        <v>3.9219611650485442</v>
-      </c>
-      <c r="BD7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
-        <v>107</v>
-      </c>
-      <c r="BE7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
-        <v>98</v>
-      </c>
-      <c r="BF7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <f t="shared" ref="BH7" si="3">SUM(BD7,BF7)</f>
-        <v>107</v>
-      </c>
-      <c r="BI7" s="1">
-        <f t="shared" ref="BI7" si="4">SUM(BE7,BG7)</f>
-        <v>98</v>
+      <c r="AS9" s="8">
+        <v>0.60909090909090902</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>364</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>396</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>760</v>
+      </c>
+      <c r="AX9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ9" s="12">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+      <c r="BA9" s="12">
+        <f t="shared" si="2"/>
+        <v>972</v>
+      </c>
+      <c r="BB9" s="12">
+        <f t="shared" si="3"/>
+        <v>2410.3906999999999</v>
+      </c>
+      <c r="BC9" s="12">
+        <f t="shared" si="14"/>
+        <v>5.6186263403263403</v>
+      </c>
+      <c r="BD9" s="12">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="BE9" s="12">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BF9" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="BI9" s="1">
+        <f t="shared" si="13"/>
+        <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="B8" s="11"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-    </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-      <c r="BG9" s="12"/>
-    </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
       <c r="BB10" s="12"/>
@@ -25339,7 +26874,7 @@
       <c r="BF10" s="12"/>
       <c r="BG10" s="12"/>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ11" s="12"/>
       <c r="BA11" s="12"/>
       <c r="BB11" s="12"/>
@@ -25349,7 +26884,7 @@
       <c r="BF11" s="12"/>
       <c r="BG11" s="12"/>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ12" s="12"/>
       <c r="BA12" s="12"/>
       <c r="BB12" s="12"/>
@@ -25359,7 +26894,7 @@
       <c r="BF12" s="12"/>
       <c r="BG12" s="12"/>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -25369,7 +26904,7 @@
       <c r="BF13" s="12"/>
       <c r="BG13" s="12"/>
     </row>
-    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY14" s="18"/>
       <c r="AZ14" s="12"/>
       <c r="BA14" s="12"/>
@@ -25380,7 +26915,7 @@
       <c r="BF14" s="12"/>
       <c r="BG14" s="12"/>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY15" s="18"/>
       <c r="AZ15" s="12"/>
       <c r="BA15" s="12"/>
@@ -25391,7 +26926,7 @@
       <c r="BF15" s="12"/>
       <c r="BG15" s="12"/>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
       <c r="AZ16" s="12"/>
       <c r="BA16" s="12"/>
@@ -25402,7 +26937,7 @@
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY17" s="18"/>
       <c r="AZ17" s="12"/>
       <c r="BA17" s="12"/>
@@ -25413,7 +26948,7 @@
       <c r="BF17" s="12"/>
       <c r="BG17" s="12"/>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -25424,7 +26959,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -25435,7 +26970,7 @@
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
     </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.65">
+    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY20" s="18"/>
       <c r="AZ20" s="12"/>
       <c r="BA20" s="12"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -25102,7 +25102,7 @@
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="230">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -716,6 +716,12 @@
   <si>
     <t>'JB373_Infoseek_20201113_134114.mat'</t>
   </si>
+  <si>
+    <t>'JB371_Infoseek_20201116_142113.mat'</t>
+  </si>
+  <si>
+    <t>'20201116'</t>
+  </si>
 </sst>
 </file>
 
@@ -19251,7 +19257,7 @@
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20953,10 +20959,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM20"/>
+  <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21167,11 +21173,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>616</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>615</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -21906,43 +21912,43 @@
         <v>193</v>
       </c>
       <c r="AZ5" s="12">
-        <f t="shared" ref="AZ5:AZ11" si="2">SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
         <v>284</v>
       </c>
       <c r="BA5" s="12">
-        <f t="shared" ref="BA5:BA11" si="3">SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
         <v>1116</v>
       </c>
       <c r="BB5" s="12">
-        <f t="shared" ref="BB5:BB11" si="4">SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC5" s="12">
-        <f t="shared" ref="BC5:BC7" si="5">BB5/AZ5</f>
+        <f t="shared" ref="BC5:BC7" si="2">BB5/AZ5</f>
         <v>6.4632806338028086</v>
       </c>
       <c r="BD5" s="12">
-        <f t="shared" ref="BD5:BD11" si="6">SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
         <v>156</v>
       </c>
       <c r="BE5" s="12">
-        <f t="shared" ref="BE5:BE11" si="7">SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
         <v>123</v>
       </c>
       <c r="BF5" s="12">
-        <f t="shared" ref="BF5:BF11" si="8">SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f t="shared" ref="BG5:BG11" si="9">SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" ref="BH5:BH7" si="10">SUM(BD5,BF5)</f>
+        <f t="shared" ref="BH5:BH7" si="3">SUM(BD5,BF5)</f>
         <v>156</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI7" si="11">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5:BI7" si="4">SUM(BE5,BG5)</f>
         <v>123</v>
       </c>
     </row>
@@ -22099,43 +22105,43 @@
         <v>193</v>
       </c>
       <c r="AZ6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>284</v>
+      </c>
+      <c r="BA6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>1116</v>
+      </c>
+      <c r="BB6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>1835.5716999999977</v>
+      </c>
+      <c r="BC6" s="12">
         <f t="shared" si="2"/>
-        <v>284</v>
-      </c>
-      <c r="BA6" s="12">
+        <v>6.4632806338028086</v>
+      </c>
+      <c r="BD6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>156</v>
+      </c>
+      <c r="BE6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>123</v>
+      </c>
+      <c r="BF6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
         <f t="shared" si="3"/>
-        <v>1116</v>
-      </c>
-      <c r="BB6" s="12">
+        <v>156</v>
+      </c>
+      <c r="BI6" s="1">
         <f t="shared" si="4"/>
-        <v>1835.5716999999977</v>
-      </c>
-      <c r="BC6" s="12">
-        <f t="shared" si="5"/>
-        <v>6.4632806338028086</v>
-      </c>
-      <c r="BD6" s="12">
-        <f t="shared" si="6"/>
-        <v>156</v>
-      </c>
-      <c r="BE6" s="12">
-        <f t="shared" si="7"/>
-        <v>123</v>
-      </c>
-      <c r="BF6" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="BI6" s="1">
-        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
@@ -22292,43 +22298,43 @@
         <v>193</v>
       </c>
       <c r="AZ7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <v>284</v>
+      </c>
+      <c r="BA7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>1116</v>
+      </c>
+      <c r="BB7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>1835.5716999999977</v>
+      </c>
+      <c r="BC7" s="10">
         <f t="shared" si="2"/>
-        <v>284</v>
-      </c>
-      <c r="BA7" s="10">
+        <v>6.4632806338028086</v>
+      </c>
+      <c r="BD7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>156</v>
+      </c>
+      <c r="BE7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>123</v>
+      </c>
+      <c r="BF7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="22">
         <f t="shared" si="3"/>
-        <v>1116</v>
-      </c>
-      <c r="BB7" s="10">
+        <v>156</v>
+      </c>
+      <c r="BI7" s="22">
         <f t="shared" si="4"/>
-        <v>1835.5716999999977</v>
-      </c>
-      <c r="BC7" s="10">
-        <f t="shared" si="5"/>
-        <v>6.4632806338028086</v>
-      </c>
-      <c r="BD7" s="10">
-        <f t="shared" si="6"/>
-        <v>156</v>
-      </c>
-      <c r="BE7" s="10">
-        <f t="shared" si="7"/>
-        <v>123</v>
-      </c>
-      <c r="BF7" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="22">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="BI7" s="22">
-        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
@@ -22478,50 +22484,50 @@
         <v>764</v>
       </c>
       <c r="AX8" s="22" t="str">
-        <f t="shared" ref="AX8:AX10" si="12">B8</f>
+        <f t="shared" ref="AX8:AX10" si="5">B8</f>
         <v>'20201112'</v>
       </c>
       <c r="AY8" s="26" t="s">
         <v>193</v>
       </c>
       <c r="AZ8" s="10">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AE$2:$AE$1048576)</f>
         <v>200</v>
       </c>
       <c r="BA8" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AV$2:$AV$1048576)</f>
         <v>764</v>
       </c>
       <c r="BB8" s="10">
-        <f t="shared" si="4"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AF$2:$AF$1048576)*60</f>
         <v>871.19380000000194</v>
       </c>
       <c r="BC8" s="10">
-        <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
+        <f t="shared" ref="BC8" si="6">BB8/AZ8</f>
         <v>4.3559690000000097</v>
       </c>
       <c r="BD8" s="10">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AN$2:$AN$1048576)</f>
         <v>97</v>
       </c>
       <c r="BE8" s="10">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AO$2:$AO$1048576)</f>
         <v>94</v>
       </c>
       <c r="BF8" s="10">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG8" s="10">
-        <f t="shared" si="9"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH8" s="22">
-        <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
+        <f t="shared" ref="BH8" si="7">SUM(BD8,BF8)</f>
         <v>97</v>
       </c>
       <c r="BI8" s="22">
-        <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
+        <f t="shared" ref="BI8" si="8">SUM(BE8,BG8)</f>
         <v>94</v>
       </c>
     </row>
@@ -22671,50 +22677,50 @@
         <v>92</v>
       </c>
       <c r="AX9" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>'20201113'</v>
       </c>
       <c r="AY9" s="18" t="s">
         <v>221</v>
       </c>
       <c r="AZ9" s="12">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AE$2:$AE$1048576)</f>
         <v>390</v>
       </c>
       <c r="BA9" s="12">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AV$2:$AV$1048576)</f>
         <v>1060</v>
       </c>
       <c r="BB9" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AF$2:$AF$1048576)*60</f>
         <v>2359.8423000000016</v>
       </c>
       <c r="BC9" s="12">
-        <f t="shared" ref="BC9:BC11" si="16">BB9/AZ9</f>
+        <f t="shared" ref="BC9:BC11" si="9">BB9/AZ9</f>
         <v>6.0508776923076963</v>
       </c>
       <c r="BD9" s="12">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AN$2:$AN$1048576)</f>
         <v>139</v>
       </c>
       <c r="BE9" s="12">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AO$2:$AO$1048576)</f>
         <v>140</v>
       </c>
       <c r="BF9" s="12">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG9" s="12">
-        <f t="shared" si="9"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <f t="shared" ref="BH9:BH11" si="17">SUM(BD9,BF9)</f>
+        <f t="shared" ref="BH9:BH11" si="10">SUM(BD9,BF9)</f>
         <v>139</v>
       </c>
       <c r="BI9" s="1">
-        <f t="shared" ref="BI9:BI11" si="18">SUM(BE9,BG9)</f>
+        <f t="shared" ref="BI9:BI11" si="11">SUM(BE9,BG9)</f>
         <v>140</v>
       </c>
     </row>
@@ -22864,257 +22870,441 @@
         <v>300</v>
       </c>
       <c r="AX10" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>'20201113'</v>
       </c>
       <c r="AY10" s="18" t="s">
         <v>219</v>
       </c>
       <c r="AZ10" s="12">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AE$2:$AE$1048576)</f>
         <v>390</v>
       </c>
       <c r="BA10" s="12">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AV$2:$AV$1048576)</f>
         <v>1060</v>
       </c>
       <c r="BB10" s="12">
-        <f t="shared" si="4"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AF$2:$AF$1048576)*60</f>
         <v>2359.8423000000016</v>
       </c>
       <c r="BC10" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>6.0508776923076963</v>
       </c>
       <c r="BD10" s="12">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AN$2:$AN$1048576)</f>
         <v>139</v>
       </c>
       <c r="BE10" s="12">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AO$2:$AO$1048576)</f>
         <v>140</v>
       </c>
       <c r="BF10" s="12">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B10,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG10" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1">
+        <f t="shared" si="10"/>
+        <v>139</v>
+      </c>
+      <c r="BI10" s="1">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>3</v>
+      </c>
+      <c r="G11" s="22">
+        <v>2</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>3</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="S11" s="22">
+        <v>1</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>1</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22">
+        <v>1</v>
+      </c>
+      <c r="X11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>207</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>26.431796666666699</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>0.86607142857142905</v>
+      </c>
+      <c r="AJ11" s="24">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="22">
+        <v>97</v>
+      </c>
+      <c r="AM11" s="22">
+        <v>110</v>
+      </c>
+      <c r="AN11" s="22">
+        <v>85</v>
+      </c>
+      <c r="AO11" s="22">
+        <v>85</v>
+      </c>
+      <c r="AP11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="24">
+        <v>0.82125603864734298</v>
+      </c>
+      <c r="AT11" s="22">
+        <v>340</v>
+      </c>
+      <c r="AU11" s="22">
+        <v>328</v>
+      </c>
+      <c r="AV11" s="22">
+        <v>668</v>
+      </c>
+      <c r="AX11" s="22" t="str">
+        <f t="shared" ref="AX11:AX12" si="12">B11</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY11" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AE$2:$AE$1048576)</f>
+        <v>390</v>
+      </c>
+      <c r="BA11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AV$2:$AV$1048576)</f>
+        <v>1060</v>
+      </c>
+      <c r="BB11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AF$2:$AF$1048576)*60</f>
+        <v>2359.8423000000016</v>
+      </c>
+      <c r="BC11" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BH10" s="1">
-        <f t="shared" si="17"/>
+        <v>6.0508776923076963</v>
+      </c>
+      <c r="BD11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AN$2:$AN$1048576)</f>
         <v>139</v>
       </c>
-      <c r="BI10" s="1">
-        <f t="shared" si="18"/>
+      <c r="BE11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AO$2:$AO$1048576)</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>207</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>26.431796666666699</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0.82142857142857095</v>
-      </c>
-      <c r="AH11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>0.86607142857142905</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>0.78571428571428603</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>97</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>110</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>85</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>85</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS11" s="8">
-        <v>0.82125603864734298</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>340</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>328</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>668</v>
-      </c>
-      <c r="AX11" s="1" t="str">
-        <f t="shared" ref="AX11" si="19">B11</f>
-        <v>'20201113'</v>
-      </c>
-      <c r="AY11" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ11" s="12">
-        <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="BA11" s="12">
-        <f t="shared" si="3"/>
-        <v>1060</v>
-      </c>
-      <c r="BB11" s="12">
-        <f t="shared" si="4"/>
-        <v>2359.8423000000016</v>
-      </c>
-      <c r="BC11" s="12">
-        <f t="shared" si="16"/>
-        <v>6.0508776923076963</v>
-      </c>
-      <c r="BD11" s="12">
-        <f t="shared" si="6"/>
+      <c r="BF11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B11,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="22">
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
-      <c r="BE11" s="12">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="BF11" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BG11" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BH11" s="1">
-        <f t="shared" si="17"/>
-        <v>139</v>
-      </c>
-      <c r="BI11" s="1">
-        <f t="shared" si="18"/>
+      <c r="BI11" s="22">
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12"/>
-      <c r="BB12" s="12"/>
-      <c r="BC12" s="12"/>
-      <c r="BD12" s="12"/>
-      <c r="BE12" s="12"/>
-      <c r="BF12" s="12"/>
-      <c r="BG12" s="12"/>
+      <c r="A12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>318</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>49.866390000000003</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.79699248120300803</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>0.76829268292682895</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>0.84313725490196101</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>189</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>129</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>109</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>111</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>0.69182389937106903</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>440</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>840</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY12" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AE$2:$AE$1048576)</f>
+        <v>318</v>
+      </c>
+      <c r="BA12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AV$2:$AV$1048576)</f>
+        <v>840</v>
+      </c>
+      <c r="BB12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AF$2:$AF$1048576)*60</f>
+        <v>2991.9834000000001</v>
+      </c>
+      <c r="BC12" s="12">
+        <f t="shared" ref="BC12" si="13">BB12/AZ12</f>
+        <v>9.4087528301886802</v>
+      </c>
+      <c r="BD12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AN$2:$AN$1048576)</f>
+        <v>109</v>
+      </c>
+      <c r="BE12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AO$2:$AO$1048576)</f>
+        <v>111</v>
+      </c>
+      <c r="BF12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B12,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <f t="shared" ref="BH12" si="14">SUM(BD12,BF12)</f>
+        <v>109</v>
+      </c>
+      <c r="BI12" s="1">
+        <f t="shared" ref="BI12" si="15">SUM(BE12,BG12)</f>
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY13" s="18"/>
       <c r="AZ13" s="12"/>
       <c r="BA13" s="12"/>
       <c r="BB13" s="12"/>
@@ -23189,17 +23379,6 @@
       <c r="BE19" s="12"/>
       <c r="BF19" s="12"/>
       <c r="BG19" s="12"/>
-    </row>
-    <row r="20" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="12"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25101,8 +25280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="JB371" sheetId="7" r:id="rId6"/>
     <sheet name="JB372" sheetId="9" r:id="rId7"/>
     <sheet name="JB373" sheetId="8" r:id="rId8"/>
+    <sheet name="JB374" sheetId="10" r:id="rId9"/>
+    <sheet name="JB375" sheetId="11" r:id="rId10"/>
+    <sheet name="JB376" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="242">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -722,6 +725,42 @@
   <si>
     <t>'20201116'</t>
   </si>
+  <si>
+    <t>'JB370_Infoseek_20201113_145602.mat'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201116_132619.mat'</t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201116_135039.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201116_151259.mat'</t>
+  </si>
+  <si>
+    <t>Uncovered Delays</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201116_155031.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_Infoseek_20201116_170140.mat'</t>
+  </si>
+  <si>
+    <t>'JB375_Infoseek_20201116_174117.mat'</t>
+  </si>
+  <si>
+    <t>'JB376_Infoseek_20201116_183833.mat'</t>
+  </si>
+  <si>
+    <t>'JB376_Infoseek_20201116_184841.mat'</t>
+  </si>
+  <si>
+    <t>Delays/Following odor - latch valves working</t>
+  </si>
+  <si>
+    <t>Delays/Following odor latch valves working?</t>
+  </si>
 </sst>
 </file>
 
@@ -839,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,6 +934,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView topLeftCell="AI5" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,8 +1587,8 @@
         <f>B2</f>
         <v>'20201013'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>113</v>
+      <c r="AY2" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="AZ2" s="12">
         <f t="shared" ref="AZ2:AZ27" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -6410,6 +6455,1247 @@
         <f t="shared" ref="BI27" si="68">SUM(BE27,BG27)</f>
         <v>116</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="14.5" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>26</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>3</v>
+      </c>
+      <c r="I2" s="22">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>1</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>10000000000</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>42.327685000000002</v>
+      </c>
+      <c r="AG2" s="24">
+        <v>0.64285714285714302</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>0.83870967741935498</v>
+      </c>
+      <c r="AJ2" s="24">
+        <v>0.52830188679245305</v>
+      </c>
+      <c r="AK2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="22">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="22">
+        <v>28</v>
+      </c>
+      <c r="AN2" s="22">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="22">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="22">
+        <v>104</v>
+      </c>
+      <c r="AV2" s="22">
+        <v>204</v>
+      </c>
+      <c r="AX2" s="22" t="str">
+        <f t="shared" ref="AX2" si="0">B2</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>54</v>
+      </c>
+      <c r="BA2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>204</v>
+      </c>
+      <c r="BB2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>2539.6611000000003</v>
+      </c>
+      <c r="BC2" s="10">
+        <f t="shared" ref="BC2" si="1">BB2/AZ2</f>
+        <v>47.030761111111119</v>
+      </c>
+      <c r="BD2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>26</v>
+      </c>
+      <c r="BE2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>28</v>
+      </c>
+      <c r="BF2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="22">
+        <f t="shared" ref="BH2:BI2" si="2">SUM(BD2,BF2)</f>
+        <v>26</v>
+      </c>
+      <c r="BI2" s="22">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM12"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="14.5" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>4</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="33">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0</v>
+      </c>
+      <c r="I2" s="33">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
+        <v>3</v>
+      </c>
+      <c r="K2" s="33">
+        <v>2</v>
+      </c>
+      <c r="L2" s="33">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33">
+        <v>0</v>
+      </c>
+      <c r="N2" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="33">
+        <v>0</v>
+      </c>
+      <c r="P2" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="33">
+        <v>0</v>
+      </c>
+      <c r="S2" s="33">
+        <v>1</v>
+      </c>
+      <c r="T2" s="33">
+        <v>1</v>
+      </c>
+      <c r="U2" s="33">
+        <v>1</v>
+      </c>
+      <c r="V2" s="33">
+        <v>1</v>
+      </c>
+      <c r="W2" s="33">
+        <v>1</v>
+      </c>
+      <c r="X2" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>10000000000</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="33">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="33">
+        <v>7.2099983333333304</v>
+      </c>
+      <c r="AG2" s="34">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AH2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="34">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="AK2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="33">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="33">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="33">
+        <v>16</v>
+      </c>
+      <c r="AV2" s="33">
+        <v>16</v>
+      </c>
+      <c r="AX2" s="33" t="str">
+        <f t="shared" ref="AX2" si="0">B2</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY2" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>11</v>
+      </c>
+      <c r="BA2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>24</v>
+      </c>
+      <c r="BB2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>561.29329999999993</v>
+      </c>
+      <c r="BC2" s="12">
+        <f t="shared" ref="BC2" si="1">BB2/AZ2</f>
+        <v>51.026663636363629</v>
+      </c>
+      <c r="BD2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>4</v>
+      </c>
+      <c r="BE2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>7</v>
+      </c>
+      <c r="BF2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="33">
+        <f t="shared" ref="BH2:BI2" si="2">SUM(BD2,BF2)</f>
+        <v>4</v>
+      </c>
+      <c r="BI2" s="33">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="33">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="33">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>1</v>
+      </c>
+      <c r="J3" s="33">
+        <v>3</v>
+      </c>
+      <c r="K3" s="33">
+        <v>2</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33">
+        <v>0</v>
+      </c>
+      <c r="N3" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="33">
+        <v>0</v>
+      </c>
+      <c r="P3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="33">
+        <v>0</v>
+      </c>
+      <c r="S3" s="33">
+        <v>1</v>
+      </c>
+      <c r="T3" s="33">
+        <v>1</v>
+      </c>
+      <c r="U3" s="33">
+        <v>1</v>
+      </c>
+      <c r="V3" s="33">
+        <v>1</v>
+      </c>
+      <c r="W3" s="33">
+        <v>1</v>
+      </c>
+      <c r="X3" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>10000000000</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="33">
+        <v>2.1448900000000002</v>
+      </c>
+      <c r="AG3" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="33">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="33">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="33">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="33">
+        <v>8</v>
+      </c>
+      <c r="AX3" s="33" t="str">
+        <f t="shared" ref="AX3" si="3">B3</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <v>11</v>
+      </c>
+      <c r="BA3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <v>24</v>
+      </c>
+      <c r="BB3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <v>561.29329999999993</v>
+      </c>
+      <c r="BC3" s="12">
+        <f t="shared" ref="BC3" si="4">BB3/AZ3</f>
+        <v>51.026663636363629</v>
+      </c>
+      <c r="BD3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <v>4</v>
+      </c>
+      <c r="BE3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <v>7</v>
+      </c>
+      <c r="BF3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="33">
+        <f t="shared" ref="BH3" si="5">SUM(BD3,BF3)</f>
+        <v>4</v>
+      </c>
+      <c r="BI3" s="33">
+        <f t="shared" ref="BI3" si="6">SUM(BE3,BG3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6421,8 +7707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AV20" sqref="AV20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6784,8 +8070,8 @@
         <f>B2</f>
         <v>'20201013'</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>113</v>
+      <c r="AY2" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="AZ2" s="12">
         <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
@@ -19257,7 +20543,7 @@
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19466,11 +20752,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
@@ -19626,15 +20912,15 @@
         <v>184</v>
       </c>
       <c r="AZ2" s="12">
-        <f t="shared" ref="AZ2:AZ8" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ11" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>46</v>
       </c>
       <c r="BA2" s="12">
-        <f t="shared" ref="BA2:BA8" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA11" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>180</v>
       </c>
       <c r="BB2" s="12">
-        <f t="shared" ref="BB2:BB8" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB11" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1484.8948000000019</v>
       </c>
       <c r="BC2" s="12">
@@ -19642,19 +20928,19 @@
         <v>32.280321739130478</v>
       </c>
       <c r="BD2" s="12">
-        <f t="shared" ref="BD2:BD8" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD11" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>22</v>
       </c>
       <c r="BE2" s="12">
-        <f t="shared" ref="BE2:BE8" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE11" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>23</v>
       </c>
       <c r="BF2" s="12">
-        <f t="shared" ref="BF2:BF8" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF11" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="12">
-        <f t="shared" ref="BG2:BG8" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG11" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="1">
@@ -20824,35 +22110,584 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-      <c r="BG9" s="12"/>
+    <row r="9" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="27">
+        <v>3</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27">
+        <v>2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27">
+        <v>2</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
+        <v>1</v>
+      </c>
+      <c r="T9" s="27">
+        <v>0</v>
+      </c>
+      <c r="U9" s="27">
+        <v>1</v>
+      </c>
+      <c r="V9" s="27">
+        <v>0</v>
+      </c>
+      <c r="W9" s="27">
+        <v>1</v>
+      </c>
+      <c r="X9" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>100000000000</v>
+      </c>
+      <c r="Z9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>88</v>
+      </c>
+      <c r="AF9" s="27">
+        <v>44.920486666666697</v>
+      </c>
+      <c r="AG9" s="29">
+        <v>0.26747720364741601</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="29">
+        <v>0.310975609756098</v>
+      </c>
+      <c r="AJ9" s="29">
+        <v>0.22424242424242399</v>
+      </c>
+      <c r="AK9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="27">
+        <v>51</v>
+      </c>
+      <c r="AM9" s="27">
+        <v>37</v>
+      </c>
+      <c r="AN9" s="27">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="27">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="27">
+        <v>204</v>
+      </c>
+      <c r="AU9" s="27">
+        <v>148</v>
+      </c>
+      <c r="AV9" s="27">
+        <v>352</v>
+      </c>
+      <c r="AX9" s="27" t="str">
+        <f t="shared" ref="AX9" si="16">B9</f>
+        <v>'20201113'</v>
+      </c>
+      <c r="AY9" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ9" s="32">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="BA9" s="32">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="BB9" s="32">
+        <f t="shared" si="3"/>
+        <v>2695.229200000002</v>
+      </c>
+      <c r="BC9" s="32">
+        <f t="shared" ref="BC9" si="17">BB9/AZ9</f>
+        <v>30.62760454545457</v>
+      </c>
+      <c r="BD9" s="32">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="BE9" s="32">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BF9" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="27">
+        <f t="shared" ref="BH9" si="18">SUM(BD9,BF9)</f>
+        <v>51</v>
+      </c>
+      <c r="BI9" s="27">
+        <f t="shared" ref="BI9" si="19">SUM(BE9,BG9)</f>
+        <v>37</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
+    <row r="10" spans="1:65" s="33" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="33">
+        <v>2</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2</v>
+      </c>
+      <c r="G10" s="33">
+        <v>3</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33">
+        <v>3</v>
+      </c>
+      <c r="J10" s="33">
+        <v>1</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>2</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="33">
+        <v>0</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>0</v>
+      </c>
+      <c r="R10" s="33">
+        <v>0</v>
+      </c>
+      <c r="S10" s="33">
+        <v>1</v>
+      </c>
+      <c r="T10" s="33">
+        <v>0</v>
+      </c>
+      <c r="U10" s="33">
+        <v>1</v>
+      </c>
+      <c r="V10" s="33">
+        <v>0</v>
+      </c>
+      <c r="W10" s="33">
+        <v>1</v>
+      </c>
+      <c r="X10" s="33">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>100000000000</v>
+      </c>
+      <c r="Z10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>2.0625666666666702</v>
+      </c>
+      <c r="AG10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="33">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="33">
+        <v>4</v>
+      </c>
+      <c r="AU10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="33">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="33" t="str">
+        <f t="shared" ref="AX10:AX11" si="20">B10</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY10" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ10" s="12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="BA10" s="12">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="BB10" s="12">
+        <f t="shared" si="3"/>
+        <v>1801.4720000000023</v>
+      </c>
+      <c r="BC10" s="12">
+        <f t="shared" ref="BC10:BC11" si="21">BB10/AZ10</f>
+        <v>20.471272727272751</v>
+      </c>
+      <c r="BD10" s="12">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="BE10" s="12">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BF10" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="33">
+        <f t="shared" ref="BH10:BH11" si="22">SUM(BD10,BF10)</f>
+        <v>44</v>
+      </c>
+      <c r="BI10" s="33">
+        <f t="shared" ref="BI10:BI11" si="23">SUM(BE10,BG10)</f>
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ11" s="12"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="12"/>
-      <c r="BD11" s="12"/>
-      <c r="BE11" s="12"/>
-      <c r="BF11" s="12"/>
-      <c r="BG11" s="12"/>
+    <row r="11" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>3</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="S11" s="22">
+        <v>1</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>1</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22">
+        <v>1</v>
+      </c>
+      <c r="X11" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>100000000000</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>87</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>27.961966666666701</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>0.40654205607476601</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="AJ11" s="24">
+        <v>0.34821428571428598</v>
+      </c>
+      <c r="AK11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="22">
+        <v>48</v>
+      </c>
+      <c r="AM11" s="22">
+        <v>39</v>
+      </c>
+      <c r="AN11" s="22">
+        <v>43</v>
+      </c>
+      <c r="AO11" s="22">
+        <v>39</v>
+      </c>
+      <c r="AP11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS11" s="24">
+        <v>0.94252873563218398</v>
+      </c>
+      <c r="AT11" s="22">
+        <v>160</v>
+      </c>
+      <c r="AU11" s="22">
+        <v>104</v>
+      </c>
+      <c r="AV11" s="22">
+        <v>264</v>
+      </c>
+      <c r="AX11" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY11" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ11" s="10">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="BA11" s="10">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="BB11" s="10">
+        <f t="shared" si="3"/>
+        <v>1801.4720000000023</v>
+      </c>
+      <c r="BC11" s="10">
+        <f t="shared" si="21"/>
+        <v>20.471272727272751</v>
+      </c>
+      <c r="BD11" s="10">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="BE11" s="10">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="BF11" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="22">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="BI11" s="22">
+        <f t="shared" si="23"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ12" s="12"/>
@@ -20961,8 +22796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21333,15 +23168,15 @@
         <v>193</v>
       </c>
       <c r="AZ2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ12" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>42</v>
       </c>
       <c r="BA2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA12" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>164</v>
       </c>
       <c r="BB2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB12" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1694.5396000000019</v>
       </c>
       <c r="BC2" s="10">
@@ -21349,27 +23184,27 @@
         <v>40.346180952380998</v>
       </c>
       <c r="BD2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD12" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>20</v>
       </c>
       <c r="BE2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE12" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>21</v>
       </c>
       <c r="BF2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF12" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG12" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="22">
-        <f t="shared" ref="BH2:BI4" si="0">SUM(BD2,BF2)</f>
+        <f t="shared" ref="BH2:BI4" si="7">SUM(BD2,BF2)</f>
         <v>20</v>
       </c>
       <c r="BI2" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
     </row>
@@ -21526,15 +23361,15 @@
         <v>193</v>
       </c>
       <c r="AZ3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="BA3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>944</v>
       </c>
       <c r="BB3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>4308.2539000000015</v>
       </c>
       <c r="BC3" s="12">
@@ -21542,27 +23377,27 @@
         <v>18.0261669456067</v>
       </c>
       <c r="BD3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="BE3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="BF3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="BI3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
     </row>
@@ -21719,15 +23554,15 @@
         <v>193</v>
       </c>
       <c r="AZ4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>224</v>
       </c>
       <c r="BA4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>820</v>
       </c>
       <c r="BB4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>1511.1847000000021</v>
       </c>
       <c r="BC4" s="10">
@@ -21735,27 +23570,27 @@
         <v>6.7463602678571517</v>
       </c>
       <c r="BD4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="BE4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="BF4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG4" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH4" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="BI4" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
     </row>
@@ -21905,50 +23740,50 @@
         <v>624</v>
       </c>
       <c r="AX5" s="1" t="str">
-        <f t="shared" ref="AX5:AX7" si="1">B5</f>
+        <f t="shared" ref="AX5:AX7" si="8">B5</f>
         <v>'20201111'</v>
       </c>
       <c r="AY5" s="18" t="s">
         <v>193</v>
       </c>
       <c r="AZ5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>284</v>
       </c>
       <c r="BA5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1116</v>
       </c>
       <c r="BB5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC5" s="12">
-        <f t="shared" ref="BC5:BC7" si="2">BB5/AZ5</f>
+        <f t="shared" ref="BC5:BC7" si="9">BB5/AZ5</f>
         <v>6.4632806338028086</v>
       </c>
       <c r="BD5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="BE5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="BF5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f t="shared" ref="BH5:BH7" si="3">SUM(BD5,BF5)</f>
+        <f t="shared" ref="BH5:BH7" si="10">SUM(BD5,BF5)</f>
         <v>156</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI7" si="4">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5:BI7" si="11">SUM(BE5,BG5)</f>
         <v>123</v>
       </c>
     </row>
@@ -22098,50 +23933,50 @@
         <v>56</v>
       </c>
       <c r="AX6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>'20201111'</v>
       </c>
       <c r="AY6" s="18" t="s">
         <v>193</v>
       </c>
       <c r="AZ6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>284</v>
       </c>
       <c r="BA6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1116</v>
       </c>
       <c r="BB6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.4632806338028086</v>
       </c>
       <c r="BD6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
-        <v>156</v>
-      </c>
-      <c r="BE6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
-        <v>123</v>
-      </c>
-      <c r="BF6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG6" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
+      <c r="BE6" s="12">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="BF6" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
       <c r="BI6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
@@ -22291,50 +24126,50 @@
         <v>436</v>
       </c>
       <c r="AX7" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>'20201111'</v>
       </c>
       <c r="AY7" s="26" t="s">
         <v>193</v>
       </c>
       <c r="AZ7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>284</v>
       </c>
       <c r="BA7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1116</v>
       </c>
       <c r="BB7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>1835.5716999999977</v>
       </c>
       <c r="BC7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.4632806338028086</v>
       </c>
       <c r="BD7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
-        <v>156</v>
-      </c>
-      <c r="BE7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
-        <v>123</v>
-      </c>
-      <c r="BF7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BG7" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="BH7" s="22">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
+      <c r="BE7" s="10">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="BF7" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="22">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
       <c r="BI7" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
@@ -22484,50 +24319,50 @@
         <v>764</v>
       </c>
       <c r="AX8" s="22" t="str">
-        <f t="shared" ref="AX8:AX10" si="5">B8</f>
+        <f t="shared" ref="AX8:AX10" si="12">B8</f>
         <v>'20201112'</v>
       </c>
       <c r="AY8" s="26" t="s">
         <v>193</v>
       </c>
       <c r="AZ8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="BA8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>764</v>
       </c>
       <c r="BB8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>871.19380000000194</v>
       </c>
       <c r="BC8" s="10">
-        <f t="shared" ref="BC8" si="6">BB8/AZ8</f>
+        <f t="shared" ref="BC8" si="13">BB8/AZ8</f>
         <v>4.3559690000000097</v>
       </c>
       <c r="BD8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="BE8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="BF8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG8" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B8,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH8" s="22">
-        <f t="shared" ref="BH8" si="7">SUM(BD8,BF8)</f>
+        <f t="shared" ref="BH8" si="14">SUM(BD8,BF8)</f>
         <v>97</v>
       </c>
       <c r="BI8" s="22">
-        <f t="shared" ref="BI8" si="8">SUM(BE8,BG8)</f>
+        <f t="shared" ref="BI8" si="15">SUM(BE8,BG8)</f>
         <v>94</v>
       </c>
     </row>
@@ -22677,50 +24512,50 @@
         <v>92</v>
       </c>
       <c r="AX9" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>'20201113'</v>
       </c>
       <c r="AY9" s="18" t="s">
         <v>221</v>
       </c>
       <c r="AZ9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="BA9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="BB9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2359.8423000000016</v>
       </c>
       <c r="BC9" s="12">
-        <f t="shared" ref="BC9:BC11" si="9">BB9/AZ9</f>
+        <f t="shared" ref="BC9:BC11" si="16">BB9/AZ9</f>
         <v>6.0508776923076963</v>
       </c>
       <c r="BD9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="BE9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="BF9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG9" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B9,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <f t="shared" ref="BH9:BH11" si="10">SUM(BD9,BF9)</f>
+        <f t="shared" ref="BH9:BH11" si="17">SUM(BD9,BF9)</f>
         <v>139</v>
       </c>
       <c r="BI9" s="1">
-        <f t="shared" ref="BI9:BI11" si="11">SUM(BE9,BG9)</f>
+        <f t="shared" ref="BI9:BI11" si="18">SUM(BE9,BG9)</f>
         <v>140</v>
       </c>
     </row>
@@ -22870,50 +24705,50 @@
         <v>300</v>
       </c>
       <c r="AX10" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>'20201113'</v>
       </c>
       <c r="AY10" s="18" t="s">
         <v>219</v>
       </c>
       <c r="AZ10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="BA10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="BB10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2359.8423000000016</v>
       </c>
       <c r="BC10" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6.0508776923076963</v>
       </c>
       <c r="BD10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="BE10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="BF10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG10" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B10,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>139</v>
       </c>
       <c r="BI10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -23063,50 +24898,50 @@
         <v>668</v>
       </c>
       <c r="AX11" s="22" t="str">
-        <f t="shared" ref="AX11:AX12" si="12">B11</f>
+        <f t="shared" ref="AX11:AX12" si="19">B11</f>
         <v>'20201113'</v>
       </c>
       <c r="AY11" s="26" t="s">
         <v>219</v>
       </c>
       <c r="AZ11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="BA11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>1060</v>
       </c>
       <c r="BB11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2359.8423000000016</v>
       </c>
       <c r="BC11" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>6.0508776923076963</v>
       </c>
       <c r="BD11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="BE11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="BF11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG11" s="10">
-        <f>SUMIF($B$2:$B$1048576,$B11,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH11" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>139</v>
       </c>
       <c r="BI11" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>140</v>
       </c>
     </row>
@@ -23256,50 +25091,50 @@
         <v>840</v>
       </c>
       <c r="AX12" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>'20201116'</v>
       </c>
       <c r="AY12" s="18" t="s">
         <v>219</v>
       </c>
       <c r="AZ12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AE$2:$AE$1048576)</f>
+        <f t="shared" si="0"/>
         <v>318</v>
       </c>
       <c r="BA12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AV$2:$AV$1048576)</f>
+        <f t="shared" si="1"/>
         <v>840</v>
       </c>
       <c r="BB12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" si="2"/>
         <v>2991.9834000000001</v>
       </c>
       <c r="BC12" s="12">
-        <f t="shared" ref="BC12" si="13">BB12/AZ12</f>
+        <f t="shared" ref="BC12" si="20">BB12/AZ12</f>
         <v>9.4087528301886802</v>
       </c>
       <c r="BD12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AN$2:$AN$1048576)</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="BE12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AO$2:$AO$1048576)</f>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="BF12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AP$2:$AP$1048576)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG12" s="12">
-        <f>SUMIF($B$2:$B$1048576,$B12,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <f t="shared" ref="BH12" si="14">SUM(BD12,BF12)</f>
+        <f t="shared" ref="BH12" si="21">SUM(BD12,BF12)</f>
         <v>109</v>
       </c>
       <c r="BI12" s="1">
-        <f t="shared" ref="BI12" si="15">SUM(BE12,BG12)</f>
+        <f t="shared" ref="BI12" si="22">SUM(BE12,BG12)</f>
         <v>111</v>
       </c>
     </row>
@@ -23390,8 +25225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23602,11 +25437,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>546</v>
+        <v>651</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>563</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -23762,15 +25597,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="10">
-        <f t="shared" ref="AZ2:AZ9" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ10" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>56</v>
       </c>
       <c r="BA2" s="10">
-        <f t="shared" ref="BA2:BA9" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA10" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>216</v>
       </c>
       <c r="BB2" s="10">
-        <f t="shared" ref="BB2:BB9" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB10" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1698.3229000000022</v>
       </c>
       <c r="BC2" s="10">
@@ -23778,19 +25613,19 @@
         <v>30.327194642857183</v>
       </c>
       <c r="BD2" s="10">
-        <f t="shared" ref="BD2:BD9" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD10" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>26</v>
       </c>
       <c r="BE2" s="10">
-        <f t="shared" ref="BE2:BE9" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE10" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>28</v>
       </c>
       <c r="BF2" s="10">
-        <f t="shared" ref="BF2:BF9" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF10" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="10">
-        <f t="shared" ref="BG2:BG9" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG10" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="22">
@@ -24960,208 +26795,391 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="22">
         <v>1000</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="D9" s="22">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="22">
         <v>3</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <v>3</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
         <v>0.2</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
         <v>0.3</v>
       </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="S9" s="22">
+        <v>1</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>1</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="22">
         <v>10</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="22">
         <v>2</v>
       </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="22">
         <v>137</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="22">
         <v>23.9206033333333</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="24">
         <v>0.61990950226244401</v>
       </c>
-      <c r="AH9" s="8" t="s">
+      <c r="AH9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="24">
         <v>0.56701030927835105</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="24">
         <v>0.66129032258064502</v>
       </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AK9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="22">
         <v>55</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="22">
         <v>82</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="22">
         <v>36</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="22">
         <v>36</v>
       </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="21" t="s">
+      <c r="AP9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS9" s="8">
+      <c r="AS9" s="24">
         <v>0.52554744525547503</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="22">
         <v>140</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="22">
         <v>136</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="22">
         <v>276</v>
       </c>
-      <c r="AX9" s="1" t="str">
+      <c r="AX9" s="22" t="str">
         <f t="shared" ref="AX9" si="18">B9</f>
         <v>'20201113'</v>
       </c>
-      <c r="AY9" s="18" t="s">
+      <c r="AY9" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="AZ9" s="12">
+      <c r="AZ9" s="10">
         <f t="shared" si="1"/>
         <v>487</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BA9" s="10">
         <f t="shared" si="2"/>
         <v>828</v>
       </c>
-      <c r="BB9" s="12">
+      <c r="BB9" s="10">
         <f t="shared" si="3"/>
         <v>3264.6624000000002</v>
       </c>
-      <c r="BC9" s="12">
+      <c r="BC9" s="10">
         <f t="shared" ref="BC9" si="19">BB9/AZ9</f>
         <v>6.7036188911704313</v>
       </c>
-      <c r="BD9" s="12">
+      <c r="BD9" s="10">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="BE9" s="12">
+      <c r="BE9" s="10">
         <f t="shared" si="6"/>
         <v>122</v>
       </c>
-      <c r="BF9" s="12">
+      <c r="BF9" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG9" s="12">
+      <c r="BG9" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BH9" s="22">
         <f t="shared" ref="BH9" si="20">SUM(BD9,BF9)</f>
         <v>123</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BI9" s="22">
         <f t="shared" ref="BI9" si="21">SUM(BE9,BG9)</f>
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>294</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>33.483249999999998</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.51669595782073796</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0.43604651162790697</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>150</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>144</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>105</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>105</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>396</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>416</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>812</v>
+      </c>
+      <c r="AX10" s="22" t="str">
+        <f t="shared" ref="AX10" si="22">B10</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY10" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ10" s="10">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="BA10" s="10">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="BB10" s="10">
+        <f t="shared" si="3"/>
+        <v>2008.9949999999999</v>
+      </c>
+      <c r="BC10" s="10">
+        <f t="shared" ref="BC10" si="23">BB10/AZ10</f>
+        <v>6.8333163265306123</v>
+      </c>
+      <c r="BD10" s="10">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="BE10" s="10">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="BF10" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="22">
+        <f t="shared" ref="BH10" si="24">SUM(BD10,BF10)</f>
+        <v>105</v>
+      </c>
+      <c r="BI10" s="22">
+        <f t="shared" ref="BI10" si="25">SUM(BE10,BG10)</f>
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ11" s="12"/>
@@ -25280,8 +27298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25492,11 +27510,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>623</v>
+        <v>725</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>673</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -25652,15 +27670,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="10">
-        <f t="shared" ref="AZ2:AZ9" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ10" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>74</v>
       </c>
       <c r="BA2" s="10">
-        <f t="shared" ref="BA2:BA9" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA10" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>292</v>
       </c>
       <c r="BB2" s="10">
-        <f t="shared" ref="BB2:BB9" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB10" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1714.9611</v>
       </c>
       <c r="BC2" s="10">
@@ -25668,19 +27686,19 @@
         <v>23.175149999999999</v>
       </c>
       <c r="BD2" s="10">
-        <f t="shared" ref="BD2:BD9" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD10" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>38</v>
       </c>
       <c r="BE2" s="10">
-        <f t="shared" ref="BE2:BE9" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE10" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>35</v>
       </c>
       <c r="BF2" s="10">
-        <f t="shared" ref="BF2:BF9" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF10" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="10">
-        <f t="shared" ref="BG2:BG9" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG10" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="22">
@@ -26850,208 +28868,391 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="22">
         <v>1000</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="D9" s="22">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
         <v>2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="22">
         <v>3</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="K9" s="22">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
         <v>0.2</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
         <v>0.3</v>
       </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
+      <c r="S9" s="22">
+        <v>1</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>1</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <v>1</v>
+      </c>
+      <c r="X9" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="22">
         <v>3</v>
       </c>
-      <c r="Z9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1">
+      <c r="Z9" s="22">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="22">
         <v>330</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="22">
         <v>31.636275000000001</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="24">
         <v>0.65346534653465405</v>
       </c>
-      <c r="AH9" s="8" t="s">
+      <c r="AH9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="24">
         <v>0.62783171521035597</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="24">
         <v>0.69387755102040805</v>
       </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AK9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="22">
         <v>194</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="22">
         <v>136</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="22">
         <v>101</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="22">
         <v>100</v>
       </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="21" t="s">
+      <c r="AP9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS9" s="8">
+      <c r="AS9" s="24">
         <v>0.60909090909090902</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9" s="22">
         <v>364</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9" s="22">
         <v>396</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9" s="22">
         <v>760</v>
       </c>
-      <c r="AX9" s="1" t="str">
+      <c r="AX9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>'20201113'</v>
       </c>
-      <c r="AY9" s="18" t="s">
+      <c r="AY9" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="AZ9" s="12">
+      <c r="AZ9" s="10">
         <f t="shared" si="1"/>
         <v>429</v>
       </c>
-      <c r="BA9" s="12">
+      <c r="BA9" s="10">
         <f t="shared" si="2"/>
         <v>972</v>
       </c>
-      <c r="BB9" s="12">
+      <c r="BB9" s="10">
         <f t="shared" si="3"/>
         <v>2410.3906999999999</v>
       </c>
-      <c r="BC9" s="12">
+      <c r="BC9" s="10">
         <f t="shared" si="14"/>
         <v>5.6186263403263403</v>
       </c>
-      <c r="BD9" s="12">
+      <c r="BD9" s="10">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="BE9" s="12">
+      <c r="BE9" s="10">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="BF9" s="12">
+      <c r="BF9" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG9" s="12">
+      <c r="BG9" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BH9" s="22">
         <f t="shared" si="12"/>
         <v>130</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BI9" s="22">
         <f t="shared" si="13"/>
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>270</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>41.093931666666698</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>0.70408163265306101</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>0.71739130434782605</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>138</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>132</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>102</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0.74814814814814801</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>400</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>800</v>
+      </c>
+      <c r="AX10" s="22" t="str">
+        <f t="shared" ref="AX10" si="15">B10</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY10" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ10" s="10">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="BA10" s="10">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="BB10" s="10">
+        <f t="shared" si="3"/>
+        <v>2465.635900000002</v>
+      </c>
+      <c r="BC10" s="10">
+        <f t="shared" ref="BC10" si="16">BB10/AZ10</f>
+        <v>9.1319848148148228</v>
+      </c>
+      <c r="BD10" s="10">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="BE10" s="10">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BF10" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="22">
+        <f t="shared" ref="BH10" si="17">SUM(BD10,BF10)</f>
+        <v>102</v>
+      </c>
+      <c r="BI10" s="22">
+        <f t="shared" ref="BI10" si="18">SUM(BE10,BG10)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AZ11" s="12"/>
@@ -27164,4 +29365,533 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
+    <col min="5" max="12" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="26" width="8.625" style="1"/>
+    <col min="27" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.625" style="1"/>
+    <col min="33" max="36" width="8.625" style="8"/>
+    <col min="37" max="43" width="8.625" style="1"/>
+    <col min="44" max="44" width="8.625" style="21"/>
+    <col min="45" max="45" width="8.625" style="8"/>
+    <col min="46" max="50" width="8.625" style="1"/>
+    <col min="51" max="51" width="14.5" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL1" s="10">
+        <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
+        <v>22</v>
+      </c>
+      <c r="BM1" s="10">
+        <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="22">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22">
+        <v>0</v>
+      </c>
+      <c r="K2" s="22">
+        <v>1</v>
+      </c>
+      <c r="L2" s="22">
+        <v>3</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>1</v>
+      </c>
+      <c r="T2" s="22">
+        <v>1</v>
+      </c>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
+        <v>1</v>
+      </c>
+      <c r="W2" s="22">
+        <v>1</v>
+      </c>
+      <c r="X2" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>10000000000</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>25.492335000000001</v>
+      </c>
+      <c r="AG2" s="24">
+        <v>0.77551020408163296</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="24">
+        <v>0.81481481481481499</v>
+      </c>
+      <c r="AJ2" s="24">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="AK2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="22">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="22">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="22">
+        <v>22</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="24">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="22">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="22">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="22">
+        <v>152</v>
+      </c>
+      <c r="AX2" s="22" t="str">
+        <f t="shared" ref="AX2" si="0">B2</f>
+        <v>'20201116'</v>
+      </c>
+      <c r="AY2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <v>38</v>
+      </c>
+      <c r="BA2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <v>152</v>
+      </c>
+      <c r="BB2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <v>1529.5400999999999</v>
+      </c>
+      <c r="BC2" s="10">
+        <f t="shared" ref="BC2" si="1">BB2/AZ2</f>
+        <v>40.251055263157895</v>
+      </c>
+      <c r="BD2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <v>22</v>
+      </c>
+      <c r="BE2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <v>16</v>
+      </c>
+      <c r="BF2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="10">
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="22">
+        <f t="shared" ref="BH2:BI2" si="2">SUM(BD2,BF2)</f>
+        <v>22</v>
+      </c>
+      <c r="BI2" s="22">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+    </row>
+    <row r="4" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+    </row>
+    <row r="6" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+    </row>
+    <row r="7" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+    </row>
+    <row r="8" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+    </row>
+    <row r="10" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+    </row>
+    <row r="11" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+    </row>
+    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="268">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -812,6 +812,33 @@
   <si>
     <t>'JB375_Infoseek_20201118_144751.mat'</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>'JB370_Infoseek_20201119_102523.mat'</t>
+  </si>
+  <si>
+    <t>'20201119'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201119_110617.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201119_124136.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201119_135331.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_Infoseek_20201119_151449.mat'</t>
+  </si>
+  <si>
+    <t>'JB375_Infoseek_20201119_155946.mat'</t>
+  </si>
+  <si>
+    <t>'JB376_Infoseek_20201119_163505.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -6546,8 +6573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6766,11 +6793,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>212</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -7353,14 +7380,197 @@
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
+      <c r="A5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>2</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>1</v>
+      </c>
+      <c r="T5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>232</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>25.188508333333299</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>0.62872628726287305</v>
+      </c>
+      <c r="AH5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="50">
+        <v>0.65116279069767502</v>
+      </c>
+      <c r="AJ5" s="50">
+        <v>0.57657657657657702</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>168</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>64</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>61</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>61</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="50">
+        <v>0.52586206896551702</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>244</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>244</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>488</v>
+      </c>
+      <c r="AX5" s="31" t="str">
+        <f t="shared" ref="AX5" si="11">B5</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY5" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>232</v>
+      </c>
+      <c r="BA5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>488</v>
+      </c>
+      <c r="BB5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>1511.310499999998</v>
+      </c>
+      <c r="BC5" s="31">
+        <f t="shared" ref="BC5" si="12">BB5/AZ5</f>
+        <v>6.5142693965517156</v>
+      </c>
+      <c r="BD5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>61</v>
+      </c>
+      <c r="BE5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>61</v>
+      </c>
+      <c r="BF5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="31">
+        <f t="shared" ref="BH5" si="13">SUM(BD5,BF5)</f>
+        <v>61</v>
+      </c>
+      <c r="BI5" s="31">
+        <f t="shared" ref="BI5" si="14">SUM(BE5,BG5)</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ6" s="36"/>
@@ -7442,8 +7652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BM5" sqref="BM5"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BM6" sqref="BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7662,11 +7872,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>122</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -8248,149 +8458,149 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="31">
         <v>1000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="31">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
         <v>3</v>
       </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31">
         <v>3</v>
       </c>
-      <c r="K5" s="18">
-        <v>2</v>
-      </c>
-      <c r="L5" s="18">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="K5" s="31">
+        <v>2</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
         <v>0.2</v>
       </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>1</v>
-      </c>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
-      <c r="U5" s="18">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18">
-        <v>1</v>
-      </c>
-      <c r="W5" s="18">
-        <v>1</v>
-      </c>
-      <c r="X5" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="18">
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1</v>
+      </c>
+      <c r="T5" s="31">
+        <v>1</v>
+      </c>
+      <c r="U5" s="31">
+        <v>1</v>
+      </c>
+      <c r="V5" s="31">
+        <v>1</v>
+      </c>
+      <c r="W5" s="31">
+        <v>1</v>
+      </c>
+      <c r="X5" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="31">
         <v>10000000000</v>
       </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="Z5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
         <v>184</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="31">
         <v>38.6927083333333</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="45">
         <v>0.41071428571428598</v>
       </c>
-      <c r="AH5" s="50" t="s">
+      <c r="AH5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="45">
         <v>0.40434782608695702</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="45">
         <v>0.41743119266055001</v>
       </c>
-      <c r="AK5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="18">
+      <c r="AK5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="31">
         <v>93</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="31">
         <v>91</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AN5" s="31">
         <v>93</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5" s="31">
         <v>91</v>
       </c>
-      <c r="AP5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="51" t="s">
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS5" s="50">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="18">
+      <c r="AS5" s="45">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="31">
         <v>372</v>
       </c>
-      <c r="AU5" s="18">
+      <c r="AU5" s="31">
         <v>364</v>
       </c>
-      <c r="AV5" s="18">
+      <c r="AV5" s="31">
         <v>736</v>
       </c>
       <c r="AX5" s="31" t="str">
@@ -8442,14 +8652,197 @@
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
+      <c r="A6" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3</v>
+      </c>
+      <c r="K6" s="18">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>10000000000</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>267</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>26.607058333333299</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>0.73351648351648402</v>
+      </c>
+      <c r="AH6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="50">
+        <v>0.691542288557214</v>
+      </c>
+      <c r="AJ6" s="50">
+        <v>0.78527607361963203</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>139</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>128</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>120</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>127</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="50">
+        <v>0.92509363295880198</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>480</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>508</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>988</v>
+      </c>
+      <c r="AX6" s="31" t="str">
+        <f t="shared" ref="AX6" si="15">B6</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>267</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>988</v>
+      </c>
+      <c r="BB6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>1596.4234999999981</v>
+      </c>
+      <c r="BC6" s="31">
+        <f t="shared" ref="BC6" si="16">BB6/AZ6</f>
+        <v>5.9791142322097306</v>
+      </c>
+      <c r="BD6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>120</v>
+      </c>
+      <c r="BE6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>127</v>
+      </c>
+      <c r="BF6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="31">
+        <f t="shared" ref="BH6" si="17">SUM(BD6,BF6)</f>
+        <v>120</v>
+      </c>
+      <c r="BI6" s="31">
+        <f t="shared" ref="BI6" si="18">SUM(BE6,BG6)</f>
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ7" s="36"/>
@@ -21356,8 +21749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21569,11 +21962,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>346</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.2">
@@ -21729,15 +22122,15 @@
         <v>184</v>
       </c>
       <c r="AZ2" s="36">
-        <f t="shared" ref="AZ2:AZ14" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ15" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>46</v>
       </c>
       <c r="BA2" s="36">
-        <f t="shared" ref="BA2:BA14" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA15" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>180</v>
       </c>
       <c r="BB2" s="38">
-        <f t="shared" ref="BB2:BB14" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB15" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1484.8948000000019</v>
       </c>
       <c r="BC2" s="38">
@@ -21745,19 +22138,19 @@
         <v>32.280321739130478</v>
       </c>
       <c r="BD2" s="36">
-        <f t="shared" ref="BD2:BD14" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD15" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>22</v>
       </c>
       <c r="BE2" s="36">
-        <f t="shared" ref="BE2:BE14" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE15" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>23</v>
       </c>
       <c r="BF2" s="36">
-        <f t="shared" ref="BF2:BF14" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF15" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="36">
-        <f t="shared" ref="BG2:BG14" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG15" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="18">
@@ -23936,209 +24329,391 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="22">
         <v>1000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="22">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22">
         <v>3</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
         <v>3</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>2</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <v>0.2</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="22">
+        <v>1</v>
+      </c>
+      <c r="T14" s="22">
+        <v>0</v>
+      </c>
+      <c r="U14" s="22">
+        <v>1</v>
+      </c>
+      <c r="V14" s="22">
+        <v>0</v>
+      </c>
+      <c r="W14" s="22">
+        <v>1</v>
+      </c>
+      <c r="X14" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="22">
         <v>10000000000</v>
       </c>
-      <c r="Z14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
+      <c r="Z14" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="22">
         <v>238</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="22">
         <v>25.411666666666701</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AG14" s="24">
         <v>0.48080808080808102</v>
       </c>
-      <c r="AH14" s="8" t="s">
+      <c r="AH14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AI14" s="24">
         <v>0.51155115511551197</v>
       </c>
-      <c r="AJ14" s="8">
+      <c r="AJ14" s="24">
         <v>0.43229166666666702</v>
       </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
+      <c r="AK14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="22">
         <v>155</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="22">
         <v>83</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="22">
         <v>155</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="22">
         <v>82</v>
       </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="21" t="s">
+      <c r="AP14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AS14" s="8">
+      <c r="AS14" s="24">
         <v>0.995798319327731</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="22">
         <v>620</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="22">
         <v>328</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="22">
         <v>948</v>
       </c>
-      <c r="AX14" s="18" t="str">
+      <c r="AX14" s="26" t="str">
         <f t="shared" ref="AX14" si="32">B14</f>
         <v>'20201118'</v>
       </c>
-      <c r="AY14" s="18" t="s">
+      <c r="AY14" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="AZ14" s="36">
+      <c r="AZ14" s="26">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="BA14" s="36">
+      <c r="BA14" s="26">
         <f t="shared" si="2"/>
         <v>1032</v>
       </c>
-      <c r="BB14" s="38">
+      <c r="BB14" s="39">
         <f t="shared" si="3"/>
         <v>1653.1790000000024</v>
       </c>
-      <c r="BC14" s="38">
+      <c r="BC14" s="39">
         <f t="shared" ref="BC14" si="33">BB14/AZ14</f>
         <v>6.3829305019305114</v>
       </c>
-      <c r="BD14" s="36">
+      <c r="BD14" s="26">
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
-      <c r="BE14" s="36">
+      <c r="BE14" s="26">
         <f t="shared" si="6"/>
         <v>103</v>
       </c>
-      <c r="BF14" s="36">
+      <c r="BF14" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG14" s="36">
+      <c r="BG14" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH14" s="18">
+      <c r="BH14" s="26">
         <f t="shared" ref="BH14" si="34">SUM(BD14,BF14)</f>
         <v>155</v>
       </c>
-      <c r="BI14" s="18">
+      <c r="BI14" s="26">
         <f t="shared" ref="BI14" si="35">SUM(BE14,BG14)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="12"/>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="12"/>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>362</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>37.511409999999998</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.33643122676579901</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.37106918238993702</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.30884808013355602</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>177</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>185</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>98</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>101</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.549723756906077</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>392</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>404</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>796</v>
+      </c>
+      <c r="AX15" s="26" t="str">
+        <f t="shared" ref="AX15" si="36">B15</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY15" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ15" s="26">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="BA15" s="26">
+        <f t="shared" si="2"/>
+        <v>796</v>
+      </c>
+      <c r="BB15" s="39">
+        <f t="shared" si="3"/>
+        <v>2250.6846</v>
+      </c>
+      <c r="BC15" s="39">
+        <f t="shared" ref="BC15" si="37">BB15/AZ15</f>
+        <v>6.2173607734806628</v>
+      </c>
+      <c r="BD15" s="26">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="BE15" s="26">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="BF15" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="26">
+        <f t="shared" ref="BH15" si="38">SUM(BD15,BF15)</f>
+        <v>98</v>
+      </c>
+      <c r="BI15" s="26">
+        <f t="shared" ref="BI15" si="39">SUM(BE15,BG15)</f>
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
@@ -24417,11 +24992,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>946</v>
+        <v>1077</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>949</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -24577,15 +25152,15 @@
         <v>193</v>
       </c>
       <c r="AZ2" s="26">
-        <f t="shared" ref="AZ2:AZ14" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ15" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>42</v>
       </c>
       <c r="BA2" s="26">
-        <f t="shared" ref="BA2:BA14" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA15" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>164</v>
       </c>
       <c r="BB2" s="26">
-        <f t="shared" ref="BB2:BB14" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB15" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1694.5396000000019</v>
       </c>
       <c r="BC2" s="26">
@@ -24593,19 +25168,19 @@
         <v>40.346180952380998</v>
       </c>
       <c r="BD2" s="26">
-        <f t="shared" ref="BD2:BD14" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD15" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>20</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE14" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE15" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>21</v>
       </c>
       <c r="BF2" s="26">
-        <f t="shared" ref="BF2:BF14" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF15" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="26">
-        <f t="shared" ref="BG2:BG14" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG15" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="26">
@@ -26788,209 +27363,391 @@
       <c r="BL13" s="31"/>
       <c r="BM13" s="31"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:65" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="27">
         <v>1000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="27">
         <v>4</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="G14" s="27">
+        <v>2</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
         <v>3</v>
       </c>
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="L14" s="27">
+        <v>2</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="27">
         <v>0.2</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="O14" s="27">
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
         <v>1.2</v>
       </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="Q14" s="27">
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
         <v>5</v>
       </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
+      <c r="S14" s="27">
+        <v>1</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0</v>
+      </c>
+      <c r="U14" s="27">
+        <v>1</v>
+      </c>
+      <c r="V14" s="27">
+        <v>0</v>
+      </c>
+      <c r="W14" s="27">
+        <v>1</v>
+      </c>
+      <c r="X14" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="27">
         <v>4</v>
       </c>
-      <c r="AA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
+      <c r="AA14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="27">
         <v>220</v>
       </c>
-      <c r="AF14" s="42">
+      <c r="AF14" s="60">
         <v>54.763586666666697</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AG14" s="29">
         <v>0.59299191374663096</v>
       </c>
-      <c r="AH14" s="8" t="s">
+      <c r="AH14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="8">
+      <c r="AI14" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AJ14" s="8">
+      <c r="AJ14" s="29">
         <v>0.64327485380117</v>
       </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
+      <c r="AK14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="27">
         <v>110</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="27">
         <v>110</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="27">
         <v>98</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="27">
         <v>100</v>
       </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="21" t="s">
+      <c r="AP14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS14" s="8">
+      <c r="AS14" s="29">
         <v>0.9</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="27">
         <v>328</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="27">
         <v>280</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="27">
         <v>608</v>
       </c>
-      <c r="AX14" s="26" t="str">
+      <c r="AX14" s="31" t="str">
         <f t="shared" ref="AX14" si="27">B14</f>
         <v>'20201118'</v>
       </c>
-      <c r="AY14" s="26" t="s">
+      <c r="AY14" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="AZ14" s="26">
+      <c r="AZ14" s="31">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="BA14" s="26">
+      <c r="BA14" s="31">
         <f t="shared" si="1"/>
         <v>608</v>
       </c>
-      <c r="BB14" s="26">
+      <c r="BB14" s="31">
         <f t="shared" si="2"/>
         <v>3285.8152000000018</v>
       </c>
-      <c r="BC14" s="26">
+      <c r="BC14" s="31">
         <f t="shared" ref="BC14" si="28">BB14/AZ14</f>
         <v>14.935523636363644</v>
       </c>
-      <c r="BD14" s="26">
+      <c r="BD14" s="31">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="BE14" s="26">
+      <c r="BE14" s="31">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="BF14" s="26">
+      <c r="BF14" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BG14" s="26">
+      <c r="BG14" s="31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BH14" s="26">
+      <c r="BH14" s="31">
         <f t="shared" ref="BH14" si="29">SUM(BD14,BF14)</f>
         <v>98</v>
       </c>
-      <c r="BI14" s="26">
+      <c r="BI14" s="31">
         <f t="shared" ref="BI14" si="30">SUM(BE14,BG14)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="12"/>
-      <c r="BC15" s="12"/>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="12"/>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="12"/>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>6</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>345</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>93.384545000000003</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.81753554502369696</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>0.82967032967033005</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>151</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>194</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>131</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>130</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS15" s="8">
+        <v>0.75652173913043497</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>440</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>300</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>740</v>
+      </c>
+      <c r="AX15" s="31" t="str">
+        <f t="shared" ref="AX15" si="31">B15</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY15" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ15" s="31">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="BA15" s="31">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="BB15" s="31">
+        <f t="shared" si="2"/>
+        <v>5603.0727000000006</v>
+      </c>
+      <c r="BC15" s="31">
+        <f t="shared" ref="BC15" si="32">BB15/AZ15</f>
+        <v>16.24079043478261</v>
+      </c>
+      <c r="BD15" s="31">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="BE15" s="31">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="BF15" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="31">
+        <f t="shared" ref="BH15" si="33">SUM(BD15,BF15)</f>
+        <v>131</v>
+      </c>
+      <c r="BI15" s="31">
+        <f t="shared" ref="BI15" si="34">SUM(BE15,BG15)</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY16" s="18"/>
@@ -27046,7 +27803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27069,7 +27828,7 @@
   <sheetData>
     <row r="1" spans="1:65" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>84</v>
@@ -27256,11 +28015,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>874</v>
+        <v>955</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>893</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -27416,15 +28175,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="10">
-        <f t="shared" ref="AZ2:AZ12" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ13" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>56</v>
       </c>
       <c r="BA2" s="10">
-        <f t="shared" ref="BA2:BA12" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA13" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>216</v>
       </c>
       <c r="BB2" s="10">
-        <f t="shared" ref="BB2:BB12" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB13" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1698.3229000000022</v>
       </c>
       <c r="BC2" s="10">
@@ -27432,19 +28191,19 @@
         <v>30.327194642857183</v>
       </c>
       <c r="BD2" s="10">
-        <f t="shared" ref="BD2:BD12" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD13" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>26</v>
       </c>
       <c r="BE2" s="10">
-        <f t="shared" ref="BE2:BE12" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE13" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>28</v>
       </c>
       <c r="BF2" s="10">
-        <f t="shared" ref="BF2:BF12" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF13" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="10">
-        <f t="shared" ref="BG2:BG12" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG13" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="22">
@@ -29193,149 +29952,149 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>1000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="27">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="27">
+        <v>2</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
         <v>3</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="L12" s="27">
+        <v>1</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
         <v>0.2</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
         <v>1.2</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
+      <c r="Q12" s="27">
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
         <v>6</v>
       </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
+      <c r="S12" s="27">
+        <v>1</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27">
+        <v>1</v>
+      </c>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27">
+        <v>1</v>
+      </c>
+      <c r="X12" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="27">
         <v>10</v>
       </c>
-      <c r="Z12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
+      <c r="Z12" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="27">
         <v>250</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="27">
         <v>67.769575000000003</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="29">
         <v>0.64935064935064901</v>
       </c>
-      <c r="AH12" s="8" t="s">
+      <c r="AH12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="29">
         <v>0.57870370370370405</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="29">
         <v>0.73964497041420096</v>
       </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="1">
+      <c r="AK12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="27">
         <v>125</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12" s="27">
         <v>125</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12" s="27">
         <v>109</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO12" s="27">
         <v>110</v>
       </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="21" t="s">
+      <c r="AP12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="29">
         <v>0.876</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AT12" s="27">
         <v>316</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="27">
         <v>356</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AV12" s="27">
         <v>672</v>
       </c>
       <c r="AX12" s="27" t="str">
@@ -29387,14 +30146,197 @@
       </c>
     </row>
     <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>8</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>202</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>60.110176666666703</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.68474576271186405</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>0.70658682634730496</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>84</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>118</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>81</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>80</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0.79702970297029696</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>224</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>248</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>472</v>
+      </c>
+      <c r="AX13" s="22" t="str">
+        <f t="shared" ref="AX13" si="34">B13</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY13" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ13" s="10">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="BA13" s="10">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="BB13" s="10">
+        <f t="shared" si="3"/>
+        <v>3606.6106000000023</v>
+      </c>
+      <c r="BC13" s="10">
+        <f t="shared" ref="BC13" si="35">BB13/AZ13</f>
+        <v>17.854507920792091</v>
+      </c>
+      <c r="BD13" s="10">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="BE13" s="10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="BF13" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="22">
+        <f t="shared" ref="BH13" si="36">SUM(BD13,BF13)</f>
+        <v>81</v>
+      </c>
+      <c r="BI13" s="22">
+        <f t="shared" ref="BI13" si="37">SUM(BE13,BG13)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY14" s="18"/>
@@ -29483,8 +30425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29695,11 +30637,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>943</v>
+        <v>1072</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>994</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -29855,15 +30797,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="26">
-        <f t="shared" ref="AZ2:AZ12" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ13" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>74</v>
       </c>
       <c r="BA2" s="26">
-        <f t="shared" ref="BA2:BA12" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA13" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>292</v>
       </c>
       <c r="BB2" s="26">
-        <f t="shared" ref="BB2:BB12" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB13" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1714.9611</v>
       </c>
       <c r="BC2" s="26">
@@ -29871,19 +30813,19 @@
         <v>23.175149999999999</v>
       </c>
       <c r="BD2" s="26">
-        <f t="shared" ref="BD2:BD12" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD13" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>38</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE12" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE13" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>35</v>
       </c>
       <c r="BF2" s="26">
-        <f t="shared" ref="BF2:BF12" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF13" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="26">
-        <f t="shared" ref="BG2:BG12" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG13" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="26">
@@ -31632,149 +32574,149 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="31">
         <v>1000</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="31">
         <v>4</v>
       </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>2</v>
-      </c>
-      <c r="J12" s="18">
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>2</v>
+      </c>
+      <c r="J12" s="31">
         <v>3</v>
       </c>
-      <c r="K12" s="18">
-        <v>1</v>
-      </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
+      <c r="K12" s="31">
+        <v>1</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0</v>
+      </c>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31">
         <v>0.2</v>
       </c>
-      <c r="O12" s="18">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
+      <c r="O12" s="31">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q12" s="18">
-        <v>0</v>
-      </c>
-      <c r="R12" s="18">
+      <c r="Q12" s="31">
+        <v>0</v>
+      </c>
+      <c r="R12" s="31">
         <v>6</v>
       </c>
-      <c r="S12" s="18">
-        <v>1</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0</v>
-      </c>
-      <c r="U12" s="18">
-        <v>1</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0</v>
-      </c>
-      <c r="W12" s="18">
-        <v>1</v>
-      </c>
-      <c r="X12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="18">
+      <c r="S12" s="31">
+        <v>1</v>
+      </c>
+      <c r="T12" s="31">
+        <v>0</v>
+      </c>
+      <c r="U12" s="31">
+        <v>1</v>
+      </c>
+      <c r="V12" s="31">
+        <v>0</v>
+      </c>
+      <c r="W12" s="31">
+        <v>1</v>
+      </c>
+      <c r="X12" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="31">
         <v>3</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="31">
         <v>4</v>
       </c>
-      <c r="AA12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="18">
+      <c r="AA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="31">
         <v>245</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="31">
         <v>61.617488333333299</v>
       </c>
-      <c r="AG12" s="50">
+      <c r="AG12" s="45">
         <v>0.64814814814814803</v>
       </c>
-      <c r="AH12" s="50" t="s">
+      <c r="AH12" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="50">
+      <c r="AI12" s="45">
         <v>0.59701492537313405</v>
       </c>
-      <c r="AJ12" s="50">
+      <c r="AJ12" s="45">
         <v>0.70621468926553699</v>
       </c>
-      <c r="AK12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="18">
+      <c r="AK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="31">
         <v>120</v>
       </c>
-      <c r="AM12" s="18">
+      <c r="AM12" s="31">
         <v>125</v>
       </c>
-      <c r="AN12" s="18">
+      <c r="AN12" s="31">
         <v>111</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12" s="31">
         <v>113</v>
       </c>
-      <c r="AP12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="51" t="s">
+      <c r="AP12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS12" s="50">
+      <c r="AS12" s="45">
         <v>0.91428571428571404</v>
       </c>
-      <c r="AT12" s="18">
+      <c r="AT12" s="31">
         <v>356</v>
       </c>
-      <c r="AU12" s="18">
+      <c r="AU12" s="31">
         <v>376</v>
       </c>
-      <c r="AV12" s="18">
+      <c r="AV12" s="31">
         <v>732</v>
       </c>
       <c r="AX12" s="31" t="str">
@@ -31826,14 +32768,197 @@
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="36"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
+      <c r="A13" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>3</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>8</v>
+      </c>
+      <c r="S13" s="18">
+        <v>1</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>274</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>79.476373333333299</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>0.78962536023054797</v>
+      </c>
+      <c r="AH13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="50">
+        <v>0.79428571428571404</v>
+      </c>
+      <c r="AJ13" s="50">
+        <v>0.78488372093023295</v>
+      </c>
+      <c r="AK13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>139</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>135</v>
+      </c>
+      <c r="AN13" s="18">
+        <v>129</v>
+      </c>
+      <c r="AO13" s="18">
+        <v>129</v>
+      </c>
+      <c r="AP13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS13" s="50">
+        <v>0.94160583941605802</v>
+      </c>
+      <c r="AT13" s="18">
+        <v>448</v>
+      </c>
+      <c r="AU13" s="18">
+        <v>456</v>
+      </c>
+      <c r="AV13" s="18">
+        <v>904</v>
+      </c>
+      <c r="AX13" s="31" t="str">
+        <f t="shared" ref="AX13" si="27">B13</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY13" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ13" s="31">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="BA13" s="31">
+        <f t="shared" si="2"/>
+        <v>904</v>
+      </c>
+      <c r="BB13" s="31">
+        <f t="shared" si="3"/>
+        <v>4768.5823999999975</v>
+      </c>
+      <c r="BC13" s="31">
+        <f t="shared" ref="BC13" si="28">BB13/AZ13</f>
+        <v>17.403585401459846</v>
+      </c>
+      <c r="BD13" s="31">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="BE13" s="31">
+        <f t="shared" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="BF13" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="31">
+        <f t="shared" ref="BH13" si="29">SUM(BD13,BF13)</f>
+        <v>129</v>
+      </c>
+      <c r="BI13" s="31">
+        <f t="shared" ref="BI13" si="30">SUM(BE13,BG13)</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ14" s="36"/>
@@ -31915,8 +33040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BH4" sqref="BH4"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AY5" sqref="AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32135,11 +33260,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>283</v>
+        <v>398</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>195</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -32528,208 +33653,391 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="31">
         <v>1000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="31">
         <v>3</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
         <v>3</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>1</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <v>2</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <v>1</v>
+      </c>
+      <c r="L4" s="31">
         <v>3</v>
       </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
         <v>0.2</v>
       </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18">
-        <v>1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>1</v>
-      </c>
-      <c r="V4" s="18">
-        <v>1</v>
-      </c>
-      <c r="W4" s="18">
-        <v>1</v>
-      </c>
-      <c r="X4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="18">
+      <c r="O4" s="31">
+        <v>0</v>
+      </c>
+      <c r="P4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31">
+        <v>0</v>
+      </c>
+      <c r="S4" s="31">
+        <v>1</v>
+      </c>
+      <c r="T4" s="31">
+        <v>1</v>
+      </c>
+      <c r="U4" s="31">
+        <v>1</v>
+      </c>
+      <c r="V4" s="31">
+        <v>1</v>
+      </c>
+      <c r="W4" s="31">
+        <v>1</v>
+      </c>
+      <c r="X4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="31">
         <v>10000000000</v>
       </c>
-      <c r="Z4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="18">
+      <c r="Z4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="31">
         <v>298</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="31">
         <v>27.974903333333302</v>
       </c>
-      <c r="AG4" s="50">
+      <c r="AG4" s="45">
         <v>0.55700934579439298</v>
       </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AH4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="50">
+      <c r="AI4" s="45">
         <v>0.56083086053412501</v>
       </c>
-      <c r="AJ4" s="50">
+      <c r="AJ4" s="45">
         <v>0.55050505050505105</v>
       </c>
-      <c r="AK4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="18">
+      <c r="AK4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="31">
         <v>189</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="31">
         <v>109</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="31">
         <v>176</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="31">
         <v>109</v>
       </c>
-      <c r="AP4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AP4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="50">
+      <c r="AS4" s="45">
         <v>0.95637583892617495</v>
       </c>
-      <c r="AT4" s="18">
+      <c r="AT4" s="31">
         <v>704</v>
       </c>
-      <c r="AU4" s="18">
+      <c r="AU4" s="31">
         <v>436</v>
       </c>
-      <c r="AV4" s="18">
+      <c r="AV4" s="31">
         <v>1140</v>
       </c>
-      <c r="AX4" s="26" t="str">
+      <c r="AX4" s="31" t="str">
         <f t="shared" ref="AX4" si="7">B4</f>
         <v>'20201118'</v>
       </c>
-      <c r="AY4" s="26" t="s">
+      <c r="AY4" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="AZ4" s="26">
+      <c r="AZ4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AE$2:$AE$1048576)</f>
         <v>298</v>
       </c>
-      <c r="BA4" s="26">
+      <c r="BA4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
         <v>1140</v>
       </c>
-      <c r="BB4" s="26">
+      <c r="BB4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)*60</f>
         <v>1678.494199999998</v>
       </c>
-      <c r="BC4" s="26">
+      <c r="BC4" s="31">
         <f t="shared" ref="BC4" si="8">BB4/AZ4</f>
         <v>5.6325308724832146</v>
       </c>
-      <c r="BD4" s="26">
+      <c r="BD4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AN$2:$AN$1048576)</f>
         <v>176</v>
       </c>
-      <c r="BE4" s="26">
+      <c r="BE4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
         <v>109</v>
       </c>
-      <c r="BF4" s="26">
+      <c r="BF4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="26">
+      <c r="BG4" s="31">
         <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
-      <c r="BH4" s="26">
+      <c r="BH4" s="31">
         <f t="shared" ref="BH4" si="9">SUM(BD4,BF4)</f>
         <v>176</v>
       </c>
-      <c r="BI4" s="26">
+      <c r="BI4" s="31">
         <f t="shared" ref="BI4" si="10">SUM(BE4,BG4)</f>
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
+      <c r="A5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>3</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>1</v>
+      </c>
+      <c r="T5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>450</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>43.011119999999998</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>0.71315372424722701</v>
+      </c>
+      <c r="AH5" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="50">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AJ5" s="50">
+        <v>0.71128608923884495</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>179</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>271</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>115</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>119</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS5" s="50">
+        <v>0.52</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>460</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>476</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>936</v>
+      </c>
+      <c r="AX5" s="31" t="str">
+        <f t="shared" ref="AX5" si="11">B5</f>
+        <v>'20201119'</v>
+      </c>
+      <c r="AY5" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AE$2:$AE$1048576)</f>
+        <v>450</v>
+      </c>
+      <c r="BA5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
+        <v>936</v>
+      </c>
+      <c r="BB5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)*60</f>
+        <v>2580.6671999999999</v>
+      </c>
+      <c r="BC5" s="31">
+        <f t="shared" ref="BC5" si="12">BB5/AZ5</f>
+        <v>5.7348159999999995</v>
+      </c>
+      <c r="BD5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AN$2:$AN$1048576)</f>
+        <v>115</v>
+      </c>
+      <c r="BE5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
+        <v>119</v>
+      </c>
+      <c r="BF5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="31">
+        <f t="shared" ref="BH5" si="13">SUM(BD5,BF5)</f>
+        <v>115</v>
+      </c>
+      <c r="BI5" s="31">
+        <f t="shared" ref="BI5" si="14">SUM(BE5,BG5)</f>
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ6" s="36"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="277">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -839,6 +839,33 @@
   <si>
     <t>'JB376_Infoseek_20201119_163505.mat'</t>
   </si>
+  <si>
+    <t>'JB371_Infoseek_20201120_124139.mat'</t>
+  </si>
+  <si>
+    <t>'20201120'</t>
+  </si>
+  <si>
+    <t>'JB371_Infoseek_20201120_124824.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201120_140539.mat'</t>
+  </si>
+  <si>
+    <t>Clogged random odor!</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201120_153016.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_Infoseek_20201120_162839.mat'</t>
+  </si>
+  <si>
+    <t>'JB375_Infoseek_20201120_171343.mat'</t>
+  </si>
+  <si>
+    <t>'JB376_Infoseek_20201120_174819.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -894,7 +921,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,6 +949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,6 +1080,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6573,8 +6607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6793,11 +6827,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>273</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -7186,149 +7220,149 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="31">
         <v>1000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="31">
         <v>4</v>
       </c>
-      <c r="E4" s="18">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="31">
         <v>3</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="31">
         <v>3</v>
       </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
+      <c r="J4" s="31">
+        <v>1</v>
+      </c>
+      <c r="K4" s="31">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <v>2</v>
+      </c>
+      <c r="M4" s="31">
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
         <v>0.2</v>
       </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>1</v>
-      </c>
-      <c r="T4" s="18">
-        <v>1</v>
-      </c>
-      <c r="U4" s="18">
-        <v>1</v>
-      </c>
-      <c r="V4" s="18">
-        <v>1</v>
-      </c>
-      <c r="W4" s="18">
-        <v>1</v>
-      </c>
-      <c r="X4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="18">
+      <c r="O4" s="31">
+        <v>0</v>
+      </c>
+      <c r="P4" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>0</v>
+      </c>
+      <c r="R4" s="31">
+        <v>0</v>
+      </c>
+      <c r="S4" s="31">
+        <v>1</v>
+      </c>
+      <c r="T4" s="31">
+        <v>1</v>
+      </c>
+      <c r="U4" s="31">
+        <v>1</v>
+      </c>
+      <c r="V4" s="31">
+        <v>1</v>
+      </c>
+      <c r="W4" s="31">
+        <v>1</v>
+      </c>
+      <c r="X4" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="31">
         <v>10000000000</v>
       </c>
-      <c r="Z4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="18">
+      <c r="Z4" s="31">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="31">
         <v>237</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="31">
         <v>30.242294999999999</v>
       </c>
-      <c r="AG4" s="50">
+      <c r="AG4" s="45">
         <v>0.69096209912536399</v>
       </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AH4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="50">
+      <c r="AI4" s="45">
         <v>0.64634146341463405</v>
       </c>
-      <c r="AJ4" s="50">
+      <c r="AJ4" s="45">
         <v>0.73184357541899403</v>
       </c>
-      <c r="AK4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="18">
+      <c r="AK4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="31">
         <v>106</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="31">
         <v>131</v>
       </c>
-      <c r="AN4" s="18">
+      <c r="AN4" s="31">
         <v>92</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="31">
         <v>128</v>
       </c>
-      <c r="AP4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AP4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS4" s="50">
+      <c r="AS4" s="45">
         <v>0.92827004219409304</v>
       </c>
-      <c r="AT4" s="18">
+      <c r="AT4" s="31">
         <v>368</v>
       </c>
-      <c r="AU4" s="18">
+      <c r="AU4" s="31">
         <v>512</v>
       </c>
-      <c r="AV4" s="18">
+      <c r="AV4" s="31">
         <v>880</v>
       </c>
       <c r="AX4" s="31" t="str">
@@ -7379,149 +7413,149 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="31">
         <v>1000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="31">
         <v>4</v>
       </c>
-      <c r="E5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="31">
         <v>3</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="31">
         <v>3</v>
       </c>
-      <c r="J5" s="18">
-        <v>1</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>2</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31">
+        <v>2</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
         <v>0.2</v>
       </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>1</v>
-      </c>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
-      <c r="U5" s="18">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18">
-        <v>1</v>
-      </c>
-      <c r="W5" s="18">
-        <v>1</v>
-      </c>
-      <c r="X5" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="Q5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1</v>
+      </c>
+      <c r="T5" s="31">
+        <v>1</v>
+      </c>
+      <c r="U5" s="31">
+        <v>1</v>
+      </c>
+      <c r="V5" s="31">
+        <v>1</v>
+      </c>
+      <c r="W5" s="31">
+        <v>1</v>
+      </c>
+      <c r="X5" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
         <v>232</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="31">
         <v>25.188508333333299</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="45">
         <v>0.62872628726287305</v>
       </c>
-      <c r="AH5" s="50" t="s">
+      <c r="AH5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="45">
         <v>0.65116279069767502</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="45">
         <v>0.57657657657657702</v>
       </c>
-      <c r="AK5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="18">
+      <c r="AK5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="31">
         <v>168</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="31">
         <v>64</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AN5" s="31">
         <v>61</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5" s="31">
         <v>61</v>
       </c>
-      <c r="AP5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="51" t="s">
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS5" s="50">
+      <c r="AS5" s="45">
         <v>0.52586206896551702</v>
       </c>
-      <c r="AT5" s="18">
+      <c r="AT5" s="31">
         <v>244</v>
       </c>
-      <c r="AU5" s="18">
+      <c r="AU5" s="31">
         <v>244</v>
       </c>
-      <c r="AV5" s="18">
+      <c r="AV5" s="31">
         <v>488</v>
       </c>
       <c r="AX5" s="31" t="str">
@@ -7573,14 +7607,197 @@
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
+      <c r="A6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>3</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>100000</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>213</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>32.074005</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>0.59497206703910599</v>
+      </c>
+      <c r="AH6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="50">
+        <v>0.53456221198156695</v>
+      </c>
+      <c r="AJ6" s="50">
+        <v>0.68794326241134796</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>116</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>97</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>92</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>94</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="50">
+        <v>0.87323943661971803</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>208</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>368</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>576</v>
+      </c>
+      <c r="AX6" s="31" t="str">
+        <f t="shared" ref="AX6" si="15">B6</f>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY6" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>213</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>576</v>
+      </c>
+      <c r="BB6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>1924.4403</v>
+      </c>
+      <c r="BC6" s="31">
+        <f t="shared" ref="BC6" si="16">BB6/AZ6</f>
+        <v>9.0349309859154925</v>
+      </c>
+      <c r="BD6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>92</v>
+      </c>
+      <c r="BE6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>94</v>
+      </c>
+      <c r="BF6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="31">
+        <f t="shared" ref="BH6" si="17">SUM(BD6,BF6)</f>
+        <v>92</v>
+      </c>
+      <c r="BI6" s="31">
+        <f t="shared" ref="BI6" si="18">SUM(BE6,BG6)</f>
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ7" s="36"/>
@@ -7652,8 +7869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BM6" sqref="BM6"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7:BI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7872,11 +8089,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>249</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -8651,153 +8868,153 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="31">
         <v>1000</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="31">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="E6" s="31">
+        <v>0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
         <v>3</v>
       </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
         <v>3</v>
       </c>
-      <c r="K6" s="18">
-        <v>2</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
+      <c r="K6" s="31">
+        <v>2</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
         <v>0.2</v>
       </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>1</v>
-      </c>
-      <c r="T6" s="18">
-        <v>1</v>
-      </c>
-      <c r="U6" s="18">
-        <v>1</v>
-      </c>
-      <c r="V6" s="18">
-        <v>1</v>
-      </c>
-      <c r="W6" s="18">
-        <v>1</v>
-      </c>
-      <c r="X6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="18">
+      <c r="O6" s="31">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>0</v>
+      </c>
+      <c r="R6" s="31">
+        <v>0</v>
+      </c>
+      <c r="S6" s="31">
+        <v>1</v>
+      </c>
+      <c r="T6" s="31">
+        <v>1</v>
+      </c>
+      <c r="U6" s="31">
+        <v>1</v>
+      </c>
+      <c r="V6" s="31">
+        <v>1</v>
+      </c>
+      <c r="W6" s="31">
+        <v>1</v>
+      </c>
+      <c r="X6" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="31">
         <v>10000000000</v>
       </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
+      <c r="Z6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="31">
         <v>267</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AF6" s="31">
         <v>26.607058333333299</v>
       </c>
-      <c r="AG6" s="50">
+      <c r="AG6" s="45">
         <v>0.73351648351648402</v>
       </c>
-      <c r="AH6" s="50" t="s">
+      <c r="AH6" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI6" s="45">
         <v>0.691542288557214</v>
       </c>
-      <c r="AJ6" s="50">
+      <c r="AJ6" s="45">
         <v>0.78527607361963203</v>
       </c>
-      <c r="AK6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="18">
+      <c r="AK6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="31">
         <v>139</v>
       </c>
-      <c r="AM6" s="18">
+      <c r="AM6" s="31">
         <v>128</v>
       </c>
-      <c r="AN6" s="18">
+      <c r="AN6" s="31">
         <v>120</v>
       </c>
-      <c r="AO6" s="18">
+      <c r="AO6" s="31">
         <v>127</v>
       </c>
-      <c r="AP6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="51" t="s">
+      <c r="AP6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS6" s="50">
+      <c r="AS6" s="45">
         <v>0.92509363295880198</v>
       </c>
-      <c r="AT6" s="18">
+      <c r="AT6" s="31">
         <v>480</v>
       </c>
-      <c r="AU6" s="18">
+      <c r="AU6" s="31">
         <v>508</v>
       </c>
-      <c r="AV6" s="18">
+      <c r="AV6" s="31">
         <v>988</v>
       </c>
       <c r="AX6" s="31" t="str">
-        <f t="shared" ref="AX6" si="15">B6</f>
+        <f t="shared" ref="AX6:AX7" si="15">B6</f>
         <v>'20201119'</v>
       </c>
       <c r="AY6" s="31" t="s">
@@ -8845,14 +9062,197 @@
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
+      <c r="A7" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>3</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>10000000000</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>205</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>25.627238333333299</v>
+      </c>
+      <c r="AG7" s="50">
+        <v>0.73214285714285698</v>
+      </c>
+      <c r="AH7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="50">
+        <v>0.74242424242424199</v>
+      </c>
+      <c r="AJ7" s="50">
+        <v>0.72297297297297303</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>98</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>107</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>56</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>56</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" s="50">
+        <v>0.54634146341463397</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>224</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>220</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>444</v>
+      </c>
+      <c r="AX7" s="31" t="str">
+        <f t="shared" si="15"/>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY7" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AE$2:$AE$1048576)</f>
+        <v>205</v>
+      </c>
+      <c r="BA7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
+        <v>444</v>
+      </c>
+      <c r="BB7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)*60</f>
+        <v>1537.6342999999979</v>
+      </c>
+      <c r="BC7" s="31">
+        <f t="shared" ref="BC7" si="19">BB7/AZ7</f>
+        <v>7.5006551219512092</v>
+      </c>
+      <c r="BD7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AN$2:$AN$1048576)</f>
+        <v>56</v>
+      </c>
+      <c r="BE7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
+        <v>56</v>
+      </c>
+      <c r="BF7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="31">
+        <f t="shared" ref="BH7" si="20">SUM(BD7,BF7)</f>
+        <v>56</v>
+      </c>
+      <c r="BI7" s="31">
+        <f t="shared" ref="BI7" si="21">SUM(BE7,BG7)</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ8" s="36"/>
@@ -21749,7 +22149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
@@ -24780,8 +25180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24992,11 +25392,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1077</v>
+        <v>1159</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1079</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -25152,15 +25552,15 @@
         <v>193</v>
       </c>
       <c r="AZ2" s="26">
-        <f t="shared" ref="AZ2:AZ15" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ17" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>42</v>
       </c>
       <c r="BA2" s="26">
-        <f t="shared" ref="BA2:BA15" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA17" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>164</v>
       </c>
       <c r="BB2" s="26">
-        <f t="shared" ref="BB2:BB15" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB17" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1694.5396000000019</v>
       </c>
       <c r="BC2" s="26">
@@ -25168,19 +25568,19 @@
         <v>40.346180952380998</v>
       </c>
       <c r="BD2" s="26">
-        <f t="shared" ref="BD2:BD15" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD17" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>20</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE15" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE17" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>21</v>
       </c>
       <c r="BF2" s="26">
-        <f t="shared" ref="BF2:BF15" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF17" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="26">
-        <f t="shared" ref="BG2:BG15" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG17" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="26">
@@ -27556,157 +27956,157 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:65" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="27">
         <v>1000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="27">
         <v>4</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="G15" s="27">
+        <v>2</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
+      </c>
+      <c r="I15" s="27">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <v>0</v>
+      </c>
+      <c r="K15" s="27">
         <v>3</v>
       </c>
-      <c r="L15" s="1">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" s="27">
+        <v>2</v>
+      </c>
+      <c r="M15" s="27">
+        <v>0</v>
+      </c>
+      <c r="N15" s="27">
         <v>0.2</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
         <v>1.2</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="Q15" s="27">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27">
         <v>6</v>
       </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1">
+      <c r="S15" s="27">
+        <v>1</v>
+      </c>
+      <c r="T15" s="27">
+        <v>0</v>
+      </c>
+      <c r="U15" s="27">
+        <v>1</v>
+      </c>
+      <c r="V15" s="27">
+        <v>0</v>
+      </c>
+      <c r="W15" s="27">
+        <v>1</v>
+      </c>
+      <c r="X15" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="27">
         <v>3</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="27">
         <v>4</v>
       </c>
-      <c r="AA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="1">
+      <c r="AA15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="27">
         <v>345</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="27">
         <v>93.384545000000003</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="29">
         <v>0.81753554502369696</v>
       </c>
-      <c r="AH15" s="8" t="s">
+      <c r="AH15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="29">
         <v>0.82967032967033005</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="29">
         <v>0.80833333333333302</v>
       </c>
-      <c r="AK15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="1">
+      <c r="AK15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="27">
         <v>151</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="27">
         <v>194</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="27">
         <v>131</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="27">
         <v>130</v>
       </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="21" t="s">
+      <c r="AP15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="8">
+      <c r="AS15" s="29">
         <v>0.75652173913043497</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AT15" s="27">
         <v>440</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AU15" s="27">
         <v>300</v>
       </c>
-      <c r="AV15" s="1">
+      <c r="AV15" s="27">
         <v>740</v>
       </c>
       <c r="AX15" s="31" t="str">
-        <f t="shared" ref="AX15" si="31">B15</f>
+        <f t="shared" ref="AX15:AX17" si="31">B15</f>
         <v>'20201119'</v>
       </c>
-      <c r="AY15" s="31" t="s">
-        <v>219</v>
+      <c r="AY15" s="61" t="s">
+        <v>272</v>
       </c>
       <c r="AZ15" s="31">
         <f t="shared" si="0"/>
@@ -27721,7 +28121,7 @@
         <v>5603.0727000000006</v>
       </c>
       <c r="BC15" s="31">
-        <f t="shared" ref="BC15" si="32">BB15/AZ15</f>
+        <f t="shared" ref="BC15:BC17" si="32">BB15/AZ15</f>
         <v>16.24079043478261</v>
       </c>
       <c r="BD15" s="31">
@@ -27741,37 +28141,401 @@
         <v>0</v>
       </c>
       <c r="BH15" s="31">
-        <f t="shared" ref="BH15" si="33">SUM(BD15,BF15)</f>
+        <f t="shared" ref="BH15:BH17" si="33">SUM(BD15,BF15)</f>
         <v>131</v>
       </c>
       <c r="BI15" s="31">
-        <f t="shared" ref="BI15" si="34">SUM(BE15,BG15)</f>
+        <f t="shared" ref="BI15:BI17" si="34">SUM(BE15,BG15)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>4.4716283333333298</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AX16" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY16" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ16" s="36">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="BA16" s="36">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="BB16" s="36">
+        <f t="shared" si="2"/>
+        <v>4735.1472999999978</v>
+      </c>
+      <c r="BC16" s="36">
+        <f t="shared" si="32"/>
+        <v>19.979524472573832</v>
+      </c>
+      <c r="BD16" s="36">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="BE16" s="36">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="BF16" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="18">
+        <f t="shared" si="33"/>
+        <v>82</v>
+      </c>
+      <c r="BI16" s="18">
+        <f t="shared" si="34"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="17" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>227</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>74.447493333333298</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0.819494584837545</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>0.87368421052631595</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.79120879120879095</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>83</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>144</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>78</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS17" s="8">
+        <v>0.68722466960352402</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>284</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>124</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>408</v>
+      </c>
+      <c r="AX17" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY17" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ17" s="36">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="BA17" s="36">
+        <f t="shared" si="1"/>
+        <v>424</v>
+      </c>
+      <c r="BB17" s="36">
+        <f t="shared" si="2"/>
+        <v>4735.1472999999978</v>
+      </c>
+      <c r="BC17" s="36">
+        <f t="shared" si="32"/>
+        <v>19.979524472573832</v>
+      </c>
+      <c r="BD17" s="36">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="BE17" s="36">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="BF17" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="18">
+        <f t="shared" si="33"/>
+        <v>82</v>
+      </c>
+      <c r="BI17" s="18">
+        <f t="shared" si="34"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY18" s="18"/>
       <c r="AZ18" s="12"/>
       <c r="BA18" s="12"/>
@@ -27782,7 +28546,7 @@
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
     </row>
-    <row r="19" spans="51:59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY19" s="18"/>
       <c r="AZ19" s="12"/>
       <c r="BA19" s="12"/>
@@ -27803,8 +28567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28015,11 +28779,11 @@
       </c>
       <c r="BL1" s="10">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>955</v>
+        <v>1055</v>
       </c>
       <c r="BM1" s="10">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>973</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -28175,15 +28939,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="10">
-        <f t="shared" ref="AZ2:AZ13" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ14" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>56</v>
       </c>
       <c r="BA2" s="10">
-        <f t="shared" ref="BA2:BA13" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA14" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>216</v>
       </c>
       <c r="BB2" s="10">
-        <f t="shared" ref="BB2:BB13" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB14" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1698.3229000000022</v>
       </c>
       <c r="BC2" s="10">
@@ -28191,19 +28955,19 @@
         <v>30.327194642857183</v>
       </c>
       <c r="BD2" s="10">
-        <f t="shared" ref="BD2:BD13" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD14" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>26</v>
       </c>
       <c r="BE2" s="10">
-        <f t="shared" ref="BE2:BE13" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE14" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>28</v>
       </c>
       <c r="BF2" s="10">
-        <f t="shared" ref="BF2:BF13" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF14" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="10">
-        <f t="shared" ref="BG2:BG13" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG14" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="22">
@@ -30145,209 +30909,391 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:65" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="27">
         <v>1000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="27">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27">
+        <v>2</v>
+      </c>
+      <c r="H13" s="27">
         <v>3</v>
       </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="I13" s="27">
+        <v>2</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
         <v>3</v>
       </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="L13" s="27">
+        <v>1</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
         <v>0.2</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="Q13" s="27">
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
         <v>8</v>
       </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="1">
+      <c r="S13" s="27">
+        <v>1</v>
+      </c>
+      <c r="T13" s="27">
+        <v>0</v>
+      </c>
+      <c r="U13" s="27">
+        <v>1</v>
+      </c>
+      <c r="V13" s="27">
+        <v>0</v>
+      </c>
+      <c r="W13" s="27">
+        <v>1</v>
+      </c>
+      <c r="X13" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="27">
         <v>10</v>
       </c>
-      <c r="Z13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1">
+      <c r="Z13" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="27">
         <v>202</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="27">
         <v>60.110176666666703</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG13" s="29">
         <v>0.68474576271186405</v>
       </c>
-      <c r="AH13" s="8" t="s">
+      <c r="AH13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="8">
+      <c r="AI13" s="29">
         <v>0.65625</v>
       </c>
-      <c r="AJ13" s="8">
+      <c r="AJ13" s="29">
         <v>0.70658682634730496</v>
       </c>
-      <c r="AK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1">
+      <c r="AK13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="27">
         <v>84</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM13" s="27">
         <v>118</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13" s="27">
         <v>81</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO13" s="27">
         <v>80</v>
       </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="21" t="s">
+      <c r="AP13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AS13" s="8">
+      <c r="AS13" s="29">
         <v>0.79702970297029696</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AT13" s="27">
         <v>224</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU13" s="27">
         <v>248</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV13" s="27">
         <v>472</v>
       </c>
-      <c r="AX13" s="22" t="str">
+      <c r="AX13" s="27" t="str">
         <f t="shared" ref="AX13" si="34">B13</f>
         <v>'20201119'</v>
       </c>
-      <c r="AY13" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ13" s="10">
+      <c r="AY13" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ13" s="32">
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="BA13" s="10">
+      <c r="BA13" s="32">
         <f t="shared" si="2"/>
         <v>472</v>
       </c>
-      <c r="BB13" s="10">
+      <c r="BB13" s="32">
         <f t="shared" si="3"/>
         <v>3606.6106000000023</v>
       </c>
-      <c r="BC13" s="10">
+      <c r="BC13" s="32">
         <f t="shared" ref="BC13" si="35">BB13/AZ13</f>
         <v>17.854507920792091</v>
       </c>
-      <c r="BD13" s="10">
+      <c r="BD13" s="32">
         <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="BE13" s="10">
+      <c r="BE13" s="32">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="BF13" s="10">
+      <c r="BF13" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG13" s="10">
+      <c r="BG13" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH13" s="22">
+      <c r="BH13" s="27">
         <f t="shared" ref="BH13" si="36">SUM(BD13,BF13)</f>
         <v>81</v>
       </c>
-      <c r="BI13" s="22">
+      <c r="BI13" s="27">
         <f t="shared" ref="BI13" si="37">SUM(BE13,BG13)</f>
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>260</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>81.655968333333306</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.73033707865168496</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>0.69398907103825103</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>0.76878612716762995</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>127</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>133</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>100</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS14" s="8">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>352</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>140</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>492</v>
+      </c>
+      <c r="AX14" s="27" t="str">
+        <f t="shared" ref="AX14" si="38">B14</f>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY14" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ14" s="32">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="BA14" s="32">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="BB14" s="32">
+        <f t="shared" si="3"/>
+        <v>4899.3580999999986</v>
+      </c>
+      <c r="BC14" s="32">
+        <f t="shared" ref="BC14" si="39">BB14/AZ14</f>
+        <v>18.843684999999994</v>
+      </c>
+      <c r="BD14" s="32">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="BE14" s="32">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="BF14" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG14" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="27">
+        <f t="shared" ref="BH14" si="40">SUM(BD14,BF14)</f>
+        <v>100</v>
+      </c>
+      <c r="BI14" s="27">
+        <f t="shared" ref="BI14" si="41">SUM(BE14,BG14)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AY15" s="18"/>
@@ -30425,8 +31371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30637,11 +31583,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1072</v>
+        <v>1118</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1123</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -30797,15 +31743,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="26">
-        <f t="shared" ref="AZ2:AZ13" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ14" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>74</v>
       </c>
       <c r="BA2" s="26">
-        <f t="shared" ref="BA2:BA13" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA14" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>292</v>
       </c>
       <c r="BB2" s="26">
-        <f t="shared" ref="BB2:BB13" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB14" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1714.9611</v>
       </c>
       <c r="BC2" s="26">
@@ -30813,19 +31759,19 @@
         <v>23.175149999999999</v>
       </c>
       <c r="BD2" s="26">
-        <f t="shared" ref="BD2:BD13" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD14" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>38</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE13" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE14" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>35</v>
       </c>
       <c r="BF2" s="26">
-        <f t="shared" ref="BF2:BF13" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF14" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="26">
-        <f t="shared" ref="BG2:BG13" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG14" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="26">
@@ -32767,153 +33713,153 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="31">
         <v>1000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="31">
         <v>4</v>
       </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>2</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>2</v>
+      </c>
+      <c r="J13" s="31">
         <v>3</v>
       </c>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
+      <c r="K13" s="31">
+        <v>1</v>
+      </c>
+      <c r="L13" s="31">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
         <v>0.2</v>
       </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
         <v>1.2</v>
       </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="18">
+      <c r="Q13" s="31">
+        <v>0</v>
+      </c>
+      <c r="R13" s="31">
         <v>8</v>
       </c>
-      <c r="S13" s="18">
-        <v>1</v>
-      </c>
-      <c r="T13" s="18">
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <v>1</v>
-      </c>
-      <c r="V13" s="18">
-        <v>0</v>
-      </c>
-      <c r="W13" s="18">
-        <v>1</v>
-      </c>
-      <c r="X13" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="18">
+      <c r="S13" s="31">
+        <v>1</v>
+      </c>
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
+      <c r="U13" s="31">
+        <v>1</v>
+      </c>
+      <c r="V13" s="31">
+        <v>0</v>
+      </c>
+      <c r="W13" s="31">
+        <v>1</v>
+      </c>
+      <c r="X13" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="31">
         <v>3</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="31">
         <v>4</v>
       </c>
-      <c r="AA13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="18">
+      <c r="AA13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="31">
         <v>274</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="31">
         <v>79.476373333333299</v>
       </c>
-      <c r="AG13" s="50">
+      <c r="AG13" s="45">
         <v>0.78962536023054797</v>
       </c>
-      <c r="AH13" s="50" t="s">
+      <c r="AH13" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="50">
+      <c r="AI13" s="45">
         <v>0.79428571428571404</v>
       </c>
-      <c r="AJ13" s="50">
+      <c r="AJ13" s="45">
         <v>0.78488372093023295</v>
       </c>
-      <c r="AK13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="18">
+      <c r="AK13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="31">
         <v>139</v>
       </c>
-      <c r="AM13" s="18">
+      <c r="AM13" s="31">
         <v>135</v>
       </c>
-      <c r="AN13" s="18">
+      <c r="AN13" s="31">
         <v>129</v>
       </c>
-      <c r="AO13" s="18">
+      <c r="AO13" s="31">
         <v>129</v>
       </c>
-      <c r="AP13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="51" t="s">
+      <c r="AP13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS13" s="50">
+      <c r="AS13" s="45">
         <v>0.94160583941605802</v>
       </c>
-      <c r="AT13" s="18">
+      <c r="AT13" s="31">
         <v>448</v>
       </c>
-      <c r="AU13" s="18">
+      <c r="AU13" s="31">
         <v>456</v>
       </c>
-      <c r="AV13" s="18">
+      <c r="AV13" s="31">
         <v>904</v>
       </c>
       <c r="AX13" s="31" t="str">
-        <f t="shared" ref="AX13" si="27">B13</f>
+        <f t="shared" ref="AX13:AX14" si="27">B13</f>
         <v>'20201119'</v>
       </c>
       <c r="AY13" s="31" t="s">
@@ -32961,14 +33907,197 @@
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
+      <c r="A14" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>10</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>124</v>
+      </c>
+      <c r="AF14" s="18">
+        <v>56.065745</v>
+      </c>
+      <c r="AG14" s="50">
+        <v>0.71264367816092</v>
+      </c>
+      <c r="AH14" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="50">
+        <v>0.71014492753623204</v>
+      </c>
+      <c r="AJ14" s="50">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AK14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>49</v>
+      </c>
+      <c r="AM14" s="18">
+        <v>75</v>
+      </c>
+      <c r="AN14" s="18">
+        <v>46</v>
+      </c>
+      <c r="AO14" s="18">
+        <v>46</v>
+      </c>
+      <c r="AP14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS14" s="50">
+        <v>0.74193548387096797</v>
+      </c>
+      <c r="AT14" s="18">
+        <v>140</v>
+      </c>
+      <c r="AU14" s="18">
+        <v>28</v>
+      </c>
+      <c r="AV14" s="18">
+        <v>168</v>
+      </c>
+      <c r="AX14" s="31" t="str">
+        <f t="shared" si="27"/>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY14" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ14" s="31">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="BA14" s="31">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="BB14" s="31">
+        <f t="shared" si="3"/>
+        <v>3363.9447</v>
+      </c>
+      <c r="BC14" s="31">
+        <f t="shared" ref="BC14" si="31">BB14/AZ14</f>
+        <v>27.128586290322581</v>
+      </c>
+      <c r="BD14" s="31">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="BE14" s="31">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="BF14" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG14" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="31">
+        <f t="shared" ref="BH14" si="32">SUM(BD14,BF14)</f>
+        <v>46</v>
+      </c>
+      <c r="BI14" s="31">
+        <f t="shared" ref="BI14" si="33">SUM(BE14,BG14)</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ15" s="36"/>
@@ -33041,7 +34170,7 @@
   <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AY5" sqref="AY5"/>
+      <selection activeCell="AP5" sqref="AP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33260,11 +34389,11 @@
       </c>
       <c r="BL1" s="26">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="BM1" s="26">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>314</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:65" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -33846,149 +34975,149 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:65" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="31">
         <v>1000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="31">
         <v>4</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="31">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
         <v>3</v>
       </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <v>2</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
+        <v>1</v>
+      </c>
+      <c r="L5" s="31">
         <v>3</v>
       </c>
-      <c r="M5" s="18">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18">
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
         <v>0.2</v>
       </c>
-      <c r="O5" s="18">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="31">
         <v>0.2</v>
       </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18">
-        <v>1</v>
-      </c>
-      <c r="T5" s="18">
-        <v>1</v>
-      </c>
-      <c r="U5" s="18">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18">
-        <v>1</v>
-      </c>
-      <c r="W5" s="18">
-        <v>1</v>
-      </c>
-      <c r="X5" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="18">
+      <c r="Q5" s="31">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1</v>
+      </c>
+      <c r="T5" s="31">
+        <v>1</v>
+      </c>
+      <c r="U5" s="31">
+        <v>1</v>
+      </c>
+      <c r="V5" s="31">
+        <v>1</v>
+      </c>
+      <c r="W5" s="31">
+        <v>1</v>
+      </c>
+      <c r="X5" s="31">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="31">
         <v>4</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="31">
         <v>4</v>
       </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="18">
+      <c r="AA5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
         <v>450</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="31">
         <v>43.011119999999998</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="45">
         <v>0.71315372424722701</v>
       </c>
-      <c r="AH5" s="50" t="s">
+      <c r="AH5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="45">
         <v>0.71599999999999997</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="45">
         <v>0.71128608923884495</v>
       </c>
-      <c r="AK5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="18">
+      <c r="AK5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="31">
         <v>179</v>
       </c>
-      <c r="AM5" s="18">
+      <c r="AM5" s="31">
         <v>271</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AN5" s="31">
         <v>115</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5" s="31">
         <v>119</v>
       </c>
-      <c r="AP5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="51" t="s">
+      <c r="AP5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AS5" s="50">
+      <c r="AS5" s="45">
         <v>0.52</v>
       </c>
-      <c r="AT5" s="18">
+      <c r="AT5" s="31">
         <v>460</v>
       </c>
-      <c r="AU5" s="18">
+      <c r="AU5" s="31">
         <v>476</v>
       </c>
-      <c r="AV5" s="18">
+      <c r="AV5" s="31">
         <v>936</v>
       </c>
       <c r="AX5" s="31" t="str">
@@ -34040,14 +35169,197 @@
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.2">
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="36"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
+      <c r="A6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>3</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>305</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>43.427711666666703</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>0.75495049504950495</v>
+      </c>
+      <c r="AH6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="AJ6" s="50">
+        <v>0.75925925925925897</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>141</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>164</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>98</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="50">
+        <v>0.65245901639344295</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>348</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>304</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>652</v>
+      </c>
+      <c r="AX6" s="31" t="str">
+        <f t="shared" ref="AX6" si="15">B6</f>
+        <v>'20201120'</v>
+      </c>
+      <c r="AY6" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AE$2:$AE$1048576)</f>
+        <v>305</v>
+      </c>
+      <c r="BA6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
+        <v>652</v>
+      </c>
+      <c r="BB6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)*60</f>
+        <v>2605.6627000000021</v>
+      </c>
+      <c r="BC6" s="31">
+        <f t="shared" ref="BC6" si="16">BB6/AZ6</f>
+        <v>8.5431563934426293</v>
+      </c>
+      <c r="BD6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AN$2:$AN$1048576)</f>
+        <v>98</v>
+      </c>
+      <c r="BE6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
+        <v>101</v>
+      </c>
+      <c r="BF6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="31">
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="31">
+        <f t="shared" ref="BH6" si="17">SUM(BD6,BF6)</f>
+        <v>98</v>
+      </c>
+      <c r="BI6" s="31">
+        <f t="shared" ref="BI6" si="18">SUM(BE6,BG6)</f>
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="AZ7" s="36"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="314">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -941,6 +941,42 @@
   <si>
     <t>'JB375_InfoseekTimeout_20201124_163513.mat'</t>
   </si>
+  <si>
+    <t>'JB371_Infoseek_20201125_103653.mat'</t>
+  </si>
+  <si>
+    <t>'20201125'</t>
+  </si>
+  <si>
+    <t>'JB374_InfoseekTimeout_20201125_112512.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_InfoseekTimeout_20201125_112735.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_InfoseekTimeout_20201125_113453.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_InfoseekTimeout_20201125_113237.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_InfoseekTimeout_20201125_113641.mat'</t>
+  </si>
+  <si>
+    <t>'JB374_Infoseek_20201125_114126.mat'</t>
+  </si>
+  <si>
+    <t>'JB372_Infoseek_20201125_121135.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201125_132634.mat'</t>
+  </si>
+  <si>
+    <t>'JB373_Infoseek_20201125_140242.mat'</t>
+  </si>
+  <si>
+    <t>'JB375_InfoseekTimeout_20201125_142955.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -6685,8 +6721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BP8" sqref="BP8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6699,7 +6735,8 @@
     <col min="13" max="24" width="8.75" style="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.5" style="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="8.625" style="18" customWidth="1"/>
+    <col min="27" max="30" width="8.625" style="18" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="8.625" style="18" customWidth="1"/>
     <col min="32" max="33" width="8.75" style="18" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.75" style="41" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.625" style="41"/>
@@ -6908,19 +6945,19 @@
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>536</v>
+        <v>642</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AP$2:$AP$1048576,$AR$2:$AR$1048576)</f>
-        <v>581</v>
+        <v>688</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>1688</v>
+        <v>2040</v>
       </c>
       <c r="BP1" s="25">
         <f>SUM($AV$2:$AV$1048576)</f>
-        <v>2184</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -7076,15 +7113,15 @@
         <v>194</v>
       </c>
       <c r="BA2" s="25">
-        <f t="shared" ref="BA2:BA8" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
+        <f t="shared" ref="BA2:BA9" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
         <v>54</v>
       </c>
       <c r="BB2" s="25">
-        <f t="shared" ref="BB2:BB8" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
+        <f t="shared" ref="BB2:BB9" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
         <v>204</v>
       </c>
       <c r="BC2" s="25">
-        <f t="shared" ref="BC2:BC8" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
+        <f t="shared" ref="BC2:BC9" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
         <v>2539.6611000000003</v>
       </c>
       <c r="BD2" s="25">
@@ -7092,19 +7129,19 @@
         <v>47.030761111111119</v>
       </c>
       <c r="BE2" s="25">
-        <f t="shared" ref="BE2:BE8" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE9" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>26</v>
       </c>
       <c r="BF2" s="25">
-        <f t="shared" ref="BF2:BF8" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF9" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>28</v>
       </c>
       <c r="BG2" s="25">
-        <f t="shared" ref="BG2:BG8" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG9" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="25">
-        <f t="shared" ref="BH2:BH8" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
+        <f t="shared" ref="BH2:BH9" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI2" s="25">
@@ -7321,11 +7358,11 @@
         <v>56</v>
       </c>
       <c r="BK3" s="30">
-        <f t="shared" ref="BK3:BK8" si="14">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK9" si="14">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>204</v>
       </c>
       <c r="BL3" s="30">
-        <f t="shared" ref="BL3:BL8" si="15">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BL3:BL9" si="15">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>224</v>
       </c>
     </row>
@@ -8136,152 +8173,152 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:68" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="29">
         <v>1000</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="29">
         <v>4</v>
       </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29">
         <v>3</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="29">
         <v>3</v>
       </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="J8" s="29">
+        <v>1</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
         <v>2</v>
       </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
         <v>0.2</v>
       </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
+      <c r="O8" s="29">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="18">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
-        <v>1</v>
-      </c>
-      <c r="S8" s="18">
-        <v>1</v>
-      </c>
-      <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18">
-        <v>1</v>
-      </c>
-      <c r="V8" s="18">
-        <v>1</v>
-      </c>
-      <c r="W8" s="18">
-        <v>1</v>
-      </c>
-      <c r="X8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="18">
+      <c r="Q8" s="29">
+        <v>0</v>
+      </c>
+      <c r="R8" s="29">
+        <v>1</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1</v>
+      </c>
+      <c r="T8" s="29">
+        <v>1</v>
+      </c>
+      <c r="U8" s="29">
+        <v>1</v>
+      </c>
+      <c r="V8" s="29">
+        <v>1</v>
+      </c>
+      <c r="W8" s="29">
+        <v>1</v>
+      </c>
+      <c r="X8" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="29">
         <v>4</v>
       </c>
-      <c r="AA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
+      <c r="AA8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="29">
         <v>5</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="29">
         <v>231</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AG8" s="29">
         <v>48.124886666666697</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="37">
         <v>0.47046843177189401</v>
       </c>
-      <c r="AI8" s="41" t="s">
+      <c r="AI8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AJ8" s="41">
+      <c r="AJ8" s="37">
         <v>0.379746835443038</v>
       </c>
-      <c r="AK8" s="41">
+      <c r="AK8" s="37">
         <v>0.63428571428571401</v>
       </c>
-      <c r="AL8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="18">
+      <c r="AL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="29">
         <v>120</v>
       </c>
-      <c r="AN8" s="18">
+      <c r="AN8" s="29">
         <v>111</v>
       </c>
-      <c r="AO8" s="18">
+      <c r="AO8" s="29">
         <v>108</v>
       </c>
-      <c r="AP8" s="18">
+      <c r="AP8" s="29">
         <v>108</v>
       </c>
-      <c r="AQ8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="42" t="s">
+      <c r="AQ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AT8" s="41">
+      <c r="AT8" s="37">
         <v>0.93506493506493504</v>
       </c>
-      <c r="AU8" s="18">
+      <c r="AU8" s="29">
         <v>376</v>
       </c>
-      <c r="AV8" s="18">
+      <c r="AV8" s="29">
         <v>416</v>
       </c>
-      <c r="AW8" s="18">
+      <c r="AW8" s="29">
         <v>792</v>
       </c>
       <c r="AY8" s="29" t="str">
@@ -8331,24 +8368,218 @@
         <f t="shared" ref="BJ8" si="35">SUM(BF8,BH8)</f>
         <v>108</v>
       </c>
-      <c r="BK8" s="25">
+      <c r="BK8" s="29">
         <f t="shared" si="14"/>
         <v>376</v>
       </c>
-      <c r="BL8" s="25">
+      <c r="BL8" s="29">
         <f t="shared" si="15"/>
         <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
+      <c r="A9" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18">
+        <v>3</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>2</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18">
+        <v>5</v>
+      </c>
+      <c r="S9" s="18">
+        <v>1</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1</v>
+      </c>
+      <c r="U9" s="18">
+        <v>1</v>
+      </c>
+      <c r="V9" s="18">
+        <v>1</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>225</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>67.044046666666702</v>
+      </c>
+      <c r="AH9" s="41">
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="AI9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9" s="41">
+        <v>0.58762886597938202</v>
+      </c>
+      <c r="AK9" s="41">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>114</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>111</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>106</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>107</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT9" s="41">
+        <v>0.94666666666666699</v>
+      </c>
+      <c r="AU9" s="18">
+        <v>352</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>412</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>764</v>
+      </c>
+      <c r="AY9" s="29" t="str">
+        <f t="shared" ref="AY9" si="36">B9</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ9" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA9" s="29">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="BB9" s="29">
+        <f t="shared" si="2"/>
+        <v>764</v>
+      </c>
+      <c r="BC9" s="29">
+        <f t="shared" si="3"/>
+        <v>4022.6428000000024</v>
+      </c>
+      <c r="BD9" s="29">
+        <f t="shared" ref="BD9" si="37">BC9/BA9</f>
+        <v>17.878412444444454</v>
+      </c>
+      <c r="BE9" s="29">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="BF9" s="29">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="BG9" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="29">
+        <f t="shared" ref="BI9" si="38">SUM(BE9,BG9)</f>
+        <v>106</v>
+      </c>
+      <c r="BJ9" s="29">
+        <f t="shared" ref="BJ9" si="39">SUM(BF9,BH9)</f>
+        <v>107</v>
+      </c>
+      <c r="BK9" s="29">
+        <f t="shared" si="14"/>
+        <v>352</v>
+      </c>
+      <c r="BL9" s="29">
+        <f t="shared" si="15"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="BA10" s="30"/>
@@ -8390,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26997,10 +27228,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO19"/>
+  <dimension ref="A1:BO20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27211,19 +27442,19 @@
       </c>
       <c r="BL1" s="25">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1242</v>
+        <v>1312</v>
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1294</v>
+        <v>1364</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AT$2:$AT$1048576)</f>
-        <v>4664</v>
+        <v>4900</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>4372</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -27379,15 +27610,15 @@
         <v>193</v>
       </c>
       <c r="AZ2" s="25">
-        <f t="shared" ref="AZ2:AZ19" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ20" si="0">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>42</v>
       </c>
       <c r="BA2" s="25">
-        <f t="shared" ref="BA2:BA19" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA20" si="1">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>164</v>
       </c>
       <c r="BB2" s="25">
-        <f t="shared" ref="BB2:BB19" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB20" si="2">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1694.5396000000019</v>
       </c>
       <c r="BC2" s="25">
@@ -27395,19 +27626,19 @@
         <v>40.346180952380998</v>
       </c>
       <c r="BD2" s="25">
-        <f t="shared" ref="BD2:BD19" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD20" si="3">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>20</v>
       </c>
       <c r="BE2" s="25">
-        <f t="shared" ref="BE2:BE19" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE20" si="4">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>21</v>
       </c>
       <c r="BF2" s="25">
-        <f t="shared" ref="BF2:BF19" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF20" si="5">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="25">
-        <f t="shared" ref="BG2:BG19" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG20" si="6">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="25">
@@ -27624,11 +27855,11 @@
         <v>103</v>
       </c>
       <c r="BJ3" s="18">
-        <f t="shared" ref="BJ3:BJ19" si="8">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
+        <f t="shared" ref="BJ3:BJ20" si="8">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
         <v>532</v>
       </c>
       <c r="BK3" s="18">
-        <f t="shared" ref="BK3:BK19" si="9">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK20" si="9">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>412</v>
       </c>
       <c r="BL3" s="18"/>
@@ -30669,205 +30900,406 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:63" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="26">
         <v>1000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="26">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="26">
         <v>3</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="26">
         <v>2</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
         <v>0.2</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
         <v>1.2</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="Q19" s="26">
+        <v>0</v>
+      </c>
+      <c r="R19" s="26">
         <v>10</v>
       </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="S19" s="26">
+        <v>1</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="26">
+        <v>1</v>
+      </c>
+      <c r="V19" s="26">
+        <v>0</v>
+      </c>
+      <c r="W19" s="26">
+        <v>1</v>
+      </c>
+      <c r="X19" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="26">
         <v>3</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="26">
         <v>4</v>
       </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="1">
+      <c r="AA19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="26">
         <v>58</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="26">
         <v>32.9733083333333</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AG19" s="27">
         <v>0.707317073170732</v>
       </c>
-      <c r="AH19" s="8" t="s">
+      <c r="AH19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="8" t="s">
+      <c r="AI19" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AJ19" s="8">
+      <c r="AJ19" s="27">
         <v>0.707317073170732</v>
       </c>
-      <c r="AK19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="1">
+      <c r="AK19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="26">
         <v>58</v>
       </c>
-      <c r="AN19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="1">
+      <c r="AN19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="26">
         <v>52</v>
       </c>
-      <c r="AP19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="21" t="s">
+      <c r="AP19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AS19" s="8">
+      <c r="AS19" s="27">
         <v>0.89655172413793105</v>
       </c>
-      <c r="AT19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="1">
+      <c r="AT19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="26">
         <v>156</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AV19" s="26">
         <v>156</v>
       </c>
-      <c r="AX19" s="25" t="str">
+      <c r="AX19" s="29" t="str">
         <f t="shared" ref="AX19" si="37">B19</f>
         <v>'20201124'</v>
       </c>
-      <c r="AY19" s="25" t="s">
+      <c r="AY19" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="AZ19" s="25">
+      <c r="AZ19" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BA19" s="25">
+      <c r="BA19" s="29">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="BB19" s="25">
+      <c r="BB19" s="29">
         <f t="shared" si="2"/>
         <v>1978.398499999998</v>
       </c>
-      <c r="BC19" s="25">
+      <c r="BC19" s="29">
         <f t="shared" ref="BC19" si="38">BB19/AZ19</f>
         <v>34.110318965517209</v>
       </c>
-      <c r="BD19" s="25">
+      <c r="BD19" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE19" s="25">
+      <c r="BE19" s="29">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="BF19" s="25">
+      <c r="BF19" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BG19" s="25">
+      <c r="BG19" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BH19" s="25">
+      <c r="BH19" s="29">
         <f t="shared" ref="BH19" si="39">SUM(BD19,BF19)</f>
         <v>0</v>
       </c>
-      <c r="BI19" s="25">
+      <c r="BI19" s="29">
         <f t="shared" ref="BI19" si="40">SUM(BE19,BG19)</f>
         <v>52</v>
       </c>
-      <c r="BJ19" s="1">
+      <c r="BJ19" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BK19" s="1">
+      <c r="BK19" s="26">
         <f t="shared" si="9"/>
         <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>191</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>45.046996666666701</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>0.73504273504273498</v>
+      </c>
+      <c r="AJ20" s="8">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>86</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>105</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>70</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS20" s="8">
+        <v>0.73298429319371705</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>236</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>252</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>488</v>
+      </c>
+      <c r="AX20" s="29" t="str">
+        <f t="shared" ref="AX20" si="41">B20</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AY20" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ20" s="29">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="BA20" s="29">
+        <f t="shared" si="1"/>
+        <v>488</v>
+      </c>
+      <c r="BB20" s="29">
+        <f t="shared" si="2"/>
+        <v>2702.819800000002</v>
+      </c>
+      <c r="BC20" s="29">
+        <f t="shared" ref="BC20" si="42">BB20/AZ20</f>
+        <v>14.150889005235612</v>
+      </c>
+      <c r="BD20" s="29">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="BE20" s="29">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="BF20" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BH20" s="29">
+        <f t="shared" ref="BH20" si="43">SUM(BD20,BF20)</f>
+        <v>70</v>
+      </c>
+      <c r="BI20" s="29">
+        <f t="shared" ref="BI20" si="44">SUM(BE20,BG20)</f>
+        <v>70</v>
+      </c>
+      <c r="BJ20" s="26">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="BK20" s="26">
+        <f t="shared" si="9"/>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -30880,8 +31312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31093,19 +31525,19 @@
       </c>
       <c r="BL1" s="25">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1200</v>
+        <v>1330</v>
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1246</v>
+        <v>1376</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AT$2:$AT$1048576)</f>
-        <v>4068</v>
+        <v>4432</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>4264</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -31261,15 +31693,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="25">
-        <f t="shared" ref="AZ2:AZ17" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ18" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>56</v>
       </c>
       <c r="BA2" s="25">
-        <f t="shared" ref="BA2:BA17" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA18" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>216</v>
       </c>
       <c r="BB2" s="25">
-        <f t="shared" ref="BB2:BB17" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB18" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1698.3229000000022</v>
       </c>
       <c r="BC2" s="25">
@@ -31277,19 +31709,19 @@
         <v>30.327194642857183</v>
       </c>
       <c r="BD2" s="25">
-        <f t="shared" ref="BD2:BD17" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD18" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>26</v>
       </c>
       <c r="BE2" s="25">
-        <f t="shared" ref="BE2:BE17" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE18" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>28</v>
       </c>
       <c r="BF2" s="25">
-        <f t="shared" ref="BF2:BF17" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF18" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="25">
-        <f t="shared" ref="BG2:BG17" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG18" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="25">
@@ -31506,11 +31938,11 @@
         <v>21</v>
       </c>
       <c r="BJ3" s="29">
-        <f t="shared" ref="BJ3:BJ17" si="10">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
+        <f t="shared" ref="BJ3:BJ18" si="10">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
         <v>236</v>
       </c>
       <c r="BK3" s="29">
-        <f t="shared" ref="BK3:BK17" si="11">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK18" si="11">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>84</v>
       </c>
     </row>
@@ -34127,216 +34559,407 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:63" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="25">
         <v>1000</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="25">
         <v>4</v>
       </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
         <v>2</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="25">
         <v>3</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="25">
         <v>2</v>
       </c>
-      <c r="J17" s="18">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
         <v>3</v>
       </c>
-      <c r="L17" s="18">
-        <v>1</v>
-      </c>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="18">
+      <c r="L17" s="25">
+        <v>1</v>
+      </c>
+      <c r="M17" s="25">
+        <v>0</v>
+      </c>
+      <c r="N17" s="25">
         <v>0.2</v>
       </c>
-      <c r="O17" s="18">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>0</v>
-      </c>
-      <c r="R17" s="18">
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
         <v>0.5</v>
       </c>
-      <c r="S17" s="18">
-        <v>1</v>
-      </c>
-      <c r="T17" s="18">
-        <v>0</v>
-      </c>
-      <c r="U17" s="18">
-        <v>1</v>
-      </c>
-      <c r="V17" s="18">
-        <v>0</v>
-      </c>
-      <c r="W17" s="18">
-        <v>1</v>
-      </c>
-      <c r="X17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="18">
+      <c r="S17" s="25">
+        <v>1</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>1</v>
+      </c>
+      <c r="V17" s="25">
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
+        <v>1</v>
+      </c>
+      <c r="X17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="25">
         <v>4</v>
       </c>
-      <c r="AA17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="18">
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
         <v>226</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17" s="25">
         <v>68.654255000000006</v>
       </c>
-      <c r="AG17" s="41">
+      <c r="AG17" s="36">
         <v>0.35590551181102398</v>
       </c>
-      <c r="AH17" s="41" t="s">
+      <c r="AH17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AI17" s="41">
+      <c r="AI17" s="36">
         <v>0.34464751958224499</v>
       </c>
-      <c r="AJ17" s="41">
+      <c r="AJ17" s="36">
         <v>0.37301587301587302</v>
       </c>
-      <c r="AK17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="18">
+      <c r="AK17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="25">
         <v>132</v>
       </c>
-      <c r="AM17" s="18">
+      <c r="AM17" s="25">
         <v>94</v>
       </c>
-      <c r="AN17" s="18">
+      <c r="AN17" s="25">
         <v>89</v>
       </c>
-      <c r="AO17" s="18">
+      <c r="AO17" s="25">
         <v>89</v>
       </c>
-      <c r="AP17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="42" t="s">
+      <c r="AP17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AS17" s="41">
+      <c r="AS17" s="36">
         <v>0.787610619469027</v>
       </c>
-      <c r="AT17" s="18">
+      <c r="AT17" s="25">
         <v>240</v>
       </c>
-      <c r="AU17" s="18">
+      <c r="AU17" s="25">
         <v>332</v>
       </c>
-      <c r="AV17" s="18">
+      <c r="AV17" s="25">
         <v>572</v>
       </c>
       <c r="AX17" s="29" t="str">
         <f t="shared" si="40"/>
         <v>'20201124'</v>
       </c>
-      <c r="AY17" s="18" t="s">
+      <c r="AY17" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AZ17" s="30">
+      <c r="AZ17" s="25">
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="BA17" s="30">
+      <c r="BA17" s="25">
         <f t="shared" si="2"/>
         <v>632</v>
       </c>
-      <c r="BB17" s="30">
+      <c r="BB17" s="25">
         <f t="shared" si="3"/>
         <v>4860.8013000000001</v>
       </c>
-      <c r="BC17" s="30">
+      <c r="BC17" s="25">
         <f t="shared" si="44"/>
         <v>19.212653359683795</v>
       </c>
-      <c r="BD17" s="30">
+      <c r="BD17" s="25">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="BE17" s="30">
+      <c r="BE17" s="25">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="BF17" s="30">
+      <c r="BF17" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG17" s="30">
+      <c r="BG17" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH17" s="18">
+      <c r="BH17" s="25">
         <f t="shared" si="45"/>
         <v>89</v>
       </c>
-      <c r="BI17" s="18">
+      <c r="BI17" s="25">
         <f t="shared" si="46"/>
         <v>116</v>
       </c>
-      <c r="BJ17" s="18">
+      <c r="BJ17" s="25">
         <f t="shared" si="10"/>
         <v>240</v>
       </c>
-      <c r="BK17" s="18">
+      <c r="BK17" s="25">
         <f t="shared" si="11"/>
         <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
+      <c r="A18" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>3</v>
+      </c>
+      <c r="S18" s="18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>321</v>
+      </c>
+      <c r="AF18" s="18">
+        <v>68.566018333333403</v>
+      </c>
+      <c r="AG18" s="41">
+        <v>0.47626112759643902</v>
+      </c>
+      <c r="AH18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="41">
+        <v>0.44838709677419403</v>
+      </c>
+      <c r="AJ18" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <v>139</v>
+      </c>
+      <c r="AM18" s="18">
+        <v>182</v>
+      </c>
+      <c r="AN18" s="18">
+        <v>130</v>
+      </c>
+      <c r="AO18" s="18">
+        <v>130</v>
+      </c>
+      <c r="AP18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18" s="41">
+        <v>0.80996884735202501</v>
+      </c>
+      <c r="AT18" s="18">
+        <v>364</v>
+      </c>
+      <c r="AU18" s="18">
+        <v>476</v>
+      </c>
+      <c r="AV18" s="18">
+        <v>840</v>
+      </c>
+      <c r="AX18" s="29" t="str">
+        <f t="shared" ref="AX18" si="47">B18</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AY18" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ18" s="25">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="BA18" s="25">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="BB18" s="25">
+        <f t="shared" si="3"/>
+        <v>4113.9611000000041</v>
+      </c>
+      <c r="BC18" s="25">
+        <f t="shared" ref="BC18" si="48">BB18/AZ18</f>
+        <v>12.81607819314643</v>
+      </c>
+      <c r="BD18" s="25">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="BE18" s="25">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="BF18" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="25">
+        <f t="shared" ref="BH18" si="49">SUM(BD18,BF18)</f>
+        <v>130</v>
+      </c>
+      <c r="BI18" s="25">
+        <f t="shared" ref="BI18" si="50">SUM(BE18,BG18)</f>
+        <v>130</v>
+      </c>
+      <c r="BJ18" s="25">
+        <f t="shared" si="10"/>
+        <v>364</v>
+      </c>
+      <c r="BK18" s="25">
+        <f t="shared" si="11"/>
+        <v>476</v>
+      </c>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="AZ19" s="30"/>
@@ -34368,8 +34991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AY18" sqref="AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34580,19 +35203,19 @@
       </c>
       <c r="BL1" s="25">
         <f>SUM($AN$2:$AN$1048576,$AP$2:$AP$1048576)</f>
-        <v>1165</v>
+        <v>1290</v>
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>1236</v>
+        <v>1364</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AT$2:$AT$1048576)</f>
-        <v>4316</v>
+        <v>4792</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>4616</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -34748,15 +35371,15 @@
         <v>194</v>
       </c>
       <c r="AZ2" s="25">
-        <f t="shared" ref="AZ2:AZ16" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
+        <f t="shared" ref="AZ2:AZ18" si="1">SUMIF($B$2:$B$1048576,$B2,$AE$2:$AE$1048576)</f>
         <v>74</v>
       </c>
       <c r="BA2" s="25">
-        <f t="shared" ref="BA2:BA16" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BA2:BA18" si="2">SUMIF($B$2:$B$1048576,$B2,$AV$2:$AV$1048576)</f>
         <v>292</v>
       </c>
       <c r="BB2" s="25">
-        <f t="shared" ref="BB2:BB16" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
+        <f t="shared" ref="BB2:BB18" si="3">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)*60</f>
         <v>1714.9611</v>
       </c>
       <c r="BC2" s="25">
@@ -34764,19 +35387,19 @@
         <v>23.175149999999999</v>
       </c>
       <c r="BD2" s="25">
-        <f t="shared" ref="BD2:BD16" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
+        <f t="shared" ref="BD2:BD18" si="5">SUMIF($B$2:$B$1048576,$B2,$AN$2:$AN$1048576)</f>
         <v>38</v>
       </c>
       <c r="BE2" s="25">
-        <f t="shared" ref="BE2:BE16" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE18" si="6">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>35</v>
       </c>
       <c r="BF2" s="25">
-        <f t="shared" ref="BF2:BF16" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF18" si="7">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>0</v>
       </c>
       <c r="BG2" s="25">
-        <f t="shared" ref="BG2:BG16" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG18" si="8">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="25">
@@ -34993,11 +35616,11 @@
         <v>119</v>
       </c>
       <c r="BJ3" s="29">
-        <f t="shared" ref="BJ3:BJ16" si="10">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
+        <f t="shared" ref="BJ3:BJ18" si="10">SUMIF($B$2:$B$1048576,$B3,$AT$2:$AT$1048576)</f>
         <v>548</v>
       </c>
       <c r="BK3" s="29">
-        <f t="shared" ref="BK3:BK16" si="11">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK18" si="11">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>476</v>
       </c>
     </row>
@@ -37413,228 +38036,610 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:67" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="25">
         <v>1000</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="25">
         <v>4</v>
       </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
         <v>2</v>
       </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="H16" s="25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
         <v>2</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="25">
         <v>3</v>
       </c>
-      <c r="K16" s="18">
-        <v>1</v>
-      </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0</v>
-      </c>
-      <c r="N16" s="18">
+      <c r="K16" s="25">
+        <v>1</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
         <v>0.2</v>
       </c>
-      <c r="O16" s="18">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
         <v>1.2</v>
       </c>
-      <c r="Q16" s="18">
-        <v>0</v>
-      </c>
-      <c r="R16" s="18">
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
         <v>4</v>
       </c>
-      <c r="S16" s="18">
-        <v>1</v>
-      </c>
-      <c r="T16" s="18">
-        <v>0</v>
-      </c>
-      <c r="U16" s="18">
-        <v>1</v>
-      </c>
-      <c r="V16" s="18">
-        <v>0</v>
-      </c>
-      <c r="W16" s="18">
-        <v>1</v>
-      </c>
-      <c r="X16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="18">
+      <c r="S16" s="25">
+        <v>1</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>1</v>
+      </c>
+      <c r="V16" s="25">
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
+        <v>1</v>
+      </c>
+      <c r="X16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="25">
         <v>2</v>
       </c>
-      <c r="AA16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="18">
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
         <v>122</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16" s="25">
         <v>24.3932416666667</v>
       </c>
-      <c r="AG16" s="41">
+      <c r="AG16" s="36">
         <v>0.76249999999999996</v>
       </c>
-      <c r="AH16" s="41" t="s">
+      <c r="AH16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="41">
+      <c r="AI16" s="36">
         <v>0.71153846153846201</v>
       </c>
-      <c r="AJ16" s="41">
+      <c r="AJ16" s="36">
         <v>0.85714285714285698</v>
       </c>
-      <c r="AK16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="18">
+      <c r="AK16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="25">
         <v>74</v>
       </c>
-      <c r="AM16" s="18">
+      <c r="AM16" s="25">
         <v>48</v>
       </c>
-      <c r="AN16" s="18">
+      <c r="AN16" s="25">
         <v>47</v>
       </c>
-      <c r="AO16" s="18">
+      <c r="AO16" s="25">
         <v>46</v>
       </c>
-      <c r="AP16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="42" t="s">
+      <c r="AP16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="41">
+      <c r="AS16" s="36">
         <v>0.76229508196721296</v>
       </c>
-      <c r="AT16" s="18">
+      <c r="AT16" s="25">
         <v>176</v>
       </c>
-      <c r="AU16" s="18">
+      <c r="AU16" s="25">
         <v>184</v>
       </c>
-      <c r="AV16" s="18">
+      <c r="AV16" s="25">
         <v>360</v>
       </c>
-      <c r="AX16" s="30" t="str">
+      <c r="AX16" s="25" t="str">
         <f t="shared" ref="AX16" si="39">B16</f>
         <v>'20201124'</v>
       </c>
-      <c r="AY16" s="30" t="s">
+      <c r="AY16" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="AZ16" s="30">
+      <c r="AZ16" s="25">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="BA16" s="30">
+      <c r="BA16" s="25">
         <f t="shared" si="2"/>
         <v>416</v>
       </c>
-      <c r="BB16" s="30">
+      <c r="BB16" s="25">
         <f t="shared" si="3"/>
         <v>1889.1857000000023</v>
       </c>
-      <c r="BC16" s="30">
+      <c r="BC16" s="25">
         <f t="shared" ref="BC16" si="40">BB16/AZ16</f>
         <v>13.211088811188826</v>
       </c>
-      <c r="BD16" s="30">
+      <c r="BD16" s="25">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="BE16" s="30">
+      <c r="BE16" s="25">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="BF16" s="30">
+      <c r="BF16" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BG16" s="30">
+      <c r="BG16" s="25">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH16" s="30">
+      <c r="BH16" s="25">
         <f t="shared" ref="BH16" si="41">SUM(BD16,BF16)</f>
         <v>47</v>
       </c>
-      <c r="BI16" s="30">
+      <c r="BI16" s="25">
         <f t="shared" ref="BI16" si="42">SUM(BE16,BG16)</f>
         <v>67</v>
       </c>
-      <c r="BJ16" s="30">
+      <c r="BJ16" s="25">
         <f t="shared" si="10"/>
         <v>176</v>
       </c>
-      <c r="BK16" s="30">
+      <c r="BK16" s="25">
         <f t="shared" si="11"/>
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="52:59" x14ac:dyDescent="0.2">
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="30"/>
-      <c r="BB17" s="30"/>
-      <c r="BC17" s="30"/>
-      <c r="BD17" s="30"/>
-      <c r="BE17" s="30"/>
-      <c r="BF17" s="30"/>
-      <c r="BG17" s="30"/>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="18">
+        <v>4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18">
+        <v>3</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="18">
+        <v>1</v>
+      </c>
+      <c r="V17" s="18">
+        <v>0</v>
+      </c>
+      <c r="W17" s="18">
+        <v>1</v>
+      </c>
+      <c r="X17" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>190</v>
+      </c>
+      <c r="AF17" s="18">
+        <v>34.749271666666701</v>
+      </c>
+      <c r="AG17" s="41">
+        <v>0.43981481481481499</v>
+      </c>
+      <c r="AH17" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" s="41">
+        <v>0.49397590361445798</v>
+      </c>
+      <c r="AJ17" s="41">
+        <v>0.406015037593985</v>
+      </c>
+      <c r="AK17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="18">
+        <v>82</v>
+      </c>
+      <c r="AM17" s="18">
+        <v>108</v>
+      </c>
+      <c r="AN17" s="18">
+        <v>63</v>
+      </c>
+      <c r="AO17" s="18">
+        <v>64</v>
+      </c>
+      <c r="AP17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS17" s="41">
+        <v>0.66842105263157903</v>
+      </c>
+      <c r="AT17" s="18">
+        <v>248</v>
+      </c>
+      <c r="AU17" s="18">
+        <v>240</v>
+      </c>
+      <c r="AV17" s="18">
+        <v>488</v>
+      </c>
+      <c r="AX17" s="30" t="str">
+        <f t="shared" ref="AX17" si="43">B17</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AY17" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ17" s="30">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="BA17" s="30">
+        <f t="shared" si="2"/>
+        <v>936</v>
+      </c>
+      <c r="BB17" s="30">
+        <f t="shared" si="3"/>
+        <v>3507.2338000000022</v>
+      </c>
+      <c r="BC17" s="30">
+        <f t="shared" ref="BC17" si="44">BB17/AZ17</f>
+        <v>10.925961993769477</v>
+      </c>
+      <c r="BD17" s="30">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="BE17" s="30">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BF17" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="30">
+        <f t="shared" ref="BH17" si="45">SUM(BD17,BF17)</f>
+        <v>125</v>
+      </c>
+      <c r="BI17" s="30">
+        <f t="shared" ref="BI17" si="46">SUM(BE17,BG17)</f>
+        <v>128</v>
+      </c>
+      <c r="BJ17" s="30">
+        <f t="shared" si="10"/>
+        <v>476</v>
+      </c>
+      <c r="BK17" s="30">
+        <f t="shared" si="11"/>
+        <v>460</v>
+      </c>
     </row>
-    <row r="18" spans="52:59" x14ac:dyDescent="0.2">
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="30"/>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="30"/>
-      <c r="BD18" s="30"/>
-      <c r="BE18" s="30"/>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
+    <row r="18" spans="1:63" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>2</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1</v>
+      </c>
+      <c r="I18" s="30">
+        <v>2</v>
+      </c>
+      <c r="J18" s="30">
+        <v>3</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0</v>
+      </c>
+      <c r="R18" s="30">
+        <v>1</v>
+      </c>
+      <c r="S18" s="30">
+        <v>1</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
+      <c r="V18" s="30">
+        <v>0</v>
+      </c>
+      <c r="W18" s="30">
+        <v>1</v>
+      </c>
+      <c r="X18" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>131</v>
+      </c>
+      <c r="AF18" s="30">
+        <v>23.704625</v>
+      </c>
+      <c r="AG18" s="35">
+        <v>0.41194968553459099</v>
+      </c>
+      <c r="AH18" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="35">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="AJ18" s="35">
+        <v>0.377142857142857</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="30">
+        <v>65</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>66</v>
+      </c>
+      <c r="AN18" s="30">
+        <v>62</v>
+      </c>
+      <c r="AO18" s="30">
+        <v>64</v>
+      </c>
+      <c r="AP18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS18" s="35">
+        <v>0.961832061068702</v>
+      </c>
+      <c r="AT18" s="30">
+        <v>228</v>
+      </c>
+      <c r="AU18" s="30">
+        <v>220</v>
+      </c>
+      <c r="AV18" s="30">
+        <v>448</v>
+      </c>
+      <c r="AX18" s="30" t="str">
+        <f t="shared" ref="AX18" si="47">B18</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AY18" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ18" s="30">
+        <f t="shared" si="1"/>
+        <v>321</v>
+      </c>
+      <c r="BA18" s="30">
+        <f t="shared" si="2"/>
+        <v>936</v>
+      </c>
+      <c r="BB18" s="30">
+        <f t="shared" si="3"/>
+        <v>3507.2338000000022</v>
+      </c>
+      <c r="BC18" s="30">
+        <f t="shared" ref="BC18" si="48">BB18/AZ18</f>
+        <v>10.925961993769477</v>
+      </c>
+      <c r="BD18" s="30">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="BE18" s="30">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BF18" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="30">
+        <f t="shared" ref="BH18" si="49">SUM(BD18,BF18)</f>
+        <v>125</v>
+      </c>
+      <c r="BI18" s="30">
+        <f t="shared" ref="BI18" si="50">SUM(BE18,BG18)</f>
+        <v>128</v>
+      </c>
+      <c r="BJ18" s="30">
+        <f t="shared" si="10"/>
+        <v>476</v>
+      </c>
+      <c r="BK18" s="30">
+        <f t="shared" si="11"/>
+        <v>460</v>
+      </c>
     </row>
-    <row r="19" spans="52:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="AZ19" s="30"/>
       <c r="BA19" s="30"/>
       <c r="BB19" s="30"/>
@@ -37644,7 +38649,7 @@
       <c r="BF19" s="30"/>
       <c r="BG19" s="30"/>
     </row>
-    <row r="20" spans="52:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="AZ20" s="30"/>
       <c r="BA20" s="30"/>
       <c r="BB20" s="30"/>
@@ -37662,15 +38667,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="18" customWidth="1"/>
+    <col min="1" max="1" width="39.375" style="18" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="18" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="18" bestFit="1" customWidth="1"/>
@@ -37889,19 +38894,19 @@
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>683</v>
+        <v>800</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AP$2:$AP$1048576,$AR$2:$AR$1048576)</f>
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>2468</v>
+        <v>2904</v>
       </c>
       <c r="BP1" s="25">
         <f>SUM($AV$2:$AV$1048576)</f>
-        <v>2280</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -38057,43 +39062,43 @@
         <v>194</v>
       </c>
       <c r="BA2" s="25">
-        <f t="shared" ref="BA2:BA10" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
         <v>38</v>
       </c>
       <c r="BB2" s="25">
-        <f t="shared" ref="BB2:BB10" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
         <v>152</v>
       </c>
       <c r="BC2" s="25">
-        <f t="shared" ref="BC2:BC10" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
         <v>1529.5400999999999</v>
       </c>
       <c r="BD2" s="25">
-        <f t="shared" ref="BD2" si="4">BC2/BA2</f>
+        <f t="shared" ref="BD2" si="1">BC2/BA2</f>
         <v>40.251055263157895</v>
       </c>
       <c r="BE2" s="25">
-        <f t="shared" ref="BE2:BE10" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>22</v>
       </c>
       <c r="BF2" s="25">
-        <f t="shared" ref="BF2:BF10" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>16</v>
       </c>
       <c r="BG2" s="25">
-        <f t="shared" ref="BG2:BG10" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="25">
-        <f t="shared" ref="BH2:BH10" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI2" s="25">
-        <f t="shared" ref="BI2:BJ2" si="9">SUM(BE2,BG2)</f>
+        <f t="shared" ref="BI2:BJ2" si="2">SUM(BE2,BG2)</f>
         <v>22</v>
       </c>
       <c r="BJ2" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="BK2" s="30">
@@ -38262,51 +39267,51 @@
         <v>194</v>
       </c>
       <c r="BA3" s="29">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AF$2:$AF$1048576)</f>
         <v>159</v>
       </c>
       <c r="BB3" s="29">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AW$2:$AW$1048576)</f>
         <v>620</v>
       </c>
       <c r="BC3" s="29">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AG$2:$AG$1048576)*60</f>
         <v>2539.9568999999997</v>
       </c>
       <c r="BD3" s="29">
-        <f t="shared" ref="BD3" si="10">BC3/BA3</f>
+        <f t="shared" ref="BD3" si="3">BC3/BA3</f>
         <v>15.974571698113206</v>
       </c>
       <c r="BE3" s="29">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AO$2:$AO$1048576)</f>
         <v>85</v>
       </c>
       <c r="BF3" s="29">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AP$2:$AP$1048576)</f>
         <v>70</v>
       </c>
       <c r="BG3" s="29">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH3" s="29">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI3" s="29">
-        <f t="shared" ref="BI3" si="11">SUM(BE3,BG3)</f>
+        <f t="shared" ref="BI3" si="4">SUM(BE3,BG3)</f>
         <v>85</v>
       </c>
       <c r="BJ3" s="29">
-        <f t="shared" ref="BJ3" si="12">SUM(BF3,BH3)</f>
+        <f t="shared" ref="BJ3" si="5">SUM(BF3,BH3)</f>
         <v>70</v>
       </c>
       <c r="BK3" s="29">
-        <f t="shared" ref="BK3:BK10" si="13">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>340</v>
       </c>
       <c r="BL3" s="29">
-        <f t="shared" ref="BL3:BL10" si="14">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f>SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>280</v>
       </c>
     </row>
@@ -38463,51 +39468,51 @@
         <v>194</v>
       </c>
       <c r="BA4" s="29">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AF$2:$AF$1048576)</f>
         <v>298</v>
       </c>
       <c r="BB4" s="29">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AW$2:$AW$1048576)</f>
         <v>1140</v>
       </c>
       <c r="BC4" s="29">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AG$2:$AG$1048576)*60</f>
         <v>1678.494199999998</v>
       </c>
       <c r="BD4" s="29">
-        <f t="shared" ref="BD4" si="15">BC4/BA4</f>
+        <f t="shared" ref="BD4" si="6">BC4/BA4</f>
         <v>5.6325308724832146</v>
       </c>
       <c r="BE4" s="29">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AO$2:$AO$1048576)</f>
         <v>176</v>
       </c>
       <c r="BF4" s="29">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AP$2:$AP$1048576)</f>
         <v>109</v>
       </c>
       <c r="BG4" s="29">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH4" s="29">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI4" s="29">
-        <f t="shared" ref="BI4" si="16">SUM(BE4,BG4)</f>
+        <f t="shared" ref="BI4" si="7">SUM(BE4,BG4)</f>
         <v>176</v>
       </c>
       <c r="BJ4" s="29">
-        <f t="shared" ref="BJ4" si="17">SUM(BF4,BH4)</f>
+        <f t="shared" ref="BJ4" si="8">SUM(BF4,BH4)</f>
         <v>109</v>
       </c>
       <c r="BK4" s="29">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AU$2:$AU$1048576)</f>
         <v>704</v>
       </c>
       <c r="BL4" s="29">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B4,$AV$2:$AV$1048576)</f>
         <v>436</v>
       </c>
     </row>
@@ -38664,51 +39669,51 @@
         <v>221</v>
       </c>
       <c r="BA5" s="29">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AF$2:$AF$1048576)</f>
         <v>450</v>
       </c>
       <c r="BB5" s="29">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AW$2:$AW$1048576)</f>
         <v>936</v>
       </c>
       <c r="BC5" s="29">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AG$2:$AG$1048576)*60</f>
         <v>2580.6671999999999</v>
       </c>
       <c r="BD5" s="29">
-        <f t="shared" ref="BD5" si="18">BC5/BA5</f>
+        <f t="shared" ref="BD5" si="9">BC5/BA5</f>
         <v>5.7348159999999995</v>
       </c>
       <c r="BE5" s="29">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AO$2:$AO$1048576)</f>
         <v>115</v>
       </c>
       <c r="BF5" s="29">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AP$2:$AP$1048576)</f>
         <v>119</v>
       </c>
       <c r="BG5" s="29">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH5" s="29">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI5" s="29">
-        <f t="shared" ref="BI5" si="19">SUM(BE5,BG5)</f>
+        <f t="shared" ref="BI5" si="10">SUM(BE5,BG5)</f>
         <v>115</v>
       </c>
       <c r="BJ5" s="29">
-        <f t="shared" ref="BJ5" si="20">SUM(BF5,BH5)</f>
+        <f t="shared" ref="BJ5" si="11">SUM(BF5,BH5)</f>
         <v>119</v>
       </c>
       <c r="BK5" s="29">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AU$2:$AU$1048576)</f>
         <v>460</v>
       </c>
       <c r="BL5" s="29">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B5,$AV$2:$AV$1048576)</f>
         <v>476</v>
       </c>
     </row>
@@ -38865,51 +39870,51 @@
         <v>221</v>
       </c>
       <c r="BA6" s="29">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AF$2:$AF$1048576)</f>
         <v>305</v>
       </c>
       <c r="BB6" s="29">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AW$2:$AW$1048576)</f>
         <v>652</v>
       </c>
       <c r="BC6" s="29">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AG$2:$AG$1048576)*60</f>
         <v>2605.6627000000021</v>
       </c>
       <c r="BD6" s="29">
-        <f t="shared" ref="BD6" si="21">BC6/BA6</f>
+        <f t="shared" ref="BD6" si="12">BC6/BA6</f>
         <v>8.5431563934426293</v>
       </c>
       <c r="BE6" s="29">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AO$2:$AO$1048576)</f>
         <v>98</v>
       </c>
       <c r="BF6" s="29">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AP$2:$AP$1048576)</f>
         <v>101</v>
       </c>
       <c r="BG6" s="29">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH6" s="29">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI6" s="29">
-        <f t="shared" ref="BI6" si="22">SUM(BE6,BG6)</f>
+        <f t="shared" ref="BI6" si="13">SUM(BE6,BG6)</f>
         <v>98</v>
       </c>
       <c r="BJ6" s="29">
-        <f t="shared" ref="BJ6" si="23">SUM(BF6,BH6)</f>
+        <f t="shared" ref="BJ6" si="14">SUM(BF6,BH6)</f>
         <v>101</v>
       </c>
       <c r="BK6" s="29">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AU$2:$AU$1048576)</f>
         <v>348</v>
       </c>
       <c r="BL6" s="29">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B6,$AV$2:$AV$1048576)</f>
         <v>304</v>
       </c>
     </row>
@@ -39069,51 +40074,51 @@
         <v>280</v>
       </c>
       <c r="BA7" s="52">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AF$2:$AF$1048576)</f>
         <v>223</v>
       </c>
       <c r="BB7" s="52">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AW$2:$AW$1048576)</f>
         <v>560</v>
       </c>
       <c r="BC7" s="52">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AG$2:$AG$1048576)*60</f>
         <v>2919.3263999999999</v>
       </c>
       <c r="BD7" s="52">
-        <f t="shared" ref="BD7" si="24">BC7/BA7</f>
+        <f t="shared" ref="BD7" si="15">BC7/BA7</f>
         <v>13.091149775784753</v>
       </c>
       <c r="BE7" s="52">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AO$2:$AO$1048576)</f>
         <v>82</v>
       </c>
       <c r="BF7" s="52">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AP$2:$AP$1048576)</f>
         <v>83</v>
       </c>
       <c r="BG7" s="52">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH7" s="52">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI7" s="52">
-        <f t="shared" ref="BI7" si="25">SUM(BE7,BG7)</f>
+        <f t="shared" ref="BI7" si="16">SUM(BE7,BG7)</f>
         <v>82</v>
       </c>
       <c r="BJ7" s="52">
-        <f t="shared" ref="BJ7" si="26">SUM(BF7,BH7)</f>
+        <f t="shared" ref="BJ7" si="17">SUM(BF7,BH7)</f>
         <v>83</v>
       </c>
       <c r="BK7" s="18">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AU$2:$AU$1048576)</f>
         <v>252</v>
       </c>
       <c r="BL7" s="18">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B7,$AV$2:$AV$1048576)</f>
         <v>308</v>
       </c>
     </row>
@@ -39273,51 +40278,51 @@
         <v>280</v>
       </c>
       <c r="BA8" s="30">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AF$2:$AF$1048576)</f>
         <v>223</v>
       </c>
       <c r="BB8" s="30">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AW$2:$AW$1048576)</f>
         <v>560</v>
       </c>
       <c r="BC8" s="30">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AG$2:$AG$1048576)*60</f>
         <v>2919.3263999999999</v>
       </c>
       <c r="BD8" s="30">
-        <f t="shared" ref="BD8" si="27">BC8/BA8</f>
+        <f t="shared" ref="BD8" si="18">BC8/BA8</f>
         <v>13.091149775784753</v>
       </c>
       <c r="BE8" s="30">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AO$2:$AO$1048576)</f>
         <v>82</v>
       </c>
       <c r="BF8" s="30">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AP$2:$AP$1048576)</f>
         <v>83</v>
       </c>
       <c r="BG8" s="30">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH8" s="30">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI8" s="30">
-        <f t="shared" ref="BI8" si="28">SUM(BE8,BG8)</f>
+        <f t="shared" ref="BI8" si="19">SUM(BE8,BG8)</f>
         <v>82</v>
       </c>
       <c r="BJ8" s="30">
-        <f t="shared" ref="BJ8" si="29">SUM(BF8,BH8)</f>
+        <f t="shared" ref="BJ8" si="20">SUM(BF8,BH8)</f>
         <v>83</v>
       </c>
       <c r="BK8" s="30">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AU$2:$AU$1048576)</f>
         <v>252</v>
       </c>
       <c r="BL8" s="30">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B8,$AV$2:$AV$1048576)</f>
         <v>308</v>
       </c>
     </row>
@@ -39477,277 +40482,1478 @@
         <v>280</v>
       </c>
       <c r="BA9" s="25">
-        <f t="shared" si="1"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AF$2:$AF$1048576)</f>
         <v>223</v>
       </c>
       <c r="BB9" s="25">
-        <f t="shared" si="2"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AW$2:$AW$1048576)</f>
         <v>560</v>
       </c>
       <c r="BC9" s="25">
-        <f t="shared" si="3"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AG$2:$AG$1048576)*60</f>
         <v>2919.3263999999999</v>
       </c>
       <c r="BD9" s="25">
-        <f t="shared" ref="BD9:BD10" si="30">BC9/BA9</f>
+        <f t="shared" ref="BD9:BD10" si="21">BC9/BA9</f>
         <v>13.091149775784753</v>
       </c>
       <c r="BE9" s="25">
-        <f t="shared" si="5"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AO$2:$AO$1048576)</f>
         <v>82</v>
       </c>
       <c r="BF9" s="25">
-        <f t="shared" si="6"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AP$2:$AP$1048576)</f>
         <v>83</v>
       </c>
       <c r="BG9" s="25">
-        <f t="shared" si="7"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH9" s="25">
-        <f t="shared" si="8"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI9" s="25">
-        <f t="shared" ref="BI9:BI10" si="31">SUM(BE9,BG9)</f>
+        <f t="shared" ref="BI9:BI10" si="22">SUM(BE9,BG9)</f>
         <v>82</v>
       </c>
       <c r="BJ9" s="25">
-        <f t="shared" ref="BJ9:BJ10" si="32">SUM(BF9,BH9)</f>
+        <f t="shared" ref="BJ9:BJ10" si="23">SUM(BF9,BH9)</f>
         <v>83</v>
       </c>
       <c r="BK9" s="25">
-        <f t="shared" si="13"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AU$2:$AU$1048576)</f>
         <v>252</v>
       </c>
       <c r="BL9" s="25">
-        <f t="shared" si="14"/>
+        <f>SUMIF($B$2:$B$1048576,$B9,$AV$2:$AV$1048576)</f>
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:68" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="29">
         <v>1000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="29">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
         <v>3</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
         <v>2</v>
       </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="29">
         <v>3</v>
       </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="M10" s="29">
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
         <v>0.2</v>
       </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
         <v>0.5</v>
       </c>
-      <c r="S10" s="18">
-        <v>1</v>
-      </c>
-      <c r="T10" s="18">
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <v>1</v>
-      </c>
-      <c r="V10" s="18">
-        <v>1</v>
-      </c>
-      <c r="W10" s="18">
-        <v>1</v>
-      </c>
-      <c r="X10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="18">
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
+      <c r="T10" s="29">
+        <v>1</v>
+      </c>
+      <c r="U10" s="29">
+        <v>1</v>
+      </c>
+      <c r="V10" s="29">
+        <v>1</v>
+      </c>
+      <c r="W10" s="29">
+        <v>1</v>
+      </c>
+      <c r="X10" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="29">
         <v>4</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="29">
         <v>4</v>
       </c>
-      <c r="AA10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="18">
+      <c r="AA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
         <v>5</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="29">
         <v>236</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="29">
         <v>36.100871666666698</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="37">
         <v>0.65921787709497204</v>
       </c>
-      <c r="AI10" s="41" t="s">
+      <c r="AI10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="41">
+      <c r="AJ10" s="37">
         <v>0.62019230769230804</v>
       </c>
-      <c r="AK10" s="41">
+      <c r="AK10" s="37">
         <v>0.71333333333333304</v>
       </c>
-      <c r="AL10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="18">
+      <c r="AL10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="29">
         <v>129</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AN10" s="29">
         <v>107</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO10" s="29">
         <v>105</v>
       </c>
-      <c r="AP10" s="18">
+      <c r="AP10" s="29">
         <v>104</v>
       </c>
-      <c r="AQ10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="42" t="s">
+      <c r="AQ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AT10" s="41">
+      <c r="AT10" s="37">
         <v>0.88559322033898302</v>
       </c>
-      <c r="AU10" s="18">
+      <c r="AU10" s="29">
         <v>276</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AV10" s="29">
         <v>412</v>
       </c>
-      <c r="AW10" s="18">
+      <c r="AW10" s="29">
         <v>688</v>
       </c>
-      <c r="AY10" s="30" t="str">
-        <f t="shared" ref="AY10" si="33">B10</f>
+      <c r="AY10" s="29" t="str">
+        <f t="shared" ref="AY10" si="24">B10</f>
         <v>'20201124'</v>
       </c>
-      <c r="AZ10" s="30" t="s">
+      <c r="AZ10" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="BA10" s="30">
-        <f t="shared" si="1"/>
+      <c r="BA10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AF$2:$AF$1048576)</f>
         <v>236</v>
       </c>
-      <c r="BB10" s="30">
-        <f t="shared" si="2"/>
+      <c r="BB10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AW$2:$AW$1048576)</f>
         <v>688</v>
       </c>
-      <c r="BC10" s="30">
-        <f t="shared" si="3"/>
+      <c r="BC10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AG$2:$AG$1048576)*60</f>
         <v>2166.0523000000021</v>
       </c>
-      <c r="BD10" s="30">
-        <f t="shared" si="30"/>
+      <c r="BD10" s="29">
+        <f t="shared" si="21"/>
         <v>9.1781877118644157</v>
       </c>
-      <c r="BE10" s="30">
-        <f t="shared" si="5"/>
+      <c r="BE10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AO$2:$AO$1048576)</f>
         <v>105</v>
       </c>
-      <c r="BF10" s="30">
-        <f t="shared" si="6"/>
+      <c r="BF10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AP$2:$AP$1048576)</f>
         <v>104</v>
       </c>
-      <c r="BG10" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH10" s="30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BI10" s="30">
-        <f t="shared" si="31"/>
+      <c r="BG10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AR$2:$AR$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="29">
+        <f t="shared" si="22"/>
         <v>105</v>
       </c>
-      <c r="BJ10" s="30">
-        <f t="shared" si="32"/>
+      <c r="BJ10" s="29">
+        <f t="shared" si="23"/>
         <v>104</v>
       </c>
-      <c r="BK10" s="30">
-        <f t="shared" si="13"/>
+      <c r="BK10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AU$2:$AU$1048576)</f>
         <v>276</v>
       </c>
-      <c r="BL10" s="30">
-        <f t="shared" si="14"/>
+      <c r="BL10" s="29">
+        <f>SUMIF($B$2:$B$1048576,$B10,$AV$2:$AV$1048576)</f>
         <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
+      <c r="A11" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>3</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="18">
+        <v>1</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>0.93689166666666701</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="AI11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT11" s="41">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AU11" s="18">
+        <v>8</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>8</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>16</v>
+      </c>
+      <c r="AY11" s="18" t="str">
+        <f t="shared" ref="AY11:AY14" si="25">B11</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ11" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA11" s="30">
+        <f t="shared" ref="BA11:BA16" si="26">SUMIF($B$2:$B$1048576,$B11,$AF$2:$AF$1048576)</f>
+        <v>269</v>
+      </c>
+      <c r="BB11" s="30">
+        <f t="shared" ref="BB11:BB16" si="27">SUMIF($B$2:$B$1048576,$B11,$AW$2:$AW$1048576)</f>
+        <v>876</v>
+      </c>
+      <c r="BC11" s="30">
+        <f t="shared" ref="BC11:BC16" si="28">SUMIF($B$2:$B$1048576,$B11,$AG$2:$AG$1048576)*60</f>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD11" s="30">
+        <f t="shared" ref="BD11:BD14" si="29">BC11/BA11</f>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE11" s="30">
+        <f t="shared" ref="BE11:BE16" si="30">SUMIF($B$2:$B$1048576,$B11,$AO$2:$AO$1048576)</f>
+        <v>117</v>
+      </c>
+      <c r="BF11" s="30">
+        <f t="shared" ref="BF11:BF16" si="31">SUMIF($B$2:$B$1048576,$B11,$AP$2:$AP$1048576)</f>
+        <v>114</v>
+      </c>
+      <c r="BG11" s="30">
+        <f t="shared" ref="BG11:BG16" si="32">SUMIF($B$2:$B$1048576,$B11,$AQ$2:$AQ$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="30">
+        <f t="shared" ref="BH11:BH16" si="33">SUMIF($B$2:$B$1048576,$B11,$AR$2:$AR$1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="18">
+        <f t="shared" ref="BI11:BI14" si="34">SUM(BE11,BG11)</f>
+        <v>117</v>
+      </c>
+      <c r="BJ11" s="18">
+        <f t="shared" ref="BJ11:BJ14" si="35">SUM(BF11,BH11)</f>
+        <v>114</v>
+      </c>
+      <c r="BK11" s="18">
+        <f t="shared" ref="BK11:BK16" si="36">SUMIF($B$2:$B$1048576,$B11,$AU$2:$AU$1048576)</f>
+        <v>436</v>
+      </c>
+      <c r="BL11" s="18">
+        <f t="shared" ref="BL11:BL16" si="37">SUMIF($B$2:$B$1048576,$B11,$AV$2:$AV$1048576)</f>
+        <v>440</v>
+      </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BA12" s="30"/>
-      <c r="BB12" s="30"/>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="30"/>
+      <c r="A12" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="18">
+        <v>1</v>
+      </c>
+      <c r="T12" s="18">
+        <v>1</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18">
+        <v>1</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>24</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>4.7610783333333302</v>
+      </c>
+      <c r="AH12" s="41">
+        <v>0.64864864864864902</v>
+      </c>
+      <c r="AI12" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ12" s="41">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="AK12" s="41">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>13</v>
+      </c>
+      <c r="AN12" s="18">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="18">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="18">
+        <v>11</v>
+      </c>
+      <c r="AQ12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT12" s="41">
+        <v>0.875</v>
+      </c>
+      <c r="AU12" s="18">
+        <v>40</v>
+      </c>
+      <c r="AV12" s="18">
+        <v>44</v>
+      </c>
+      <c r="AW12" s="18">
+        <v>84</v>
+      </c>
+      <c r="AY12" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ12" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA12" s="30">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="BB12" s="30">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="BC12" s="30">
+        <f t="shared" si="28"/>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD12" s="30">
+        <f t="shared" si="29"/>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE12" s="30">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="BF12" s="30">
+        <f t="shared" si="31"/>
+        <v>114</v>
+      </c>
+      <c r="BG12" s="30">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="30">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="18">
+        <f t="shared" si="34"/>
+        <v>117</v>
+      </c>
+      <c r="BJ12" s="18">
+        <f t="shared" si="35"/>
+        <v>114</v>
+      </c>
+      <c r="BK12" s="18">
+        <f t="shared" si="36"/>
+        <v>436</v>
+      </c>
+      <c r="BL12" s="18">
+        <f t="shared" si="37"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>3</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="18">
+        <v>1</v>
+      </c>
+      <c r="T13" s="18">
+        <v>1</v>
+      </c>
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18">
+        <v>1</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>14</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>1.97628</v>
+      </c>
+      <c r="AH13" s="41">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="AI13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ13" s="41">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="AK13" s="41">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>8</v>
+      </c>
+      <c r="AN13" s="18">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="18">
+        <v>6</v>
+      </c>
+      <c r="AP13" s="18">
+        <v>5</v>
+      </c>
+      <c r="AQ13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT13" s="41">
+        <v>0.78571428571428603</v>
+      </c>
+      <c r="AU13" s="18">
+        <v>24</v>
+      </c>
+      <c r="AV13" s="18">
+        <v>20</v>
+      </c>
+      <c r="AW13" s="18">
+        <v>44</v>
+      </c>
+      <c r="AY13" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ13" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA13" s="18">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="BB13" s="18">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="BC13" s="18">
+        <f t="shared" si="28"/>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD13" s="18">
+        <f t="shared" si="29"/>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE13" s="18">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="BF13" s="18">
+        <f t="shared" si="31"/>
+        <v>114</v>
+      </c>
+      <c r="BG13" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="18">
+        <f t="shared" si="34"/>
+        <v>117</v>
+      </c>
+      <c r="BJ13" s="18">
+        <f t="shared" si="35"/>
+        <v>114</v>
+      </c>
+      <c r="BK13" s="18">
+        <f t="shared" si="36"/>
+        <v>436</v>
+      </c>
+      <c r="BL13" s="18">
+        <f t="shared" si="37"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>3</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="18">
+        <v>3</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18">
+        <v>1</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="18">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="18">
+        <v>1.6923049999999999</v>
+      </c>
+      <c r="AH14" s="41">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="AI14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="AK14" s="41">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="18">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT14" s="41">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AU14" s="18">
+        <v>20</v>
+      </c>
+      <c r="AV14" s="18">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="18">
+        <v>32</v>
+      </c>
+      <c r="AY14" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ14" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA14" s="18">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="BB14" s="18">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="BC14" s="18">
+        <f t="shared" si="28"/>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD14" s="18">
+        <f t="shared" si="29"/>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE14" s="18">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="BF14" s="18">
+        <f t="shared" si="31"/>
+        <v>114</v>
+      </c>
+      <c r="BG14" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="18">
+        <f t="shared" si="34"/>
+        <v>117</v>
+      </c>
+      <c r="BJ14" s="18">
+        <f t="shared" si="35"/>
+        <v>114</v>
+      </c>
+      <c r="BK14" s="18">
+        <f t="shared" si="36"/>
+        <v>436</v>
+      </c>
+      <c r="BL14" s="18">
+        <f t="shared" si="37"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>4</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>3</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>2</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>3</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S15" s="18">
+        <v>1</v>
+      </c>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18">
+        <v>1</v>
+      </c>
+      <c r="W15" s="18">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="18">
+        <v>0.49060166666666699</v>
+      </c>
+      <c r="AH15" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="AI15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="AK15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT15" s="41">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="18">
+        <v>8</v>
+      </c>
+      <c r="AV15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AW15" s="18">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="18" t="str">
+        <f t="shared" ref="AY15:AY16" si="38">B15</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ15" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA15" s="18">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="BB15" s="18">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="BC15" s="18">
+        <f t="shared" si="28"/>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD15" s="18">
+        <f t="shared" ref="BD15:BD16" si="39">BC15/BA15</f>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE15" s="18">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="BF15" s="18">
+        <f t="shared" si="31"/>
+        <v>114</v>
+      </c>
+      <c r="BG15" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="18">
+        <f t="shared" ref="BI15:BI16" si="40">SUM(BE15,BG15)</f>
+        <v>117</v>
+      </c>
+      <c r="BJ15" s="18">
+        <f t="shared" ref="BJ15:BJ16" si="41">SUM(BF15,BH15)</f>
+        <v>114</v>
+      </c>
+      <c r="BK15" s="18">
+        <f t="shared" si="36"/>
+        <v>436</v>
+      </c>
+      <c r="BL15" s="18">
+        <f t="shared" si="37"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>3</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18">
+        <v>3</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="18">
+        <v>3</v>
+      </c>
+      <c r="S16" s="18">
+        <v>1</v>
+      </c>
+      <c r="T16" s="18">
+        <v>1</v>
+      </c>
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1</v>
+      </c>
+      <c r="W16" s="18">
+        <v>1</v>
+      </c>
+      <c r="X16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="18">
+        <v>212</v>
+      </c>
+      <c r="AG16" s="18">
+        <v>28.295276666666702</v>
+      </c>
+      <c r="AH16" s="41">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="AI16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="41">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="AK16" s="41">
+        <v>0.76377952755905498</v>
+      </c>
+      <c r="AL16" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="18">
+        <v>115</v>
+      </c>
+      <c r="AN16" s="18">
+        <v>97</v>
+      </c>
+      <c r="AO16" s="18">
+        <v>92</v>
+      </c>
+      <c r="AP16" s="18">
+        <v>92</v>
+      </c>
+      <c r="AQ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT16" s="42">
+        <v>0.86792452830188704</v>
+      </c>
+      <c r="AU16" s="18">
+        <v>336</v>
+      </c>
+      <c r="AV16" s="18">
+        <v>352</v>
+      </c>
+      <c r="AW16" s="18">
+        <v>688</v>
+      </c>
+      <c r="AY16" s="18" t="str">
+        <f t="shared" si="38"/>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ16" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA16" s="18">
+        <f t="shared" si="26"/>
+        <v>269</v>
+      </c>
+      <c r="BB16" s="18">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="BC16" s="18">
+        <f t="shared" si="28"/>
+        <v>2289.1460000000015</v>
+      </c>
+      <c r="BD16" s="18">
+        <f t="shared" si="39"/>
+        <v>8.5098364312267716</v>
+      </c>
+      <c r="BE16" s="18">
+        <f t="shared" si="30"/>
+        <v>117</v>
+      </c>
+      <c r="BF16" s="18">
+        <f t="shared" si="31"/>
+        <v>114</v>
+      </c>
+      <c r="BG16" s="18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="18">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="18">
+        <f t="shared" si="40"/>
+        <v>117</v>
+      </c>
+      <c r="BJ16" s="18">
+        <f t="shared" si="41"/>
+        <v>114</v>
+      </c>
+      <c r="BK16" s="18">
+        <f t="shared" si="36"/>
+        <v>436</v>
+      </c>
+      <c r="BL16" s="18">
+        <f t="shared" si="37"/>
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BpodInfoseekLog.xlsx
+++ b/BpodInfoseekLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="5520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JB366" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="316">
   <si>
     <t>'JB366_Infoseek_20201021_101114.mat'</t>
   </si>
@@ -977,6 +977,12 @@
   <si>
     <t>'JB375_InfoseekTimeout_20201125_142955.mat'</t>
   </si>
+  <si>
+    <t>'JB376_InfoseekTimeout_20201125_154100.mat'</t>
+  </si>
+  <si>
+    <t>'JB370_InfoseekTimeout_20201125_163036.mat'</t>
+  </si>
 </sst>
 </file>
 
@@ -8621,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8844,19 +8850,19 @@
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>485</v>
+        <v>587</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AP$2:$AP$1048576,$AR$2:$AR$1048576)</f>
-        <v>489</v>
+        <v>592</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>1932</v>
+        <v>2332</v>
       </c>
       <c r="BP1" s="25">
         <f>SUM($AV$2:$AV$1048576)</f>
-        <v>1804</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -9012,15 +9018,15 @@
         <v>194</v>
       </c>
       <c r="BA2" s="30">
-        <f t="shared" ref="BA2:BA10" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
+        <f t="shared" ref="BA2:BA11" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
         <v>11</v>
       </c>
       <c r="BB2" s="30">
-        <f t="shared" ref="BB2:BB10" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
+        <f t="shared" ref="BB2:BB11" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
         <v>24</v>
       </c>
       <c r="BC2" s="30">
-        <f t="shared" ref="BC2:BC10" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
+        <f t="shared" ref="BC2:BC11" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
         <v>561.29329999999993</v>
       </c>
       <c r="BD2" s="30">
@@ -9028,19 +9034,19 @@
         <v>51.026663636363629</v>
       </c>
       <c r="BE2" s="30">
-        <f t="shared" ref="BE2:BE10" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE11" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>4</v>
       </c>
       <c r="BF2" s="30">
-        <f t="shared" ref="BF2:BF10" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF11" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>7</v>
       </c>
       <c r="BG2" s="30">
-        <f t="shared" ref="BG2:BG10" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG11" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="30">
-        <f t="shared" ref="BH2:BH10" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
+        <f t="shared" ref="BH2:BH11" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI2" s="30">
@@ -9253,11 +9259,11 @@
         <v>7</v>
       </c>
       <c r="BK3" s="25">
-        <f t="shared" ref="BK3:BK10" si="14">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK11" si="14">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>8</v>
       </c>
       <c r="BL3" s="25">
-        <f t="shared" ref="BL3:BL10" si="15">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BL3:BL11" si="15">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>16</v>
       </c>
     </row>
@@ -10473,219 +10479,413 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:68" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="29">
         <v>1000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="29">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
         <v>3</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
         <v>3</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="29">
         <v>2</v>
       </c>
-      <c r="L10" s="18">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0</v>
+      </c>
+      <c r="N10" s="29">
         <v>0.2</v>
       </c>
-      <c r="O10" s="18">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18">
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
         <v>0.8</v>
       </c>
-      <c r="S10" s="18">
-        <v>1</v>
-      </c>
-      <c r="T10" s="18">
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <v>1</v>
-      </c>
-      <c r="V10" s="18">
-        <v>1</v>
-      </c>
-      <c r="W10" s="18">
-        <v>1</v>
-      </c>
-      <c r="X10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="18">
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
+      <c r="T10" s="29">
+        <v>1</v>
+      </c>
+      <c r="U10" s="29">
+        <v>1</v>
+      </c>
+      <c r="V10" s="29">
+        <v>1</v>
+      </c>
+      <c r="W10" s="29">
+        <v>1</v>
+      </c>
+      <c r="X10" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="29">
         <v>4</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="29">
         <v>4</v>
       </c>
-      <c r="AA10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="18">
+      <c r="AA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
         <v>5</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="29">
         <v>226</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="29">
         <v>38.108161666666703</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="37">
         <v>0.62258953168044096</v>
       </c>
-      <c r="AI10" s="41" t="s">
+      <c r="AI10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AJ10" s="41">
+      <c r="AJ10" s="37">
         <v>0.844444444444444</v>
       </c>
-      <c r="AK10" s="41">
+      <c r="AK10" s="37">
         <v>0.49122807017543901</v>
       </c>
-      <c r="AL10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="18">
+      <c r="AL10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="29">
         <v>114</v>
       </c>
-      <c r="AN10" s="18">
+      <c r="AN10" s="29">
         <v>112</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO10" s="29">
         <v>89</v>
       </c>
-      <c r="AP10" s="18">
+      <c r="AP10" s="29">
         <v>90</v>
       </c>
-      <c r="AQ10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="42" t="s">
+      <c r="AQ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AT10" s="41">
+      <c r="AT10" s="37">
         <v>0.79203539823008895</v>
       </c>
-      <c r="AU10" s="18">
+      <c r="AU10" s="29">
         <v>356</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AV10" s="29">
         <v>332</v>
       </c>
-      <c r="AW10" s="18">
+      <c r="AW10" s="29">
         <v>688</v>
       </c>
-      <c r="AY10" s="18" t="str">
+      <c r="AY10" s="29" t="str">
         <f t="shared" si="35"/>
         <v>'20201124'</v>
       </c>
-      <c r="AZ10" s="18" t="s">
+      <c r="AZ10" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="BA10" s="30">
+      <c r="BA10" s="29">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="BB10" s="30">
+      <c r="BB10" s="29">
         <f t="shared" si="2"/>
         <v>688</v>
       </c>
-      <c r="BC10" s="30">
+      <c r="BC10" s="29">
         <f t="shared" si="3"/>
         <v>2286.4897000000024</v>
       </c>
-      <c r="BD10" s="30">
+      <c r="BD10" s="29">
         <f t="shared" si="36"/>
         <v>10.117211061946913</v>
       </c>
-      <c r="BE10" s="30">
+      <c r="BE10" s="29">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="BF10" s="30">
+      <c r="BF10" s="29">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="BG10" s="30">
+      <c r="BG10" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BH10" s="30">
+      <c r="BH10" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BI10" s="18">
+      <c r="BI10" s="29">
         <f t="shared" si="37"/>
         <v>89</v>
       </c>
-      <c r="BJ10" s="18">
+      <c r="BJ10" s="29">
         <f t="shared" si="38"/>
         <v>90</v>
       </c>
-      <c r="BK10" s="18">
+      <c r="BK10" s="29">
         <f t="shared" si="14"/>
         <v>356</v>
       </c>
-      <c r="BL10" s="18">
+      <c r="BL10" s="29">
         <f t="shared" si="15"/>
         <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="30"/>
-      <c r="BC11" s="30"/>
-      <c r="BD11" s="30"/>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
+      <c r="A11" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>3</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="18">
+        <v>1</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>234</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>47.369745000000002</v>
+      </c>
+      <c r="AH11" s="41">
+        <v>0.75483870967741895</v>
+      </c>
+      <c r="AI11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ11" s="41">
+        <v>0.88549618320610701</v>
+      </c>
+      <c r="AK11" s="41">
+        <v>0.65921787709497204</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>116</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>118</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>102</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>103</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT11" s="41">
+        <v>0.87606837606837595</v>
+      </c>
+      <c r="AU11" s="18">
+        <v>400</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>324</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>724</v>
+      </c>
+      <c r="AY11" s="29" t="str">
+        <f t="shared" ref="AY11" si="39">B11</f>
+        <v>'20201125'</v>
+      </c>
+      <c r="AZ11" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA11" s="29">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="BB11" s="29">
+        <f t="shared" si="2"/>
+        <v>724</v>
+      </c>
+      <c r="BC11" s="29">
+        <f t="shared" si="3"/>
+        <v>2842.1847000000002</v>
+      </c>
+      <c r="BD11" s="29">
+        <f t="shared" ref="BD11" si="40">BC11/BA11</f>
+        <v>12.146088461538463</v>
+      </c>
+      <c r="BE11" s="29">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="BF11" s="29">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="BG11" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="29">
+        <f t="shared" ref="BI11" si="41">SUM(BE11,BG11)</f>
+        <v>102</v>
+      </c>
+      <c r="BJ11" s="29">
+        <f t="shared" ref="BJ11" si="42">SUM(BF11,BH11)</f>
+        <v>103</v>
+      </c>
+      <c r="BK11" s="29">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="BL11" s="29">
+        <f t="shared" si="15"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="BA12" s="30"/>
@@ -23542,8 +23742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BQ19" sqref="BQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23758,19 +23958,19 @@
       </c>
       <c r="BM1" s="25">
         <f>SUM($AO$2:$AO$1048576,$AQ$2:$AQ$1048576)</f>
-        <v>702</v>
+        <v>819</v>
       </c>
       <c r="BN1" s="25">
         <f>SUM($AP$2:$AP$1048576,$AR$2:$AR$1048576)</f>
-        <v>611</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="25">
         <f>SUM($AU$2:$AU$1048576)</f>
-        <v>2724</v>
+        <v>3064</v>
       </c>
       <c r="BP1" s="25">
         <f>SUM($AV$2:$AV$1048576)</f>
-        <v>2352</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
@@ -23926,15 +24126,15 @@
         <v>184</v>
       </c>
       <c r="BA2" s="30">
-        <f t="shared" ref="BA2:BA18" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
+        <f t="shared" ref="BA2:BA19" si="1">SUMIF($B$2:$B$1048576,$B2,$AF$2:$AF$1048576)</f>
         <v>46</v>
       </c>
       <c r="BB2" s="30">
-        <f t="shared" ref="BB2:BB18" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
+        <f t="shared" ref="BB2:BB19" si="2">SUMIF($B$2:$B$1048576,$B2,$AW$2:$AW$1048576)</f>
         <v>180</v>
       </c>
       <c r="BC2" s="32">
-        <f t="shared" ref="BC2:BC18" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
+        <f t="shared" ref="BC2:BC19" si="3">SUMIF($B$2:$B$1048576,$B2,$AG$2:$AG$1048576)*60</f>
         <v>1484.8948000000019</v>
       </c>
       <c r="BD2" s="32">
@@ -23942,19 +24142,19 @@
         <v>32.280321739130478</v>
       </c>
       <c r="BE2" s="30">
-        <f t="shared" ref="BE2:BE18" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
+        <f t="shared" ref="BE2:BE19" si="5">SUMIF($B$2:$B$1048576,$B2,$AO$2:$AO$1048576)</f>
         <v>22</v>
       </c>
       <c r="BF2" s="30">
-        <f t="shared" ref="BF2:BF18" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
+        <f t="shared" ref="BF2:BF19" si="6">SUMIF($B$2:$B$1048576,$B2,$AP$2:$AP$1048576)</f>
         <v>23</v>
       </c>
       <c r="BG2" s="30">
-        <f t="shared" ref="BG2:BG18" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
+        <f t="shared" ref="BG2:BG19" si="7">SUMIF($B$2:$B$1048576,$B2,$AQ$2:$AQ$1048576)</f>
         <v>0</v>
       </c>
       <c r="BH2" s="30">
-        <f t="shared" ref="BH2:BH18" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
+        <f t="shared" ref="BH2:BH19" si="8">SUMIF($B$2:$B$1048576,$B2,$AR$2:$AR$1048576)</f>
         <v>0</v>
       </c>
       <c r="BI2" s="18">
@@ -24171,11 +24371,11 @@
         <v>23</v>
       </c>
       <c r="BK3" s="25">
-        <f t="shared" ref="BK3:BK18" si="10">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
+        <f t="shared" ref="BK3:BK19" si="10">SUMIF($B$2:$B$1048576,$B3,$AU$2:$AU$1048576)</f>
         <v>88</v>
       </c>
       <c r="BL3" s="25">
-        <f t="shared" ref="BL3:BL18" si="11">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
+        <f t="shared" ref="BL3:BL19" si="11">SUMIF($B$2:$B$1048576,$B3,$AV$2:$AV$1048576)</f>
         <v>92</v>
       </c>
     </row>
@@ -26996,219 +27196,413 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:64" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="29">
         <v>1000</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="29">
         <v>4</v>
       </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
         <v>2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="29">
         <v>3</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29">
         <v>3</v>
       </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
         <v>2</v>
       </c>
-      <c r="M18" s="18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="18">
+      <c r="M18" s="29">
+        <v>0</v>
+      </c>
+      <c r="N18" s="29">
         <v>0.2</v>
       </c>
-      <c r="O18" s="18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="O18" s="29">
+        <v>0</v>
+      </c>
+      <c r="P18" s="29">
         <v>0.2</v>
       </c>
-      <c r="Q18" s="18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="18">
-        <v>0</v>
-      </c>
-      <c r="S18" s="18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="18">
-        <v>1</v>
-      </c>
-      <c r="V18" s="18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="18">
-        <v>1</v>
-      </c>
-      <c r="X18" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="18">
+      <c r="Q18" s="29">
+        <v>0</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="29">
+        <v>1</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0</v>
+      </c>
+      <c r="U18" s="29">
+        <v>1</v>
+      </c>
+      <c r="V18" s="29">
+        <v>0</v>
+      </c>
+      <c r="W18" s="29">
+        <v>1</v>
+      </c>
+      <c r="X18" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="29">
         <v>5</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18" s="29">
         <v>321</v>
       </c>
-      <c r="AG18" s="18">
+      <c r="AG18" s="29">
         <v>35.313130000000001</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18" s="37">
         <v>0.45661450924608799</v>
       </c>
-      <c r="AI18" s="41" t="s">
+      <c r="AI18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AJ18" s="41">
+      <c r="AJ18" s="37">
         <v>0.412162162162162</v>
       </c>
-      <c r="AK18" s="41">
+      <c r="AK18" s="37">
         <v>0.53281853281853297</v>
       </c>
-      <c r="AL18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="18">
+      <c r="AL18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="29">
         <v>183</v>
       </c>
-      <c r="AN18" s="18">
+      <c r="AN18" s="29">
         <v>138</v>
       </c>
-      <c r="AO18" s="18">
+      <c r="AO18" s="29">
         <v>77</v>
       </c>
-      <c r="AP18" s="18">
+      <c r="AP18" s="29">
         <v>77</v>
       </c>
-      <c r="AQ18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="42" t="s">
+      <c r="AQ18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AT18" s="41">
+      <c r="AT18" s="37">
         <v>0.47975077881619899</v>
       </c>
-      <c r="AU18" s="18">
+      <c r="AU18" s="29">
         <v>304</v>
       </c>
-      <c r="AV18" s="18">
+      <c r="AV18" s="29">
         <v>308</v>
       </c>
-      <c r="AW18" s="18">
+      <c r="AW18" s="29">
         <v>612</v>
       </c>
-      <c r="AY18" s="25" t="str">
+      <c r="AY18" s="29" t="str">
         <f t="shared" ref="AY18" si="41">B18</f>
         <v>'20201124'</v>
       </c>
-      <c r="AZ18" s="25" t="s">
+      <c r="AZ18" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="BA18" s="25">
+      <c r="BA18" s="29">
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
-      <c r="BB18" s="25">
+      <c r="BB18" s="29">
         <f t="shared" si="2"/>
         <v>612</v>
       </c>
-      <c r="BC18" s="33">
+      <c r="BC18"